--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>Picture</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>http://www.amazon.com/Totally-Bamboo-20-8551-3-Tiered-Salt/dp/B008EQUORG/ref=sr_1_9?ie=UTF8&amp;qid=1421261696&amp;sr=8-9&amp;keywords=Olivewood+Salt+Keeper</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
   <si>
     <t>Suggested 10%</t>
@@ -470,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -568,24 +565,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -689,14 +675,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Валута" xfId="1" builtinId="4"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2603,314 +2586,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="438151" y="19421476"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>342901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Картина 44"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504826" y="21507451"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>390526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Картина 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438151" y="19421476"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>390526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Картина 47"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438151" y="19421476"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>390526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Картина 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438151" y="19421476"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>419101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Картина 49"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419101" y="22583776"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>390526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Картина 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438151" y="19421476"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>390526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Картина 51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438151" y="21659851"/>
           <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2968,9 +2643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3008,9 +2683,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3045,7 +2720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3080,7 +2755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3254,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="A72:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +2991,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>3</v>
@@ -3357,11 +3032,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="28">
-        <f>SUM(E2+F2)*0.17</f>
+        <f t="shared" ref="H2:H28" si="0">SUM(E2+F2)*0.17</f>
         <v>2.6346600000000002</v>
       </c>
       <c r="I2" s="34">
-        <f>SUM(E2:H2)</f>
+        <f t="shared" ref="I2:I33" si="1">SUM(E2:H2)</f>
         <v>18.132660000000001</v>
       </c>
       <c r="J2" s="22">
@@ -3373,11 +3048,11 @@
         <v>3.3292000000000002</v>
       </c>
       <c r="L2" s="29">
-        <f>E2+F2</f>
+        <f t="shared" ref="L2:L33" si="2">E2+F2</f>
         <v>15.497999999999999</v>
       </c>
       <c r="M2" s="37">
-        <f t="shared" ref="M2:M50" si="0">E2+K2+(10%*(E2+K2))</f>
+        <f t="shared" ref="M2:M50" si="3">E2+K2+(10%*(E2+K2))</f>
         <v>19.447120000000002</v>
       </c>
       <c r="N2" s="37">
@@ -3388,11 +3063,11 @@
         <v>0</v>
       </c>
       <c r="P2" s="32">
-        <f t="shared" ref="P2:P37" si="1">N2</f>
+        <f t="shared" ref="P2:P37" si="4">N2</f>
         <v>1.7679200000000002</v>
       </c>
       <c r="Q2" s="33">
-        <f t="shared" ref="Q2:Q15" si="2">O2*P2</f>
+        <f t="shared" ref="Q2:Q15" si="5">O2*P2</f>
         <v>0</v>
       </c>
       <c r="R2" s="38">
@@ -3419,52 +3094,52 @@
         <v>13.19</v>
       </c>
       <c r="F3" s="31">
-        <f t="shared" ref="F3:F50" si="3">E3*8%</f>
+        <f t="shared" ref="F3:F50" si="6">E3*8%</f>
         <v>1.0551999999999999</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="28">
-        <f>SUM(E3+F3)*0.17</f>
+        <f t="shared" si="0"/>
         <v>2.4216839999999999</v>
       </c>
       <c r="I3" s="34">
-        <f>SUM(E3:H3)</f>
+        <f t="shared" si="1"/>
         <v>16.666884</v>
       </c>
       <c r="J3" s="22">
         <v>17.989999999999998</v>
       </c>
       <c r="K3" s="28">
-        <f t="shared" ref="K3:K50" si="4">(E3*0.152)+F3</f>
+        <f t="shared" ref="K3:K50" si="7">(E3*0.152)+F3</f>
         <v>3.0600800000000001</v>
       </c>
       <c r="L3" s="29">
-        <f>E3+F3</f>
+        <f t="shared" si="2"/>
         <v>14.245199999999999</v>
       </c>
       <c r="M3" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.875088000000002</v>
       </c>
       <c r="N3" s="37">
-        <f t="shared" ref="N3:N50" si="5">J3-(E3+K3)</f>
+        <f t="shared" ref="N3:N50" si="8">J3-(E3+K3)</f>
         <v>1.7399199999999979</v>
       </c>
       <c r="O3" s="36">
         <v>1</v>
       </c>
       <c r="P3" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7399199999999979</v>
       </c>
       <c r="Q3" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7399199999999979</v>
       </c>
       <c r="R3" s="38">
-        <f t="shared" ref="R3:R50" si="6">N3/(E3+K3)</f>
+        <f t="shared" ref="R3:R50" si="9">N3/(E3+K3)</f>
         <v>0.10707147287890262</v>
       </c>
     </row>
@@ -3483,53 +3158,53 @@
         <v>16.95</v>
       </c>
       <c r="F4" s="31">
+        <f t="shared" si="6"/>
+        <v>1.3559999999999999</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <f t="shared" si="0"/>
+        <v>3.1120199999999998</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="1"/>
+        <v>21.418019999999999</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J50" si="10">M4</f>
+        <v>22.97064</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="7"/>
+        <v>3.9323999999999999</v>
+      </c>
+      <c r="L4" s="29">
+        <f t="shared" si="2"/>
+        <v>18.305999999999997</v>
+      </c>
+      <c r="M4" s="37">
         <f t="shared" si="3"/>
-        <v>1.3559999999999999</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
-        <f>SUM(E4+F4)*0.17</f>
-        <v>3.1120199999999998</v>
-      </c>
-      <c r="I4" s="34">
-        <f>SUM(E4:H4)</f>
-        <v>21.418019999999999</v>
-      </c>
-      <c r="J4" s="22">
-        <f t="shared" ref="J4:J50" si="7">M4</f>
         <v>22.97064</v>
       </c>
-      <c r="K4" s="28">
+      <c r="N4" s="37">
+        <f t="shared" si="8"/>
+        <v>2.088239999999999</v>
+      </c>
+      <c r="O4" s="36">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
         <f t="shared" si="4"/>
-        <v>3.9323999999999999</v>
-      </c>
-      <c r="L4" s="29">
-        <f>E4+F4</f>
-        <v>18.305999999999997</v>
-      </c>
-      <c r="M4" s="37">
-        <f t="shared" si="0"/>
-        <v>22.97064</v>
-      </c>
-      <c r="N4" s="37">
+        <v>2.088239999999999</v>
+      </c>
+      <c r="Q4" s="33">
         <f t="shared" si="5"/>
-        <v>2.088239999999999</v>
-      </c>
-      <c r="O4" s="36">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
-        <f t="shared" si="1"/>
-        <v>2.088239999999999</v>
-      </c>
-      <c r="Q4" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -3548,52 +3223,52 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F5" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5992</v>
       </c>
       <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="28">
-        <f>SUM(E5+F5)*0.17</f>
+        <f t="shared" si="0"/>
         <v>3.6701639999999998</v>
       </c>
       <c r="I5" s="34">
-        <f>SUM(E5:H5)</f>
+        <f t="shared" si="1"/>
         <v>25.259363999999998</v>
       </c>
       <c r="J5" s="22">
         <v>28.46</v>
       </c>
       <c r="K5" s="28">
+        <f t="shared" si="7"/>
+        <v>4.6376799999999996</v>
+      </c>
+      <c r="L5" s="29">
+        <f t="shared" si="2"/>
+        <v>21.589199999999998</v>
+      </c>
+      <c r="M5" s="37">
+        <f t="shared" si="3"/>
+        <v>27.090447999999999</v>
+      </c>
+      <c r="N5" s="37">
+        <f t="shared" si="8"/>
+        <v>3.8323200000000028</v>
+      </c>
+      <c r="O5" s="36">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
         <f t="shared" si="4"/>
-        <v>4.6376799999999996</v>
-      </c>
-      <c r="L5" s="29">
-        <f>E5+F5</f>
-        <v>21.589199999999998</v>
-      </c>
-      <c r="M5" s="37">
-        <f t="shared" si="0"/>
-        <v>27.090447999999999</v>
-      </c>
-      <c r="N5" s="37">
+        <v>3.8323200000000028</v>
+      </c>
+      <c r="Q5" s="33">
         <f t="shared" si="5"/>
-        <v>3.8323200000000028</v>
-      </c>
-      <c r="O5" s="36">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <f t="shared" si="1"/>
-        <v>3.8323200000000028</v>
-      </c>
-      <c r="Q5" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.15561027266880206</v>
       </c>
     </row>
@@ -3612,53 +3287,53 @@
         <v>50.51</v>
       </c>
       <c r="F6" s="31">
+        <f t="shared" si="6"/>
+        <v>4.0407999999999999</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="0"/>
+        <v>9.2736359999999998</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="1"/>
+        <v>63.824435999999992</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="10"/>
+        <v>68.451151999999993</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="7"/>
+        <v>11.718319999999999</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" si="2"/>
+        <v>54.550799999999995</v>
+      </c>
+      <c r="M6" s="37">
         <f t="shared" si="3"/>
-        <v>4.0407999999999999</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
-        <f>SUM(E6+F6)*0.17</f>
-        <v>9.2736359999999998</v>
-      </c>
-      <c r="I6" s="34">
-        <f>SUM(E6:H6)</f>
-        <v>63.824435999999992</v>
-      </c>
-      <c r="J6" s="22">
-        <f t="shared" si="7"/>
         <v>68.451151999999993</v>
       </c>
-      <c r="K6" s="28">
+      <c r="N6" s="37">
+        <f t="shared" si="8"/>
+        <v>6.2228319999999968</v>
+      </c>
+      <c r="O6" s="36">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
         <f t="shared" si="4"/>
-        <v>11.718319999999999</v>
-      </c>
-      <c r="L6" s="29">
-        <f>E6+F6</f>
-        <v>54.550799999999995</v>
-      </c>
-      <c r="M6" s="37">
-        <f t="shared" si="0"/>
-        <v>68.451151999999993</v>
-      </c>
-      <c r="N6" s="37">
+        <v>6.2228319999999968</v>
+      </c>
+      <c r="Q6" s="33">
         <f t="shared" si="5"/>
-        <v>6.2228319999999968</v>
-      </c>
-      <c r="O6" s="36">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
-        <f t="shared" si="1"/>
-        <v>6.2228319999999968</v>
-      </c>
-      <c r="Q6" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -3677,53 +3352,53 @@
         <v>36.68</v>
       </c>
       <c r="F7" s="31">
+        <f t="shared" si="6"/>
+        <v>2.9344000000000001</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="0"/>
+        <v>6.7344480000000013</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="1"/>
+        <v>46.348848000000004</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="10"/>
+        <v>49.708736000000002</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="7"/>
+        <v>8.50976</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="2"/>
+        <v>39.614400000000003</v>
+      </c>
+      <c r="M7" s="37">
         <f t="shared" si="3"/>
-        <v>2.9344000000000001</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
-        <f>SUM(E7+F7)*0.17</f>
-        <v>6.7344480000000013</v>
-      </c>
-      <c r="I7" s="34">
-        <f>SUM(E7:H7)</f>
-        <v>46.348848000000004</v>
-      </c>
-      <c r="J7" s="22">
-        <f t="shared" si="7"/>
         <v>49.708736000000002</v>
       </c>
-      <c r="K7" s="28">
+      <c r="N7" s="37">
+        <f t="shared" si="8"/>
+        <v>4.5189760000000021</v>
+      </c>
+      <c r="O7" s="36">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32">
         <f t="shared" si="4"/>
-        <v>8.50976</v>
-      </c>
-      <c r="L7" s="29">
-        <f>E7+F7</f>
-        <v>39.614400000000003</v>
-      </c>
-      <c r="M7" s="37">
-        <f t="shared" si="0"/>
-        <v>49.708736000000002</v>
-      </c>
-      <c r="N7" s="37">
+        <v>4.5189760000000021</v>
+      </c>
+      <c r="Q7" s="33">
         <f t="shared" si="5"/>
-        <v>4.5189760000000021</v>
-      </c>
-      <c r="O7" s="36">
-        <v>0</v>
-      </c>
-      <c r="P7" s="32">
-        <f t="shared" si="1"/>
-        <v>4.5189760000000021</v>
-      </c>
-      <c r="Q7" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
@@ -3742,53 +3417,53 @@
         <v>100.9</v>
       </c>
       <c r="F8" s="31">
+        <f t="shared" si="6"/>
+        <v>8.072000000000001</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="0"/>
+        <v>18.525240000000004</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="1"/>
+        <v>127.49724000000001</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="10"/>
+        <v>136.73968000000002</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="7"/>
+        <v>23.408799999999999</v>
+      </c>
+      <c r="L8" s="29">
+        <f t="shared" si="2"/>
+        <v>108.97200000000001</v>
+      </c>
+      <c r="M8" s="37">
         <f t="shared" si="3"/>
-        <v>8.072000000000001</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <f>SUM(E8+F8)*0.17</f>
-        <v>18.525240000000004</v>
-      </c>
-      <c r="I8" s="34">
-        <f>SUM(E8:H8)</f>
-        <v>127.49724000000001</v>
-      </c>
-      <c r="J8" s="22">
-        <f t="shared" si="7"/>
         <v>136.73968000000002</v>
       </c>
-      <c r="K8" s="28">
+      <c r="N8" s="37">
+        <f t="shared" si="8"/>
+        <v>12.430880000000016</v>
+      </c>
+      <c r="O8" s="36">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
         <f t="shared" si="4"/>
-        <v>23.408799999999999</v>
-      </c>
-      <c r="L8" s="29">
-        <f>E8+F8</f>
-        <v>108.97200000000001</v>
-      </c>
-      <c r="M8" s="37">
-        <f t="shared" si="0"/>
-        <v>136.73968000000002</v>
-      </c>
-      <c r="N8" s="37">
+        <v>12.430880000000016</v>
+      </c>
+      <c r="Q8" s="33">
         <f t="shared" si="5"/>
-        <v>12.430880000000016</v>
-      </c>
-      <c r="O8" s="36">
-        <v>0</v>
-      </c>
-      <c r="P8" s="32">
-        <f t="shared" si="1"/>
-        <v>12.430880000000016</v>
-      </c>
-      <c r="Q8" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000013</v>
       </c>
     </row>
@@ -3807,52 +3482,52 @@
         <v>0</v>
       </c>
       <c r="F9" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <f>SUM(E9+F9)*0.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="34">
-        <f>SUM(E9:H9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K9" s="28">
+      <c r="L9" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0</v>
+      </c>
+      <c r="N9" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="36">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="29">
-        <f>E9+F9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="37">
-        <v>0</v>
-      </c>
-      <c r="N9" s="37">
+      <c r="Q9" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="36">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="R9" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3871,53 +3546,53 @@
         <v>12.34</v>
       </c>
       <c r="F10" s="31">
+        <f t="shared" si="6"/>
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="0"/>
+        <v>2.2656239999999999</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="1"/>
+        <v>15.592824</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="10"/>
+        <v>16.723168000000001</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="7"/>
+        <v>2.8628800000000001</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" si="2"/>
+        <v>13.327199999999999</v>
+      </c>
+      <c r="M10" s="37">
         <f t="shared" si="3"/>
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28">
-        <f>SUM(E10+F10)*0.17</f>
-        <v>2.2656239999999999</v>
-      </c>
-      <c r="I10" s="34">
-        <f>SUM(E10:H10)</f>
-        <v>15.592824</v>
-      </c>
-      <c r="J10" s="22">
-        <f t="shared" si="7"/>
         <v>16.723168000000001</v>
       </c>
-      <c r="K10" s="28">
+      <c r="N10" s="37">
+        <f t="shared" si="8"/>
+        <v>1.5202880000000007</v>
+      </c>
+      <c r="O10" s="36">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32">
         <f t="shared" si="4"/>
-        <v>2.8628800000000001</v>
-      </c>
-      <c r="L10" s="29">
-        <f>E10+F10</f>
-        <v>13.327199999999999</v>
-      </c>
-      <c r="M10" s="37">
-        <f t="shared" si="0"/>
-        <v>16.723168000000001</v>
-      </c>
-      <c r="N10" s="37">
+        <v>1.5202880000000007</v>
+      </c>
+      <c r="Q10" s="33">
         <f t="shared" si="5"/>
-        <v>1.5202880000000007</v>
-      </c>
-      <c r="O10" s="36">
-        <v>0</v>
-      </c>
-      <c r="P10" s="32">
-        <f t="shared" si="1"/>
-        <v>1.5202880000000007</v>
-      </c>
-      <c r="Q10" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
@@ -3936,53 +3611,53 @@
         <v>28.99</v>
       </c>
       <c r="F11" s="31">
+        <f t="shared" si="6"/>
+        <v>2.3191999999999999</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="0"/>
+        <v>5.3225639999999999</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="1"/>
+        <v>36.631763999999997</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="10"/>
+        <v>39.287247999999998</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="7"/>
+        <v>6.7256799999999988</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="2"/>
+        <v>31.309199999999997</v>
+      </c>
+      <c r="M11" s="37">
         <f t="shared" si="3"/>
-        <v>2.3191999999999999</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="28">
-        <f>SUM(E11+F11)*0.17</f>
-        <v>5.3225639999999999</v>
-      </c>
-      <c r="I11" s="34">
-        <f>SUM(E11:H11)</f>
-        <v>36.631763999999997</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="7"/>
         <v>39.287247999999998</v>
       </c>
-      <c r="K11" s="28">
+      <c r="N11" s="37">
+        <f t="shared" si="8"/>
+        <v>3.5715679999999992</v>
+      </c>
+      <c r="O11" s="36">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32">
         <f t="shared" si="4"/>
-        <v>6.7256799999999988</v>
-      </c>
-      <c r="L11" s="29">
-        <f>E11+F11</f>
-        <v>31.309199999999997</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" si="0"/>
-        <v>39.287247999999998</v>
-      </c>
-      <c r="N11" s="37">
+        <v>3.5715679999999992</v>
+      </c>
+      <c r="Q11" s="33">
         <f t="shared" si="5"/>
-        <v>3.5715679999999992</v>
-      </c>
-      <c r="O11" s="36">
-        <v>0</v>
-      </c>
-      <c r="P11" s="32">
-        <f t="shared" si="1"/>
-        <v>3.5715679999999992</v>
-      </c>
-      <c r="Q11" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
@@ -4001,53 +3676,53 @@
         <v>59.99</v>
       </c>
       <c r="F12" s="31">
+        <f t="shared" si="6"/>
+        <v>4.7991999999999999</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="0"/>
+        <v>11.014164000000003</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="1"/>
+        <v>75.803364000000016</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="10"/>
+        <v>81.298447999999993</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="7"/>
+        <v>13.917680000000001</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="2"/>
+        <v>64.789200000000008</v>
+      </c>
+      <c r="M12" s="37">
         <f t="shared" si="3"/>
-        <v>4.7991999999999999</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="28">
-        <f>SUM(E12+F12)*0.17</f>
-        <v>11.014164000000003</v>
-      </c>
-      <c r="I12" s="34">
-        <f>SUM(E12:H12)</f>
-        <v>75.803364000000016</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="7"/>
         <v>81.298447999999993</v>
       </c>
-      <c r="K12" s="28">
+      <c r="N12" s="37">
+        <f t="shared" si="8"/>
+        <v>7.3907679999999942</v>
+      </c>
+      <c r="O12" s="36">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="4"/>
-        <v>13.917680000000001</v>
-      </c>
-      <c r="L12" s="29">
-        <f>E12+F12</f>
-        <v>64.789200000000008</v>
-      </c>
-      <c r="M12" s="37">
-        <f t="shared" si="0"/>
-        <v>81.298447999999993</v>
-      </c>
-      <c r="N12" s="37">
+        <v>7.3907679999999942</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" si="5"/>
-        <v>7.3907679999999942</v>
-      </c>
-      <c r="O12" s="36">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32">
-        <f t="shared" si="1"/>
-        <v>7.3907679999999942</v>
-      </c>
-      <c r="Q12" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999922E-2</v>
       </c>
     </row>
@@ -4057,7 +3732,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>92</v>
@@ -4066,52 +3741,52 @@
         <v>27.99</v>
       </c>
       <c r="F13" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2391999999999999</v>
       </c>
       <c r="G13" s="20">
         <v>0</v>
       </c>
       <c r="H13" s="28">
-        <f>SUM(E13+F13)*0.17</f>
+        <f t="shared" si="0"/>
         <v>5.1389640000000005</v>
       </c>
       <c r="I13" s="34">
-        <f>SUM(E13:H13)</f>
+        <f t="shared" si="1"/>
         <v>35.368164</v>
       </c>
       <c r="J13" s="22">
         <v>39.950000000000003</v>
       </c>
       <c r="K13" s="28">
+        <f t="shared" si="7"/>
+        <v>6.4936799999999995</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" si="2"/>
+        <v>30.229199999999999</v>
+      </c>
+      <c r="M13" s="37">
+        <f t="shared" si="3"/>
+        <v>37.932048000000002</v>
+      </c>
+      <c r="N13" s="37">
+        <f t="shared" si="8"/>
+        <v>5.4663200000000032</v>
+      </c>
+      <c r="O13" s="36">
+        <v>0</v>
+      </c>
+      <c r="P13" s="32">
         <f t="shared" si="4"/>
-        <v>6.4936799999999995</v>
-      </c>
-      <c r="L13" s="29">
-        <f>E13+F13</f>
-        <v>30.229199999999999</v>
-      </c>
-      <c r="M13" s="37">
-        <f t="shared" si="0"/>
-        <v>37.932048000000002</v>
-      </c>
-      <c r="N13" s="37">
+        <v>5.4663200000000032</v>
+      </c>
+      <c r="Q13" s="33">
         <f t="shared" si="5"/>
-        <v>5.4663200000000032</v>
-      </c>
-      <c r="O13" s="36">
-        <v>0</v>
-      </c>
-      <c r="P13" s="32">
-        <f t="shared" si="1"/>
-        <v>5.4663200000000032</v>
-      </c>
-      <c r="Q13" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.15851904437113451</v>
       </c>
     </row>
@@ -4130,53 +3805,53 @@
         <v>26</v>
       </c>
       <c r="F14" s="31">
+        <f t="shared" si="6"/>
+        <v>2.08</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="0"/>
+        <v>4.7736000000000001</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="1"/>
+        <v>32.8536</v>
+      </c>
+      <c r="J14" s="22">
+        <f>M14</f>
+        <v>35.235199999999999</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="7"/>
+        <v>6.032</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="2"/>
+        <v>28.08</v>
+      </c>
+      <c r="M14" s="37">
         <f t="shared" si="3"/>
-        <v>2.08</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
-        <f>SUM(E14+F14)*0.17</f>
-        <v>4.7736000000000001</v>
-      </c>
-      <c r="I14" s="34">
-        <f>SUM(E14:H14)</f>
-        <v>32.8536</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="7"/>
         <v>35.235199999999999</v>
       </c>
-      <c r="K14" s="28">
+      <c r="N14" s="37">
+        <f t="shared" si="8"/>
+        <v>3.2032000000000025</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
         <f t="shared" si="4"/>
-        <v>6.032</v>
-      </c>
-      <c r="L14" s="29">
-        <f>E14+F14</f>
-        <v>28.08</v>
-      </c>
-      <c r="M14" s="37">
-        <f t="shared" si="0"/>
-        <v>35.235199999999999</v>
-      </c>
-      <c r="N14" s="37">
+        <v>3.2032000000000025</v>
+      </c>
+      <c r="Q14" s="33">
         <f t="shared" si="5"/>
-        <v>3.2032000000000025</v>
-      </c>
-      <c r="O14" s="36">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
-        <f t="shared" si="1"/>
-        <v>3.2032000000000025</v>
-      </c>
-      <c r="Q14" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4195,53 +3870,53 @@
         <v>26</v>
       </c>
       <c r="F15" s="31">
+        <f t="shared" si="6"/>
+        <v>2.08</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="0"/>
+        <v>4.7736000000000001</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="1"/>
+        <v>32.8536</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="10"/>
+        <v>35.235199999999999</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="7"/>
+        <v>6.032</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="2"/>
+        <v>28.08</v>
+      </c>
+      <c r="M15" s="37">
         <f t="shared" si="3"/>
-        <v>2.08</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
-        <f>SUM(E15+F15)*0.17</f>
-        <v>4.7736000000000001</v>
-      </c>
-      <c r="I15" s="34">
-        <f>SUM(E15:H15)</f>
-        <v>32.8536</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="7"/>
         <v>35.235199999999999</v>
       </c>
-      <c r="K15" s="28">
+      <c r="N15" s="37">
+        <f t="shared" si="8"/>
+        <v>3.2032000000000025</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
         <f t="shared" si="4"/>
-        <v>6.032</v>
-      </c>
-      <c r="L15" s="29">
-        <f>E15+F15</f>
-        <v>28.08</v>
-      </c>
-      <c r="M15" s="37">
-        <f t="shared" si="0"/>
-        <v>35.235199999999999</v>
-      </c>
-      <c r="N15" s="37">
+        <v>3.2032000000000025</v>
+      </c>
+      <c r="Q15" s="33">
         <f t="shared" si="5"/>
-        <v>3.2032000000000025</v>
-      </c>
-      <c r="O15" s="36">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <f t="shared" si="1"/>
-        <v>3.2032000000000025</v>
-      </c>
-      <c r="Q15" s="33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -4260,37 +3935,37 @@
         <v>16.989999999999998</v>
       </c>
       <c r="F16" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3592</v>
       </c>
       <c r="G16" s="20">
         <v>0</v>
       </c>
       <c r="H16" s="28">
-        <f>SUM(E16+F16)*0.17</f>
+        <f t="shared" si="0"/>
         <v>3.119364</v>
       </c>
       <c r="I16" s="34">
-        <f>SUM(E16:H16)</f>
+        <f t="shared" si="1"/>
         <v>21.468564000000001</v>
       </c>
       <c r="J16" s="22">
         <v>24.95</v>
       </c>
       <c r="K16" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.9416799999999999</v>
       </c>
       <c r="L16" s="29">
-        <f>E16+F16</f>
+        <f t="shared" si="2"/>
         <v>18.3492</v>
       </c>
       <c r="M16" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23.024847999999999</v>
       </c>
       <c r="N16" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.0183199999999992</v>
       </c>
       <c r="O16" s="36">
@@ -4305,7 +3980,7 @@
         <v>4.0183199999999992</v>
       </c>
       <c r="R16" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.19197312399195857</v>
       </c>
     </row>
@@ -4324,53 +3999,53 @@
         <v>11.7</v>
       </c>
       <c r="F17" s="31">
+        <f t="shared" si="6"/>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>2.14812</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="1"/>
+        <v>14.78412</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="10"/>
+        <v>15.855839999999999</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="7"/>
+        <v>2.7143999999999995</v>
+      </c>
+      <c r="L17" s="29">
+        <f t="shared" si="2"/>
+        <v>12.635999999999999</v>
+      </c>
+      <c r="M17" s="37">
         <f t="shared" si="3"/>
-        <v>0.93599999999999994</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
-        <f>SUM(E17+F17)*0.17</f>
-        <v>2.14812</v>
-      </c>
-      <c r="I17" s="34">
-        <f>SUM(E17:H17)</f>
-        <v>14.78412</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="7"/>
         <v>15.855839999999999</v>
       </c>
-      <c r="K17" s="28">
+      <c r="N17" s="37">
+        <f t="shared" si="8"/>
+        <v>1.4414400000000001</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
         <f t="shared" si="4"/>
-        <v>2.7143999999999995</v>
-      </c>
-      <c r="L17" s="29">
-        <f>E17+F17</f>
-        <v>12.635999999999999</v>
-      </c>
-      <c r="M17" s="37">
-        <f t="shared" si="0"/>
-        <v>15.855839999999999</v>
-      </c>
-      <c r="N17" s="37">
-        <f t="shared" si="5"/>
         <v>1.4414400000000001</v>
       </c>
-      <c r="O17" s="36">
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
-        <f t="shared" si="1"/>
-        <v>1.4414400000000001</v>
-      </c>
       <c r="Q17" s="33">
-        <f t="shared" ref="Q17:Q31" si="8">O17*P17</f>
+        <f t="shared" ref="Q17:Q31" si="11">O17*P17</f>
         <v>0</v>
       </c>
       <c r="R17" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
     </row>
@@ -4389,52 +4064,52 @@
         <v>12.99</v>
       </c>
       <c r="F18" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0392000000000001</v>
       </c>
       <c r="G18" s="20">
         <v>0</v>
       </c>
       <c r="H18" s="28">
-        <f>SUM(E18+F18)*0.17</f>
+        <f t="shared" si="0"/>
         <v>2.3849640000000001</v>
       </c>
       <c r="I18" s="34">
-        <f>SUM(E18:H18)</f>
+        <f t="shared" si="1"/>
         <v>16.414164</v>
       </c>
       <c r="J18" s="22">
         <v>17.95</v>
       </c>
       <c r="K18" s="28">
+        <f t="shared" si="7"/>
+        <v>3.0136799999999999</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="2"/>
+        <v>14.029199999999999</v>
+      </c>
+      <c r="M18" s="37">
+        <f t="shared" si="3"/>
+        <v>17.604047999999999</v>
+      </c>
+      <c r="N18" s="37">
+        <f t="shared" si="8"/>
+        <v>1.9463200000000001</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
         <f t="shared" si="4"/>
-        <v>3.0136799999999999</v>
-      </c>
-      <c r="L18" s="29">
-        <f>E18+F18</f>
-        <v>14.029199999999999</v>
-      </c>
-      <c r="M18" s="37">
-        <f t="shared" si="0"/>
-        <v>17.604047999999999</v>
-      </c>
-      <c r="N18" s="37">
-        <f t="shared" si="5"/>
         <v>1.9463200000000001</v>
       </c>
-      <c r="O18" s="36">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <f t="shared" si="1"/>
-        <v>1.9463200000000001</v>
-      </c>
       <c r="Q18" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R18" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1216170280835408</v>
       </c>
     </row>
@@ -4453,52 +4128,52 @@
         <v>15.99</v>
       </c>
       <c r="F19" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2792000000000001</v>
       </c>
       <c r="G19" s="20">
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f>SUM(E19+F19)*0.17</f>
+        <f t="shared" si="0"/>
         <v>2.9357640000000003</v>
       </c>
       <c r="I19" s="34">
-        <f>SUM(E19:H19)</f>
+        <f t="shared" si="1"/>
         <v>20.204964</v>
       </c>
       <c r="J19" s="22">
         <v>22.59</v>
       </c>
       <c r="K19" s="28">
+        <f t="shared" si="7"/>
+        <v>3.7096799999999996</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" si="2"/>
+        <v>17.269200000000001</v>
+      </c>
+      <c r="M19" s="37">
+        <f t="shared" si="3"/>
+        <v>21.669648000000002</v>
+      </c>
+      <c r="N19" s="37">
+        <f t="shared" si="8"/>
+        <v>2.8903199999999991</v>
+      </c>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32">
         <f t="shared" si="4"/>
-        <v>3.7096799999999996</v>
-      </c>
-      <c r="L19" s="29">
-        <f>E19+F19</f>
-        <v>17.269200000000001</v>
-      </c>
-      <c r="M19" s="37">
-        <f t="shared" si="0"/>
-        <v>21.669648000000002</v>
-      </c>
-      <c r="N19" s="37">
-        <f t="shared" si="5"/>
         <v>2.8903199999999991</v>
       </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="32">
-        <f t="shared" si="1"/>
-        <v>2.8903199999999991</v>
-      </c>
       <c r="Q19" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R19" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14671913452401253</v>
       </c>
     </row>
@@ -4517,53 +4192,53 @@
         <v>22.28</v>
       </c>
       <c r="F20" s="31">
+        <f t="shared" si="6"/>
+        <v>1.7824000000000002</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="0"/>
+        <v>4.0906080000000005</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="1"/>
+        <v>28.153008</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="10"/>
+        <v>30.193856</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="7"/>
+        <v>5.1689600000000002</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" si="2"/>
+        <v>24.0624</v>
+      </c>
+      <c r="M20" s="37">
         <f t="shared" si="3"/>
-        <v>1.7824000000000002</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="28">
-        <f>SUM(E20+F20)*0.17</f>
-        <v>4.0906080000000005</v>
-      </c>
-      <c r="I20" s="34">
-        <f>SUM(E20:H20)</f>
-        <v>28.153008</v>
-      </c>
-      <c r="J20" s="22">
-        <f t="shared" si="7"/>
         <v>30.193856</v>
       </c>
-      <c r="K20" s="28">
+      <c r="N20" s="37">
+        <f t="shared" si="8"/>
+        <v>2.7448960000000007</v>
+      </c>
+      <c r="O20" s="36">
+        <v>0</v>
+      </c>
+      <c r="P20" s="32">
         <f t="shared" si="4"/>
-        <v>5.1689600000000002</v>
-      </c>
-      <c r="L20" s="29">
-        <f>E20+F20</f>
-        <v>24.0624</v>
-      </c>
-      <c r="M20" s="37">
-        <f t="shared" si="0"/>
-        <v>30.193856</v>
-      </c>
-      <c r="N20" s="37">
-        <f t="shared" si="5"/>
         <v>2.7448960000000007</v>
       </c>
-      <c r="O20" s="36">
-        <v>0</v>
-      </c>
-      <c r="P20" s="32">
-        <f t="shared" si="1"/>
-        <v>2.7448960000000007</v>
-      </c>
       <c r="Q20" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R20" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
@@ -4582,53 +4257,53 @@
         <v>9.41</v>
       </c>
       <c r="F21" s="31">
+        <f t="shared" si="6"/>
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="0"/>
+        <v>1.7276760000000002</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="1"/>
+        <v>11.890476000000001</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="10"/>
+        <v>12.752432000000001</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="7"/>
+        <v>2.1831200000000002</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="2"/>
+        <v>10.162800000000001</v>
+      </c>
+      <c r="M21" s="37">
         <f t="shared" si="3"/>
-        <v>0.75280000000000002</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
-        <f>SUM(E21+F21)*0.17</f>
-        <v>1.7276760000000002</v>
-      </c>
-      <c r="I21" s="34">
-        <f>SUM(E21:H21)</f>
-        <v>11.890476000000001</v>
-      </c>
-      <c r="J21" s="22">
-        <f t="shared" si="7"/>
         <v>12.752432000000001</v>
       </c>
-      <c r="K21" s="28">
+      <c r="N21" s="37">
+        <f t="shared" si="8"/>
+        <v>1.1593119999999999</v>
+      </c>
+      <c r="O21" s="36">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32">
         <f t="shared" si="4"/>
-        <v>2.1831200000000002</v>
-      </c>
-      <c r="L21" s="29">
-        <f>E21+F21</f>
-        <v>10.162800000000001</v>
-      </c>
-      <c r="M21" s="37">
-        <f t="shared" si="0"/>
-        <v>12.752432000000001</v>
-      </c>
-      <c r="N21" s="37">
-        <f t="shared" si="5"/>
         <v>1.1593119999999999</v>
       </c>
-      <c r="O21" s="36">
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
-        <f t="shared" si="1"/>
-        <v>1.1593119999999999</v>
-      </c>
       <c r="Q21" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R21" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
@@ -4647,53 +4322,53 @@
         <v>17.14</v>
       </c>
       <c r="F22" s="31">
+        <f t="shared" si="6"/>
+        <v>1.3712</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="0"/>
+        <v>3.1469040000000006</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="1"/>
+        <v>21.658104000000002</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="10"/>
+        <v>23.228127999999998</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="7"/>
+        <v>3.97648</v>
+      </c>
+      <c r="L22" s="29">
+        <f t="shared" si="2"/>
+        <v>18.511200000000002</v>
+      </c>
+      <c r="M22" s="37">
         <f t="shared" si="3"/>
-        <v>1.3712</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28">
-        <f>SUM(E22+F22)*0.17</f>
-        <v>3.1469040000000006</v>
-      </c>
-      <c r="I22" s="34">
-        <f>SUM(E22:H22)</f>
-        <v>21.658104000000002</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="7"/>
         <v>23.228127999999998</v>
       </c>
-      <c r="K22" s="28">
+      <c r="N22" s="37">
+        <f t="shared" si="8"/>
+        <v>2.1116479999999989</v>
+      </c>
+      <c r="O22" s="36">
+        <v>0</v>
+      </c>
+      <c r="P22" s="32">
         <f t="shared" si="4"/>
-        <v>3.97648</v>
-      </c>
-      <c r="L22" s="29">
-        <f>E22+F22</f>
-        <v>18.511200000000002</v>
-      </c>
-      <c r="M22" s="37">
-        <f t="shared" si="0"/>
-        <v>23.228127999999998</v>
-      </c>
-      <c r="N22" s="37">
-        <f t="shared" si="5"/>
         <v>2.1116479999999989</v>
       </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
-        <f t="shared" si="1"/>
-        <v>2.1116479999999989</v>
-      </c>
       <c r="Q22" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R22" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -4712,53 +4387,53 @@
         <v>9.98</v>
       </c>
       <c r="F23" s="31">
+        <f t="shared" si="6"/>
+        <v>0.7984</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.8323280000000004</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="1"/>
+        <v>12.610728000000002</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="10"/>
+        <v>13.524896</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="7"/>
+        <v>2.3153600000000001</v>
+      </c>
+      <c r="L23" s="29">
+        <f t="shared" si="2"/>
+        <v>10.778400000000001</v>
+      </c>
+      <c r="M23" s="37">
         <f t="shared" si="3"/>
-        <v>0.7984</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="28">
-        <f>SUM(E23+F23)*0.17</f>
-        <v>1.8323280000000004</v>
-      </c>
-      <c r="I23" s="34">
-        <f>SUM(E23:H23)</f>
-        <v>12.610728000000002</v>
-      </c>
-      <c r="J23" s="22">
-        <f t="shared" si="7"/>
         <v>13.524896</v>
       </c>
-      <c r="K23" s="28">
+      <c r="N23" s="37">
+        <f t="shared" si="8"/>
+        <v>1.2295359999999995</v>
+      </c>
+      <c r="O23" s="36">
+        <v>0</v>
+      </c>
+      <c r="P23" s="32">
         <f t="shared" si="4"/>
-        <v>2.3153600000000001</v>
-      </c>
-      <c r="L23" s="29">
-        <f>E23+F23</f>
-        <v>10.778400000000001</v>
-      </c>
-      <c r="M23" s="37">
-        <f t="shared" si="0"/>
-        <v>13.524896</v>
-      </c>
-      <c r="N23" s="37">
-        <f t="shared" si="5"/>
         <v>1.2295359999999995</v>
       </c>
-      <c r="O23" s="36">
-        <v>0</v>
-      </c>
-      <c r="P23" s="32">
-        <f t="shared" si="1"/>
-        <v>1.2295359999999995</v>
-      </c>
       <c r="Q23" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R23" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -4777,53 +4452,53 @@
         <v>27.99</v>
       </c>
       <c r="F24" s="31">
+        <f t="shared" si="6"/>
+        <v>2.2391999999999999</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="0"/>
+        <v>5.1389640000000005</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="1"/>
+        <v>35.368164</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="10"/>
+        <v>37.932048000000002</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="7"/>
+        <v>6.4936799999999995</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="2"/>
+        <v>30.229199999999999</v>
+      </c>
+      <c r="M24" s="37">
         <f t="shared" si="3"/>
-        <v>2.2391999999999999</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="28">
-        <f>SUM(E24+F24)*0.17</f>
-        <v>5.1389640000000005</v>
-      </c>
-      <c r="I24" s="34">
-        <f>SUM(E24:H24)</f>
-        <v>35.368164</v>
-      </c>
-      <c r="J24" s="22">
-        <f t="shared" si="7"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="K24" s="28">
+      <c r="N24" s="37">
+        <f t="shared" si="8"/>
+        <v>3.4483680000000021</v>
+      </c>
+      <c r="O24" s="36">
+        <v>0</v>
+      </c>
+      <c r="P24" s="32">
         <f t="shared" si="4"/>
-        <v>6.4936799999999995</v>
-      </c>
-      <c r="L24" s="29">
-        <f>E24+F24</f>
-        <v>30.229199999999999</v>
-      </c>
-      <c r="M24" s="37">
-        <f t="shared" si="0"/>
-        <v>37.932048000000002</v>
-      </c>
-      <c r="N24" s="37">
-        <f t="shared" si="5"/>
         <v>3.4483680000000021</v>
       </c>
-      <c r="O24" s="36">
-        <v>0</v>
-      </c>
-      <c r="P24" s="32">
-        <f t="shared" si="1"/>
-        <v>3.4483680000000021</v>
-      </c>
       <c r="Q24" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R24" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
@@ -4842,53 +4517,53 @@
         <v>39.979999999999997</v>
       </c>
       <c r="F25" s="31">
+        <f t="shared" si="6"/>
+        <v>3.1983999999999999</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="0"/>
+        <v>7.3403279999999995</v>
+      </c>
+      <c r="I25" s="34">
+        <f t="shared" si="1"/>
+        <v>50.518727999999996</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="10"/>
+        <v>54.180895999999997</v>
+      </c>
+      <c r="K25" s="28">
+        <f t="shared" si="7"/>
+        <v>9.2753599999999992</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="2"/>
+        <v>43.178399999999996</v>
+      </c>
+      <c r="M25" s="37">
         <f t="shared" si="3"/>
-        <v>3.1983999999999999</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="28">
-        <f>SUM(E25+F25)*0.17</f>
-        <v>7.3403279999999995</v>
-      </c>
-      <c r="I25" s="34">
-        <f>SUM(E25:H25)</f>
-        <v>50.518727999999996</v>
-      </c>
-      <c r="J25" s="22">
-        <f t="shared" si="7"/>
         <v>54.180895999999997</v>
       </c>
-      <c r="K25" s="28">
+      <c r="N25" s="37">
+        <f t="shared" si="8"/>
+        <v>4.925536000000001</v>
+      </c>
+      <c r="O25" s="36">
+        <v>0</v>
+      </c>
+      <c r="P25" s="32">
         <f t="shared" si="4"/>
-        <v>9.2753599999999992</v>
-      </c>
-      <c r="L25" s="29">
-        <f>E25+F25</f>
-        <v>43.178399999999996</v>
-      </c>
-      <c r="M25" s="37">
-        <f t="shared" si="0"/>
-        <v>54.180895999999997</v>
-      </c>
-      <c r="N25" s="37">
-        <f t="shared" si="5"/>
         <v>4.925536000000001</v>
       </c>
-      <c r="O25" s="36">
-        <v>0</v>
-      </c>
-      <c r="P25" s="32">
-        <f t="shared" si="1"/>
-        <v>4.925536000000001</v>
-      </c>
       <c r="Q25" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
@@ -4907,53 +4582,53 @@
         <v>5.94</v>
       </c>
       <c r="F26" s="31">
+        <f t="shared" si="6"/>
+        <v>0.47520000000000007</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0905840000000002</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="1"/>
+        <v>7.5057840000000002</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="10"/>
+        <v>8.0498879999999993</v>
+      </c>
+      <c r="K26" s="28">
+        <f t="shared" si="7"/>
+        <v>1.3780800000000002</v>
+      </c>
+      <c r="L26" s="29">
+        <f t="shared" si="2"/>
+        <v>6.4152000000000005</v>
+      </c>
+      <c r="M26" s="37">
         <f t="shared" si="3"/>
-        <v>0.47520000000000007</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="28">
-        <f>SUM(E26+F26)*0.17</f>
-        <v>1.0905840000000002</v>
-      </c>
-      <c r="I26" s="34">
-        <f>SUM(E26:H26)</f>
-        <v>7.5057840000000002</v>
-      </c>
-      <c r="J26" s="22">
-        <f t="shared" si="7"/>
         <v>8.0498879999999993</v>
       </c>
-      <c r="K26" s="28">
+      <c r="N26" s="37">
+        <f t="shared" si="8"/>
+        <v>0.73180799999999913</v>
+      </c>
+      <c r="O26" s="36">
+        <v>0</v>
+      </c>
+      <c r="P26" s="32">
         <f t="shared" si="4"/>
-        <v>1.3780800000000002</v>
-      </c>
-      <c r="L26" s="29">
-        <f>E26+F26</f>
-        <v>6.4152000000000005</v>
-      </c>
-      <c r="M26" s="37">
-        <f t="shared" si="0"/>
-        <v>8.0498879999999993</v>
-      </c>
-      <c r="N26" s="37">
-        <f t="shared" si="5"/>
         <v>0.73180799999999913</v>
       </c>
-      <c r="O26" s="36">
-        <v>0</v>
-      </c>
-      <c r="P26" s="32">
-        <f t="shared" si="1"/>
-        <v>0.73180799999999913</v>
-      </c>
       <c r="Q26" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R26" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999881E-2</v>
       </c>
     </row>
@@ -4972,53 +4647,53 @@
         <v>19.46</v>
       </c>
       <c r="F27" s="31">
+        <f t="shared" si="6"/>
+        <v>1.5568000000000002</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="0"/>
+        <v>3.5728560000000003</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="1"/>
+        <v>24.589656000000002</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="10"/>
+        <v>26.372192000000002</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="7"/>
+        <v>4.5147200000000005</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="2"/>
+        <v>21.0168</v>
+      </c>
+      <c r="M27" s="37">
         <f t="shared" si="3"/>
-        <v>1.5568000000000002</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="28">
-        <f>SUM(E27+F27)*0.17</f>
-        <v>3.5728560000000003</v>
-      </c>
-      <c r="I27" s="34">
-        <f>SUM(E27:H27)</f>
-        <v>24.589656000000002</v>
-      </c>
-      <c r="J27" s="22">
-        <f t="shared" si="7"/>
         <v>26.372192000000002</v>
       </c>
-      <c r="K27" s="28">
+      <c r="N27" s="37">
+        <f t="shared" si="8"/>
+        <v>2.3974720000000005</v>
+      </c>
+      <c r="O27" s="36">
+        <v>0</v>
+      </c>
+      <c r="P27" s="32">
         <f t="shared" si="4"/>
-        <v>4.5147200000000005</v>
-      </c>
-      <c r="L27" s="29">
-        <f>E27+F27</f>
-        <v>21.0168</v>
-      </c>
-      <c r="M27" s="37">
-        <f t="shared" si="0"/>
-        <v>26.372192000000002</v>
-      </c>
-      <c r="N27" s="37">
-        <f t="shared" si="5"/>
         <v>2.3974720000000005</v>
       </c>
-      <c r="O27" s="36">
-        <v>0</v>
-      </c>
-      <c r="P27" s="32">
-        <f t="shared" si="1"/>
-        <v>2.3974720000000005</v>
-      </c>
       <c r="Q27" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R27" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
@@ -5037,53 +4712,53 @@
         <v>14.35</v>
       </c>
       <c r="F28" s="31">
+        <f t="shared" si="6"/>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="0"/>
+        <v>2.6346600000000002</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="1"/>
+        <v>18.132660000000001</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="10"/>
+        <v>19.447120000000002</v>
+      </c>
+      <c r="K28" s="28">
+        <f t="shared" si="7"/>
+        <v>3.3292000000000002</v>
+      </c>
+      <c r="L28" s="29">
+        <f t="shared" si="2"/>
+        <v>15.497999999999999</v>
+      </c>
+      <c r="M28" s="37">
         <f t="shared" si="3"/>
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0</v>
-      </c>
-      <c r="H28" s="28">
-        <f>SUM(E28+F28)*0.17</f>
-        <v>2.6346600000000002</v>
-      </c>
-      <c r="I28" s="34">
-        <f>SUM(E28:H28)</f>
-        <v>18.132660000000001</v>
-      </c>
-      <c r="J28" s="22">
-        <f t="shared" si="7"/>
         <v>19.447120000000002</v>
       </c>
-      <c r="K28" s="28">
+      <c r="N28" s="37">
+        <f t="shared" si="8"/>
+        <v>1.7679200000000002</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0</v>
+      </c>
+      <c r="P28" s="32">
         <f t="shared" si="4"/>
-        <v>3.3292000000000002</v>
-      </c>
-      <c r="L28" s="29">
-        <f>E28+F28</f>
-        <v>15.497999999999999</v>
-      </c>
-      <c r="M28" s="37">
-        <f t="shared" si="0"/>
-        <v>19.447120000000002</v>
-      </c>
-      <c r="N28" s="37">
-        <f t="shared" si="5"/>
         <v>1.7679200000000002</v>
       </c>
-      <c r="O28" s="36">
-        <v>0</v>
-      </c>
-      <c r="P28" s="32">
-        <f t="shared" si="1"/>
-        <v>1.7679200000000002</v>
-      </c>
       <c r="Q28" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R28" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
     </row>
@@ -5102,53 +4777,53 @@
         <v>14.99</v>
       </c>
       <c r="F29" s="31">
+        <f t="shared" si="6"/>
+        <v>1.1992</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" ref="H29:H39" si="12">SUM(E29:G29)*17.7%</f>
+        <v>2.8654883999999998</v>
+      </c>
+      <c r="I29" s="34">
+        <f t="shared" si="1"/>
+        <v>19.0546884</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="10"/>
+        <v>20.314448000000002</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="7"/>
+        <v>3.4776800000000003</v>
+      </c>
+      <c r="L29" s="29">
+        <f t="shared" si="2"/>
+        <v>16.1892</v>
+      </c>
+      <c r="M29" s="37">
         <f t="shared" si="3"/>
-        <v>1.1992</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
-      <c r="H29" s="28">
-        <f>SUM(E29:G29)*17.7%</f>
-        <v>2.8654883999999998</v>
-      </c>
-      <c r="I29" s="34">
-        <f>SUM(E29:H29)</f>
-        <v>19.0546884</v>
-      </c>
-      <c r="J29" s="22">
-        <f t="shared" si="7"/>
         <v>20.314448000000002</v>
       </c>
-      <c r="K29" s="28">
+      <c r="N29" s="37">
+        <f t="shared" si="8"/>
+        <v>1.8467680000000009</v>
+      </c>
+      <c r="O29" s="36">
+        <v>0</v>
+      </c>
+      <c r="P29" s="32">
         <f t="shared" si="4"/>
-        <v>3.4776800000000003</v>
-      </c>
-      <c r="L29" s="29">
-        <f>E29+F29</f>
-        <v>16.1892</v>
-      </c>
-      <c r="M29" s="37">
-        <f t="shared" si="0"/>
-        <v>20.314448000000002</v>
-      </c>
-      <c r="N29" s="37">
-        <f t="shared" si="5"/>
         <v>1.8467680000000009</v>
       </c>
-      <c r="O29" s="36">
-        <v>0</v>
-      </c>
-      <c r="P29" s="32">
-        <f t="shared" si="1"/>
-        <v>1.8467680000000009</v>
-      </c>
       <c r="Q29" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R29" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
@@ -5167,53 +4842,53 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F30" s="31">
+        <f t="shared" si="6"/>
+        <v>1.5992</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="12"/>
+        <v>3.8212883999999994</v>
+      </c>
+      <c r="I30" s="34">
+        <f t="shared" si="1"/>
+        <v>25.410488399999998</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="10"/>
+        <v>27.090447999999999</v>
+      </c>
+      <c r="K30" s="28">
+        <f t="shared" si="7"/>
+        <v>4.6376799999999996</v>
+      </c>
+      <c r="L30" s="29">
+        <f t="shared" si="2"/>
+        <v>21.589199999999998</v>
+      </c>
+      <c r="M30" s="37">
         <f t="shared" si="3"/>
-        <v>1.5992</v>
-      </c>
-      <c r="G30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30" s="28">
-        <f>SUM(E30:G30)*17.7%</f>
-        <v>3.8212883999999994</v>
-      </c>
-      <c r="I30" s="34">
-        <f>SUM(E30:H30)</f>
-        <v>25.410488399999998</v>
-      </c>
-      <c r="J30" s="22">
-        <f t="shared" si="7"/>
         <v>27.090447999999999</v>
       </c>
-      <c r="K30" s="28">
+      <c r="N30" s="37">
+        <f t="shared" si="8"/>
+        <v>2.4627680000000005</v>
+      </c>
+      <c r="O30" s="36">
+        <v>0</v>
+      </c>
+      <c r="P30" s="32">
         <f t="shared" si="4"/>
-        <v>4.6376799999999996</v>
-      </c>
-      <c r="L30" s="29">
-        <f>E30+F30</f>
-        <v>21.589199999999998</v>
-      </c>
-      <c r="M30" s="37">
-        <f t="shared" si="0"/>
-        <v>27.090447999999999</v>
-      </c>
-      <c r="N30" s="37">
-        <f t="shared" si="5"/>
         <v>2.4627680000000005</v>
       </c>
-      <c r="O30" s="36">
-        <v>0</v>
-      </c>
-      <c r="P30" s="32">
-        <f t="shared" si="1"/>
-        <v>2.4627680000000005</v>
-      </c>
       <c r="Q30" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
@@ -5232,53 +4907,53 @@
         <v>33.24</v>
       </c>
       <c r="F31" s="31">
+        <f t="shared" si="6"/>
+        <v>2.6592000000000002</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="12"/>
+        <v>6.3541583999999993</v>
+      </c>
+      <c r="I31" s="34">
+        <f t="shared" si="1"/>
+        <v>42.253358399999996</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="10"/>
+        <v>45.046848000000004</v>
+      </c>
+      <c r="K31" s="28">
+        <f t="shared" si="7"/>
+        <v>7.7116800000000003</v>
+      </c>
+      <c r="L31" s="29">
+        <f t="shared" si="2"/>
+        <v>35.8992</v>
+      </c>
+      <c r="M31" s="37">
         <f t="shared" si="3"/>
-        <v>2.6592000000000002</v>
-      </c>
-      <c r="G31" s="20">
-        <v>0</v>
-      </c>
-      <c r="H31" s="28">
-        <f>SUM(E31:G31)*17.7%</f>
-        <v>6.3541583999999993</v>
-      </c>
-      <c r="I31" s="34">
-        <f>SUM(E31:H31)</f>
-        <v>42.253358399999996</v>
-      </c>
-      <c r="J31" s="22">
-        <f t="shared" si="7"/>
         <v>45.046848000000004</v>
       </c>
-      <c r="K31" s="28">
+      <c r="N31" s="37">
+        <f t="shared" si="8"/>
+        <v>4.095168000000001</v>
+      </c>
+      <c r="O31" s="36">
+        <v>0</v>
+      </c>
+      <c r="P31" s="32">
         <f t="shared" si="4"/>
-        <v>7.7116800000000003</v>
-      </c>
-      <c r="L31" s="29">
-        <f>E31+F31</f>
-        <v>35.8992</v>
-      </c>
-      <c r="M31" s="37">
-        <f t="shared" si="0"/>
-        <v>45.046848000000004</v>
-      </c>
-      <c r="N31" s="37">
-        <f t="shared" si="5"/>
         <v>4.095168000000001</v>
       </c>
-      <c r="O31" s="36">
-        <v>0</v>
-      </c>
-      <c r="P31" s="32">
-        <f t="shared" si="1"/>
-        <v>4.095168000000001</v>
-      </c>
       <c r="Q31" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R31" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
@@ -5297,52 +4972,52 @@
         <v>19.8</v>
       </c>
       <c r="F32" s="31">
+        <f t="shared" si="6"/>
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="28">
+        <f t="shared" si="12"/>
+        <v>3.7849679999999997</v>
+      </c>
+      <c r="I32" s="34">
+        <f t="shared" si="1"/>
+        <v>25.168968</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="10"/>
+        <v>26.83296</v>
+      </c>
+      <c r="K32" s="28">
+        <f t="shared" si="7"/>
+        <v>4.5936000000000003</v>
+      </c>
+      <c r="L32" s="29">
+        <f t="shared" si="2"/>
+        <v>21.384</v>
+      </c>
+      <c r="M32" s="37">
         <f t="shared" si="3"/>
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="G32" s="20">
-        <v>0</v>
-      </c>
-      <c r="H32" s="28">
-        <f>SUM(E32:G32)*17.7%</f>
-        <v>3.7849679999999997</v>
-      </c>
-      <c r="I32" s="34">
-        <f>SUM(E32:H32)</f>
-        <v>25.168968</v>
-      </c>
-      <c r="J32" s="22">
-        <f t="shared" si="7"/>
         <v>26.83296</v>
       </c>
-      <c r="K32" s="28">
+      <c r="N32" s="37">
+        <f t="shared" si="8"/>
+        <v>2.4393600000000006</v>
+      </c>
+      <c r="O32" s="36">
+        <v>0</v>
+      </c>
+      <c r="P32" s="32">
         <f t="shared" si="4"/>
-        <v>4.5936000000000003</v>
-      </c>
-      <c r="L32" s="29">
-        <f>E32+F32</f>
-        <v>21.384</v>
-      </c>
-      <c r="M32" s="37">
-        <f t="shared" si="0"/>
-        <v>26.83296</v>
-      </c>
-      <c r="N32" s="37">
-        <f t="shared" si="5"/>
         <v>2.4393600000000006</v>
       </c>
-      <c r="O32" s="36">
-        <v>0</v>
-      </c>
-      <c r="P32" s="32">
-        <f t="shared" si="1"/>
-        <v>2.4393600000000006</v>
-      </c>
       <c r="Q32" s="33">
         <v>0</v>
       </c>
       <c r="R32" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
@@ -5361,52 +5036,52 @@
         <v>16.37</v>
       </c>
       <c r="F33" s="31">
+        <f t="shared" si="6"/>
+        <v>1.3096000000000001</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="12"/>
+        <v>3.1292892000000001</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="1"/>
+        <v>20.808889199999999</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="10"/>
+        <v>22.184624000000003</v>
+      </c>
+      <c r="K33" s="28">
+        <f t="shared" si="7"/>
+        <v>3.7978400000000003</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="2"/>
+        <v>17.679600000000001</v>
+      </c>
+      <c r="M33" s="37">
         <f t="shared" si="3"/>
-        <v>1.3096000000000001</v>
-      </c>
-      <c r="G33" s="20">
-        <v>0</v>
-      </c>
-      <c r="H33" s="28">
-        <f>SUM(E33:G33)*17.7%</f>
-        <v>3.1292892000000001</v>
-      </c>
-      <c r="I33" s="34">
-        <f>SUM(E33:H33)</f>
-        <v>20.808889199999999</v>
-      </c>
-      <c r="J33" s="22">
-        <f t="shared" si="7"/>
         <v>22.184624000000003</v>
       </c>
-      <c r="K33" s="28">
+      <c r="N33" s="37">
+        <f t="shared" si="8"/>
+        <v>2.0167840000000012</v>
+      </c>
+      <c r="O33" s="36">
+        <v>0</v>
+      </c>
+      <c r="P33" s="32">
         <f t="shared" si="4"/>
-        <v>3.7978400000000003</v>
-      </c>
-      <c r="L33" s="29">
-        <f>E33+F33</f>
-        <v>17.679600000000001</v>
-      </c>
-      <c r="M33" s="37">
-        <f t="shared" si="0"/>
-        <v>22.184624000000003</v>
-      </c>
-      <c r="N33" s="37">
-        <f t="shared" si="5"/>
         <v>2.0167840000000012</v>
       </c>
-      <c r="O33" s="36">
-        <v>0</v>
-      </c>
-      <c r="P33" s="32">
-        <f t="shared" si="1"/>
-        <v>2.0167840000000012</v>
-      </c>
       <c r="Q33" s="33">
         <v>0</v>
       </c>
       <c r="R33" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
@@ -5425,58 +5100,58 @@
         <v>19.95</v>
       </c>
       <c r="F34" s="31">
+        <f t="shared" si="6"/>
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" si="12"/>
+        <v>3.8136419999999998</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" ref="I34:I65" si="13">SUM(E34:H34)</f>
+        <v>25.359642000000001</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="10"/>
+        <v>27.036239999999999</v>
+      </c>
+      <c r="K34" s="28">
+        <f t="shared" si="7"/>
+        <v>4.6284000000000001</v>
+      </c>
+      <c r="L34" s="29">
+        <f t="shared" ref="L34:L50" si="14">E34+F34</f>
+        <v>21.545999999999999</v>
+      </c>
+      <c r="M34" s="37">
         <f t="shared" si="3"/>
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="G34" s="20">
-        <v>0</v>
-      </c>
-      <c r="H34" s="28">
-        <f>SUM(E34:G34)*17.7%</f>
-        <v>3.8136419999999998</v>
-      </c>
-      <c r="I34" s="34">
-        <f>SUM(E34:H34)</f>
-        <v>25.359642000000001</v>
-      </c>
-      <c r="J34" s="22">
-        <f t="shared" si="7"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="K34" s="28">
+      <c r="N34" s="37">
+        <f t="shared" si="8"/>
+        <v>2.4578400000000009</v>
+      </c>
+      <c r="O34" s="36">
+        <v>0</v>
+      </c>
+      <c r="P34" s="32">
         <f t="shared" si="4"/>
-        <v>4.6284000000000001</v>
-      </c>
-      <c r="L34" s="29">
-        <f>E34+F34</f>
-        <v>21.545999999999999</v>
-      </c>
-      <c r="M34" s="37">
-        <f t="shared" si="0"/>
-        <v>27.036239999999999</v>
-      </c>
-      <c r="N34" s="37">
-        <f t="shared" si="5"/>
         <v>2.4578400000000009</v>
       </c>
-      <c r="O34" s="36">
-        <v>0</v>
-      </c>
-      <c r="P34" s="32">
-        <f t="shared" si="1"/>
-        <v>2.4578400000000009</v>
-      </c>
       <c r="Q34" s="33">
         <v>0</v>
       </c>
       <c r="R34" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
@@ -5489,51 +5164,51 @@
         <v>21.49</v>
       </c>
       <c r="F35" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7191999999999998</v>
       </c>
       <c r="G35" s="20">
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <f>SUM(E35:G35)*17.7%</f>
+        <f t="shared" si="12"/>
         <v>4.1080283999999994</v>
       </c>
       <c r="I35" s="34">
-        <f>SUM(E35:H35)</f>
+        <f t="shared" si="13"/>
         <v>27.317228399999998</v>
       </c>
       <c r="J35" s="22">
         <v>29.95</v>
       </c>
       <c r="K35" s="28">
+        <f t="shared" si="7"/>
+        <v>4.9856799999999994</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" si="14"/>
+        <v>23.209199999999999</v>
+      </c>
+      <c r="M35" s="37">
+        <f t="shared" si="3"/>
+        <v>29.123247999999997</v>
+      </c>
+      <c r="N35" s="37">
+        <f t="shared" si="8"/>
+        <v>3.4743200000000023</v>
+      </c>
+      <c r="O35" s="36">
+        <v>0</v>
+      </c>
+      <c r="P35" s="32">
         <f t="shared" si="4"/>
-        <v>4.9856799999999994</v>
-      </c>
-      <c r="L35" s="29">
-        <f>E35+F35</f>
-        <v>23.209199999999999</v>
-      </c>
-      <c r="M35" s="37">
-        <f t="shared" si="0"/>
-        <v>29.123247999999997</v>
-      </c>
-      <c r="N35" s="37">
-        <f t="shared" si="5"/>
         <v>3.4743200000000023</v>
       </c>
-      <c r="O35" s="36">
-        <v>0</v>
-      </c>
-      <c r="P35" s="32">
-        <f t="shared" si="1"/>
-        <v>3.4743200000000023</v>
-      </c>
       <c r="Q35" s="33">
         <v>0</v>
       </c>
       <c r="R35" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13122684667589285</v>
       </c>
     </row>
@@ -5552,52 +5227,52 @@
         <v>35.299999999999997</v>
       </c>
       <c r="F36" s="31">
+        <f t="shared" si="6"/>
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="12"/>
+        <v>6.7479479999999992</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="13"/>
+        <v>44.871947999999996</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="10"/>
+        <v>47.838559999999994</v>
+      </c>
+      <c r="K36" s="28">
+        <f t="shared" si="7"/>
+        <v>8.1895999999999987</v>
+      </c>
+      <c r="L36" s="29">
+        <f t="shared" si="14"/>
+        <v>38.123999999999995</v>
+      </c>
+      <c r="M36" s="37">
         <f t="shared" si="3"/>
-        <v>2.8239999999999998</v>
-      </c>
-      <c r="G36" s="20">
-        <v>0</v>
-      </c>
-      <c r="H36" s="28">
-        <f>SUM(E36:G36)*17.7%</f>
-        <v>6.7479479999999992</v>
-      </c>
-      <c r="I36" s="34">
-        <f>SUM(E36:H36)</f>
-        <v>44.871947999999996</v>
-      </c>
-      <c r="J36" s="22">
-        <f t="shared" si="7"/>
         <v>47.838559999999994</v>
       </c>
-      <c r="K36" s="28">
+      <c r="N36" s="37">
+        <f t="shared" si="8"/>
+        <v>4.3489599999999982</v>
+      </c>
+      <c r="O36" s="36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="32">
         <f t="shared" si="4"/>
-        <v>8.1895999999999987</v>
-      </c>
-      <c r="L36" s="29">
-        <f>E36+F36</f>
-        <v>38.123999999999995</v>
-      </c>
-      <c r="M36" s="37">
-        <f t="shared" si="0"/>
-        <v>47.838559999999994</v>
-      </c>
-      <c r="N36" s="37">
-        <f t="shared" si="5"/>
         <v>4.3489599999999982</v>
       </c>
-      <c r="O36" s="36">
-        <v>0</v>
-      </c>
-      <c r="P36" s="32">
-        <f t="shared" si="1"/>
-        <v>4.3489599999999982</v>
-      </c>
       <c r="Q36" s="33">
         <v>0</v>
       </c>
       <c r="R36" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999964E-2</v>
       </c>
     </row>
@@ -5616,58 +5291,58 @@
         <v>49.95</v>
       </c>
       <c r="F37" s="31">
+        <f t="shared" si="6"/>
+        <v>3.9960000000000004</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0</v>
+      </c>
+      <c r="H37" s="28">
+        <f t="shared" si="12"/>
+        <v>9.5484419999999997</v>
+      </c>
+      <c r="I37" s="34">
+        <f t="shared" si="13"/>
+        <v>63.494442000000006</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="10"/>
+        <v>67.692239999999998</v>
+      </c>
+      <c r="K37" s="28">
+        <f t="shared" si="7"/>
+        <v>11.5884</v>
+      </c>
+      <c r="L37" s="29">
+        <f t="shared" si="14"/>
+        <v>53.946000000000005</v>
+      </c>
+      <c r="M37" s="37">
         <f t="shared" si="3"/>
-        <v>3.9960000000000004</v>
-      </c>
-      <c r="G37" s="20">
-        <v>0</v>
-      </c>
-      <c r="H37" s="28">
-        <f>SUM(E37:G37)*17.7%</f>
-        <v>9.5484419999999997</v>
-      </c>
-      <c r="I37" s="34">
-        <f>SUM(E37:H37)</f>
-        <v>63.494442000000006</v>
-      </c>
-      <c r="J37" s="22">
-        <f t="shared" si="7"/>
         <v>67.692239999999998</v>
       </c>
-      <c r="K37" s="28">
+      <c r="N37" s="37">
+        <f t="shared" si="8"/>
+        <v>6.1538399999999953</v>
+      </c>
+      <c r="O37" s="36">
+        <v>0</v>
+      </c>
+      <c r="P37" s="32">
         <f t="shared" si="4"/>
-        <v>11.5884</v>
-      </c>
-      <c r="L37" s="29">
-        <f>E37+F37</f>
-        <v>53.946000000000005</v>
-      </c>
-      <c r="M37" s="37">
-        <f t="shared" si="0"/>
-        <v>67.692239999999998</v>
-      </c>
-      <c r="N37" s="37">
-        <f t="shared" si="5"/>
         <v>6.1538399999999953</v>
       </c>
-      <c r="O37" s="36">
-        <v>0</v>
-      </c>
-      <c r="P37" s="32">
-        <f t="shared" si="1"/>
-        <v>6.1538399999999953</v>
-      </c>
       <c r="Q37" s="33">
         <v>0</v>
       </c>
       <c r="R37" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9999999999999922E-2</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
@@ -5680,52 +5355,52 @@
         <v>23.84</v>
       </c>
       <c r="F38" s="31">
+        <f t="shared" si="6"/>
+        <v>1.9072</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="28">
+        <f t="shared" si="12"/>
+        <v>4.5572543999999997</v>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" si="13"/>
+        <v>30.304454399999997</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="10"/>
+        <v>32.307968000000002</v>
+      </c>
+      <c r="K38" s="28">
+        <f t="shared" si="7"/>
+        <v>5.5308799999999998</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="14"/>
+        <v>25.747199999999999</v>
+      </c>
+      <c r="M38" s="37">
         <f t="shared" si="3"/>
-        <v>1.9072</v>
-      </c>
-      <c r="G38" s="20">
-        <v>0</v>
-      </c>
-      <c r="H38" s="28">
-        <f>SUM(E38:G38)*17.7%</f>
-        <v>4.5572543999999997</v>
-      </c>
-      <c r="I38" s="34">
-        <f>SUM(E38:H38)</f>
-        <v>30.304454399999997</v>
-      </c>
-      <c r="J38" s="22">
-        <f t="shared" si="7"/>
         <v>32.307968000000002</v>
       </c>
-      <c r="K38" s="28">
-        <f t="shared" si="4"/>
-        <v>5.5308799999999998</v>
-      </c>
-      <c r="L38" s="29">
-        <f>E38+F38</f>
-        <v>25.747199999999999</v>
-      </c>
-      <c r="M38" s="37">
-        <f t="shared" si="0"/>
-        <v>32.307968000000002</v>
-      </c>
       <c r="N38" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.9370880000000028</v>
       </c>
       <c r="O38" s="36">
         <v>0</v>
       </c>
       <c r="P38" s="32">
-        <f t="shared" ref="P38:P44" si="9">N38</f>
+        <f t="shared" ref="P38:P44" si="15">N38</f>
         <v>2.9370880000000028</v>
       </c>
       <c r="Q38" s="33">
         <v>0</v>
       </c>
       <c r="R38" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1000000000000001</v>
       </c>
     </row>
@@ -5744,51 +5419,51 @@
         <v>15.7</v>
       </c>
       <c r="F39" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.256</v>
       </c>
       <c r="G39" s="20">
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <f>SUM(E39:G39)*17.7%</f>
+        <f t="shared" si="12"/>
         <v>3.0012119999999998</v>
       </c>
       <c r="I39" s="34">
-        <f>SUM(E39:H39)</f>
+        <f t="shared" si="13"/>
         <v>19.957211999999998</v>
       </c>
       <c r="J39" s="22">
         <v>22.46</v>
       </c>
       <c r="K39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6423999999999994</v>
       </c>
       <c r="L39" s="29">
-        <f>E39+F39</f>
+        <f t="shared" si="14"/>
         <v>16.956</v>
       </c>
       <c r="M39" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21.276639999999997</v>
       </c>
       <c r="N39" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.117600000000003</v>
       </c>
       <c r="O39" s="36">
         <v>0</v>
       </c>
       <c r="P39" s="32">
+        <f t="shared" si="15"/>
+        <v>3.117600000000003</v>
+      </c>
+      <c r="Q39" s="33">
+        <v>0</v>
+      </c>
+      <c r="R39" s="38">
         <f t="shared" si="9"/>
-        <v>3.117600000000003</v>
-      </c>
-      <c r="Q39" s="33">
-        <v>0</v>
-      </c>
-      <c r="R39" s="38">
-        <f t="shared" si="6"/>
         <v>0.16117958474646391</v>
       </c>
     </row>
@@ -5807,7 +5482,7 @@
         <v>27.99</v>
       </c>
       <c r="F40" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2391999999999999</v>
       </c>
       <c r="G40" s="20">
@@ -5815,41 +5490,41 @@
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="34">
-        <f>SUM(E40:H40)</f>
+        <f t="shared" si="13"/>
         <v>30.229199999999999</v>
       </c>
       <c r="J40" s="22">
+        <f t="shared" si="10"/>
+        <v>37.932048000000002</v>
+      </c>
+      <c r="K40" s="28">
         <f t="shared" si="7"/>
+        <v>6.4936799999999995</v>
+      </c>
+      <c r="L40" s="29">
+        <f t="shared" si="14"/>
+        <v>30.229199999999999</v>
+      </c>
+      <c r="M40" s="37">
+        <f t="shared" si="3"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="K40" s="28">
-        <f t="shared" si="4"/>
-        <v>6.4936799999999995</v>
-      </c>
-      <c r="L40" s="29">
-        <f>E40+F40</f>
-        <v>30.229199999999999</v>
-      </c>
-      <c r="M40" s="37">
-        <f t="shared" si="0"/>
-        <v>37.932048000000002</v>
-      </c>
       <c r="N40" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4483680000000021</v>
       </c>
       <c r="O40" s="36">
         <v>0</v>
       </c>
       <c r="P40" s="32">
+        <f t="shared" si="15"/>
+        <v>3.4483680000000021</v>
+      </c>
+      <c r="Q40" s="33">
+        <v>0</v>
+      </c>
+      <c r="R40" s="38">
         <f t="shared" si="9"/>
-        <v>3.4483680000000021</v>
-      </c>
-      <c r="Q40" s="33">
-        <v>0</v>
-      </c>
-      <c r="R40" s="38">
-        <f t="shared" si="6"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
@@ -5868,52 +5543,52 @@
         <v>34.99</v>
       </c>
       <c r="F41" s="31">
+        <f t="shared" si="6"/>
+        <v>2.7992000000000004</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" ref="H41:H50" si="16">SUM(E41:G41)*17.7%</f>
+        <v>6.6886884000000002</v>
+      </c>
+      <c r="I41" s="34">
+        <f t="shared" si="13"/>
+        <v>44.477888399999998</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="10"/>
+        <v>47.418448000000005</v>
+      </c>
+      <c r="K41" s="28">
+        <f t="shared" si="7"/>
+        <v>8.11768</v>
+      </c>
+      <c r="L41" s="29">
+        <f t="shared" si="14"/>
+        <v>37.789200000000001</v>
+      </c>
+      <c r="M41" s="37">
         <f t="shared" si="3"/>
-        <v>2.7992000000000004</v>
-      </c>
-      <c r="G41" s="20">
-        <v>0</v>
-      </c>
-      <c r="H41" s="28">
-        <f>SUM(E41:G41)*17.7%</f>
-        <v>6.6886884000000002</v>
-      </c>
-      <c r="I41" s="34">
-        <f>SUM(E41:H41)</f>
-        <v>44.477888399999998</v>
-      </c>
-      <c r="J41" s="22">
-        <f t="shared" si="7"/>
         <v>47.418448000000005</v>
       </c>
-      <c r="K41" s="28">
-        <f t="shared" si="4"/>
-        <v>8.11768</v>
-      </c>
-      <c r="L41" s="29">
-        <f>E41+F41</f>
-        <v>37.789200000000001</v>
-      </c>
-      <c r="M41" s="37">
-        <f t="shared" si="0"/>
-        <v>47.418448000000005</v>
-      </c>
       <c r="N41" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.310768000000003</v>
       </c>
       <c r="O41" s="36">
         <v>0</v>
       </c>
       <c r="P41" s="32">
+        <f t="shared" si="15"/>
+        <v>4.310768000000003</v>
+      </c>
+      <c r="Q41" s="33">
+        <v>0</v>
+      </c>
+      <c r="R41" s="38">
         <f t="shared" si="9"/>
-        <v>4.310768000000003</v>
-      </c>
-      <c r="Q41" s="33">
-        <v>0</v>
-      </c>
-      <c r="R41" s="38">
-        <f t="shared" si="6"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
@@ -5932,52 +5607,52 @@
         <v>100.99</v>
       </c>
       <c r="F42" s="31">
+        <f t="shared" si="6"/>
+        <v>8.0792000000000002</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="28">
+        <f t="shared" si="16"/>
+        <v>19.305248399999996</v>
+      </c>
+      <c r="I42" s="34">
+        <f t="shared" si="13"/>
+        <v>128.37444840000001</v>
+      </c>
+      <c r="J42" s="22">
+        <f t="shared" si="10"/>
+        <v>136.861648</v>
+      </c>
+      <c r="K42" s="28">
+        <f t="shared" si="7"/>
+        <v>23.429679999999998</v>
+      </c>
+      <c r="L42" s="29">
+        <f t="shared" si="14"/>
+        <v>109.0692</v>
+      </c>
+      <c r="M42" s="37">
         <f t="shared" si="3"/>
-        <v>8.0792000000000002</v>
-      </c>
-      <c r="G42" s="20">
-        <v>0</v>
-      </c>
-      <c r="H42" s="28">
-        <f>SUM(E42:G42)*17.7%</f>
-        <v>19.305248399999996</v>
-      </c>
-      <c r="I42" s="34">
-        <f>SUM(E42:H42)</f>
-        <v>128.37444840000001</v>
-      </c>
-      <c r="J42" s="22">
-        <f t="shared" si="7"/>
         <v>136.861648</v>
       </c>
-      <c r="K42" s="28">
-        <f t="shared" si="4"/>
-        <v>23.429679999999998</v>
-      </c>
-      <c r="L42" s="29">
-        <f>E42+F42</f>
-        <v>109.0692</v>
-      </c>
-      <c r="M42" s="37">
-        <f t="shared" si="0"/>
-        <v>136.861648</v>
-      </c>
       <c r="N42" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.441968000000003</v>
       </c>
       <c r="O42" s="36">
         <v>0</v>
       </c>
       <c r="P42" s="32">
+        <f t="shared" si="15"/>
+        <v>12.441968000000003</v>
+      </c>
+      <c r="Q42" s="33">
+        <v>0</v>
+      </c>
+      <c r="R42" s="38">
         <f t="shared" si="9"/>
-        <v>12.441968000000003</v>
-      </c>
-      <c r="Q42" s="33">
-        <v>0</v>
-      </c>
-      <c r="R42" s="38">
-        <f t="shared" si="6"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
@@ -5996,52 +5671,52 @@
         <v>27.99</v>
       </c>
       <c r="F43" s="31">
+        <f t="shared" si="6"/>
+        <v>2.2391999999999999</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="16"/>
+        <v>5.3505683999999993</v>
+      </c>
+      <c r="I43" s="34">
+        <f t="shared" si="13"/>
+        <v>35.579768399999999</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="10"/>
+        <v>37.932048000000002</v>
+      </c>
+      <c r="K43" s="28">
+        <f t="shared" si="7"/>
+        <v>6.4936799999999995</v>
+      </c>
+      <c r="L43" s="29">
+        <f t="shared" si="14"/>
+        <v>30.229199999999999</v>
+      </c>
+      <c r="M43" s="37">
         <f t="shared" si="3"/>
-        <v>2.2391999999999999</v>
-      </c>
-      <c r="G43" s="20">
-        <v>0</v>
-      </c>
-      <c r="H43" s="28">
-        <f>SUM(E43:G43)*17.7%</f>
-        <v>5.3505683999999993</v>
-      </c>
-      <c r="I43" s="34">
-        <f>SUM(E43:H43)</f>
-        <v>35.579768399999999</v>
-      </c>
-      <c r="J43" s="22">
-        <f t="shared" si="7"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="K43" s="28">
-        <f t="shared" si="4"/>
-        <v>6.4936799999999995</v>
-      </c>
-      <c r="L43" s="29">
-        <f>E43+F43</f>
-        <v>30.229199999999999</v>
-      </c>
-      <c r="M43" s="37">
-        <f t="shared" si="0"/>
-        <v>37.932048000000002</v>
-      </c>
       <c r="N43" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4483680000000021</v>
       </c>
       <c r="O43" s="36">
         <v>0</v>
       </c>
       <c r="P43" s="32">
+        <f t="shared" si="15"/>
+        <v>3.4483680000000021</v>
+      </c>
+      <c r="Q43" s="33">
+        <v>0</v>
+      </c>
+      <c r="R43" s="38">
         <f t="shared" si="9"/>
-        <v>3.4483680000000021</v>
-      </c>
-      <c r="Q43" s="33">
-        <v>0</v>
-      </c>
-      <c r="R43" s="38">
-        <f t="shared" si="6"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
@@ -6060,58 +5735,58 @@
         <v>74.989999999999995</v>
       </c>
       <c r="F44" s="31">
+        <f t="shared" si="6"/>
+        <v>5.9992000000000001</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44" s="28">
+        <f t="shared" si="16"/>
+        <v>14.335088399999998</v>
+      </c>
+      <c r="I44" s="34">
+        <f t="shared" si="13"/>
+        <v>95.3242884</v>
+      </c>
+      <c r="J44" s="22">
+        <f t="shared" si="10"/>
+        <v>101.62644799999998</v>
+      </c>
+      <c r="K44" s="28">
+        <f t="shared" si="7"/>
+        <v>17.397680000000001</v>
+      </c>
+      <c r="L44" s="29">
+        <f t="shared" si="14"/>
+        <v>80.989199999999997</v>
+      </c>
+      <c r="M44" s="37">
         <f t="shared" si="3"/>
-        <v>5.9992000000000001</v>
-      </c>
-      <c r="G44" s="20">
-        <v>0</v>
-      </c>
-      <c r="H44" s="28">
-        <f>SUM(E44:G44)*17.7%</f>
-        <v>14.335088399999998</v>
-      </c>
-      <c r="I44" s="34">
-        <f>SUM(E44:H44)</f>
-        <v>95.3242884</v>
-      </c>
-      <c r="J44" s="22">
-        <f t="shared" si="7"/>
         <v>101.62644799999998</v>
       </c>
-      <c r="K44" s="28">
-        <f t="shared" si="4"/>
-        <v>17.397680000000001</v>
-      </c>
-      <c r="L44" s="29">
-        <f>E44+F44</f>
-        <v>80.989199999999997</v>
-      </c>
-      <c r="M44" s="37">
-        <f t="shared" si="0"/>
-        <v>101.62644799999998</v>
-      </c>
       <c r="N44" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.2387679999999932</v>
       </c>
       <c r="O44" s="36">
         <v>0</v>
       </c>
       <c r="P44" s="32">
+        <f t="shared" si="15"/>
+        <v>9.2387679999999932</v>
+      </c>
+      <c r="Q44" s="33">
+        <v>0</v>
+      </c>
+      <c r="R44" s="38">
         <f t="shared" si="9"/>
-        <v>9.2387679999999932</v>
-      </c>
-      <c r="Q44" s="33">
-        <v>0</v>
-      </c>
-      <c r="R44" s="38">
-        <f t="shared" si="6"/>
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11" t="s">
@@ -6124,52 +5799,52 @@
         <v>25.99</v>
       </c>
       <c r="F45" s="31">
+        <f t="shared" si="6"/>
+        <v>2.0791999999999997</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="28">
+        <f t="shared" si="16"/>
+        <v>4.9682483999999993</v>
+      </c>
+      <c r="I45" s="34">
+        <f t="shared" si="13"/>
+        <v>33.037448399999995</v>
+      </c>
+      <c r="J45" s="22">
+        <f t="shared" si="10"/>
+        <v>35.221647999999995</v>
+      </c>
+      <c r="K45" s="28">
+        <f t="shared" si="7"/>
+        <v>6.029679999999999</v>
+      </c>
+      <c r="L45" s="29">
+        <f t="shared" si="14"/>
+        <v>28.069199999999999</v>
+      </c>
+      <c r="M45" s="37">
         <f t="shared" si="3"/>
-        <v>2.0791999999999997</v>
-      </c>
-      <c r="G45" s="20">
-        <v>0</v>
-      </c>
-      <c r="H45" s="28">
-        <f>SUM(E45:G45)*17.7%</f>
-        <v>4.9682483999999993</v>
-      </c>
-      <c r="I45" s="34">
-        <f>SUM(E45:H45)</f>
-        <v>33.037448399999995</v>
-      </c>
-      <c r="J45" s="22">
-        <f t="shared" si="7"/>
         <v>35.221647999999995</v>
       </c>
-      <c r="K45" s="28">
-        <f t="shared" si="4"/>
-        <v>6.029679999999999</v>
-      </c>
-      <c r="L45" s="29">
-        <f>E45+F45</f>
-        <v>28.069199999999999</v>
-      </c>
-      <c r="M45" s="37">
-        <f t="shared" si="0"/>
-        <v>35.221647999999995</v>
-      </c>
       <c r="N45" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2019680000000008</v>
       </c>
       <c r="O45" s="36">
         <v>0</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" ref="P45:P49" si="10">N45</f>
+        <f t="shared" ref="P45:P49" si="17">N45</f>
         <v>3.2019680000000008</v>
       </c>
       <c r="Q45" s="33">
         <v>0</v>
       </c>
       <c r="R45" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
@@ -6188,52 +5863,52 @@
         <v>34.99</v>
       </c>
       <c r="F46" s="31">
+        <f t="shared" si="6"/>
+        <v>2.7992000000000004</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="28">
+        <f t="shared" si="16"/>
+        <v>6.6886884000000002</v>
+      </c>
+      <c r="I46" s="34">
+        <f t="shared" si="13"/>
+        <v>44.477888399999998</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="shared" si="10"/>
+        <v>47.418448000000005</v>
+      </c>
+      <c r="K46" s="28">
+        <f t="shared" si="7"/>
+        <v>8.11768</v>
+      </c>
+      <c r="L46" s="29">
+        <f t="shared" si="14"/>
+        <v>37.789200000000001</v>
+      </c>
+      <c r="M46" s="37">
         <f t="shared" si="3"/>
-        <v>2.7992000000000004</v>
-      </c>
-      <c r="G46" s="20">
-        <v>0</v>
-      </c>
-      <c r="H46" s="28">
-        <f>SUM(E46:G46)*17.7%</f>
-        <v>6.6886884000000002</v>
-      </c>
-      <c r="I46" s="34">
-        <f>SUM(E46:H46)</f>
-        <v>44.477888399999998</v>
-      </c>
-      <c r="J46" s="22">
-        <f t="shared" si="7"/>
         <v>47.418448000000005</v>
       </c>
-      <c r="K46" s="28">
-        <f t="shared" si="4"/>
-        <v>8.11768</v>
-      </c>
-      <c r="L46" s="29">
-        <f>E46+F46</f>
-        <v>37.789200000000001</v>
-      </c>
-      <c r="M46" s="37">
-        <f t="shared" si="0"/>
-        <v>47.418448000000005</v>
-      </c>
       <c r="N46" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.310768000000003</v>
       </c>
       <c r="O46" s="36">
         <v>0</v>
       </c>
       <c r="P46" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.310768000000003</v>
       </c>
       <c r="Q46" s="33">
         <v>0</v>
       </c>
       <c r="R46" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
@@ -6252,52 +5927,52 @@
         <v>77.89</v>
       </c>
       <c r="F47" s="31">
+        <f t="shared" si="6"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
+      <c r="H47" s="28">
+        <f t="shared" si="16"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I47" s="34">
+        <f t="shared" si="13"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" si="10"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K47" s="28">
+        <f t="shared" si="7"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L47" s="29">
+        <f t="shared" si="14"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M47" s="37">
         <f t="shared" si="3"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G47" s="20">
-        <v>0</v>
-      </c>
-      <c r="H47" s="28">
-        <f>SUM(E47:G47)*17.7%</f>
-        <v>14.8894524</v>
-      </c>
-      <c r="I47" s="34">
-        <f>SUM(E47:H47)</f>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J47" s="22">
-        <f t="shared" si="7"/>
         <v>105.556528</v>
       </c>
-      <c r="K47" s="28">
-        <f t="shared" si="4"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L47" s="29">
-        <f>E47+F47</f>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M47" s="37">
-        <f t="shared" si="0"/>
-        <v>105.556528</v>
-      </c>
       <c r="N47" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
       <c r="O47" s="36">
         <v>0</v>
       </c>
       <c r="P47" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.5960479999999961</v>
       </c>
       <c r="Q47" s="33">
         <v>0</v>
       </c>
       <c r="R47" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -6316,52 +5991,52 @@
         <v>77.89</v>
       </c>
       <c r="F48" s="31">
+        <f t="shared" si="6"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="28">
+        <f t="shared" si="16"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I48" s="34">
+        <f t="shared" si="13"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J48" s="22">
+        <f t="shared" si="10"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K48" s="28">
+        <f t="shared" si="7"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L48" s="29">
+        <f t="shared" si="14"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M48" s="37">
         <f t="shared" si="3"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G48" s="20">
-        <v>0</v>
-      </c>
-      <c r="H48" s="28">
-        <f>SUM(E48:G48)*17.7%</f>
-        <v>14.8894524</v>
-      </c>
-      <c r="I48" s="34">
-        <f>SUM(E48:H48)</f>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J48" s="22">
-        <f t="shared" si="7"/>
         <v>105.556528</v>
       </c>
-      <c r="K48" s="28">
-        <f t="shared" si="4"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L48" s="29">
-        <f>E48+F48</f>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M48" s="37">
-        <f t="shared" si="0"/>
-        <v>105.556528</v>
-      </c>
       <c r="N48" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
       <c r="O48" s="36">
         <v>0</v>
       </c>
       <c r="P48" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.5960479999999961</v>
       </c>
       <c r="Q48" s="33">
         <v>0</v>
       </c>
       <c r="R48" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -6380,52 +6055,52 @@
         <v>77.89</v>
       </c>
       <c r="F49" s="31">
+        <f t="shared" si="6"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="28">
+        <f t="shared" si="16"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I49" s="34">
+        <f t="shared" si="13"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="10"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K49" s="28">
+        <f t="shared" si="7"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L49" s="29">
+        <f t="shared" si="14"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M49" s="37">
         <f t="shared" si="3"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G49" s="20">
-        <v>0</v>
-      </c>
-      <c r="H49" s="28">
-        <f>SUM(E49:G49)*17.7%</f>
-        <v>14.8894524</v>
-      </c>
-      <c r="I49" s="34">
-        <f>SUM(E49:H49)</f>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J49" s="22">
-        <f t="shared" si="7"/>
         <v>105.556528</v>
       </c>
-      <c r="K49" s="28">
-        <f t="shared" si="4"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L49" s="29">
-        <f>E49+F49</f>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M49" s="37">
-        <f t="shared" si="0"/>
-        <v>105.556528</v>
-      </c>
       <c r="N49" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
       <c r="O49" s="36">
         <v>0</v>
       </c>
       <c r="P49" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.5960479999999961</v>
       </c>
       <c r="Q49" s="33">
         <v>0</v>
       </c>
       <c r="R49" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
@@ -6444,156 +6119,1783 @@
         <v>77.89</v>
       </c>
       <c r="F50" s="31">
+        <f t="shared" si="6"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="28">
+        <f t="shared" si="16"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I50" s="34">
+        <f t="shared" si="13"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="shared" si="10"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K50" s="28">
+        <f t="shared" si="7"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L50" s="29">
+        <f t="shared" si="14"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M50" s="37">
         <f t="shared" si="3"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N50" s="37">
+        <f t="shared" si="8"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O50" s="36">
+        <v>0</v>
+      </c>
+      <c r="P50" s="32">
+        <f t="shared" ref="P50" si="18">N50</f>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q50" s="33">
+        <v>0</v>
+      </c>
+      <c r="R50" s="38">
+        <f t="shared" si="9"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>1</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F51" s="31">
+        <f t="shared" ref="F51:F56" si="19">E51*8%</f>
         <v>6.2312000000000003</v>
       </c>
-      <c r="G50" s="20">
-        <v>0</v>
-      </c>
-      <c r="H50" s="28">
-        <f>SUM(E50:G50)*17.7%</f>
+      <c r="G51" s="20">
+        <v>0</v>
+      </c>
+      <c r="H51" s="28">
+        <f t="shared" ref="H51:H56" si="20">SUM(E51:G51)*17.7%</f>
         <v>14.8894524</v>
       </c>
-      <c r="I50" s="34">
-        <f>SUM(E50:H50)</f>
+      <c r="I51" s="34">
+        <f t="shared" ref="I51:I56" si="21">SUM(E51:H51)</f>
         <v>99.010652399999998</v>
       </c>
-      <c r="J50" s="22">
-        <f t="shared" si="7"/>
+      <c r="J51" s="22">
+        <f t="shared" ref="J51:J56" si="22">M51</f>
         <v>105.556528</v>
       </c>
-      <c r="K50" s="28">
-        <f t="shared" si="4"/>
+      <c r="K51" s="28">
+        <f t="shared" ref="K51:K56" si="23">(E51*0.152)+F51</f>
         <v>18.07048</v>
       </c>
-      <c r="L50" s="29">
-        <f>E50+F50</f>
+      <c r="L51" s="29">
+        <f t="shared" ref="L51:L56" si="24">E51+F51</f>
         <v>84.121200000000002</v>
       </c>
-      <c r="M50" s="37">
-        <f t="shared" si="0"/>
+      <c r="M51" s="37">
+        <f t="shared" ref="M51:M56" si="25">E51+K51+(10%*(E51+K51))</f>
         <v>105.556528</v>
       </c>
-      <c r="N50" s="37">
-        <f t="shared" si="5"/>
+      <c r="N51" s="37">
+        <f t="shared" ref="N51:N56" si="26">J51-(E51+K51)</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O50" s="36">
-        <v>0</v>
-      </c>
-      <c r="P50" s="32">
-        <f t="shared" ref="P50" si="11">N50</f>
+      <c r="O51" s="36">
+        <v>0</v>
+      </c>
+      <c r="P51" s="32">
+        <f t="shared" ref="P51:P56" si="27">N51</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q50" s="33">
-        <v>0</v>
-      </c>
-      <c r="R50" s="38">
-        <f t="shared" si="6"/>
+      <c r="Q51" s="33">
+        <v>0</v>
+      </c>
+      <c r="R51" s="38">
+        <f t="shared" ref="R51:R56" si="28">N51/(E51+K51)</f>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-      <c r="D51" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="Q51"/>
+    <row r="52" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <v>1</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F52" s="31">
+        <f t="shared" si="19"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="28">
+        <f t="shared" si="20"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I52" s="34">
+        <f t="shared" si="21"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J52" s="22">
+        <f t="shared" si="22"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K52" s="28">
+        <f t="shared" si="23"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L52" s="29">
+        <f t="shared" si="24"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M52" s="37">
+        <f t="shared" si="25"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N52" s="37">
+        <f t="shared" si="26"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O52" s="36">
+        <v>0</v>
+      </c>
+      <c r="P52" s="32">
+        <f t="shared" si="27"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q52" s="33">
+        <v>0</v>
+      </c>
+      <c r="R52" s="38">
+        <f t="shared" si="28"/>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="E52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="Q52"/>
+    <row r="53" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F53" s="31">
+        <f t="shared" si="19"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0</v>
+      </c>
+      <c r="H53" s="28">
+        <f t="shared" si="20"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I53" s="34">
+        <f t="shared" si="21"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J53" s="22">
+        <f t="shared" si="22"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K53" s="28">
+        <f t="shared" si="23"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L53" s="29">
+        <f t="shared" si="24"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M53" s="37">
+        <f t="shared" si="25"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N53" s="37">
+        <f t="shared" si="26"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O53" s="36">
+        <v>0</v>
+      </c>
+      <c r="P53" s="32">
+        <f t="shared" si="27"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q53" s="33">
+        <v>0</v>
+      </c>
+      <c r="R53" s="38">
+        <f t="shared" si="28"/>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="E53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="Q53"/>
+    <row r="54" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>1</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F54" s="31">
+        <f t="shared" si="19"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0</v>
+      </c>
+      <c r="H54" s="28">
+        <f t="shared" si="20"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I54" s="34">
+        <f t="shared" si="21"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="22"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K54" s="28">
+        <f t="shared" si="23"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L54" s="29">
+        <f t="shared" si="24"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M54" s="37">
+        <f t="shared" si="25"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N54" s="37">
+        <f t="shared" si="26"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O54" s="36">
+        <v>0</v>
+      </c>
+      <c r="P54" s="32">
+        <f t="shared" si="27"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q54" s="33">
+        <v>0</v>
+      </c>
+      <c r="R54" s="38">
+        <f t="shared" si="28"/>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54"/>
-      <c r="E54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="Q54"/>
+    <row r="55" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F55" s="31">
+        <f t="shared" si="19"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="28">
+        <f t="shared" si="20"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I55" s="34">
+        <f t="shared" si="21"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J55" s="22">
+        <f t="shared" si="22"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K55" s="28">
+        <f t="shared" si="23"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L55" s="29">
+        <f t="shared" si="24"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M55" s="37">
+        <f t="shared" si="25"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N55" s="37">
+        <f t="shared" si="26"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O55" s="36">
+        <v>0</v>
+      </c>
+      <c r="P55" s="32">
+        <f t="shared" si="27"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>0</v>
+      </c>
+      <c r="R55" s="38">
+        <f t="shared" si="28"/>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55"/>
-      <c r="E55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="Q55"/>
+    <row r="56" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F56" s="31">
+        <f t="shared" si="19"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="28">
+        <f t="shared" si="20"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I56" s="34">
+        <f t="shared" si="21"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J56" s="22">
+        <f t="shared" si="22"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K56" s="28">
+        <f t="shared" si="23"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L56" s="29">
+        <f t="shared" si="24"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M56" s="37">
+        <f t="shared" si="25"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N56" s="37">
+        <f t="shared" si="26"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O56" s="36">
+        <v>0</v>
+      </c>
+      <c r="P56" s="32">
+        <f t="shared" si="27"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q56" s="33">
+        <v>0</v>
+      </c>
+      <c r="R56" s="38">
+        <f t="shared" si="28"/>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-      <c r="E56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="Q56"/>
+    <row r="57" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F57" s="31">
+        <f t="shared" ref="F57:F77" si="29">E57*8%</f>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0</v>
+      </c>
+      <c r="H57" s="28">
+        <f t="shared" ref="H57:H77" si="30">SUM(E57:G57)*17.7%</f>
+        <v>14.8894524</v>
+      </c>
+      <c r="I57" s="34">
+        <f t="shared" ref="I57:I77" si="31">SUM(E57:H57)</f>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J57" s="22">
+        <f t="shared" ref="J57:J77" si="32">M57</f>
+        <v>105.556528</v>
+      </c>
+      <c r="K57" s="28">
+        <f t="shared" ref="K57:K77" si="33">(E57*0.152)+F57</f>
+        <v>18.07048</v>
+      </c>
+      <c r="L57" s="29">
+        <f t="shared" ref="L57:L77" si="34">E57+F57</f>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M57" s="37">
+        <f t="shared" ref="M57:M77" si="35">E57+K57+(10%*(E57+K57))</f>
+        <v>105.556528</v>
+      </c>
+      <c r="N57" s="37">
+        <f t="shared" ref="N57:N77" si="36">J57-(E57+K57)</f>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O57" s="36">
+        <v>0</v>
+      </c>
+      <c r="P57" s="32">
+        <f t="shared" ref="P57:P77" si="37">N57</f>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>0</v>
+      </c>
+      <c r="R57" s="38">
+        <f t="shared" ref="R57:R77" si="38">N57/(E57+K57)</f>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="E57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="Q57"/>
+    <row r="58" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
+        <v>1</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F58" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I58" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J58" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K58" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L58" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M58" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N58" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O58" s="36">
+        <v>0</v>
+      </c>
+      <c r="P58" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q58" s="33">
+        <v>0</v>
+      </c>
+      <c r="R58" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F59" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I59" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J59" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K59" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L59" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M59" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N59" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O59" s="36">
+        <v>0</v>
+      </c>
+      <c r="P59" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q59" s="33">
+        <v>0</v>
+      </c>
+      <c r="R59" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
+        <v>1</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F60" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I60" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J60" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K60" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L60" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M60" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N60" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O60" s="36">
+        <v>0</v>
+      </c>
+      <c r="P60" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q60" s="33">
+        <v>0</v>
+      </c>
+      <c r="R60" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
+        <v>1</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F61" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I61" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J61" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K61" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L61" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M61" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N61" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O61" s="36">
+        <v>0</v>
+      </c>
+      <c r="P61" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q61" s="33">
+        <v>0</v>
+      </c>
+      <c r="R61" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F62" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I62" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J62" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K62" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L62" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M62" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N62" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O62" s="36">
+        <v>0</v>
+      </c>
+      <c r="P62" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q62" s="33">
+        <v>0</v>
+      </c>
+      <c r="R62" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F63" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I63" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J63" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K63" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L63" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M63" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N63" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O63" s="36">
+        <v>0</v>
+      </c>
+      <c r="P63" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q63" s="33">
+        <v>0</v>
+      </c>
+      <c r="R63" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F64" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0</v>
+      </c>
+      <c r="H64" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I64" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J64" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K64" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L64" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M64" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N64" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O64" s="36">
+        <v>0</v>
+      </c>
+      <c r="P64" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q64" s="33">
+        <v>0</v>
+      </c>
+      <c r="R64" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F65" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
+      <c r="H65" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I65" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J65" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K65" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L65" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M65" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N65" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O65" s="36">
+        <v>0</v>
+      </c>
+      <c r="P65" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q65" s="33">
+        <v>0</v>
+      </c>
+      <c r="R65" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F66" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I66" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J66" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K66" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L66" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M66" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N66" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O66" s="36">
+        <v>0</v>
+      </c>
+      <c r="P66" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q66" s="33">
+        <v>0</v>
+      </c>
+      <c r="R66" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F67" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I67" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J67" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K67" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L67" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M67" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N67" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O67" s="36">
+        <v>0</v>
+      </c>
+      <c r="P67" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q67" s="33">
+        <v>0</v>
+      </c>
+      <c r="R67" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F68" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0</v>
+      </c>
+      <c r="H68" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I68" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J68" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K68" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L68" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M68" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N68" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O68" s="36">
+        <v>0</v>
+      </c>
+      <c r="P68" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q68" s="33">
+        <v>0</v>
+      </c>
+      <c r="R68" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
+        <v>1</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F69" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G69" s="20">
+        <v>0</v>
+      </c>
+      <c r="H69" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I69" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J69" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K69" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L69" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M69" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N69" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O69" s="36">
+        <v>0</v>
+      </c>
+      <c r="P69" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q69" s="33">
+        <v>0</v>
+      </c>
+      <c r="R69" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="24">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F70" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G70" s="20">
+        <v>0</v>
+      </c>
+      <c r="H70" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I70" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J70" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K70" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L70" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M70" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N70" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O70" s="36">
+        <v>0</v>
+      </c>
+      <c r="P70" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q70" s="33">
+        <v>0</v>
+      </c>
+      <c r="R70" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="24">
+        <v>1</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F71" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0</v>
+      </c>
+      <c r="H71" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I71" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J71" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K71" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L71" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M71" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N71" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O71" s="36">
+        <v>0</v>
+      </c>
+      <c r="P71" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q71" s="33">
+        <v>0</v>
+      </c>
+      <c r="R71" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
+        <v>1</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F72" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I72" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J72" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K72" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L72" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M72" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N72" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O72" s="36">
+        <v>0</v>
+      </c>
+      <c r="P72" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q72" s="33">
+        <v>0</v>
+      </c>
+      <c r="R72" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F73" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0</v>
+      </c>
+      <c r="H73" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I73" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J73" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K73" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L73" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M73" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N73" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O73" s="36">
+        <v>0</v>
+      </c>
+      <c r="P73" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q73" s="33">
+        <v>0</v>
+      </c>
+      <c r="R73" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F74" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0</v>
+      </c>
+      <c r="H74" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I74" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J74" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K74" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L74" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M74" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N74" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O74" s="36">
+        <v>0</v>
+      </c>
+      <c r="P74" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q74" s="33">
+        <v>0</v>
+      </c>
+      <c r="R74" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="24">
+        <v>1</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F75" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G75" s="20">
+        <v>0</v>
+      </c>
+      <c r="H75" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I75" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J75" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K75" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L75" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M75" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N75" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O75" s="36">
+        <v>0</v>
+      </c>
+      <c r="P75" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q75" s="33">
+        <v>0</v>
+      </c>
+      <c r="R75" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
+        <v>1</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F76" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G76" s="20">
+        <v>0</v>
+      </c>
+      <c r="H76" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I76" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J76" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K76" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L76" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M76" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N76" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O76" s="36">
+        <v>0</v>
+      </c>
+      <c r="P76" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q76" s="33">
+        <v>0</v>
+      </c>
+      <c r="R76" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="24">
+        <v>1</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="30">
+        <v>77.89</v>
+      </c>
+      <c r="F77" s="31">
+        <f t="shared" si="29"/>
+        <v>6.2312000000000003</v>
+      </c>
+      <c r="G77" s="20">
+        <v>0</v>
+      </c>
+      <c r="H77" s="28">
+        <f t="shared" si="30"/>
+        <v>14.8894524</v>
+      </c>
+      <c r="I77" s="34">
+        <f t="shared" si="31"/>
+        <v>99.010652399999998</v>
+      </c>
+      <c r="J77" s="22">
+        <f t="shared" si="32"/>
+        <v>105.556528</v>
+      </c>
+      <c r="K77" s="28">
+        <f t="shared" si="33"/>
+        <v>18.07048</v>
+      </c>
+      <c r="L77" s="29">
+        <f t="shared" si="34"/>
+        <v>84.121200000000002</v>
+      </c>
+      <c r="M77" s="37">
+        <f t="shared" si="35"/>
+        <v>105.556528</v>
+      </c>
+      <c r="N77" s="37">
+        <f t="shared" si="36"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="O77" s="36">
+        <v>0</v>
+      </c>
+      <c r="P77" s="32">
+        <f t="shared" si="37"/>
+        <v>9.5960479999999961</v>
+      </c>
+      <c r="Q77" s="33">
+        <v>0</v>
+      </c>
+      <c r="R77" s="38">
+        <f t="shared" si="38"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -677,9 +677,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Валута" xfId="1" builtinId="4"/>
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
-    <cellStyle name="Хипервръзка" xfId="2" builtinId="8"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2643,9 +2643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2683,9 +2683,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2720,7 +2720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2755,7 +2755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2931,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="A72:XFD77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,7 +5111,7 @@
         <v>3.8136419999999998</v>
       </c>
       <c r="I34" s="34">
-        <f t="shared" ref="I34:I65" si="13">SUM(E34:H34)</f>
+        <f t="shared" ref="I34:I50" si="13">SUM(E34:H34)</f>
         <v>25.359642000000001</v>
       </c>
       <c r="J34" s="22">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2931,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,49 +4449,48 @@
         <v>55</v>
       </c>
       <c r="E24" s="30">
-        <v>27.99</v>
+        <v>29.99</v>
       </c>
       <c r="F24" s="31">
         <f t="shared" si="6"/>
-        <v>2.2391999999999999</v>
+        <v>2.3992</v>
       </c>
       <c r="G24" s="20">
         <v>0</v>
       </c>
       <c r="H24" s="28">
         <f t="shared" si="0"/>
-        <v>5.1389640000000005</v>
+        <v>5.5061639999999992</v>
       </c>
       <c r="I24" s="34">
         <f t="shared" si="1"/>
-        <v>35.368164</v>
+        <v>37.895363999999994</v>
       </c>
       <c r="J24" s="22">
-        <f t="shared" si="10"/>
-        <v>37.932048000000002</v>
+        <v>42.95</v>
       </c>
       <c r="K24" s="28">
         <f t="shared" si="7"/>
-        <v>6.4936799999999995</v>
+        <v>6.9576799999999999</v>
       </c>
       <c r="L24" s="29">
         <f t="shared" si="2"/>
-        <v>30.229199999999999</v>
+        <v>32.389199999999995</v>
       </c>
       <c r="M24" s="37">
         <f t="shared" si="3"/>
-        <v>37.932048000000002</v>
+        <v>40.642448000000002</v>
       </c>
       <c r="N24" s="37">
         <f t="shared" si="8"/>
-        <v>3.4483680000000021</v>
+        <v>6.0023200000000045</v>
       </c>
       <c r="O24" s="36">
         <v>0</v>
       </c>
       <c r="P24" s="32">
         <f t="shared" si="4"/>
-        <v>3.4483680000000021</v>
+        <v>6.0023200000000045</v>
       </c>
       <c r="Q24" s="33">
         <f t="shared" si="11"/>
@@ -4499,7 +4498,7 @@
       </c>
       <c r="R24" s="38">
         <f t="shared" si="9"/>
-        <v>0.10000000000000006</v>
+        <v>0.16245458442857588</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>Picture</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>NO PRIME</t>
+  </si>
+  <si>
+    <t>EbaY</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +580,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -675,6 +684,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2929,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,18 +2962,19 @@
     <col min="7" max="7" width="9.140625" style="8"/>
     <col min="8" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="14.7109375" style="35" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="35" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.7109375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -2981,36 +3000,39 @@
       <c r="I1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3039,47 +3061,48 @@
         <f t="shared" ref="I2:I33" si="1">SUM(E2:H2)</f>
         <v>18.132660000000001</v>
       </c>
-      <c r="J2" s="22">
-        <f>M2</f>
+      <c r="J2" s="40"/>
+      <c r="K2" s="22">
+        <f>N2</f>
         <v>19.447120000000002</v>
       </c>
-      <c r="K2" s="28">
+      <c r="L2" s="28">
         <f>(E2*0.152)+F2</f>
         <v>3.3292000000000002</v>
       </c>
-      <c r="L2" s="29">
-        <f t="shared" ref="L2:L33" si="2">E2+F2</f>
+      <c r="M2" s="29">
+        <f t="shared" ref="M2:M33" si="2">E2+F2</f>
         <v>15.497999999999999</v>
       </c>
-      <c r="M2" s="37">
-        <f t="shared" ref="M2:M50" si="3">E2+K2+(10%*(E2+K2))</f>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2:N50" si="3">E2+L2+(10%*(E2+L2))</f>
         <v>19.447120000000002</v>
       </c>
-      <c r="N2" s="37">
-        <f>J2-(E2+K2)</f>
+      <c r="O2" s="37">
+        <f>K2-(E2+L2)</f>
         <v>1.7679200000000002</v>
       </c>
-      <c r="O2" s="36">
-        <v>0</v>
-      </c>
-      <c r="P2" s="32">
-        <f t="shared" ref="P2:P37" si="4">N2</f>
+      <c r="P2" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32">
+        <f t="shared" ref="Q2:Q37" si="4">O2</f>
         <v>1.7679200000000002</v>
       </c>
-      <c r="Q2" s="33">
-        <f t="shared" ref="Q2:Q15" si="5">O2*P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="38">
-        <f>N2/(E2+K2)</f>
+      <c r="R2" s="33">
+        <f t="shared" ref="R2:R15" si="5">P2*Q2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="38">
+        <f>O2/(E2+L2)</f>
         <v>0.1</v>
       </c>
-      <c r="T2" t="str">
-        <f ca="1">IF(S2&lt;&gt;"",IF(T2="",NOW(),T2),"")</f>
+      <c r="U2" t="str">
+        <f ca="1">IF(T2&lt;&gt;"",IF(U2="",NOW(),U2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>80</v>
       </c>
@@ -3108,42 +3131,43 @@
         <f t="shared" si="1"/>
         <v>16.666884</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="40"/>
+      <c r="K3" s="22">
         <v>17.989999999999998</v>
       </c>
-      <c r="K3" s="28">
-        <f t="shared" ref="K3:K50" si="7">(E3*0.152)+F3</f>
+      <c r="L3" s="28">
+        <f t="shared" ref="L3:L50" si="7">(E3*0.152)+F3</f>
         <v>3.0600800000000001</v>
       </c>
-      <c r="L3" s="29">
+      <c r="M3" s="29">
         <f t="shared" si="2"/>
         <v>14.245199999999999</v>
       </c>
-      <c r="M3" s="37">
+      <c r="N3" s="37">
         <f t="shared" si="3"/>
         <v>17.875088000000002</v>
       </c>
-      <c r="N3" s="37">
-        <f t="shared" ref="N3:N50" si="8">J3-(E3+K3)</f>
+      <c r="O3" s="37">
+        <f t="shared" ref="O3:O50" si="8">K3-(E3+L3)</f>
         <v>1.7399199999999979</v>
       </c>
-      <c r="O3" s="36">
+      <c r="P3" s="36">
         <v>1</v>
       </c>
-      <c r="P3" s="32">
+      <c r="Q3" s="32">
         <f t="shared" si="4"/>
         <v>1.7399199999999979</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="R3" s="33">
         <f t="shared" si="5"/>
         <v>1.7399199999999979</v>
       </c>
-      <c r="R3" s="38">
-        <f t="shared" ref="R3:R50" si="9">N3/(E3+K3)</f>
+      <c r="S3" s="38">
+        <f t="shared" ref="S3:S50" si="9">O3/(E3+L3)</f>
         <v>0.10707147287890262</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>120</v>
       </c>
@@ -3172,43 +3196,44 @@
         <f t="shared" si="1"/>
         <v>21.418019999999999</v>
       </c>
-      <c r="J4" s="22">
-        <f t="shared" ref="J4:J50" si="10">M4</f>
+      <c r="J4" s="40"/>
+      <c r="K4" s="22">
+        <f t="shared" ref="J4:K50" si="10">N4</f>
         <v>22.97064</v>
       </c>
-      <c r="K4" s="28">
+      <c r="L4" s="28">
         <f t="shared" si="7"/>
         <v>3.9323999999999999</v>
       </c>
-      <c r="L4" s="29">
+      <c r="M4" s="29">
         <f t="shared" si="2"/>
         <v>18.305999999999997</v>
       </c>
-      <c r="M4" s="37">
+      <c r="N4" s="37">
         <f t="shared" si="3"/>
         <v>22.97064</v>
       </c>
-      <c r="N4" s="37">
+      <c r="O4" s="37">
         <f t="shared" si="8"/>
         <v>2.088239999999999</v>
       </c>
-      <c r="O4" s="36">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
+      <c r="P4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
         <f t="shared" si="4"/>
         <v>2.088239999999999</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="R4" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="38">
+      <c r="S4" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -3237,42 +3262,43 @@
         <f t="shared" si="1"/>
         <v>25.259363999999998</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="40"/>
+      <c r="K5" s="22">
         <v>28.46</v>
       </c>
-      <c r="K5" s="28">
+      <c r="L5" s="28">
         <f t="shared" si="7"/>
         <v>4.6376799999999996</v>
       </c>
-      <c r="L5" s="29">
+      <c r="M5" s="29">
         <f t="shared" si="2"/>
         <v>21.589199999999998</v>
       </c>
-      <c r="M5" s="37">
+      <c r="N5" s="37">
         <f t="shared" si="3"/>
         <v>27.090447999999999</v>
       </c>
-      <c r="N5" s="37">
+      <c r="O5" s="37">
         <f t="shared" si="8"/>
         <v>3.8323200000000028</v>
       </c>
-      <c r="O5" s="36">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
+      <c r="P5" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
         <f t="shared" si="4"/>
         <v>3.8323200000000028</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="R5" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="38">
+      <c r="S5" s="38">
         <f t="shared" si="9"/>
         <v>0.15561027266880206</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>72</v>
       </c>
@@ -3301,43 +3327,44 @@
         <f t="shared" si="1"/>
         <v>63.824435999999992</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="40"/>
+      <c r="K6" s="22">
         <f t="shared" si="10"/>
         <v>68.451151999999993</v>
       </c>
-      <c r="K6" s="28">
+      <c r="L6" s="28">
         <f t="shared" si="7"/>
         <v>11.718319999999999</v>
       </c>
-      <c r="L6" s="29">
+      <c r="M6" s="29">
         <f t="shared" si="2"/>
         <v>54.550799999999995</v>
       </c>
-      <c r="M6" s="37">
+      <c r="N6" s="37">
         <f t="shared" si="3"/>
         <v>68.451151999999993</v>
       </c>
-      <c r="N6" s="37">
+      <c r="O6" s="37">
         <f t="shared" si="8"/>
         <v>6.2228319999999968</v>
       </c>
-      <c r="O6" s="36">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
+      <c r="P6" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
         <f t="shared" si="4"/>
         <v>6.2228319999999968</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="R6" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="38">
+      <c r="S6" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>48</v>
       </c>
@@ -3366,43 +3393,44 @@
         <f t="shared" si="1"/>
         <v>46.348848000000004</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="40"/>
+      <c r="K7" s="22">
         <f t="shared" si="10"/>
         <v>49.708736000000002</v>
       </c>
-      <c r="K7" s="28">
+      <c r="L7" s="28">
         <f t="shared" si="7"/>
         <v>8.50976</v>
       </c>
-      <c r="L7" s="29">
+      <c r="M7" s="29">
         <f t="shared" si="2"/>
         <v>39.614400000000003</v>
       </c>
-      <c r="M7" s="37">
+      <c r="N7" s="37">
         <f t="shared" si="3"/>
         <v>49.708736000000002</v>
       </c>
-      <c r="N7" s="37">
+      <c r="O7" s="37">
         <f t="shared" si="8"/>
         <v>4.5189760000000021</v>
       </c>
-      <c r="O7" s="36">
-        <v>0</v>
-      </c>
-      <c r="P7" s="32">
+      <c r="P7" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32">
         <f t="shared" si="4"/>
         <v>4.5189760000000021</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="R7" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="38">
+      <c r="S7" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>132</v>
       </c>
@@ -3431,43 +3459,44 @@
         <f t="shared" si="1"/>
         <v>127.49724000000001</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="40"/>
+      <c r="K8" s="22">
         <f t="shared" si="10"/>
         <v>136.73968000000002</v>
       </c>
-      <c r="K8" s="28">
+      <c r="L8" s="28">
         <f t="shared" si="7"/>
         <v>23.408799999999999</v>
       </c>
-      <c r="L8" s="29">
+      <c r="M8" s="29">
         <f t="shared" si="2"/>
         <v>108.97200000000001</v>
       </c>
-      <c r="M8" s="37">
+      <c r="N8" s="37">
         <f t="shared" si="3"/>
         <v>136.73968000000002</v>
       </c>
-      <c r="N8" s="37">
+      <c r="O8" s="37">
         <f t="shared" si="8"/>
         <v>12.430880000000016</v>
       </c>
-      <c r="O8" s="36">
-        <v>0</v>
-      </c>
-      <c r="P8" s="32">
+      <c r="P8" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
         <f t="shared" si="4"/>
         <v>12.430880000000016</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="R8" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="38">
+      <c r="S8" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>30</v>
       </c>
@@ -3496,42 +3525,43 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="40"/>
+      <c r="K9" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K9" s="28">
+      <c r="L9" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L9" s="29">
+      <c r="M9" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="37">
-        <v>0</v>
-      </c>
       <c r="N9" s="37">
+        <v>0</v>
+      </c>
+      <c r="O9" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O9" s="36">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32">
+      <c r="P9" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="R9" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="38" t="e">
+      <c r="S9" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>35</v>
       </c>
@@ -3560,43 +3590,44 @@
         <f t="shared" si="1"/>
         <v>15.592824</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="40"/>
+      <c r="K10" s="22">
         <f t="shared" si="10"/>
         <v>16.723168000000001</v>
       </c>
-      <c r="K10" s="28">
+      <c r="L10" s="28">
         <f t="shared" si="7"/>
         <v>2.8628800000000001</v>
       </c>
-      <c r="L10" s="29">
+      <c r="M10" s="29">
         <f t="shared" si="2"/>
         <v>13.327199999999999</v>
       </c>
-      <c r="M10" s="37">
+      <c r="N10" s="37">
         <f t="shared" si="3"/>
         <v>16.723168000000001</v>
       </c>
-      <c r="N10" s="37">
+      <c r="O10" s="37">
         <f t="shared" si="8"/>
         <v>1.5202880000000007</v>
       </c>
-      <c r="O10" s="36">
-        <v>0</v>
-      </c>
-      <c r="P10" s="32">
+      <c r="P10" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32">
         <f t="shared" si="4"/>
         <v>1.5202880000000007</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="R10" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="38">
+      <c r="S10" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>1</v>
       </c>
@@ -3625,43 +3656,44 @@
         <f t="shared" si="1"/>
         <v>36.631763999999997</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="40"/>
+      <c r="K11" s="22">
         <f t="shared" si="10"/>
         <v>39.287247999999998</v>
       </c>
-      <c r="K11" s="28">
+      <c r="L11" s="28">
         <f t="shared" si="7"/>
         <v>6.7256799999999988</v>
       </c>
-      <c r="L11" s="29">
+      <c r="M11" s="29">
         <f t="shared" si="2"/>
         <v>31.309199999999997</v>
       </c>
-      <c r="M11" s="37">
+      <c r="N11" s="37">
         <f t="shared" si="3"/>
         <v>39.287247999999998</v>
       </c>
-      <c r="N11" s="37">
+      <c r="O11" s="37">
         <f t="shared" si="8"/>
         <v>3.5715679999999992</v>
       </c>
-      <c r="O11" s="36">
-        <v>0</v>
-      </c>
-      <c r="P11" s="32">
+      <c r="P11" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
         <f t="shared" si="4"/>
         <v>3.5715679999999992</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="R11" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="38">
+      <c r="S11" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>1</v>
       </c>
@@ -3690,43 +3722,44 @@
         <f t="shared" si="1"/>
         <v>75.803364000000016</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="40"/>
+      <c r="K12" s="22">
         <f t="shared" si="10"/>
         <v>81.298447999999993</v>
       </c>
-      <c r="K12" s="28">
+      <c r="L12" s="28">
         <f t="shared" si="7"/>
         <v>13.917680000000001</v>
       </c>
-      <c r="L12" s="29">
+      <c r="M12" s="29">
         <f t="shared" si="2"/>
         <v>64.789200000000008</v>
       </c>
-      <c r="M12" s="37">
+      <c r="N12" s="37">
         <f t="shared" si="3"/>
         <v>81.298447999999993</v>
       </c>
-      <c r="N12" s="37">
+      <c r="O12" s="37">
         <f t="shared" si="8"/>
         <v>7.3907679999999942</v>
       </c>
-      <c r="O12" s="36">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32">
+      <c r="P12" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="4"/>
         <v>7.3907679999999942</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="R12" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="38">
+      <c r="S12" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999922E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>1</v>
       </c>
@@ -3755,42 +3788,43 @@
         <f t="shared" si="1"/>
         <v>35.368164</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="40"/>
+      <c r="K13" s="22">
         <v>39.950000000000003</v>
       </c>
-      <c r="K13" s="28">
+      <c r="L13" s="28">
         <f t="shared" si="7"/>
         <v>6.4936799999999995</v>
       </c>
-      <c r="L13" s="29">
+      <c r="M13" s="29">
         <f t="shared" si="2"/>
         <v>30.229199999999999</v>
       </c>
-      <c r="M13" s="37">
+      <c r="N13" s="37">
         <f t="shared" si="3"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="N13" s="37">
+      <c r="O13" s="37">
         <f t="shared" si="8"/>
         <v>5.4663200000000032</v>
       </c>
-      <c r="O13" s="36">
-        <v>0</v>
-      </c>
-      <c r="P13" s="32">
+      <c r="P13" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="32">
         <f t="shared" si="4"/>
         <v>5.4663200000000032</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="R13" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="38">
+      <c r="S13" s="38">
         <f t="shared" si="9"/>
         <v>0.15851904437113451</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>1</v>
       </c>
@@ -3819,43 +3853,44 @@
         <f t="shared" si="1"/>
         <v>32.8536</v>
       </c>
-      <c r="J14" s="22">
-        <f>M14</f>
+      <c r="J14" s="40"/>
+      <c r="K14" s="22">
+        <f>N14</f>
         <v>35.235199999999999</v>
       </c>
-      <c r="K14" s="28">
+      <c r="L14" s="28">
         <f t="shared" si="7"/>
         <v>6.032</v>
       </c>
-      <c r="L14" s="29">
+      <c r="M14" s="29">
         <f t="shared" si="2"/>
         <v>28.08</v>
       </c>
-      <c r="M14" s="37">
+      <c r="N14" s="37">
         <f t="shared" si="3"/>
         <v>35.235199999999999</v>
       </c>
-      <c r="N14" s="37">
+      <c r="O14" s="37">
         <f t="shared" si="8"/>
         <v>3.2032000000000025</v>
       </c>
-      <c r="O14" s="36">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
+      <c r="P14" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32">
         <f t="shared" si="4"/>
         <v>3.2032000000000025</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="R14" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="38">
+      <c r="S14" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -3884,43 +3919,44 @@
         <f t="shared" si="1"/>
         <v>32.8536</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="40"/>
+      <c r="K15" s="22">
         <f t="shared" si="10"/>
         <v>35.235199999999999</v>
       </c>
-      <c r="K15" s="28">
+      <c r="L15" s="28">
         <f t="shared" si="7"/>
         <v>6.032</v>
       </c>
-      <c r="L15" s="29">
+      <c r="M15" s="29">
         <f t="shared" si="2"/>
         <v>28.08</v>
       </c>
-      <c r="M15" s="37">
+      <c r="N15" s="37">
         <f t="shared" si="3"/>
         <v>35.235199999999999</v>
       </c>
-      <c r="N15" s="37">
+      <c r="O15" s="37">
         <f t="shared" si="8"/>
         <v>3.2032000000000025</v>
       </c>
-      <c r="O15" s="36">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
+      <c r="P15" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32">
         <f t="shared" si="4"/>
         <v>3.2032000000000025</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="R15" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="38">
+      <c r="S15" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>1</v>
       </c>
@@ -3949,42 +3985,43 @@
         <f t="shared" si="1"/>
         <v>21.468564000000001</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="40"/>
+      <c r="K16" s="22">
         <v>24.95</v>
       </c>
-      <c r="K16" s="28">
+      <c r="L16" s="28">
         <f t="shared" si="7"/>
         <v>3.9416799999999999</v>
       </c>
-      <c r="L16" s="29">
+      <c r="M16" s="29">
         <f t="shared" si="2"/>
         <v>18.3492</v>
       </c>
-      <c r="M16" s="37">
+      <c r="N16" s="37">
         <f t="shared" si="3"/>
         <v>23.024847999999999</v>
       </c>
-      <c r="N16" s="37">
+      <c r="O16" s="37">
         <f t="shared" si="8"/>
         <v>4.0183199999999992</v>
       </c>
-      <c r="O16" s="36">
+      <c r="P16" s="36">
         <v>1</v>
       </c>
-      <c r="P16" s="32">
-        <f>N16</f>
+      <c r="Q16" s="32">
+        <f>O16</f>
         <v>4.0183199999999992</v>
       </c>
-      <c r="Q16" s="33">
-        <f>O16*P16</f>
+      <c r="R16" s="33">
+        <f>P16*Q16</f>
         <v>4.0183199999999992</v>
       </c>
-      <c r="R16" s="38">
+      <c r="S16" s="38">
         <f t="shared" si="9"/>
         <v>0.19197312399195857</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>1</v>
       </c>
@@ -4013,43 +4050,44 @@
         <f t="shared" si="1"/>
         <v>14.78412</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="40"/>
+      <c r="K17" s="22">
         <f t="shared" si="10"/>
         <v>15.855839999999999</v>
       </c>
-      <c r="K17" s="28">
+      <c r="L17" s="28">
         <f t="shared" si="7"/>
         <v>2.7143999999999995</v>
       </c>
-      <c r="L17" s="29">
+      <c r="M17" s="29">
         <f t="shared" si="2"/>
         <v>12.635999999999999</v>
       </c>
-      <c r="M17" s="37">
+      <c r="N17" s="37">
         <f t="shared" si="3"/>
         <v>15.855839999999999</v>
       </c>
-      <c r="N17" s="37">
+      <c r="O17" s="37">
         <f t="shared" si="8"/>
         <v>1.4414400000000001</v>
       </c>
-      <c r="O17" s="36">
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
+      <c r="P17" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32">
         <f t="shared" si="4"/>
         <v>1.4414400000000001</v>
       </c>
-      <c r="Q17" s="33">
-        <f t="shared" ref="Q17:Q31" si="11">O17*P17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="38">
+      <c r="R17" s="33">
+        <f t="shared" ref="R17:R31" si="11">P17*Q17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="38">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>1</v>
       </c>
@@ -4078,42 +4116,43 @@
         <f t="shared" si="1"/>
         <v>16.414164</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="40"/>
+      <c r="K18" s="22">
         <v>17.95</v>
       </c>
-      <c r="K18" s="28">
+      <c r="L18" s="28">
         <f t="shared" si="7"/>
         <v>3.0136799999999999</v>
       </c>
-      <c r="L18" s="29">
+      <c r="M18" s="29">
         <f t="shared" si="2"/>
         <v>14.029199999999999</v>
       </c>
-      <c r="M18" s="37">
+      <c r="N18" s="37">
         <f t="shared" si="3"/>
         <v>17.604047999999999</v>
       </c>
-      <c r="N18" s="37">
+      <c r="O18" s="37">
         <f t="shared" si="8"/>
         <v>1.9463200000000001</v>
       </c>
-      <c r="O18" s="36">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
+      <c r="P18" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
         <f t="shared" si="4"/>
         <v>1.9463200000000001</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="R18" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R18" s="38">
+      <c r="S18" s="38">
         <f t="shared" si="9"/>
         <v>0.1216170280835408</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>1</v>
       </c>
@@ -4142,42 +4181,43 @@
         <f t="shared" si="1"/>
         <v>20.204964</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="40"/>
+      <c r="K19" s="22">
         <v>22.59</v>
       </c>
-      <c r="K19" s="28">
+      <c r="L19" s="28">
         <f t="shared" si="7"/>
         <v>3.7096799999999996</v>
       </c>
-      <c r="L19" s="29">
+      <c r="M19" s="29">
         <f t="shared" si="2"/>
         <v>17.269200000000001</v>
       </c>
-      <c r="M19" s="37">
+      <c r="N19" s="37">
         <f t="shared" si="3"/>
         <v>21.669648000000002</v>
       </c>
-      <c r="N19" s="37">
+      <c r="O19" s="37">
         <f t="shared" si="8"/>
         <v>2.8903199999999991</v>
       </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="32">
+      <c r="P19" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
         <f t="shared" si="4"/>
         <v>2.8903199999999991</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="R19" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R19" s="38">
+      <c r="S19" s="38">
         <f t="shared" si="9"/>
         <v>0.14671913452401253</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>1</v>
       </c>
@@ -4206,43 +4246,44 @@
         <f t="shared" si="1"/>
         <v>28.153008</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="40"/>
+      <c r="K20" s="22">
         <f t="shared" si="10"/>
         <v>30.193856</v>
       </c>
-      <c r="K20" s="28">
+      <c r="L20" s="28">
         <f t="shared" si="7"/>
         <v>5.1689600000000002</v>
       </c>
-      <c r="L20" s="29">
+      <c r="M20" s="29">
         <f t="shared" si="2"/>
         <v>24.0624</v>
       </c>
-      <c r="M20" s="37">
+      <c r="N20" s="37">
         <f t="shared" si="3"/>
         <v>30.193856</v>
       </c>
-      <c r="N20" s="37">
+      <c r="O20" s="37">
         <f t="shared" si="8"/>
         <v>2.7448960000000007</v>
       </c>
-      <c r="O20" s="36">
-        <v>0</v>
-      </c>
-      <c r="P20" s="32">
+      <c r="P20" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="32">
         <f t="shared" si="4"/>
         <v>2.7448960000000007</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="R20" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R20" s="38">
+      <c r="S20" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>1</v>
       </c>
@@ -4271,43 +4312,44 @@
         <f t="shared" si="1"/>
         <v>11.890476000000001</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="40"/>
+      <c r="K21" s="22">
         <f t="shared" si="10"/>
         <v>12.752432000000001</v>
       </c>
-      <c r="K21" s="28">
+      <c r="L21" s="28">
         <f t="shared" si="7"/>
         <v>2.1831200000000002</v>
       </c>
-      <c r="L21" s="29">
+      <c r="M21" s="29">
         <f t="shared" si="2"/>
         <v>10.162800000000001</v>
       </c>
-      <c r="M21" s="37">
+      <c r="N21" s="37">
         <f t="shared" si="3"/>
         <v>12.752432000000001</v>
       </c>
-      <c r="N21" s="37">
+      <c r="O21" s="37">
         <f t="shared" si="8"/>
         <v>1.1593119999999999</v>
       </c>
-      <c r="O21" s="36">
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
+      <c r="P21" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32">
         <f t="shared" si="4"/>
         <v>1.1593119999999999</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="R21" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R21" s="38">
+      <c r="S21" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>1</v>
       </c>
@@ -4336,43 +4378,44 @@
         <f t="shared" si="1"/>
         <v>21.658104000000002</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="40"/>
+      <c r="K22" s="22">
         <f t="shared" si="10"/>
         <v>23.228127999999998</v>
       </c>
-      <c r="K22" s="28">
+      <c r="L22" s="28">
         <f t="shared" si="7"/>
         <v>3.97648</v>
       </c>
-      <c r="L22" s="29">
+      <c r="M22" s="29">
         <f t="shared" si="2"/>
         <v>18.511200000000002</v>
       </c>
-      <c r="M22" s="37">
+      <c r="N22" s="37">
         <f t="shared" si="3"/>
         <v>23.228127999999998</v>
       </c>
-      <c r="N22" s="37">
+      <c r="O22" s="37">
         <f t="shared" si="8"/>
         <v>2.1116479999999989</v>
       </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
+      <c r="P22" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32">
         <f t="shared" si="4"/>
         <v>2.1116479999999989</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="R22" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R22" s="38">
+      <c r="S22" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>1</v>
       </c>
@@ -4401,43 +4444,44 @@
         <f t="shared" si="1"/>
         <v>12.610728000000002</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="40"/>
+      <c r="K23" s="22">
         <f t="shared" si="10"/>
         <v>13.524896</v>
       </c>
-      <c r="K23" s="28">
+      <c r="L23" s="28">
         <f t="shared" si="7"/>
         <v>2.3153600000000001</v>
       </c>
-      <c r="L23" s="29">
+      <c r="M23" s="29">
         <f t="shared" si="2"/>
         <v>10.778400000000001</v>
       </c>
-      <c r="M23" s="37">
+      <c r="N23" s="37">
         <f t="shared" si="3"/>
         <v>13.524896</v>
       </c>
-      <c r="N23" s="37">
+      <c r="O23" s="37">
         <f t="shared" si="8"/>
         <v>1.2295359999999995</v>
       </c>
-      <c r="O23" s="36">
-        <v>0</v>
-      </c>
-      <c r="P23" s="32">
+      <c r="P23" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="32">
         <f t="shared" si="4"/>
         <v>1.2295359999999995</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="R23" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R23" s="38">
+      <c r="S23" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>1</v>
       </c>
@@ -4466,42 +4510,43 @@
         <f t="shared" si="1"/>
         <v>37.895363999999994</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="40"/>
+      <c r="K24" s="22">
         <v>42.95</v>
       </c>
-      <c r="K24" s="28">
+      <c r="L24" s="28">
         <f t="shared" si="7"/>
         <v>6.9576799999999999</v>
       </c>
-      <c r="L24" s="29">
+      <c r="M24" s="29">
         <f t="shared" si="2"/>
         <v>32.389199999999995</v>
       </c>
-      <c r="M24" s="37">
+      <c r="N24" s="37">
         <f t="shared" si="3"/>
         <v>40.642448000000002</v>
       </c>
-      <c r="N24" s="37">
+      <c r="O24" s="37">
         <f t="shared" si="8"/>
         <v>6.0023200000000045</v>
       </c>
-      <c r="O24" s="36">
-        <v>0</v>
-      </c>
-      <c r="P24" s="32">
+      <c r="P24" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32">
         <f t="shared" si="4"/>
         <v>6.0023200000000045</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="R24" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R24" s="38">
+      <c r="S24" s="38">
         <f t="shared" si="9"/>
         <v>0.16245458442857588</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>1</v>
       </c>
@@ -4530,43 +4575,44 @@
         <f t="shared" si="1"/>
         <v>50.518727999999996</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="40"/>
+      <c r="K25" s="22">
         <f t="shared" si="10"/>
         <v>54.180895999999997</v>
       </c>
-      <c r="K25" s="28">
+      <c r="L25" s="28">
         <f t="shared" si="7"/>
         <v>9.2753599999999992</v>
       </c>
-      <c r="L25" s="29">
+      <c r="M25" s="29">
         <f t="shared" si="2"/>
         <v>43.178399999999996</v>
       </c>
-      <c r="M25" s="37">
+      <c r="N25" s="37">
         <f t="shared" si="3"/>
         <v>54.180895999999997</v>
       </c>
-      <c r="N25" s="37">
+      <c r="O25" s="37">
         <f t="shared" si="8"/>
         <v>4.925536000000001</v>
       </c>
-      <c r="O25" s="36">
-        <v>0</v>
-      </c>
-      <c r="P25" s="32">
+      <c r="P25" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="32">
         <f t="shared" si="4"/>
         <v>4.925536000000001</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="R25" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R25" s="38">
+      <c r="S25" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>1</v>
       </c>
@@ -4595,43 +4641,44 @@
         <f t="shared" si="1"/>
         <v>7.5057840000000002</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="40"/>
+      <c r="K26" s="22">
         <f t="shared" si="10"/>
         <v>8.0498879999999993</v>
       </c>
-      <c r="K26" s="28">
+      <c r="L26" s="28">
         <f t="shared" si="7"/>
         <v>1.3780800000000002</v>
       </c>
-      <c r="L26" s="29">
+      <c r="M26" s="29">
         <f t="shared" si="2"/>
         <v>6.4152000000000005</v>
       </c>
-      <c r="M26" s="37">
+      <c r="N26" s="37">
         <f t="shared" si="3"/>
         <v>8.0498879999999993</v>
       </c>
-      <c r="N26" s="37">
+      <c r="O26" s="37">
         <f t="shared" si="8"/>
         <v>0.73180799999999913</v>
       </c>
-      <c r="O26" s="36">
-        <v>0</v>
-      </c>
-      <c r="P26" s="32">
+      <c r="P26" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="32">
         <f t="shared" si="4"/>
         <v>0.73180799999999913</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="R26" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="38">
+      <c r="S26" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999881E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>1</v>
       </c>
@@ -4660,43 +4707,44 @@
         <f t="shared" si="1"/>
         <v>24.589656000000002</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="40"/>
+      <c r="K27" s="22">
         <f t="shared" si="10"/>
         <v>26.372192000000002</v>
       </c>
-      <c r="K27" s="28">
+      <c r="L27" s="28">
         <f t="shared" si="7"/>
         <v>4.5147200000000005</v>
       </c>
-      <c r="L27" s="29">
+      <c r="M27" s="29">
         <f t="shared" si="2"/>
         <v>21.0168</v>
       </c>
-      <c r="M27" s="37">
+      <c r="N27" s="37">
         <f t="shared" si="3"/>
         <v>26.372192000000002</v>
       </c>
-      <c r="N27" s="37">
+      <c r="O27" s="37">
         <f t="shared" si="8"/>
         <v>2.3974720000000005</v>
       </c>
-      <c r="O27" s="36">
-        <v>0</v>
-      </c>
-      <c r="P27" s="32">
+      <c r="P27" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="32">
         <f t="shared" si="4"/>
         <v>2.3974720000000005</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="R27" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R27" s="38">
+      <c r="S27" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>1</v>
       </c>
@@ -4725,43 +4773,44 @@
         <f t="shared" si="1"/>
         <v>18.132660000000001</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="40"/>
+      <c r="K28" s="22">
         <f t="shared" si="10"/>
         <v>19.447120000000002</v>
       </c>
-      <c r="K28" s="28">
+      <c r="L28" s="28">
         <f t="shared" si="7"/>
         <v>3.3292000000000002</v>
       </c>
-      <c r="L28" s="29">
+      <c r="M28" s="29">
         <f t="shared" si="2"/>
         <v>15.497999999999999</v>
       </c>
-      <c r="M28" s="37">
+      <c r="N28" s="37">
         <f t="shared" si="3"/>
         <v>19.447120000000002</v>
       </c>
-      <c r="N28" s="37">
+      <c r="O28" s="37">
         <f t="shared" si="8"/>
         <v>1.7679200000000002</v>
       </c>
-      <c r="O28" s="36">
-        <v>0</v>
-      </c>
-      <c r="P28" s="32">
+      <c r="P28" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="32">
         <f t="shared" si="4"/>
         <v>1.7679200000000002</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="R28" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R28" s="38">
+      <c r="S28" s="38">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>1</v>
       </c>
@@ -4790,43 +4839,44 @@
         <f t="shared" si="1"/>
         <v>19.0546884</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="40"/>
+      <c r="K29" s="22">
         <f t="shared" si="10"/>
         <v>20.314448000000002</v>
       </c>
-      <c r="K29" s="28">
+      <c r="L29" s="28">
         <f t="shared" si="7"/>
         <v>3.4776800000000003</v>
       </c>
-      <c r="L29" s="29">
+      <c r="M29" s="29">
         <f t="shared" si="2"/>
         <v>16.1892</v>
       </c>
-      <c r="M29" s="37">
+      <c r="N29" s="37">
         <f t="shared" si="3"/>
         <v>20.314448000000002</v>
       </c>
-      <c r="N29" s="37">
+      <c r="O29" s="37">
         <f t="shared" si="8"/>
         <v>1.8467680000000009</v>
       </c>
-      <c r="O29" s="36">
-        <v>0</v>
-      </c>
-      <c r="P29" s="32">
+      <c r="P29" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="32">
         <f t="shared" si="4"/>
         <v>1.8467680000000009</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="R29" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R29" s="38">
+      <c r="S29" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>1</v>
       </c>
@@ -4855,43 +4905,44 @@
         <f t="shared" si="1"/>
         <v>25.410488399999998</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="40"/>
+      <c r="K30" s="22">
         <f t="shared" si="10"/>
         <v>27.090447999999999</v>
       </c>
-      <c r="K30" s="28">
+      <c r="L30" s="28">
         <f t="shared" si="7"/>
         <v>4.6376799999999996</v>
       </c>
-      <c r="L30" s="29">
+      <c r="M30" s="29">
         <f t="shared" si="2"/>
         <v>21.589199999999998</v>
       </c>
-      <c r="M30" s="37">
+      <c r="N30" s="37">
         <f t="shared" si="3"/>
         <v>27.090447999999999</v>
       </c>
-      <c r="N30" s="37">
+      <c r="O30" s="37">
         <f t="shared" si="8"/>
         <v>2.4627680000000005</v>
       </c>
-      <c r="O30" s="36">
-        <v>0</v>
-      </c>
-      <c r="P30" s="32">
+      <c r="P30" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="32">
         <f t="shared" si="4"/>
         <v>2.4627680000000005</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="R30" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R30" s="38">
+      <c r="S30" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>1</v>
       </c>
@@ -4920,43 +4971,44 @@
         <f t="shared" si="1"/>
         <v>42.253358399999996</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="40"/>
+      <c r="K31" s="22">
         <f t="shared" si="10"/>
         <v>45.046848000000004</v>
       </c>
-      <c r="K31" s="28">
+      <c r="L31" s="28">
         <f t="shared" si="7"/>
         <v>7.7116800000000003</v>
       </c>
-      <c r="L31" s="29">
+      <c r="M31" s="29">
         <f t="shared" si="2"/>
         <v>35.8992</v>
       </c>
-      <c r="M31" s="37">
+      <c r="N31" s="37">
         <f t="shared" si="3"/>
         <v>45.046848000000004</v>
       </c>
-      <c r="N31" s="37">
+      <c r="O31" s="37">
         <f t="shared" si="8"/>
         <v>4.095168000000001</v>
       </c>
-      <c r="O31" s="36">
-        <v>0</v>
-      </c>
-      <c r="P31" s="32">
+      <c r="P31" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="32">
         <f t="shared" si="4"/>
         <v>4.095168000000001</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="R31" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R31" s="38">
+      <c r="S31" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>1</v>
       </c>
@@ -4985,42 +5037,43 @@
         <f t="shared" si="1"/>
         <v>25.168968</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="40"/>
+      <c r="K32" s="22">
         <f t="shared" si="10"/>
         <v>26.83296</v>
       </c>
-      <c r="K32" s="28">
+      <c r="L32" s="28">
         <f t="shared" si="7"/>
         <v>4.5936000000000003</v>
       </c>
-      <c r="L32" s="29">
+      <c r="M32" s="29">
         <f t="shared" si="2"/>
         <v>21.384</v>
       </c>
-      <c r="M32" s="37">
+      <c r="N32" s="37">
         <f t="shared" si="3"/>
         <v>26.83296</v>
       </c>
-      <c r="N32" s="37">
+      <c r="O32" s="37">
         <f t="shared" si="8"/>
         <v>2.4393600000000006</v>
       </c>
-      <c r="O32" s="36">
-        <v>0</v>
-      </c>
-      <c r="P32" s="32">
+      <c r="P32" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="32">
         <f t="shared" si="4"/>
         <v>2.4393600000000006</v>
       </c>
-      <c r="Q32" s="33">
-        <v>0</v>
-      </c>
-      <c r="R32" s="38">
+      <c r="R32" s="33">
+        <v>0</v>
+      </c>
+      <c r="S32" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>1</v>
       </c>
@@ -5049,42 +5102,43 @@
         <f t="shared" si="1"/>
         <v>20.808889199999999</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="40"/>
+      <c r="K33" s="22">
         <f t="shared" si="10"/>
         <v>22.184624000000003</v>
       </c>
-      <c r="K33" s="28">
+      <c r="L33" s="28">
         <f t="shared" si="7"/>
         <v>3.7978400000000003</v>
       </c>
-      <c r="L33" s="29">
+      <c r="M33" s="29">
         <f t="shared" si="2"/>
         <v>17.679600000000001</v>
       </c>
-      <c r="M33" s="37">
+      <c r="N33" s="37">
         <f t="shared" si="3"/>
         <v>22.184624000000003</v>
       </c>
-      <c r="N33" s="37">
+      <c r="O33" s="37">
         <f t="shared" si="8"/>
         <v>2.0167840000000012</v>
       </c>
-      <c r="O33" s="36">
-        <v>0</v>
-      </c>
-      <c r="P33" s="32">
+      <c r="P33" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="32">
         <f t="shared" si="4"/>
         <v>2.0167840000000012</v>
       </c>
-      <c r="Q33" s="33">
-        <v>0</v>
-      </c>
-      <c r="R33" s="38">
+      <c r="R33" s="33">
+        <v>0</v>
+      </c>
+      <c r="S33" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>1</v>
       </c>
@@ -5113,42 +5167,43 @@
         <f t="shared" ref="I34:I50" si="13">SUM(E34:H34)</f>
         <v>25.359642000000001</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="40"/>
+      <c r="K34" s="22">
         <f t="shared" si="10"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="K34" s="28">
+      <c r="L34" s="28">
         <f t="shared" si="7"/>
         <v>4.6284000000000001</v>
       </c>
-      <c r="L34" s="29">
-        <f t="shared" ref="L34:L50" si="14">E34+F34</f>
+      <c r="M34" s="29">
+        <f t="shared" ref="M34:M50" si="14">E34+F34</f>
         <v>21.545999999999999</v>
       </c>
-      <c r="M34" s="37">
+      <c r="N34" s="37">
         <f t="shared" si="3"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="N34" s="37">
+      <c r="O34" s="37">
         <f t="shared" si="8"/>
         <v>2.4578400000000009</v>
       </c>
-      <c r="O34" s="36">
-        <v>0</v>
-      </c>
-      <c r="P34" s="32">
+      <c r="P34" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="32">
         <f t="shared" si="4"/>
         <v>2.4578400000000009</v>
       </c>
-      <c r="Q34" s="33">
-        <v>0</v>
-      </c>
-      <c r="R34" s="38">
+      <c r="R34" s="33">
+        <v>0</v>
+      </c>
+      <c r="S34" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>107</v>
       </c>
@@ -5177,41 +5232,42 @@
         <f t="shared" si="13"/>
         <v>27.317228399999998</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="40"/>
+      <c r="K35" s="22">
         <v>29.95</v>
       </c>
-      <c r="K35" s="28">
+      <c r="L35" s="28">
         <f t="shared" si="7"/>
         <v>4.9856799999999994</v>
       </c>
-      <c r="L35" s="29">
+      <c r="M35" s="29">
         <f t="shared" si="14"/>
         <v>23.209199999999999</v>
       </c>
-      <c r="M35" s="37">
+      <c r="N35" s="37">
         <f t="shared" si="3"/>
         <v>29.123247999999997</v>
       </c>
-      <c r="N35" s="37">
+      <c r="O35" s="37">
         <f t="shared" si="8"/>
         <v>3.4743200000000023</v>
       </c>
-      <c r="O35" s="36">
-        <v>0</v>
-      </c>
-      <c r="P35" s="32">
+      <c r="P35" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="32">
         <f t="shared" si="4"/>
         <v>3.4743200000000023</v>
       </c>
-      <c r="Q35" s="33">
-        <v>0</v>
-      </c>
-      <c r="R35" s="38">
+      <c r="R35" s="33">
+        <v>0</v>
+      </c>
+      <c r="S35" s="38">
         <f t="shared" si="9"/>
         <v>0.13122684667589285</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>1</v>
       </c>
@@ -5240,42 +5296,43 @@
         <f t="shared" si="13"/>
         <v>44.871947999999996</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="40"/>
+      <c r="K36" s="22">
         <f t="shared" si="10"/>
         <v>47.838559999999994</v>
       </c>
-      <c r="K36" s="28">
+      <c r="L36" s="28">
         <f t="shared" si="7"/>
         <v>8.1895999999999987</v>
       </c>
-      <c r="L36" s="29">
+      <c r="M36" s="29">
         <f t="shared" si="14"/>
         <v>38.123999999999995</v>
       </c>
-      <c r="M36" s="37">
+      <c r="N36" s="37">
         <f t="shared" si="3"/>
         <v>47.838559999999994</v>
       </c>
-      <c r="N36" s="37">
+      <c r="O36" s="37">
         <f t="shared" si="8"/>
         <v>4.3489599999999982</v>
       </c>
-      <c r="O36" s="36">
-        <v>0</v>
-      </c>
-      <c r="P36" s="32">
+      <c r="P36" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="32">
         <f t="shared" si="4"/>
         <v>4.3489599999999982</v>
       </c>
-      <c r="Q36" s="33">
-        <v>0</v>
-      </c>
-      <c r="R36" s="38">
+      <c r="R36" s="33">
+        <v>0</v>
+      </c>
+      <c r="S36" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999964E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>1</v>
       </c>
@@ -5304,42 +5361,43 @@
         <f t="shared" si="13"/>
         <v>63.494442000000006</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="40"/>
+      <c r="K37" s="22">
         <f t="shared" si="10"/>
         <v>67.692239999999998</v>
       </c>
-      <c r="K37" s="28">
+      <c r="L37" s="28">
         <f t="shared" si="7"/>
         <v>11.5884</v>
       </c>
-      <c r="L37" s="29">
+      <c r="M37" s="29">
         <f t="shared" si="14"/>
         <v>53.946000000000005</v>
       </c>
-      <c r="M37" s="37">
+      <c r="N37" s="37">
         <f t="shared" si="3"/>
         <v>67.692239999999998</v>
       </c>
-      <c r="N37" s="37">
+      <c r="O37" s="37">
         <f t="shared" si="8"/>
         <v>6.1538399999999953</v>
       </c>
-      <c r="O37" s="36">
-        <v>0</v>
-      </c>
-      <c r="P37" s="32">
+      <c r="P37" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="32">
         <f t="shared" si="4"/>
         <v>6.1538399999999953</v>
       </c>
-      <c r="Q37" s="33">
-        <v>0</v>
-      </c>
-      <c r="R37" s="38">
+      <c r="R37" s="33">
+        <v>0</v>
+      </c>
+      <c r="S37" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999922E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>107</v>
       </c>
@@ -5368,42 +5426,43 @@
         <f t="shared" si="13"/>
         <v>30.304454399999997</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="40"/>
+      <c r="K38" s="22">
         <f t="shared" si="10"/>
         <v>32.307968000000002</v>
       </c>
-      <c r="K38" s="28">
+      <c r="L38" s="28">
         <f t="shared" si="7"/>
         <v>5.5308799999999998</v>
       </c>
-      <c r="L38" s="29">
+      <c r="M38" s="29">
         <f t="shared" si="14"/>
         <v>25.747199999999999</v>
       </c>
-      <c r="M38" s="37">
+      <c r="N38" s="37">
         <f t="shared" si="3"/>
         <v>32.307968000000002</v>
       </c>
-      <c r="N38" s="37">
+      <c r="O38" s="37">
         <f t="shared" si="8"/>
         <v>2.9370880000000028</v>
       </c>
-      <c r="O38" s="36">
-        <v>0</v>
-      </c>
-      <c r="P38" s="32">
-        <f t="shared" ref="P38:P44" si="15">N38</f>
+      <c r="P38" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="32">
+        <f t="shared" ref="Q38:Q44" si="15">O38</f>
         <v>2.9370880000000028</v>
       </c>
-      <c r="Q38" s="33">
-        <v>0</v>
-      </c>
-      <c r="R38" s="38">
+      <c r="R38" s="33">
+        <v>0</v>
+      </c>
+      <c r="S38" s="38">
         <f t="shared" si="9"/>
         <v>0.1000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>1</v>
       </c>
@@ -5432,41 +5491,42 @@
         <f t="shared" si="13"/>
         <v>19.957211999999998</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="40"/>
+      <c r="K39" s="22">
         <v>22.46</v>
       </c>
-      <c r="K39" s="28">
+      <c r="L39" s="28">
         <f t="shared" si="7"/>
         <v>3.6423999999999994</v>
       </c>
-      <c r="L39" s="29">
+      <c r="M39" s="29">
         <f t="shared" si="14"/>
         <v>16.956</v>
       </c>
-      <c r="M39" s="37">
+      <c r="N39" s="37">
         <f t="shared" si="3"/>
         <v>21.276639999999997</v>
       </c>
-      <c r="N39" s="37">
+      <c r="O39" s="37">
         <f t="shared" si="8"/>
         <v>3.117600000000003</v>
       </c>
-      <c r="O39" s="36">
-        <v>0</v>
-      </c>
-      <c r="P39" s="32">
+      <c r="P39" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="32">
         <f t="shared" si="15"/>
         <v>3.117600000000003</v>
       </c>
-      <c r="Q39" s="33">
-        <v>0</v>
-      </c>
-      <c r="R39" s="38">
+      <c r="R39" s="33">
+        <v>0</v>
+      </c>
+      <c r="S39" s="38">
         <f t="shared" si="9"/>
         <v>0.16117958474646391</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>1</v>
       </c>
@@ -5492,42 +5552,43 @@
         <f t="shared" si="13"/>
         <v>30.229199999999999</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="40"/>
+      <c r="K40" s="22">
         <f t="shared" si="10"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="K40" s="28">
+      <c r="L40" s="28">
         <f t="shared" si="7"/>
         <v>6.4936799999999995</v>
       </c>
-      <c r="L40" s="29">
+      <c r="M40" s="29">
         <f t="shared" si="14"/>
         <v>30.229199999999999</v>
       </c>
-      <c r="M40" s="37">
+      <c r="N40" s="37">
         <f t="shared" si="3"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="N40" s="37">
+      <c r="O40" s="37">
         <f t="shared" si="8"/>
         <v>3.4483680000000021</v>
       </c>
-      <c r="O40" s="36">
-        <v>0</v>
-      </c>
-      <c r="P40" s="32">
+      <c r="P40" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="32">
         <f t="shared" si="15"/>
         <v>3.4483680000000021</v>
       </c>
-      <c r="Q40" s="33">
-        <v>0</v>
-      </c>
-      <c r="R40" s="38">
+      <c r="R40" s="33">
+        <v>0</v>
+      </c>
+      <c r="S40" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>1</v>
       </c>
@@ -5556,42 +5617,43 @@
         <f t="shared" si="13"/>
         <v>44.477888399999998</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="40"/>
+      <c r="K41" s="22">
         <f t="shared" si="10"/>
         <v>47.418448000000005</v>
       </c>
-      <c r="K41" s="28">
+      <c r="L41" s="28">
         <f t="shared" si="7"/>
         <v>8.11768</v>
       </c>
-      <c r="L41" s="29">
+      <c r="M41" s="29">
         <f t="shared" si="14"/>
         <v>37.789200000000001</v>
       </c>
-      <c r="M41" s="37">
+      <c r="N41" s="37">
         <f t="shared" si="3"/>
         <v>47.418448000000005</v>
       </c>
-      <c r="N41" s="37">
+      <c r="O41" s="37">
         <f t="shared" si="8"/>
         <v>4.310768000000003</v>
       </c>
-      <c r="O41" s="36">
-        <v>0</v>
-      </c>
-      <c r="P41" s="32">
+      <c r="P41" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="32">
         <f t="shared" si="15"/>
         <v>4.310768000000003</v>
       </c>
-      <c r="Q41" s="33">
-        <v>0</v>
-      </c>
-      <c r="R41" s="38">
+      <c r="R41" s="33">
+        <v>0</v>
+      </c>
+      <c r="S41" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>1</v>
       </c>
@@ -5620,42 +5682,43 @@
         <f t="shared" si="13"/>
         <v>128.37444840000001</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="40"/>
+      <c r="K42" s="22">
         <f t="shared" si="10"/>
         <v>136.861648</v>
       </c>
-      <c r="K42" s="28">
+      <c r="L42" s="28">
         <f t="shared" si="7"/>
         <v>23.429679999999998</v>
       </c>
-      <c r="L42" s="29">
+      <c r="M42" s="29">
         <f t="shared" si="14"/>
         <v>109.0692</v>
       </c>
-      <c r="M42" s="37">
+      <c r="N42" s="37">
         <f t="shared" si="3"/>
         <v>136.861648</v>
       </c>
-      <c r="N42" s="37">
+      <c r="O42" s="37">
         <f t="shared" si="8"/>
         <v>12.441968000000003</v>
       </c>
-      <c r="O42" s="36">
-        <v>0</v>
-      </c>
-      <c r="P42" s="32">
+      <c r="P42" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="32">
         <f t="shared" si="15"/>
         <v>12.441968000000003</v>
       </c>
-      <c r="Q42" s="33">
-        <v>0</v>
-      </c>
-      <c r="R42" s="38">
+      <c r="R42" s="33">
+        <v>0</v>
+      </c>
+      <c r="S42" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>1</v>
       </c>
@@ -5684,42 +5747,43 @@
         <f t="shared" si="13"/>
         <v>35.579768399999999</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="40"/>
+      <c r="K43" s="22">
         <f t="shared" si="10"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="K43" s="28">
+      <c r="L43" s="28">
         <f t="shared" si="7"/>
         <v>6.4936799999999995</v>
       </c>
-      <c r="L43" s="29">
+      <c r="M43" s="29">
         <f t="shared" si="14"/>
         <v>30.229199999999999</v>
       </c>
-      <c r="M43" s="37">
+      <c r="N43" s="37">
         <f t="shared" si="3"/>
         <v>37.932048000000002</v>
       </c>
-      <c r="N43" s="37">
+      <c r="O43" s="37">
         <f t="shared" si="8"/>
         <v>3.4483680000000021</v>
       </c>
-      <c r="O43" s="36">
-        <v>0</v>
-      </c>
-      <c r="P43" s="32">
+      <c r="P43" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="32">
         <f t="shared" si="15"/>
         <v>3.4483680000000021</v>
       </c>
-      <c r="Q43" s="33">
-        <v>0</v>
-      </c>
-      <c r="R43" s="38">
+      <c r="R43" s="33">
+        <v>0</v>
+      </c>
+      <c r="S43" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>1</v>
       </c>
@@ -5748,42 +5812,43 @@
         <f t="shared" si="13"/>
         <v>95.3242884</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="40"/>
+      <c r="K44" s="22">
         <f t="shared" si="10"/>
         <v>101.62644799999998</v>
       </c>
-      <c r="K44" s="28">
+      <c r="L44" s="28">
         <f t="shared" si="7"/>
         <v>17.397680000000001</v>
       </c>
-      <c r="L44" s="29">
+      <c r="M44" s="29">
         <f t="shared" si="14"/>
         <v>80.989199999999997</v>
       </c>
-      <c r="M44" s="37">
+      <c r="N44" s="37">
         <f t="shared" si="3"/>
         <v>101.62644799999998</v>
       </c>
-      <c r="N44" s="37">
+      <c r="O44" s="37">
         <f t="shared" si="8"/>
         <v>9.2387679999999932</v>
       </c>
-      <c r="O44" s="36">
-        <v>0</v>
-      </c>
-      <c r="P44" s="32">
+      <c r="P44" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="32">
         <f t="shared" si="15"/>
         <v>9.2387679999999932</v>
       </c>
-      <c r="Q44" s="33">
-        <v>0</v>
-      </c>
-      <c r="R44" s="38">
+      <c r="R44" s="33">
+        <v>0</v>
+      </c>
+      <c r="S44" s="38">
         <f t="shared" si="9"/>
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>108</v>
       </c>
@@ -5812,42 +5877,43 @@
         <f t="shared" si="13"/>
         <v>33.037448399999995</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="40"/>
+      <c r="K45" s="22">
         <f t="shared" si="10"/>
         <v>35.221647999999995</v>
       </c>
-      <c r="K45" s="28">
+      <c r="L45" s="28">
         <f t="shared" si="7"/>
         <v>6.029679999999999</v>
       </c>
-      <c r="L45" s="29">
+      <c r="M45" s="29">
         <f t="shared" si="14"/>
         <v>28.069199999999999</v>
       </c>
-      <c r="M45" s="37">
+      <c r="N45" s="37">
         <f t="shared" si="3"/>
         <v>35.221647999999995</v>
       </c>
-      <c r="N45" s="37">
+      <c r="O45" s="37">
         <f t="shared" si="8"/>
         <v>3.2019680000000008</v>
       </c>
-      <c r="O45" s="36">
-        <v>0</v>
-      </c>
-      <c r="P45" s="32">
-        <f t="shared" ref="P45:P49" si="17">N45</f>
+      <c r="P45" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="32">
+        <f t="shared" ref="Q45:Q49" si="17">O45</f>
         <v>3.2019680000000008</v>
       </c>
-      <c r="Q45" s="33">
-        <v>0</v>
-      </c>
-      <c r="R45" s="38">
+      <c r="R45" s="33">
+        <v>0</v>
+      </c>
+      <c r="S45" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>1</v>
       </c>
@@ -5876,42 +5942,43 @@
         <f t="shared" si="13"/>
         <v>44.477888399999998</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="40"/>
+      <c r="K46" s="22">
         <f t="shared" si="10"/>
         <v>47.418448000000005</v>
       </c>
-      <c r="K46" s="28">
+      <c r="L46" s="28">
         <f t="shared" si="7"/>
         <v>8.11768</v>
       </c>
-      <c r="L46" s="29">
+      <c r="M46" s="29">
         <f t="shared" si="14"/>
         <v>37.789200000000001</v>
       </c>
-      <c r="M46" s="37">
+      <c r="N46" s="37">
         <f t="shared" si="3"/>
         <v>47.418448000000005</v>
       </c>
-      <c r="N46" s="37">
+      <c r="O46" s="37">
         <f t="shared" si="8"/>
         <v>4.310768000000003</v>
       </c>
-      <c r="O46" s="36">
-        <v>0</v>
-      </c>
-      <c r="P46" s="32">
+      <c r="P46" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="32">
         <f t="shared" si="17"/>
         <v>4.310768000000003</v>
       </c>
-      <c r="Q46" s="33">
-        <v>0</v>
-      </c>
-      <c r="R46" s="38">
+      <c r="R46" s="33">
+        <v>0</v>
+      </c>
+      <c r="S46" s="38">
         <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>1</v>
       </c>
@@ -5940,42 +6007,43 @@
         <f t="shared" si="13"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="40"/>
+      <c r="K47" s="22">
         <f t="shared" si="10"/>
         <v>105.556528</v>
       </c>
-      <c r="K47" s="28">
+      <c r="L47" s="28">
         <f t="shared" si="7"/>
         <v>18.07048</v>
       </c>
-      <c r="L47" s="29">
+      <c r="M47" s="29">
         <f t="shared" si="14"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M47" s="37">
+      <c r="N47" s="37">
         <f t="shared" si="3"/>
         <v>105.556528</v>
       </c>
-      <c r="N47" s="37">
+      <c r="O47" s="37">
         <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O47" s="36">
-        <v>0</v>
-      </c>
-      <c r="P47" s="32">
+      <c r="P47" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="32">
         <f t="shared" si="17"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q47" s="33">
-        <v>0</v>
-      </c>
-      <c r="R47" s="38">
+      <c r="R47" s="33">
+        <v>0</v>
+      </c>
+      <c r="S47" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>1</v>
       </c>
@@ -6004,42 +6072,43 @@
         <f t="shared" si="13"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="40"/>
+      <c r="K48" s="22">
         <f t="shared" si="10"/>
         <v>105.556528</v>
       </c>
-      <c r="K48" s="28">
+      <c r="L48" s="28">
         <f t="shared" si="7"/>
         <v>18.07048</v>
       </c>
-      <c r="L48" s="29">
+      <c r="M48" s="29">
         <f t="shared" si="14"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M48" s="37">
+      <c r="N48" s="37">
         <f t="shared" si="3"/>
         <v>105.556528</v>
       </c>
-      <c r="N48" s="37">
+      <c r="O48" s="37">
         <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O48" s="36">
-        <v>0</v>
-      </c>
-      <c r="P48" s="32">
+      <c r="P48" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="32">
         <f t="shared" si="17"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q48" s="33">
-        <v>0</v>
-      </c>
-      <c r="R48" s="38">
+      <c r="R48" s="33">
+        <v>0</v>
+      </c>
+      <c r="S48" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>1</v>
       </c>
@@ -6068,42 +6137,43 @@
         <f t="shared" si="13"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="40"/>
+      <c r="K49" s="22">
         <f t="shared" si="10"/>
         <v>105.556528</v>
       </c>
-      <c r="K49" s="28">
+      <c r="L49" s="28">
         <f t="shared" si="7"/>
         <v>18.07048</v>
       </c>
-      <c r="L49" s="29">
+      <c r="M49" s="29">
         <f t="shared" si="14"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M49" s="37">
+      <c r="N49" s="37">
         <f t="shared" si="3"/>
         <v>105.556528</v>
       </c>
-      <c r="N49" s="37">
+      <c r="O49" s="37">
         <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O49" s="36">
-        <v>0</v>
-      </c>
-      <c r="P49" s="32">
+      <c r="P49" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="32">
         <f t="shared" si="17"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q49" s="33">
-        <v>0</v>
-      </c>
-      <c r="R49" s="38">
+      <c r="R49" s="33">
+        <v>0</v>
+      </c>
+      <c r="S49" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>1</v>
       </c>
@@ -6132,42 +6202,43 @@
         <f t="shared" si="13"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="40"/>
+      <c r="K50" s="22">
         <f t="shared" si="10"/>
         <v>105.556528</v>
       </c>
-      <c r="K50" s="28">
+      <c r="L50" s="28">
         <f t="shared" si="7"/>
         <v>18.07048</v>
       </c>
-      <c r="L50" s="29">
+      <c r="M50" s="29">
         <f t="shared" si="14"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M50" s="37">
+      <c r="N50" s="37">
         <f t="shared" si="3"/>
         <v>105.556528</v>
       </c>
-      <c r="N50" s="37">
+      <c r="O50" s="37">
         <f t="shared" si="8"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O50" s="36">
-        <v>0</v>
-      </c>
-      <c r="P50" s="32">
-        <f t="shared" ref="P50" si="18">N50</f>
+      <c r="P50" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="32">
+        <f t="shared" ref="Q50" si="18">O50</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q50" s="33">
-        <v>0</v>
-      </c>
-      <c r="R50" s="38">
+      <c r="R50" s="33">
+        <v>0</v>
+      </c>
+      <c r="S50" s="38">
         <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>1</v>
       </c>
@@ -6196,42 +6267,43 @@
         <f t="shared" ref="I51:I56" si="21">SUM(E51:H51)</f>
         <v>99.010652399999998</v>
       </c>
-      <c r="J51" s="22">
-        <f t="shared" ref="J51:J56" si="22">M51</f>
+      <c r="J51" s="40"/>
+      <c r="K51" s="22">
+        <f t="shared" ref="J51:K56" si="22">N51</f>
         <v>105.556528</v>
       </c>
-      <c r="K51" s="28">
-        <f t="shared" ref="K51:K56" si="23">(E51*0.152)+F51</f>
+      <c r="L51" s="28">
+        <f t="shared" ref="L51:L56" si="23">(E51*0.152)+F51</f>
         <v>18.07048</v>
       </c>
-      <c r="L51" s="29">
-        <f t="shared" ref="L51:L56" si="24">E51+F51</f>
+      <c r="M51" s="29">
+        <f t="shared" ref="M51:M56" si="24">E51+F51</f>
         <v>84.121200000000002</v>
       </c>
-      <c r="M51" s="37">
-        <f t="shared" ref="M51:M56" si="25">E51+K51+(10%*(E51+K51))</f>
+      <c r="N51" s="37">
+        <f t="shared" ref="N51:N56" si="25">E51+L51+(10%*(E51+L51))</f>
         <v>105.556528</v>
       </c>
-      <c r="N51" s="37">
-        <f t="shared" ref="N51:N56" si="26">J51-(E51+K51)</f>
+      <c r="O51" s="37">
+        <f t="shared" ref="O51:O56" si="26">K51-(E51+L51)</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O51" s="36">
-        <v>0</v>
-      </c>
-      <c r="P51" s="32">
-        <f t="shared" ref="P51:P56" si="27">N51</f>
+      <c r="P51" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="32">
+        <f t="shared" ref="Q51:Q56" si="27">O51</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q51" s="33">
-        <v>0</v>
-      </c>
-      <c r="R51" s="38">
-        <f t="shared" ref="R51:R56" si="28">N51/(E51+K51)</f>
+      <c r="R51" s="33">
+        <v>0</v>
+      </c>
+      <c r="S51" s="38">
+        <f t="shared" ref="S51:S56" si="28">O51/(E51+L51)</f>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>1</v>
       </c>
@@ -6260,42 +6332,43 @@
         <f t="shared" si="21"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="40"/>
+      <c r="K52" s="22">
         <f t="shared" si="22"/>
         <v>105.556528</v>
       </c>
-      <c r="K52" s="28">
+      <c r="L52" s="28">
         <f t="shared" si="23"/>
         <v>18.07048</v>
       </c>
-      <c r="L52" s="29">
+      <c r="M52" s="29">
         <f t="shared" si="24"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M52" s="37">
+      <c r="N52" s="37">
         <f t="shared" si="25"/>
         <v>105.556528</v>
       </c>
-      <c r="N52" s="37">
+      <c r="O52" s="37">
         <f t="shared" si="26"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O52" s="36">
-        <v>0</v>
-      </c>
-      <c r="P52" s="32">
+      <c r="P52" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="32">
         <f t="shared" si="27"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q52" s="33">
-        <v>0</v>
-      </c>
-      <c r="R52" s="38">
+      <c r="R52" s="33">
+        <v>0</v>
+      </c>
+      <c r="S52" s="38">
         <f t="shared" si="28"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>1</v>
       </c>
@@ -6324,42 +6397,43 @@
         <f t="shared" si="21"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="40"/>
+      <c r="K53" s="22">
         <f t="shared" si="22"/>
         <v>105.556528</v>
       </c>
-      <c r="K53" s="28">
+      <c r="L53" s="28">
         <f t="shared" si="23"/>
         <v>18.07048</v>
       </c>
-      <c r="L53" s="29">
+      <c r="M53" s="29">
         <f t="shared" si="24"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M53" s="37">
+      <c r="N53" s="37">
         <f t="shared" si="25"/>
         <v>105.556528</v>
       </c>
-      <c r="N53" s="37">
+      <c r="O53" s="37">
         <f t="shared" si="26"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O53" s="36">
-        <v>0</v>
-      </c>
-      <c r="P53" s="32">
+      <c r="P53" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="32">
         <f t="shared" si="27"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q53" s="33">
-        <v>0</v>
-      </c>
-      <c r="R53" s="38">
+      <c r="R53" s="33">
+        <v>0</v>
+      </c>
+      <c r="S53" s="38">
         <f t="shared" si="28"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>1</v>
       </c>
@@ -6388,42 +6462,43 @@
         <f t="shared" si="21"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="40"/>
+      <c r="K54" s="22">
         <f t="shared" si="22"/>
         <v>105.556528</v>
       </c>
-      <c r="K54" s="28">
+      <c r="L54" s="28">
         <f t="shared" si="23"/>
         <v>18.07048</v>
       </c>
-      <c r="L54" s="29">
+      <c r="M54" s="29">
         <f t="shared" si="24"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M54" s="37">
+      <c r="N54" s="37">
         <f t="shared" si="25"/>
         <v>105.556528</v>
       </c>
-      <c r="N54" s="37">
+      <c r="O54" s="37">
         <f t="shared" si="26"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O54" s="36">
-        <v>0</v>
-      </c>
-      <c r="P54" s="32">
+      <c r="P54" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="32">
         <f t="shared" si="27"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q54" s="33">
-        <v>0</v>
-      </c>
-      <c r="R54" s="38">
+      <c r="R54" s="33">
+        <v>0</v>
+      </c>
+      <c r="S54" s="38">
         <f t="shared" si="28"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>1</v>
       </c>
@@ -6452,42 +6527,43 @@
         <f t="shared" si="21"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="40"/>
+      <c r="K55" s="22">
         <f t="shared" si="22"/>
         <v>105.556528</v>
       </c>
-      <c r="K55" s="28">
+      <c r="L55" s="28">
         <f t="shared" si="23"/>
         <v>18.07048</v>
       </c>
-      <c r="L55" s="29">
+      <c r="M55" s="29">
         <f t="shared" si="24"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M55" s="37">
+      <c r="N55" s="37">
         <f t="shared" si="25"/>
         <v>105.556528</v>
       </c>
-      <c r="N55" s="37">
+      <c r="O55" s="37">
         <f t="shared" si="26"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O55" s="36">
-        <v>0</v>
-      </c>
-      <c r="P55" s="32">
+      <c r="P55" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="32">
         <f t="shared" si="27"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q55" s="33">
-        <v>0</v>
-      </c>
-      <c r="R55" s="38">
+      <c r="R55" s="33">
+        <v>0</v>
+      </c>
+      <c r="S55" s="38">
         <f t="shared" si="28"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>1</v>
       </c>
@@ -6516,42 +6592,43 @@
         <f t="shared" si="21"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="40"/>
+      <c r="K56" s="22">
         <f t="shared" si="22"/>
         <v>105.556528</v>
       </c>
-      <c r="K56" s="28">
+      <c r="L56" s="28">
         <f t="shared" si="23"/>
         <v>18.07048</v>
       </c>
-      <c r="L56" s="29">
+      <c r="M56" s="29">
         <f t="shared" si="24"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M56" s="37">
+      <c r="N56" s="37">
         <f t="shared" si="25"/>
         <v>105.556528</v>
       </c>
-      <c r="N56" s="37">
+      <c r="O56" s="37">
         <f t="shared" si="26"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O56" s="36">
-        <v>0</v>
-      </c>
-      <c r="P56" s="32">
+      <c r="P56" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="32">
         <f t="shared" si="27"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q56" s="33">
-        <v>0</v>
-      </c>
-      <c r="R56" s="38">
+      <c r="R56" s="33">
+        <v>0</v>
+      </c>
+      <c r="S56" s="38">
         <f t="shared" si="28"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>1</v>
       </c>
@@ -6580,42 +6657,43 @@
         <f t="shared" ref="I57:I77" si="31">SUM(E57:H57)</f>
         <v>99.010652399999998</v>
       </c>
-      <c r="J57" s="22">
-        <f t="shared" ref="J57:J77" si="32">M57</f>
+      <c r="J57" s="40"/>
+      <c r="K57" s="22">
+        <f t="shared" ref="J57:K77" si="32">N57</f>
         <v>105.556528</v>
       </c>
-      <c r="K57" s="28">
-        <f t="shared" ref="K57:K77" si="33">(E57*0.152)+F57</f>
+      <c r="L57" s="28">
+        <f t="shared" ref="L57:L77" si="33">(E57*0.152)+F57</f>
         <v>18.07048</v>
       </c>
-      <c r="L57" s="29">
-        <f t="shared" ref="L57:L77" si="34">E57+F57</f>
+      <c r="M57" s="29">
+        <f t="shared" ref="M57:M77" si="34">E57+F57</f>
         <v>84.121200000000002</v>
       </c>
-      <c r="M57" s="37">
-        <f t="shared" ref="M57:M77" si="35">E57+K57+(10%*(E57+K57))</f>
+      <c r="N57" s="37">
+        <f t="shared" ref="N57:N77" si="35">E57+L57+(10%*(E57+L57))</f>
         <v>105.556528</v>
       </c>
-      <c r="N57" s="37">
-        <f t="shared" ref="N57:N77" si="36">J57-(E57+K57)</f>
+      <c r="O57" s="37">
+        <f t="shared" ref="O57:O77" si="36">K57-(E57+L57)</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O57" s="36">
-        <v>0</v>
-      </c>
-      <c r="P57" s="32">
-        <f t="shared" ref="P57:P77" si="37">N57</f>
+      <c r="P57" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="32">
+        <f t="shared" ref="Q57:Q77" si="37">O57</f>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q57" s="33">
-        <v>0</v>
-      </c>
-      <c r="R57" s="38">
-        <f t="shared" ref="R57:R77" si="38">N57/(E57+K57)</f>
+      <c r="R57" s="33">
+        <v>0</v>
+      </c>
+      <c r="S57" s="38">
+        <f t="shared" ref="S57:S77" si="38">O57/(E57+L57)</f>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>1</v>
       </c>
@@ -6644,42 +6722,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="40"/>
+      <c r="K58" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K58" s="28">
+      <c r="L58" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L58" s="29">
+      <c r="M58" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M58" s="37">
+      <c r="N58" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N58" s="37">
+      <c r="O58" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O58" s="36">
-        <v>0</v>
-      </c>
-      <c r="P58" s="32">
+      <c r="P58" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q58" s="33">
-        <v>0</v>
-      </c>
-      <c r="R58" s="38">
+      <c r="R58" s="33">
+        <v>0</v>
+      </c>
+      <c r="S58" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>1</v>
       </c>
@@ -6708,42 +6787,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="40"/>
+      <c r="K59" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K59" s="28">
+      <c r="L59" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L59" s="29">
+      <c r="M59" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M59" s="37">
+      <c r="N59" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N59" s="37">
+      <c r="O59" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O59" s="36">
-        <v>0</v>
-      </c>
-      <c r="P59" s="32">
+      <c r="P59" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q59" s="33">
-        <v>0</v>
-      </c>
-      <c r="R59" s="38">
+      <c r="R59" s="33">
+        <v>0</v>
+      </c>
+      <c r="S59" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>1</v>
       </c>
@@ -6772,42 +6852,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="40"/>
+      <c r="K60" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K60" s="28">
+      <c r="L60" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L60" s="29">
+      <c r="M60" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M60" s="37">
+      <c r="N60" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N60" s="37">
+      <c r="O60" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O60" s="36">
-        <v>0</v>
-      </c>
-      <c r="P60" s="32">
+      <c r="P60" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q60" s="33">
-        <v>0</v>
-      </c>
-      <c r="R60" s="38">
+      <c r="R60" s="33">
+        <v>0</v>
+      </c>
+      <c r="S60" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>1</v>
       </c>
@@ -6836,42 +6917,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="40"/>
+      <c r="K61" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K61" s="28">
+      <c r="L61" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L61" s="29">
+      <c r="M61" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M61" s="37">
+      <c r="N61" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N61" s="37">
+      <c r="O61" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O61" s="36">
-        <v>0</v>
-      </c>
-      <c r="P61" s="32">
+      <c r="P61" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q61" s="33">
-        <v>0</v>
-      </c>
-      <c r="R61" s="38">
+      <c r="R61" s="33">
+        <v>0</v>
+      </c>
+      <c r="S61" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>1</v>
       </c>
@@ -6900,42 +6982,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="40"/>
+      <c r="K62" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K62" s="28">
+      <c r="L62" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L62" s="29">
+      <c r="M62" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M62" s="37">
+      <c r="N62" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N62" s="37">
+      <c r="O62" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O62" s="36">
-        <v>0</v>
-      </c>
-      <c r="P62" s="32">
+      <c r="P62" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q62" s="33">
-        <v>0</v>
-      </c>
-      <c r="R62" s="38">
+      <c r="R62" s="33">
+        <v>0</v>
+      </c>
+      <c r="S62" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>1</v>
       </c>
@@ -6964,42 +7047,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="40"/>
+      <c r="K63" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K63" s="28">
+      <c r="L63" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L63" s="29">
+      <c r="M63" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M63" s="37">
+      <c r="N63" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N63" s="37">
+      <c r="O63" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O63" s="36">
-        <v>0</v>
-      </c>
-      <c r="P63" s="32">
+      <c r="P63" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q63" s="33">
-        <v>0</v>
-      </c>
-      <c r="R63" s="38">
+      <c r="R63" s="33">
+        <v>0</v>
+      </c>
+      <c r="S63" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>1</v>
       </c>
@@ -7028,42 +7112,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="40"/>
+      <c r="K64" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K64" s="28">
+      <c r="L64" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L64" s="29">
+      <c r="M64" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M64" s="37">
+      <c r="N64" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N64" s="37">
+      <c r="O64" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O64" s="36">
-        <v>0</v>
-      </c>
-      <c r="P64" s="32">
+      <c r="P64" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q64" s="33">
-        <v>0</v>
-      </c>
-      <c r="R64" s="38">
+      <c r="R64" s="33">
+        <v>0</v>
+      </c>
+      <c r="S64" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>1</v>
       </c>
@@ -7092,42 +7177,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="40"/>
+      <c r="K65" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K65" s="28">
+      <c r="L65" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L65" s="29">
+      <c r="M65" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M65" s="37">
+      <c r="N65" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N65" s="37">
+      <c r="O65" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O65" s="36">
-        <v>0</v>
-      </c>
-      <c r="P65" s="32">
+      <c r="P65" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q65" s="33">
-        <v>0</v>
-      </c>
-      <c r="R65" s="38">
+      <c r="R65" s="33">
+        <v>0</v>
+      </c>
+      <c r="S65" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>1</v>
       </c>
@@ -7156,42 +7242,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="40"/>
+      <c r="K66" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K66" s="28">
+      <c r="L66" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L66" s="29">
+      <c r="M66" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M66" s="37">
+      <c r="N66" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N66" s="37">
+      <c r="O66" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O66" s="36">
-        <v>0</v>
-      </c>
-      <c r="P66" s="32">
+      <c r="P66" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q66" s="33">
-        <v>0</v>
-      </c>
-      <c r="R66" s="38">
+      <c r="R66" s="33">
+        <v>0</v>
+      </c>
+      <c r="S66" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>1</v>
       </c>
@@ -7220,42 +7307,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J67" s="40"/>
+      <c r="K67" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K67" s="28">
+      <c r="L67" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L67" s="29">
+      <c r="M67" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M67" s="37">
+      <c r="N67" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N67" s="37">
+      <c r="O67" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O67" s="36">
-        <v>0</v>
-      </c>
-      <c r="P67" s="32">
+      <c r="P67" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q67" s="33">
-        <v>0</v>
-      </c>
-      <c r="R67" s="38">
+      <c r="R67" s="33">
+        <v>0</v>
+      </c>
+      <c r="S67" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>1</v>
       </c>
@@ -7284,42 +7372,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="40"/>
+      <c r="K68" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K68" s="28">
+      <c r="L68" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L68" s="29">
+      <c r="M68" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M68" s="37">
+      <c r="N68" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N68" s="37">
+      <c r="O68" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O68" s="36">
-        <v>0</v>
-      </c>
-      <c r="P68" s="32">
+      <c r="P68" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q68" s="33">
-        <v>0</v>
-      </c>
-      <c r="R68" s="38">
+      <c r="R68" s="33">
+        <v>0</v>
+      </c>
+      <c r="S68" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>1</v>
       </c>
@@ -7348,42 +7437,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="40"/>
+      <c r="K69" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K69" s="28">
+      <c r="L69" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L69" s="29">
+      <c r="M69" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M69" s="37">
+      <c r="N69" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N69" s="37">
+      <c r="O69" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O69" s="36">
-        <v>0</v>
-      </c>
-      <c r="P69" s="32">
+      <c r="P69" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q69" s="33">
-        <v>0</v>
-      </c>
-      <c r="R69" s="38">
+      <c r="R69" s="33">
+        <v>0</v>
+      </c>
+      <c r="S69" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>1</v>
       </c>
@@ -7412,42 +7502,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="40"/>
+      <c r="K70" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K70" s="28">
+      <c r="L70" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L70" s="29">
+      <c r="M70" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M70" s="37">
+      <c r="N70" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N70" s="37">
+      <c r="O70" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O70" s="36">
-        <v>0</v>
-      </c>
-      <c r="P70" s="32">
+      <c r="P70" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q70" s="33">
-        <v>0</v>
-      </c>
-      <c r="R70" s="38">
+      <c r="R70" s="33">
+        <v>0</v>
+      </c>
+      <c r="S70" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>1</v>
       </c>
@@ -7476,42 +7567,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="40"/>
+      <c r="K71" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K71" s="28">
+      <c r="L71" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L71" s="29">
+      <c r="M71" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M71" s="37">
+      <c r="N71" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N71" s="37">
+      <c r="O71" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O71" s="36">
-        <v>0</v>
-      </c>
-      <c r="P71" s="32">
+      <c r="P71" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q71" s="33">
-        <v>0</v>
-      </c>
-      <c r="R71" s="38">
+      <c r="R71" s="33">
+        <v>0</v>
+      </c>
+      <c r="S71" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>1</v>
       </c>
@@ -7540,42 +7632,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="40"/>
+      <c r="K72" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K72" s="28">
+      <c r="L72" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L72" s="29">
+      <c r="M72" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M72" s="37">
+      <c r="N72" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N72" s="37">
+      <c r="O72" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O72" s="36">
-        <v>0</v>
-      </c>
-      <c r="P72" s="32">
+      <c r="P72" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q72" s="33">
-        <v>0</v>
-      </c>
-      <c r="R72" s="38">
+      <c r="R72" s="33">
+        <v>0</v>
+      </c>
+      <c r="S72" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>1</v>
       </c>
@@ -7604,42 +7697,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="40"/>
+      <c r="K73" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K73" s="28">
+      <c r="L73" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L73" s="29">
+      <c r="M73" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M73" s="37">
+      <c r="N73" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N73" s="37">
+      <c r="O73" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O73" s="36">
-        <v>0</v>
-      </c>
-      <c r="P73" s="32">
+      <c r="P73" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q73" s="33">
-        <v>0</v>
-      </c>
-      <c r="R73" s="38">
+      <c r="R73" s="33">
+        <v>0</v>
+      </c>
+      <c r="S73" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>1</v>
       </c>
@@ -7668,42 +7762,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="40"/>
+      <c r="K74" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K74" s="28">
+      <c r="L74" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L74" s="29">
+      <c r="M74" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M74" s="37">
+      <c r="N74" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N74" s="37">
+      <c r="O74" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O74" s="36">
-        <v>0</v>
-      </c>
-      <c r="P74" s="32">
+      <c r="P74" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q74" s="33">
-        <v>0</v>
-      </c>
-      <c r="R74" s="38">
+      <c r="R74" s="33">
+        <v>0</v>
+      </c>
+      <c r="S74" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>1</v>
       </c>
@@ -7732,42 +7827,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="40"/>
+      <c r="K75" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K75" s="28">
+      <c r="L75" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L75" s="29">
+      <c r="M75" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M75" s="37">
+      <c r="N75" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N75" s="37">
+      <c r="O75" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O75" s="36">
-        <v>0</v>
-      </c>
-      <c r="P75" s="32">
+      <c r="P75" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q75" s="33">
-        <v>0</v>
-      </c>
-      <c r="R75" s="38">
+      <c r="R75" s="33">
+        <v>0</v>
+      </c>
+      <c r="S75" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>1</v>
       </c>
@@ -7796,42 +7892,43 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="40"/>
+      <c r="K76" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K76" s="28">
+      <c r="L76" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L76" s="29">
+      <c r="M76" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M76" s="37">
+      <c r="N76" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N76" s="37">
+      <c r="O76" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O76" s="36">
-        <v>0</v>
-      </c>
-      <c r="P76" s="32">
+      <c r="P76" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q76" s="33">
-        <v>0</v>
-      </c>
-      <c r="R76" s="38">
+      <c r="R76" s="33">
+        <v>0</v>
+      </c>
+      <c r="S76" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>1</v>
       </c>
@@ -7860,37 +7957,38 @@
         <f t="shared" si="31"/>
         <v>99.010652399999998</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J77" s="40"/>
+      <c r="K77" s="22">
         <f t="shared" si="32"/>
         <v>105.556528</v>
       </c>
-      <c r="K77" s="28">
+      <c r="L77" s="28">
         <f t="shared" si="33"/>
         <v>18.07048</v>
       </c>
-      <c r="L77" s="29">
+      <c r="M77" s="29">
         <f t="shared" si="34"/>
         <v>84.121200000000002</v>
       </c>
-      <c r="M77" s="37">
+      <c r="N77" s="37">
         <f t="shared" si="35"/>
         <v>105.556528</v>
       </c>
-      <c r="N77" s="37">
+      <c r="O77" s="37">
         <f t="shared" si="36"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="O77" s="36">
-        <v>0</v>
-      </c>
-      <c r="P77" s="32">
+      <c r="P77" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="32">
         <f t="shared" si="37"/>
         <v>9.5960479999999961</v>
       </c>
-      <c r="Q77" s="33">
-        <v>0</v>
-      </c>
-      <c r="R77" s="38">
+      <c r="R77" s="33">
+        <v>0</v>
+      </c>
+      <c r="S77" s="38">
         <f t="shared" si="38"/>
         <v>9.999999999999995E-2</v>
       </c>

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2949,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="22">
-        <f t="shared" ref="J4:K50" si="10">N4</f>
+        <f t="shared" ref="K4:K50" si="10">N4</f>
         <v>22.97064</v>
       </c>
       <c r="L4" s="28">
@@ -5925,57 +5925,57 @@
         <v>101</v>
       </c>
       <c r="E46" s="30">
-        <v>34.99</v>
+        <v>15</v>
       </c>
       <c r="F46" s="31">
         <f t="shared" si="6"/>
-        <v>2.7992000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="G46" s="20">
         <v>0</v>
       </c>
       <c r="H46" s="28">
         <f t="shared" si="16"/>
-        <v>6.6886884000000002</v>
+        <v>2.8673999999999995</v>
       </c>
       <c r="I46" s="34">
         <f t="shared" si="13"/>
-        <v>44.477888399999998</v>
+        <v>19.067399999999999</v>
       </c>
       <c r="J46" s="40"/>
       <c r="K46" s="22">
         <f t="shared" si="10"/>
-        <v>47.418448000000005</v>
+        <v>20.327999999999999</v>
       </c>
       <c r="L46" s="28">
         <f t="shared" si="7"/>
-        <v>8.11768</v>
+        <v>3.4799999999999995</v>
       </c>
       <c r="M46" s="29">
         <f t="shared" si="14"/>
-        <v>37.789200000000001</v>
+        <v>16.2</v>
       </c>
       <c r="N46" s="37">
         <f t="shared" si="3"/>
-        <v>47.418448000000005</v>
+        <v>20.327999999999999</v>
       </c>
       <c r="O46" s="37">
         <f t="shared" si="8"/>
-        <v>4.310768000000003</v>
+        <v>1.847999999999999</v>
       </c>
       <c r="P46" s="36">
         <v>0</v>
       </c>
       <c r="Q46" s="32">
         <f t="shared" si="17"/>
-        <v>4.310768000000003</v>
+        <v>1.847999999999999</v>
       </c>
       <c r="R46" s="33">
         <v>0</v>
       </c>
       <c r="S46" s="38">
         <f t="shared" si="9"/>
-        <v>0.10000000000000006</v>
+        <v>9.9999999999999936E-2</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="J51" s="40"/>
       <c r="K51" s="22">
-        <f t="shared" ref="J51:K56" si="22">N51</f>
+        <f t="shared" ref="K51:K56" si="22">N51</f>
         <v>105.556528</v>
       </c>
       <c r="L51" s="28">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="22">
-        <f t="shared" ref="J57:K77" si="32">N57</f>
+        <f t="shared" ref="K57:K77" si="32">N57</f>
         <v>105.556528</v>
       </c>
       <c r="L57" s="28">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2981,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,48 +3843,48 @@
         <v>73</v>
       </c>
       <c r="E14" s="29">
-        <v>18.899999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="9"/>
-        <v>1.512</v>
+        <v>1.9840000000000002</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="0"/>
-        <v>3.47004</v>
+        <v>4.5532800000000009</v>
       </c>
       <c r="I14" s="33">
         <f t="shared" si="1"/>
-        <v>23.88204</v>
+        <v>31.337280000000003</v>
       </c>
       <c r="J14" s="21">
-        <v>25.99</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K14" s="27">
         <f t="shared" si="2"/>
-        <v>4.3848000000000003</v>
+        <v>5.7536000000000005</v>
       </c>
       <c r="L14" s="28">
         <f t="shared" si="3"/>
-        <v>20.411999999999999</v>
+        <v>26.784000000000002</v>
       </c>
       <c r="M14" s="36">
         <f t="shared" si="10"/>
-        <v>25.613279999999996</v>
+        <v>33.608960000000003</v>
       </c>
       <c r="N14" s="36">
         <f t="shared" si="5"/>
-        <v>2.7052000000000014</v>
+        <v>4.3963999999999999</v>
       </c>
       <c r="O14" s="35">
         <v>0</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="6"/>
-        <v>2.7052000000000014</v>
+        <v>4.3963999999999999</v>
       </c>
       <c r="Q14" s="32">
         <f t="shared" si="7"/>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="R14" s="37">
         <f t="shared" si="8"/>
-        <v>0.1161787947502234</v>
+        <v>0.14389139086719729</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3907,48 +3907,48 @@
         <v>74</v>
       </c>
       <c r="E15" s="29">
-        <v>19.940000000000001</v>
+        <v>25.95</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="9"/>
-        <v>1.5952000000000002</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="0"/>
-        <v>3.6609840000000009</v>
+        <v>4.7644200000000003</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
-        <v>25.196184000000002</v>
+        <v>32.790419999999997</v>
       </c>
       <c r="J15" s="21">
-        <v>27.72</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="2"/>
-        <v>4.62608</v>
+        <v>6.0204000000000004</v>
       </c>
       <c r="L15" s="28">
         <f t="shared" si="3"/>
-        <v>21.535200000000003</v>
+        <v>28.026</v>
       </c>
       <c r="M15" s="36">
         <f t="shared" si="10"/>
-        <v>27.022687999999999</v>
+        <v>35.167439999999999</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="5"/>
-        <v>3.1539199999999994</v>
+        <v>2.9796000000000049</v>
       </c>
       <c r="O15" s="35">
         <v>0</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" si="6"/>
-        <v>3.1539199999999994</v>
+        <v>2.9796000000000049</v>
       </c>
       <c r="Q15" s="32">
         <f t="shared" si="7"/>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="8"/>
-        <v>0.12838515546639917</v>
+        <v>9.3198708805645375E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>Picture</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t>!!!</t>
-  </si>
-  <si>
-    <t>NO PRIME</t>
   </si>
   <si>
     <t>EbaY</t>
@@ -2981,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>6</v>
@@ -3072,48 +3069,48 @@
         <v>16</v>
       </c>
       <c r="E2" s="29">
-        <v>11.99</v>
+        <v>14.36</v>
       </c>
       <c r="F2" s="30">
         <f>E2*8%</f>
-        <v>0.95920000000000005</v>
+        <v>1.1488</v>
       </c>
       <c r="G2" s="19">
         <v>0</v>
       </c>
       <c r="H2" s="27">
         <f t="shared" ref="H2:H28" si="0">SUM(E2+F2)*0.17</f>
-        <v>2.2013640000000003</v>
+        <v>2.6364960000000002</v>
       </c>
       <c r="I2" s="33">
         <f t="shared" ref="I2:I33" si="1">SUM(E2:H2)</f>
-        <v>15.150564000000001</v>
+        <v>18.145295999999998</v>
       </c>
       <c r="J2" s="21">
         <v>16.559999999999999</v>
       </c>
       <c r="K2" s="27">
         <f t="shared" ref="K2:K33" si="2">(E2*0.152)+F2</f>
-        <v>2.7816799999999997</v>
+        <v>3.3315199999999998</v>
       </c>
       <c r="L2" s="28">
         <f t="shared" ref="L2:L33" si="3">E2+F2</f>
-        <v>12.949200000000001</v>
+        <v>15.508799999999999</v>
       </c>
       <c r="M2" s="36">
         <f t="shared" ref="M2:M8" si="4">E2+K2+(10%*(E2+K2))</f>
-        <v>16.248847999999999</v>
+        <v>19.460672000000002</v>
       </c>
       <c r="N2" s="36">
         <f t="shared" ref="N2:N33" si="5">J2-(E2+K2)</f>
-        <v>1.7883199999999988</v>
+        <v>-1.1315200000000019</v>
       </c>
       <c r="O2" s="35">
         <v>0</v>
       </c>
       <c r="P2" s="31">
         <f t="shared" ref="P2:P37" si="6">N2</f>
-        <v>1.7883199999999988</v>
+        <v>-1.1315200000000019</v>
       </c>
       <c r="Q2" s="32">
         <f t="shared" ref="Q2:Q15" si="7">O2*P2</f>
@@ -3121,7 +3118,7 @@
       </c>
       <c r="R2" s="37">
         <f t="shared" ref="R2:R33" si="8">N2/(E2+K2)</f>
-        <v>0.12106409020504091</v>
+        <v>-6.3958325796766011E-2</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">IF(S2&lt;&gt;"",IF(T2="",NOW(),T2),"")</f>
@@ -3140,56 +3137,56 @@
         <v>17</v>
       </c>
       <c r="E3" s="29">
-        <v>13.24</v>
+        <v>13.19</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F50" si="9">E3*8%</f>
-        <v>1.0592000000000001</v>
+        <v>1.0551999999999999</v>
       </c>
       <c r="G3" s="19">
         <v>0</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" si="0"/>
-        <v>2.4308640000000001</v>
+        <v>2.4216839999999999</v>
       </c>
       <c r="I3" s="33">
         <f t="shared" si="1"/>
-        <v>16.730064000000002</v>
+        <v>16.666884</v>
       </c>
       <c r="J3" s="21">
         <v>17.989999999999998</v>
       </c>
       <c r="K3" s="27">
         <f t="shared" si="2"/>
-        <v>3.0716800000000002</v>
+        <v>3.0600800000000001</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" si="3"/>
-        <v>14.299200000000001</v>
+        <v>14.245199999999999</v>
       </c>
       <c r="M3" s="36">
         <f t="shared" si="4"/>
-        <v>17.942847999999998</v>
+        <v>17.875088000000002</v>
       </c>
       <c r="N3" s="36">
         <f t="shared" si="5"/>
-        <v>1.6783199999999994</v>
+        <v>1.7399199999999979</v>
       </c>
       <c r="O3" s="35">
         <v>1</v>
       </c>
       <c r="P3" s="31">
         <f t="shared" si="6"/>
-        <v>1.6783199999999994</v>
+        <v>1.7399199999999979</v>
       </c>
       <c r="Q3" s="32">
         <f t="shared" si="7"/>
-        <v>1.6783199999999994</v>
+        <v>1.7399199999999979</v>
       </c>
       <c r="R3" s="37">
         <f t="shared" si="8"/>
-        <v>0.10289068937105188</v>
+        <v>0.10707147287890262</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3396,48 +3393,48 @@
         <v>25</v>
       </c>
       <c r="E7" s="29">
-        <v>34.049999999999997</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="9"/>
-        <v>2.7239999999999998</v>
+        <v>2.7104000000000004</v>
       </c>
       <c r="G7" s="19">
         <v>0</v>
       </c>
       <c r="H7" s="27">
         <f t="shared" si="0"/>
-        <v>6.2515799999999997</v>
+        <v>6.2203680000000006</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>43.025579999999991</v>
+        <v>42.810768000000003</v>
       </c>
       <c r="J7" s="21">
         <v>46.15</v>
       </c>
       <c r="K7" s="27">
         <f t="shared" si="2"/>
-        <v>7.8995999999999995</v>
+        <v>7.8601600000000005</v>
       </c>
       <c r="L7" s="28">
         <f t="shared" si="3"/>
-        <v>36.773999999999994</v>
+        <v>36.590400000000002</v>
       </c>
       <c r="M7" s="36">
         <f t="shared" si="4"/>
-        <v>46.144559999999998</v>
+        <v>45.914176000000005</v>
       </c>
       <c r="N7" s="36">
         <f t="shared" si="5"/>
-        <v>4.2004000000000019</v>
+        <v>4.4098399999999955</v>
       </c>
       <c r="O7" s="35">
         <v>0</v>
       </c>
       <c r="P7" s="31">
         <f t="shared" si="6"/>
-        <v>4.2004000000000019</v>
+        <v>4.4098399999999955</v>
       </c>
       <c r="Q7" s="32">
         <f t="shared" si="7"/>
@@ -3445,7 +3442,7 @@
       </c>
       <c r="R7" s="37">
         <f t="shared" si="8"/>
-        <v>0.10012967942483367</v>
+        <v>0.10564981063800415</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4291,48 +4288,48 @@
         <v>56</v>
       </c>
       <c r="E21" s="29">
-        <v>9.89</v>
+        <v>10.59</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="9"/>
-        <v>0.79120000000000001</v>
+        <v>0.84719999999999995</v>
       </c>
       <c r="G21" s="19">
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="0"/>
-        <v>1.8158040000000002</v>
+        <v>1.9443240000000002</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>12.497004</v>
+        <v>13.381524000000001</v>
       </c>
       <c r="J21" s="21">
-        <v>13.55</v>
+        <v>14.99</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="2"/>
-        <v>2.2944800000000001</v>
+        <v>2.45688</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="3"/>
-        <v>10.6812</v>
+        <v>11.437200000000001</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="10"/>
-        <v>13.402928000000001</v>
+        <v>14.351568</v>
       </c>
       <c r="N21" s="36">
         <f t="shared" si="5"/>
-        <v>1.3655200000000001</v>
+        <v>1.9431200000000004</v>
       </c>
       <c r="O21" s="35">
         <v>0</v>
       </c>
       <c r="P21" s="31">
         <f t="shared" si="6"/>
-        <v>1.3655200000000001</v>
+        <v>1.9431200000000004</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="11"/>
@@ -4340,7 +4337,7 @@
       </c>
       <c r="R21" s="37">
         <f t="shared" si="8"/>
-        <v>0.11207043714627132</v>
+        <v>0.14893369142660931</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4995,55 +4992,55 @@
         <v>72</v>
       </c>
       <c r="E32" s="29">
-        <v>19.53</v>
+        <v>19.66</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="9"/>
-        <v>1.5624000000000002</v>
+        <v>1.5728</v>
       </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="12"/>
-        <v>3.7333547999999999</v>
+        <v>3.7582056000000001</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="1"/>
-        <v>24.825754800000002</v>
+        <v>24.991005600000001</v>
       </c>
       <c r="J32" s="21">
         <v>26.83</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" si="2"/>
-        <v>4.5309600000000003</v>
+        <v>4.5611199999999998</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="3"/>
-        <v>21.092400000000001</v>
+        <v>21.232800000000001</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="10"/>
-        <v>26.467056000000003</v>
+        <v>26.643231999999998</v>
       </c>
       <c r="N32" s="36">
         <f t="shared" si="5"/>
-        <v>2.7690399999999968</v>
+        <v>2.6088799999999992</v>
       </c>
       <c r="O32" s="35">
         <v>0</v>
       </c>
       <c r="P32" s="31">
         <f t="shared" si="6"/>
-        <v>2.7690399999999968</v>
+        <v>2.6088799999999992</v>
       </c>
       <c r="Q32" s="32">
         <v>0</v>
       </c>
       <c r="R32" s="37">
         <f t="shared" si="8"/>
-        <v>0.11508435241154122</v>
+        <v>0.10771095638847417</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5800,9 +5797,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="A45" s="23"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10" t="s">
         <v>103</v>
@@ -5868,10 +5863,10 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E46" s="29">
         <v>43.99</v>

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,56 +3069,56 @@
         <v>16</v>
       </c>
       <c r="E2" s="29">
-        <v>14.36</v>
+        <v>14.35</v>
       </c>
       <c r="F2" s="30">
         <f>E2*8%</f>
-        <v>1.1488</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="G2" s="19">
         <v>0</v>
       </c>
       <c r="H2" s="27">
         <f t="shared" ref="H2:H28" si="0">SUM(E2+F2)*0.17</f>
-        <v>2.6364960000000002</v>
+        <v>2.6346600000000002</v>
       </c>
       <c r="I2" s="33">
         <f t="shared" ref="I2:I33" si="1">SUM(E2:H2)</f>
-        <v>18.145295999999998</v>
+        <v>18.132660000000001</v>
       </c>
       <c r="J2" s="21">
-        <v>16.559999999999999</v>
+        <v>22.02</v>
       </c>
       <c r="K2" s="27">
         <f t="shared" ref="K2:K33" si="2">(E2*0.152)+F2</f>
-        <v>3.3315199999999998</v>
+        <v>3.3292000000000002</v>
       </c>
       <c r="L2" s="28">
         <f t="shared" ref="L2:L33" si="3">E2+F2</f>
-        <v>15.508799999999999</v>
+        <v>15.497999999999999</v>
       </c>
       <c r="M2" s="36">
-        <f t="shared" ref="M2:M8" si="4">E2+K2+(10%*(E2+K2))</f>
-        <v>19.460672000000002</v>
+        <f>E2+K2+(10%*(E2+K2))</f>
+        <v>19.447120000000002</v>
       </c>
       <c r="N2" s="36">
-        <f t="shared" ref="N2:N33" si="5">J2-(E2+K2)</f>
-        <v>-1.1315200000000019</v>
+        <f t="shared" ref="N2:N33" si="4">J2-(E2+K2)</f>
+        <v>4.340799999999998</v>
       </c>
       <c r="O2" s="35">
         <v>0</v>
       </c>
       <c r="P2" s="31">
-        <f t="shared" ref="P2:P37" si="6">N2</f>
-        <v>-1.1315200000000019</v>
+        <f t="shared" ref="P2:P37" si="5">N2</f>
+        <v>4.340799999999998</v>
       </c>
       <c r="Q2" s="32">
-        <f t="shared" ref="Q2:Q15" si="7">O2*P2</f>
+        <f t="shared" ref="Q2:Q15" si="6">O2*P2</f>
         <v>0</v>
       </c>
       <c r="R2" s="37">
-        <f t="shared" ref="R2:R33" si="8">N2/(E2+K2)</f>
-        <v>-6.3958325796766011E-2</v>
+        <f t="shared" ref="R2:R33" si="7">N2/(E2+K2)</f>
+        <v>0.24553147201230813</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">IF(S2&lt;&gt;"",IF(T2="",NOW(),T2),"")</f>
@@ -3137,56 +3137,56 @@
         <v>17</v>
       </c>
       <c r="E3" s="29">
-        <v>13.19</v>
+        <v>12.21</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F50" si="9">E3*8%</f>
-        <v>1.0551999999999999</v>
+        <f t="shared" ref="F3:F50" si="8">E3*8%</f>
+        <v>0.97680000000000011</v>
       </c>
       <c r="G3" s="19">
         <v>0</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" si="0"/>
-        <v>2.4216839999999999</v>
+        <v>2.2417560000000005</v>
       </c>
       <c r="I3" s="33">
         <f t="shared" si="1"/>
-        <v>16.666884</v>
+        <v>15.428556000000002</v>
       </c>
       <c r="J3" s="21">
-        <v>17.989999999999998</v>
+        <v>18.89</v>
       </c>
       <c r="K3" s="27">
         <f t="shared" si="2"/>
-        <v>3.0600800000000001</v>
+        <v>2.8327200000000001</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" si="3"/>
-        <v>14.245199999999999</v>
+        <v>13.186800000000002</v>
       </c>
       <c r="M3" s="36">
+        <f>E3+K3+(10%*(E3+K3))</f>
+        <v>16.546992000000003</v>
+      </c>
+      <c r="N3" s="36">
         <f t="shared" si="4"/>
-        <v>17.875088000000002</v>
-      </c>
-      <c r="N3" s="36">
-        <f t="shared" si="5"/>
-        <v>1.7399199999999979</v>
+        <v>3.8472799999999996</v>
       </c>
       <c r="O3" s="35">
         <v>1</v>
       </c>
       <c r="P3" s="31">
+        <f t="shared" si="5"/>
+        <v>3.8472799999999996</v>
+      </c>
+      <c r="Q3" s="32">
         <f t="shared" si="6"/>
-        <v>1.7399199999999979</v>
-      </c>
-      <c r="Q3" s="32">
+        <v>3.8472799999999996</v>
+      </c>
+      <c r="R3" s="37">
         <f t="shared" si="7"/>
-        <v>1.7399199999999979</v>
-      </c>
-      <c r="R3" s="37">
-        <f t="shared" si="8"/>
-        <v>0.10707147287890262</v>
+        <v>0.25575693757511936</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3201,56 +3201,56 @@
         <v>18</v>
       </c>
       <c r="E4" s="29">
-        <v>11.07</v>
+        <v>10.23</v>
       </c>
       <c r="F4" s="30">
-        <f t="shared" si="9"/>
-        <v>0.88560000000000005</v>
+        <f t="shared" si="8"/>
+        <v>0.81840000000000002</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
       </c>
       <c r="H4" s="27">
         <f t="shared" si="0"/>
-        <v>2.0324520000000001</v>
+        <v>1.8782280000000002</v>
       </c>
       <c r="I4" s="33">
         <f t="shared" si="1"/>
-        <v>13.988052</v>
+        <v>12.926628000000001</v>
       </c>
       <c r="J4" s="21">
         <v>15.55</v>
       </c>
       <c r="K4" s="27">
         <f t="shared" si="2"/>
-        <v>2.5682399999999999</v>
+        <v>2.3733599999999999</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" si="3"/>
-        <v>11.9556</v>
+        <v>11.048400000000001</v>
       </c>
       <c r="M4" s="36">
+        <f t="shared" ref="M4:M8" si="9">E4+K4+(10%*(E4+K4))</f>
+        <v>13.863696000000001</v>
+      </c>
+      <c r="N4" s="36">
         <f t="shared" si="4"/>
-        <v>15.002064000000001</v>
-      </c>
-      <c r="N4" s="36">
+        <v>2.9466400000000004</v>
+      </c>
+      <c r="O4" s="35">
+        <v>0</v>
+      </c>
+      <c r="P4" s="31">
         <f t="shared" si="5"/>
-        <v>1.911760000000001</v>
-      </c>
-      <c r="O4" s="35">
-        <v>0</v>
-      </c>
-      <c r="P4" s="31">
+        <v>2.9466400000000004</v>
+      </c>
+      <c r="Q4" s="32">
         <f t="shared" si="6"/>
-        <v>1.911760000000001</v>
-      </c>
-      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="37">
-        <f t="shared" si="8"/>
-        <v>0.14017644505449392</v>
+        <v>0.23379797133462826</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3268,7 +3268,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F5" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5992</v>
       </c>
       <c r="G5" s="19">
@@ -3294,26 +3294,26 @@
         <v>21.589199999999998</v>
       </c>
       <c r="M5" s="36">
+        <f t="shared" si="9"/>
+        <v>27.090447999999999</v>
+      </c>
+      <c r="N5" s="36">
         <f t="shared" si="4"/>
-        <v>27.090447999999999</v>
-      </c>
-      <c r="N5" s="36">
+        <v>3.8323200000000028</v>
+      </c>
+      <c r="O5" s="35">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
         <f t="shared" si="5"/>
         <v>3.8323200000000028</v>
       </c>
-      <c r="O5" s="35">
-        <v>0</v>
-      </c>
-      <c r="P5" s="31">
+      <c r="Q5" s="32">
         <f t="shared" si="6"/>
-        <v>3.8323200000000028</v>
-      </c>
-      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="37">
-        <f t="shared" si="8"/>
         <v>0.15561027266880206</v>
       </c>
     </row>
@@ -3329,56 +3329,56 @@
         <v>23</v>
       </c>
       <c r="E6" s="29">
-        <v>51.98</v>
+        <v>62.55</v>
       </c>
       <c r="F6" s="30">
-        <f t="shared" si="9"/>
-        <v>4.1583999999999994</v>
+        <f t="shared" si="8"/>
+        <v>5.0039999999999996</v>
       </c>
       <c r="G6" s="19">
         <v>0</v>
       </c>
       <c r="H6" s="27">
         <f t="shared" si="0"/>
-        <v>9.5435280000000002</v>
+        <v>11.484180000000002</v>
       </c>
       <c r="I6" s="33">
         <f t="shared" si="1"/>
-        <v>65.681927999999999</v>
+        <v>79.038180000000011</v>
       </c>
       <c r="J6" s="21">
-        <v>70.55</v>
+        <v>84.95</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" si="2"/>
-        <v>12.059359999999998</v>
+        <v>14.5116</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" si="3"/>
-        <v>56.138399999999997</v>
+        <v>67.554000000000002</v>
       </c>
       <c r="M6" s="36">
+        <f t="shared" si="9"/>
+        <v>84.767759999999996</v>
+      </c>
+      <c r="N6" s="36">
         <f t="shared" si="4"/>
-        <v>70.443295999999989</v>
-      </c>
-      <c r="N6" s="36">
+        <v>7.8884000000000043</v>
+      </c>
+      <c r="O6" s="35">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31">
         <f t="shared" si="5"/>
-        <v>6.5106400000000093</v>
-      </c>
-      <c r="O6" s="35">
-        <v>0</v>
-      </c>
-      <c r="P6" s="31">
+        <v>7.8884000000000043</v>
+      </c>
+      <c r="Q6" s="32">
         <f t="shared" si="6"/>
-        <v>6.5106400000000093</v>
-      </c>
-      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="37">
-        <f t="shared" si="8"/>
-        <v>0.10166622527145822</v>
+        <v>0.10236486135766718</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3393,56 +3393,56 @@
         <v>25</v>
       </c>
       <c r="E7" s="29">
-        <v>33.880000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F7" s="30">
-        <f t="shared" si="9"/>
-        <v>2.7104000000000004</v>
+        <f t="shared" si="8"/>
+        <v>2.7039999999999997</v>
       </c>
       <c r="G7" s="19">
         <v>0</v>
       </c>
       <c r="H7" s="27">
         <f t="shared" si="0"/>
-        <v>6.2203680000000006</v>
+        <v>6.2056800000000001</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>42.810768000000003</v>
+        <v>42.709679999999999</v>
       </c>
       <c r="J7" s="21">
         <v>46.15</v>
       </c>
       <c r="K7" s="27">
         <f t="shared" si="2"/>
-        <v>7.8601600000000005</v>
+        <v>7.8415999999999988</v>
       </c>
       <c r="L7" s="28">
         <f t="shared" si="3"/>
-        <v>36.590400000000002</v>
+        <v>36.503999999999998</v>
       </c>
       <c r="M7" s="36">
+        <f t="shared" si="9"/>
+        <v>45.805759999999999</v>
+      </c>
+      <c r="N7" s="36">
         <f t="shared" si="4"/>
-        <v>45.914176000000005</v>
-      </c>
-      <c r="N7" s="36">
+        <v>4.5084000000000017</v>
+      </c>
+      <c r="O7" s="35">
+        <v>0</v>
+      </c>
+      <c r="P7" s="31">
         <f t="shared" si="5"/>
-        <v>4.4098399999999955</v>
-      </c>
-      <c r="O7" s="35">
-        <v>0</v>
-      </c>
-      <c r="P7" s="31">
+        <v>4.5084000000000017</v>
+      </c>
+      <c r="Q7" s="32">
         <f t="shared" si="6"/>
-        <v>4.4098399999999955</v>
-      </c>
-      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="R7" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="37">
-        <f t="shared" si="8"/>
-        <v>0.10564981063800415</v>
+        <v>0.10826673326673332</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3457,56 +3457,56 @@
         <v>27</v>
       </c>
       <c r="E8" s="29">
-        <v>100.9</v>
+        <v>102.89</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="9"/>
-        <v>8.072000000000001</v>
+        <f t="shared" si="8"/>
+        <v>8.2311999999999994</v>
       </c>
       <c r="G8" s="19">
         <v>0</v>
       </c>
       <c r="H8" s="27">
         <f t="shared" si="0"/>
-        <v>18.525240000000004</v>
+        <v>18.890604000000003</v>
       </c>
       <c r="I8" s="33">
         <f t="shared" si="1"/>
-        <v>127.49724000000001</v>
+        <v>130.01180400000001</v>
       </c>
       <c r="J8" s="21">
-        <v>136.74</v>
+        <v>139.94999999999999</v>
       </c>
       <c r="K8" s="27">
         <f t="shared" si="2"/>
-        <v>23.408799999999999</v>
+        <v>23.870480000000001</v>
       </c>
       <c r="L8" s="28">
         <f t="shared" si="3"/>
-        <v>108.97200000000001</v>
+        <v>111.1212</v>
       </c>
       <c r="M8" s="36">
+        <f t="shared" si="9"/>
+        <v>139.43652800000001</v>
+      </c>
+      <c r="N8" s="36">
         <f t="shared" si="4"/>
-        <v>136.73968000000002</v>
-      </c>
-      <c r="N8" s="36">
+        <v>13.189519999999987</v>
+      </c>
+      <c r="O8" s="35">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
         <f t="shared" si="5"/>
-        <v>12.431200000000004</v>
-      </c>
-      <c r="O8" s="35">
-        <v>0</v>
-      </c>
-      <c r="P8" s="31">
+        <v>13.189519999999987</v>
+      </c>
+      <c r="Q8" s="32">
         <f t="shared" si="6"/>
-        <v>12.431200000000004</v>
-      </c>
-      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="37">
-        <f t="shared" si="8"/>
-        <v>0.10000257423448705</v>
+        <v>0.10405072622003314</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G9" s="19">
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="35">
-        <v>0</v>
-      </c>
-      <c r="P9" s="31">
+      <c r="Q9" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="R9" s="37" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="37" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3584,56 +3584,56 @@
         <v>32</v>
       </c>
       <c r="E10" s="29">
-        <v>12.18</v>
+        <v>12.68</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" si="9"/>
-        <v>0.97440000000000004</v>
+        <f t="shared" si="8"/>
+        <v>1.0144</v>
       </c>
       <c r="G10" s="19">
         <v>0</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="0"/>
-        <v>2.2362479999999998</v>
+        <v>2.3280480000000003</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="1"/>
-        <v>15.390647999999999</v>
+        <v>16.022448000000001</v>
       </c>
       <c r="J10" s="21">
-        <v>16.72</v>
+        <v>17.18</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="2"/>
-        <v>2.8257599999999998</v>
+        <v>2.9417599999999999</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" si="3"/>
-        <v>13.154399999999999</v>
+        <v>13.6944</v>
       </c>
       <c r="M10" s="36">
         <f t="shared" ref="M10:M41" si="10">E10+K10+(10%*(E10+K10))</f>
-        <v>16.506335999999997</v>
+        <v>17.183935999999999</v>
       </c>
       <c r="N10" s="36">
+        <f t="shared" si="4"/>
+        <v>1.5582399999999996</v>
+      </c>
+      <c r="O10" s="35">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31">
         <f t="shared" si="5"/>
-        <v>1.7142400000000002</v>
-      </c>
-      <c r="O10" s="35">
-        <v>0</v>
-      </c>
-      <c r="P10" s="31">
+        <v>1.5582399999999996</v>
+      </c>
+      <c r="Q10" s="32">
         <f t="shared" si="6"/>
-        <v>1.7142400000000002</v>
-      </c>
-      <c r="Q10" s="32">
+        <v>0</v>
+      </c>
+      <c r="R10" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="37">
-        <f t="shared" si="8"/>
-        <v>0.11423879896786303</v>
+        <v>9.974804375435288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3651,7 +3651,7 @@
         <v>28.99</v>
       </c>
       <c r="F11" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.3191999999999999</v>
       </c>
       <c r="G11" s="19">
@@ -3681,22 +3681,22 @@
         <v>39.287247999999998</v>
       </c>
       <c r="N11" s="36">
+        <f t="shared" si="4"/>
+        <v>4.044319999999999</v>
+      </c>
+      <c r="O11" s="35">
+        <v>0</v>
+      </c>
+      <c r="P11" s="31">
         <f t="shared" si="5"/>
         <v>4.044319999999999</v>
       </c>
-      <c r="O11" s="35">
-        <v>0</v>
-      </c>
-      <c r="P11" s="31">
+      <c r="Q11" s="32">
         <f t="shared" si="6"/>
-        <v>4.044319999999999</v>
-      </c>
-      <c r="Q11" s="32">
+        <v>0</v>
+      </c>
+      <c r="R11" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="37">
-        <f t="shared" si="8"/>
         <v>0.11323653924550783</v>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
         <v>59.99</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.7991999999999999</v>
       </c>
       <c r="G12" s="19">
@@ -3745,22 +3745,22 @@
         <v>81.298447999999993</v>
       </c>
       <c r="N12" s="36">
+        <f t="shared" si="4"/>
+        <v>7.5523199999999946</v>
+      </c>
+      <c r="O12" s="35">
+        <v>0</v>
+      </c>
+      <c r="P12" s="31">
         <f t="shared" si="5"/>
         <v>7.5523199999999946</v>
       </c>
-      <c r="O12" s="35">
-        <v>0</v>
-      </c>
-      <c r="P12" s="31">
+      <c r="Q12" s="32">
         <f t="shared" si="6"/>
-        <v>7.5523199999999946</v>
-      </c>
-      <c r="Q12" s="32">
+        <v>0</v>
+      </c>
+      <c r="R12" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="37">
-        <f t="shared" si="8"/>
         <v>0.1021858621458554</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>27.99</v>
       </c>
       <c r="F13" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2391999999999999</v>
       </c>
       <c r="G13" s="19">
@@ -3809,22 +3809,22 @@
         <v>37.932048000000002</v>
       </c>
       <c r="N13" s="36">
+        <f t="shared" si="4"/>
+        <v>5.4663200000000032</v>
+      </c>
+      <c r="O13" s="35">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31">
         <f t="shared" si="5"/>
         <v>5.4663200000000032</v>
       </c>
-      <c r="O13" s="35">
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
+      <c r="Q13" s="32">
         <f t="shared" si="6"/>
-        <v>5.4663200000000032</v>
-      </c>
-      <c r="Q13" s="32">
+        <v>0</v>
+      </c>
+      <c r="R13" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="37">
-        <f t="shared" si="8"/>
         <v>0.15851904437113451</v>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
         <v>24.8</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9840000000000002</v>
       </c>
       <c r="G14" s="19">
@@ -3873,22 +3873,22 @@
         <v>33.608960000000003</v>
       </c>
       <c r="N14" s="36">
+        <f t="shared" si="4"/>
+        <v>4.3963999999999999</v>
+      </c>
+      <c r="O14" s="35">
+        <v>0</v>
+      </c>
+      <c r="P14" s="31">
         <f t="shared" si="5"/>
         <v>4.3963999999999999</v>
       </c>
-      <c r="O14" s="35">
-        <v>0</v>
-      </c>
-      <c r="P14" s="31">
+      <c r="Q14" s="32">
         <f t="shared" si="6"/>
-        <v>4.3963999999999999</v>
-      </c>
-      <c r="Q14" s="32">
+        <v>0</v>
+      </c>
+      <c r="R14" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="37">
-        <f t="shared" si="8"/>
         <v>0.14389139086719729</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>25.95</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.0760000000000001</v>
       </c>
       <c r="G15" s="19">
@@ -3922,7 +3922,7 @@
         <v>32.790419999999997</v>
       </c>
       <c r="J15" s="21">
-        <v>34.950000000000003</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="2"/>
@@ -3937,23 +3937,23 @@
         <v>35.167439999999999</v>
       </c>
       <c r="N15" s="36">
+        <f t="shared" si="4"/>
+        <v>3.9796000000000049</v>
+      </c>
+      <c r="O15" s="35">
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
         <f t="shared" si="5"/>
-        <v>2.9796000000000049</v>
-      </c>
-      <c r="O15" s="35">
-        <v>0</v>
-      </c>
-      <c r="P15" s="31">
+        <v>3.9796000000000049</v>
+      </c>
+      <c r="Q15" s="32">
         <f t="shared" si="6"/>
-        <v>2.9796000000000049</v>
-      </c>
-      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="37">
-        <f t="shared" si="8"/>
-        <v>9.3198708805645375E-2</v>
+        <v>0.12447764181868244</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3968,56 +3968,56 @@
         <v>75</v>
       </c>
       <c r="E16" s="29">
-        <v>16.989999999999998</v>
+        <v>13.99</v>
       </c>
       <c r="F16" s="30">
-        <f t="shared" si="9"/>
-        <v>1.3592</v>
+        <f t="shared" si="8"/>
+        <v>1.1192</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="0"/>
-        <v>3.119364</v>
+        <v>2.5685640000000003</v>
       </c>
       <c r="I16" s="33">
         <f t="shared" si="1"/>
-        <v>21.468564000000001</v>
+        <v>17.677764</v>
       </c>
       <c r="J16" s="21">
         <v>23.1</v>
       </c>
       <c r="K16" s="27">
         <f t="shared" si="2"/>
-        <v>3.9416799999999999</v>
+        <v>3.2456800000000001</v>
       </c>
       <c r="L16" s="28">
         <f t="shared" si="3"/>
-        <v>18.3492</v>
+        <v>15.1092</v>
       </c>
       <c r="M16" s="36">
         <f t="shared" si="10"/>
-        <v>23.024847999999999</v>
+        <v>18.959248000000002</v>
       </c>
       <c r="N16" s="36">
-        <f t="shared" si="5"/>
-        <v>2.1683200000000014</v>
+        <f t="shared" si="4"/>
+        <v>5.8643199999999993</v>
       </c>
       <c r="O16" s="35">
         <v>1</v>
       </c>
       <c r="P16" s="31">
         <f>N16</f>
-        <v>2.1683200000000014</v>
+        <v>5.8643199999999993</v>
       </c>
       <c r="Q16" s="32">
         <f>O16*P16</f>
-        <v>2.1683200000000014</v>
+        <v>5.8643199999999993</v>
       </c>
       <c r="R16" s="37">
-        <f t="shared" si="8"/>
-        <v>0.103590347263096</v>
+        <f t="shared" si="7"/>
+        <v>0.34024303073624007</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4035,7 +4035,7 @@
         <v>11.7</v>
       </c>
       <c r="F17" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.93599999999999994</v>
       </c>
       <c r="G17" s="19">
@@ -4065,22 +4065,22 @@
         <v>15.855839999999999</v>
       </c>
       <c r="N17" s="36">
+        <f t="shared" si="4"/>
+        <v>1.4456000000000007</v>
+      </c>
+      <c r="O17" s="35">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
         <f t="shared" si="5"/>
         <v>1.4456000000000007</v>
       </c>
-      <c r="O17" s="35">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
-        <f t="shared" si="6"/>
-        <v>1.4456000000000007</v>
-      </c>
       <c r="Q17" s="32">
         <f t="shared" ref="Q17:Q31" si="11">O17*P17</f>
         <v>0</v>
       </c>
       <c r="R17" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10028860028860034</v>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
         <v>12.99</v>
       </c>
       <c r="F18" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.0392000000000001</v>
       </c>
       <c r="G18" s="19">
@@ -4129,22 +4129,22 @@
         <v>17.604047999999999</v>
       </c>
       <c r="N18" s="36">
+        <f t="shared" si="4"/>
+        <v>1.9463200000000001</v>
+      </c>
+      <c r="O18" s="35">
+        <v>0</v>
+      </c>
+      <c r="P18" s="31">
         <f t="shared" si="5"/>
         <v>1.9463200000000001</v>
       </c>
-      <c r="O18" s="35">
-        <v>0</v>
-      </c>
-      <c r="P18" s="31">
-        <f t="shared" si="6"/>
-        <v>1.9463200000000001</v>
-      </c>
       <c r="Q18" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R18" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1216170280835408</v>
       </c>
     </row>
@@ -4160,56 +4160,56 @@
         <v>46</v>
       </c>
       <c r="E19" s="29">
-        <v>15.99</v>
+        <v>15.49</v>
       </c>
       <c r="F19" s="30">
-        <f t="shared" si="9"/>
-        <v>1.2792000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1.2392000000000001</v>
       </c>
       <c r="G19" s="19">
         <v>0</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="0"/>
-        <v>2.9357640000000003</v>
+        <v>2.8439640000000002</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" si="1"/>
-        <v>20.204964</v>
+        <v>19.573163999999998</v>
       </c>
       <c r="J19" s="21">
         <v>22.59</v>
       </c>
       <c r="K19" s="27">
         <f t="shared" si="2"/>
-        <v>3.7096799999999996</v>
+        <v>3.59368</v>
       </c>
       <c r="L19" s="28">
         <f t="shared" si="3"/>
-        <v>17.269200000000001</v>
+        <v>16.729199999999999</v>
       </c>
       <c r="M19" s="36">
         <f t="shared" si="10"/>
-        <v>21.669648000000002</v>
+        <v>20.992048</v>
       </c>
       <c r="N19" s="36">
+        <f t="shared" si="4"/>
+        <v>3.5063199999999988</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
         <f t="shared" si="5"/>
-        <v>2.8903199999999991</v>
-      </c>
-      <c r="O19" s="35">
-        <v>0</v>
-      </c>
-      <c r="P19" s="31">
-        <f t="shared" si="6"/>
-        <v>2.8903199999999991</v>
+        <v>3.5063199999999988</v>
       </c>
       <c r="Q19" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R19" s="37">
-        <f t="shared" si="8"/>
-        <v>0.14671913452401253</v>
+        <f t="shared" si="7"/>
+        <v>0.1837339548766275</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
         <v>22.28</v>
       </c>
       <c r="F20" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7824000000000002</v>
       </c>
       <c r="G20" s="19">
@@ -4257,22 +4257,22 @@
         <v>30.193856</v>
       </c>
       <c r="N20" s="36">
+        <f t="shared" si="4"/>
+        <v>2.7410400000000017</v>
+      </c>
+      <c r="O20" s="35">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31">
         <f t="shared" si="5"/>
         <v>2.7410400000000017</v>
       </c>
-      <c r="O20" s="35">
-        <v>0</v>
-      </c>
-      <c r="P20" s="31">
-        <f t="shared" si="6"/>
-        <v>2.7410400000000017</v>
-      </c>
       <c r="Q20" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R20" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.9859521089323666E-2</v>
       </c>
     </row>
@@ -4288,56 +4288,56 @@
         <v>56</v>
       </c>
       <c r="E21" s="29">
-        <v>10.59</v>
+        <v>9.57</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="9"/>
-        <v>0.84719999999999995</v>
+        <f t="shared" si="8"/>
+        <v>0.76560000000000006</v>
       </c>
       <c r="G21" s="19">
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="0"/>
-        <v>1.9443240000000002</v>
+        <v>1.7570520000000001</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>13.381524000000001</v>
+        <v>12.092651999999999</v>
       </c>
       <c r="J21" s="21">
         <v>14.99</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="2"/>
-        <v>2.45688</v>
+        <v>2.22024</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="3"/>
-        <v>11.437200000000001</v>
+        <v>10.335599999999999</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="10"/>
-        <v>14.351568</v>
+        <v>12.969264000000001</v>
       </c>
       <c r="N21" s="36">
+        <f t="shared" si="4"/>
+        <v>3.1997599999999995</v>
+      </c>
+      <c r="O21" s="35">
+        <v>0</v>
+      </c>
+      <c r="P21" s="31">
         <f t="shared" si="5"/>
-        <v>1.9431200000000004</v>
-      </c>
-      <c r="O21" s="35">
-        <v>0</v>
-      </c>
-      <c r="P21" s="31">
-        <f t="shared" si="6"/>
-        <v>1.9431200000000004</v>
+        <v>3.1997599999999995</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R21" s="37">
-        <f t="shared" si="8"/>
-        <v>0.14893369142660931</v>
+        <f t="shared" si="7"/>
+        <v>0.27139057389841081</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4355,7 +4355,7 @@
         <v>17.14</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3712</v>
       </c>
       <c r="G22" s="19">
@@ -4385,22 +4385,22 @@
         <v>23.228127999999998</v>
       </c>
       <c r="N22" s="36">
+        <f t="shared" si="4"/>
+        <v>2.1135200000000012</v>
+      </c>
+      <c r="O22" s="35">
+        <v>0</v>
+      </c>
+      <c r="P22" s="31">
         <f t="shared" si="5"/>
         <v>2.1135200000000012</v>
       </c>
-      <c r="O22" s="35">
-        <v>0</v>
-      </c>
-      <c r="P22" s="31">
-        <f t="shared" si="6"/>
-        <v>2.1135200000000012</v>
-      </c>
       <c r="Q22" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R22" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10008865113882623</v>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
         <v>9.98</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.7984</v>
       </c>
       <c r="G23" s="19">
@@ -4449,22 +4449,22 @@
         <v>13.524896</v>
       </c>
       <c r="N23" s="36">
+        <f t="shared" si="4"/>
+        <v>1.2246399999999991</v>
+      </c>
+      <c r="O23" s="35">
+        <v>0</v>
+      </c>
+      <c r="P23" s="31">
         <f t="shared" si="5"/>
         <v>1.2246399999999991</v>
       </c>
-      <c r="O23" s="35">
-        <v>0</v>
-      </c>
-      <c r="P23" s="31">
-        <f t="shared" si="6"/>
-        <v>1.2246399999999991</v>
-      </c>
       <c r="Q23" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R23" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.9601801004606541E-2</v>
       </c>
     </row>
@@ -4480,56 +4480,56 @@
         <v>54</v>
       </c>
       <c r="E24" s="29">
-        <v>29.99</v>
+        <v>28.98</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="9"/>
-        <v>2.3992</v>
+        <f t="shared" si="8"/>
+        <v>2.3184</v>
       </c>
       <c r="G24" s="19">
         <v>0</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="0"/>
-        <v>5.5061639999999992</v>
+        <v>5.3207280000000008</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="1"/>
-        <v>37.895363999999994</v>
+        <v>36.619128000000003</v>
       </c>
       <c r="J24" s="21">
         <v>40.950000000000003</v>
       </c>
       <c r="K24" s="27">
         <f t="shared" si="2"/>
-        <v>6.9576799999999999</v>
+        <v>6.7233599999999996</v>
       </c>
       <c r="L24" s="28">
         <f t="shared" si="3"/>
-        <v>32.389199999999995</v>
+        <v>31.298400000000001</v>
       </c>
       <c r="M24" s="36">
         <f t="shared" si="10"/>
-        <v>40.642448000000002</v>
+        <v>39.273696000000001</v>
       </c>
       <c r="N24" s="36">
+        <f t="shared" si="4"/>
+        <v>5.2466399999999993</v>
+      </c>
+      <c r="O24" s="35">
+        <v>0</v>
+      </c>
+      <c r="P24" s="31">
         <f t="shared" si="5"/>
-        <v>4.0023200000000045</v>
-      </c>
-      <c r="O24" s="35">
-        <v>0</v>
-      </c>
-      <c r="P24" s="31">
-        <f t="shared" si="6"/>
-        <v>4.0023200000000045</v>
+        <v>5.2466399999999993</v>
       </c>
       <c r="Q24" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="8"/>
-        <v>0.10832398678347341</v>
+        <f t="shared" si="7"/>
+        <v>0.14695087521174474</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4547,7 +4547,7 @@
         <v>39.979999999999997</v>
       </c>
       <c r="F25" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.1983999999999999</v>
       </c>
       <c r="G25" s="19">
@@ -4577,22 +4577,22 @@
         <v>54.180895999999997</v>
       </c>
       <c r="N25" s="36">
+        <f t="shared" si="4"/>
+        <v>4.9246400000000037</v>
+      </c>
+      <c r="O25" s="35">
+        <v>0</v>
+      </c>
+      <c r="P25" s="31">
         <f t="shared" si="5"/>
         <v>4.9246400000000037</v>
       </c>
-      <c r="O25" s="35">
-        <v>0</v>
-      </c>
-      <c r="P25" s="31">
-        <f t="shared" si="6"/>
-        <v>4.9246400000000037</v>
-      </c>
       <c r="Q25" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.9981809086361451E-2</v>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
         <v>5.94</v>
       </c>
       <c r="F26" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.47520000000000007</v>
       </c>
       <c r="G26" s="19">
@@ -4641,22 +4641,22 @@
         <v>8.0498879999999993</v>
       </c>
       <c r="N26" s="36">
+        <f t="shared" si="4"/>
+        <v>0.73192000000000057</v>
+      </c>
+      <c r="O26" s="35">
+        <v>0</v>
+      </c>
+      <c r="P26" s="31">
         <f t="shared" si="5"/>
         <v>0.73192000000000057</v>
       </c>
-      <c r="O26" s="35">
-        <v>0</v>
-      </c>
-      <c r="P26" s="31">
-        <f t="shared" si="6"/>
-        <v>0.73192000000000057</v>
-      </c>
       <c r="Q26" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R26" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.10001530456075919</v>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
         <v>19.46</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5568000000000002</v>
       </c>
       <c r="G27" s="19">
@@ -4705,22 +4705,22 @@
         <v>26.372192000000002</v>
       </c>
       <c r="N27" s="36">
+        <f t="shared" si="4"/>
+        <v>2.3952799999999996</v>
+      </c>
+      <c r="O27" s="35">
+        <v>0</v>
+      </c>
+      <c r="P27" s="31">
         <f t="shared" si="5"/>
         <v>2.3952799999999996</v>
       </c>
-      <c r="O27" s="35">
-        <v>0</v>
-      </c>
-      <c r="P27" s="31">
-        <f t="shared" si="6"/>
-        <v>2.3952799999999996</v>
-      </c>
       <c r="Q27" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R27" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.9908570360780005E-2</v>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
         <v>14.51</v>
       </c>
       <c r="F28" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1608000000000001</v>
       </c>
       <c r="G28" s="19">
@@ -4769,22 +4769,22 @@
         <v>19.663951999999998</v>
       </c>
       <c r="N28" s="36">
+        <f t="shared" si="4"/>
+        <v>2.0736799999999995</v>
+      </c>
+      <c r="O28" s="35">
+        <v>0</v>
+      </c>
+      <c r="P28" s="31">
         <f t="shared" si="5"/>
         <v>2.0736799999999995</v>
       </c>
-      <c r="O28" s="35">
-        <v>0</v>
-      </c>
-      <c r="P28" s="31">
-        <f t="shared" si="6"/>
-        <v>2.0736799999999995</v>
-      </c>
       <c r="Q28" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R28" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11600150366518386</v>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         <v>14.99</v>
       </c>
       <c r="F29" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1992</v>
       </c>
       <c r="G29" s="19">
@@ -4833,22 +4833,22 @@
         <v>20.314448000000002</v>
       </c>
       <c r="N29" s="36">
+        <f t="shared" si="4"/>
+        <v>2.4823199999999979</v>
+      </c>
+      <c r="O29" s="35">
+        <v>0</v>
+      </c>
+      <c r="P29" s="31">
         <f t="shared" si="5"/>
         <v>2.4823199999999979</v>
       </c>
-      <c r="O29" s="35">
-        <v>0</v>
-      </c>
-      <c r="P29" s="31">
-        <f t="shared" si="6"/>
-        <v>2.4823199999999979</v>
-      </c>
       <c r="Q29" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R29" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13441428484790713</v>
       </c>
     </row>
@@ -4864,56 +4864,56 @@
         <v>67</v>
       </c>
       <c r="E30" s="29">
-        <v>15.99</v>
+        <v>18.82</v>
       </c>
       <c r="F30" s="30">
-        <f t="shared" si="9"/>
-        <v>1.2792000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1.5056</v>
       </c>
       <c r="G30" s="19">
         <v>0</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="12"/>
-        <v>3.0566484000000003</v>
+        <v>3.5976311999999999</v>
       </c>
       <c r="I30" s="33">
         <f t="shared" si="1"/>
-        <v>20.325848400000002</v>
+        <v>23.9232312</v>
       </c>
       <c r="J30" s="21">
-        <v>22.95</v>
+        <v>28.89</v>
       </c>
       <c r="K30" s="27">
         <f t="shared" si="2"/>
-        <v>3.7096799999999996</v>
+        <v>4.3662400000000003</v>
       </c>
       <c r="L30" s="28">
         <f t="shared" si="3"/>
-        <v>17.269200000000001</v>
+        <v>20.325600000000001</v>
       </c>
       <c r="M30" s="36">
         <f t="shared" si="10"/>
-        <v>21.669648000000002</v>
+        <v>25.504864000000001</v>
       </c>
       <c r="N30" s="36">
+        <f t="shared" si="4"/>
+        <v>5.7037599999999991</v>
+      </c>
+      <c r="O30" s="35">
+        <v>0</v>
+      </c>
+      <c r="P30" s="31">
         <f t="shared" si="5"/>
-        <v>3.2503199999999985</v>
-      </c>
-      <c r="O30" s="35">
-        <v>0</v>
-      </c>
-      <c r="P30" s="31">
-        <f t="shared" si="6"/>
-        <v>3.2503199999999985</v>
+        <v>5.7037599999999991</v>
       </c>
       <c r="Q30" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R30" s="37">
-        <f t="shared" si="8"/>
-        <v>0.16499354304232344</v>
+        <f t="shared" si="7"/>
+        <v>0.24599762617828499</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4931,7 +4931,7 @@
         <v>33.24</v>
       </c>
       <c r="F31" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.6592000000000002</v>
       </c>
       <c r="G31" s="19">
@@ -4961,22 +4961,22 @@
         <v>45.046848000000004</v>
       </c>
       <c r="N31" s="36">
+        <f t="shared" si="4"/>
+        <v>4.6383200000000002</v>
+      </c>
+      <c r="O31" s="35">
+        <v>0</v>
+      </c>
+      <c r="P31" s="31">
         <f t="shared" si="5"/>
         <v>4.6383200000000002</v>
       </c>
-      <c r="O31" s="35">
-        <v>0</v>
-      </c>
-      <c r="P31" s="31">
-        <f t="shared" si="6"/>
-        <v>4.6383200000000002</v>
-      </c>
       <c r="Q31" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R31" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.1132632409708222</v>
       </c>
     </row>
@@ -4992,55 +4992,55 @@
         <v>72</v>
       </c>
       <c r="E32" s="29">
-        <v>19.66</v>
+        <v>19.8</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="9"/>
-        <v>1.5728</v>
+        <f t="shared" si="8"/>
+        <v>1.5840000000000001</v>
       </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="12"/>
-        <v>3.7582056000000001</v>
+        <v>3.7849679999999997</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="1"/>
-        <v>24.991005600000001</v>
+        <v>25.168968</v>
       </c>
       <c r="J32" s="21">
-        <v>26.83</v>
+        <v>26.86</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" si="2"/>
-        <v>4.5611199999999998</v>
+        <v>4.5936000000000003</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="3"/>
-        <v>21.232800000000001</v>
+        <v>21.384</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="10"/>
-        <v>26.643231999999998</v>
+        <v>26.83296</v>
       </c>
       <c r="N32" s="36">
+        <f t="shared" si="4"/>
+        <v>2.4664000000000001</v>
+      </c>
+      <c r="O32" s="35">
+        <v>0</v>
+      </c>
+      <c r="P32" s="31">
         <f t="shared" si="5"/>
-        <v>2.6088799999999992</v>
-      </c>
-      <c r="O32" s="35">
-        <v>0</v>
-      </c>
-      <c r="P32" s="31">
-        <f t="shared" si="6"/>
-        <v>2.6088799999999992</v>
+        <v>2.4664000000000001</v>
       </c>
       <c r="Q32" s="32">
         <v>0</v>
       </c>
       <c r="R32" s="37">
-        <f t="shared" si="8"/>
-        <v>0.10771095638847417</v>
+        <f t="shared" si="7"/>
+        <v>0.10110848747212385</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5058,7 +5058,7 @@
         <v>16.37</v>
       </c>
       <c r="F33" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3096000000000001</v>
       </c>
       <c r="G33" s="19">
@@ -5088,21 +5088,21 @@
         <v>22.184624000000003</v>
       </c>
       <c r="N33" s="36">
+        <f t="shared" si="4"/>
+        <v>2.7521599999999999</v>
+      </c>
+      <c r="O33" s="35">
+        <v>0</v>
+      </c>
+      <c r="P33" s="31">
         <f t="shared" si="5"/>
         <v>2.7521599999999999</v>
       </c>
-      <c r="O33" s="35">
-        <v>0</v>
-      </c>
-      <c r="P33" s="31">
-        <f t="shared" si="6"/>
-        <v>2.7521599999999999</v>
-      </c>
       <c r="Q33" s="32">
         <v>0</v>
       </c>
       <c r="R33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13646280414759338</v>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
         <v>19.95</v>
       </c>
       <c r="F34" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5960000000000001</v>
       </c>
       <c r="G34" s="19">
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.8816000000000024</v>
       </c>
       <c r="Q34" s="32">
@@ -5184,7 +5184,7 @@
         <v>21.49</v>
       </c>
       <c r="F35" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7191999999999998</v>
       </c>
       <c r="G35" s="19">
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.4743200000000023</v>
       </c>
       <c r="Q35" s="32">
@@ -5244,55 +5244,55 @@
         <v>83</v>
       </c>
       <c r="E36" s="29">
-        <v>35.26</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F36" s="30">
-        <f t="shared" si="9"/>
-        <v>2.8207999999999998</v>
+        <f t="shared" si="8"/>
+        <v>2.8239999999999998</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="12"/>
-        <v>6.7403015999999987</v>
+        <v>6.7479479999999992</v>
       </c>
       <c r="I36" s="33">
         <f t="shared" si="13"/>
-        <v>44.821101599999992</v>
+        <v>44.871947999999996</v>
       </c>
       <c r="J36" s="21">
         <v>47.84</v>
       </c>
       <c r="K36" s="27">
         <f t="shared" si="14"/>
-        <v>8.18032</v>
+        <v>8.1895999999999987</v>
       </c>
       <c r="L36" s="28">
         <f t="shared" si="15"/>
-        <v>38.080799999999996</v>
+        <v>38.123999999999995</v>
       </c>
       <c r="M36" s="36">
         <f t="shared" si="10"/>
-        <v>47.784351999999998</v>
+        <v>47.838559999999994</v>
       </c>
       <c r="N36" s="36">
         <f t="shared" si="16"/>
-        <v>4.3996800000000036</v>
+        <v>4.3504000000000076</v>
       </c>
       <c r="O36" s="35">
         <v>0</v>
       </c>
       <c r="P36" s="31">
-        <f t="shared" si="6"/>
-        <v>4.3996800000000036</v>
+        <f t="shared" si="5"/>
+        <v>4.3504000000000076</v>
       </c>
       <c r="Q36" s="32">
         <v>0</v>
       </c>
       <c r="R36" s="37">
         <f t="shared" si="17"/>
-        <v>0.10128102187092552</v>
+        <v>0.10003311136455631</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5310,7 +5310,7 @@
         <v>49.95</v>
       </c>
       <c r="F37" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.9960000000000004</v>
       </c>
       <c r="G37" s="19">
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.1515999999999948</v>
       </c>
       <c r="Q37" s="32">
@@ -5373,7 +5373,7 @@
         <v>24.99</v>
       </c>
       <c r="F38" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9991999999999999</v>
       </c>
       <c r="G38" s="19">
@@ -5436,7 +5436,7 @@
         <v>16.52</v>
       </c>
       <c r="F39" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3215999999999999</v>
       </c>
       <c r="G39" s="19">
@@ -5499,7 +5499,7 @@
         <v>27.99</v>
       </c>
       <c r="F40" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2391999999999999</v>
       </c>
       <c r="G40" s="19">
@@ -5556,55 +5556,55 @@
         <v>94</v>
       </c>
       <c r="E41" s="29">
-        <v>34.96</v>
+        <v>34.99</v>
       </c>
       <c r="F41" s="30">
-        <f t="shared" si="9"/>
-        <v>2.7968000000000002</v>
+        <f t="shared" si="8"/>
+        <v>2.7992000000000004</v>
       </c>
       <c r="G41" s="19">
         <v>0</v>
       </c>
       <c r="H41" s="27">
         <f t="shared" ref="H41:H50" si="19">SUM(E41:G41)*17.7%</f>
-        <v>6.6829535999999994</v>
+        <v>6.6886884000000002</v>
       </c>
       <c r="I41" s="33">
         <f t="shared" si="13"/>
-        <v>44.439753599999996</v>
+        <v>44.477888399999998</v>
       </c>
       <c r="J41" s="21">
         <v>47.95</v>
       </c>
       <c r="K41" s="27">
         <f t="shared" si="14"/>
-        <v>8.1107200000000006</v>
+        <v>8.11768</v>
       </c>
       <c r="L41" s="28">
         <f t="shared" si="15"/>
-        <v>37.756799999999998</v>
+        <v>37.789200000000001</v>
       </c>
       <c r="M41" s="36">
         <f t="shared" si="10"/>
-        <v>47.377791999999999</v>
+        <v>47.418448000000005</v>
       </c>
       <c r="N41" s="36">
         <f t="shared" si="16"/>
-        <v>4.8792800000000014</v>
+        <v>4.8423200000000008</v>
       </c>
       <c r="O41" s="35">
         <v>0</v>
       </c>
       <c r="P41" s="31">
         <f t="shared" si="18"/>
-        <v>4.8792800000000014</v>
+        <v>4.8423200000000008</v>
       </c>
       <c r="Q41" s="32">
         <v>0</v>
       </c>
       <c r="R41" s="37">
         <f t="shared" si="17"/>
-        <v>0.11328531308508429</v>
+        <v>0.1123307958117904</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5622,7 +5622,7 @@
         <v>100.99</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.0792000000000002</v>
       </c>
       <c r="G42" s="19">
@@ -5685,7 +5685,7 @@
         <v>27.99</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2391999999999999</v>
       </c>
       <c r="G43" s="19">
@@ -5748,7 +5748,7 @@
         <v>75.73</v>
       </c>
       <c r="F44" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6.0584000000000007</v>
       </c>
       <c r="G44" s="19">
@@ -5809,7 +5809,7 @@
         <v>24.14</v>
       </c>
       <c r="F45" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9312</v>
       </c>
       <c r="G45" s="19">
@@ -5872,7 +5872,7 @@
         <v>43.99</v>
       </c>
       <c r="F46" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.5192000000000001</v>
       </c>
       <c r="G46" s="19">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G47" s="19">
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G48" s="19">
@@ -6049,7 +6049,7 @@
         <v>77.89</v>
       </c>
       <c r="F49" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6.2312000000000003</v>
       </c>
       <c r="G49" s="19">
@@ -6110,7 +6110,7 @@
         <v>77.89</v>
       </c>
       <c r="F50" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6.2312000000000003</v>
       </c>
       <c r="G50" s="19">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,56 +3137,56 @@
         <v>17</v>
       </c>
       <c r="E3" s="29">
-        <v>12.21</v>
+        <v>12.24</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F50" si="8">E3*8%</f>
-        <v>0.97680000000000011</v>
+        <v>0.97920000000000007</v>
       </c>
       <c r="G3" s="19">
         <v>0</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" si="0"/>
-        <v>2.2417560000000005</v>
+        <v>2.2472640000000004</v>
       </c>
       <c r="I3" s="33">
         <f t="shared" si="1"/>
-        <v>15.428556000000002</v>
+        <v>15.466464000000002</v>
       </c>
       <c r="J3" s="21">
         <v>18.89</v>
       </c>
       <c r="K3" s="27">
         <f t="shared" si="2"/>
-        <v>2.8327200000000001</v>
+        <v>2.83968</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" si="3"/>
-        <v>13.186800000000002</v>
+        <v>13.219200000000001</v>
       </c>
       <c r="M3" s="36">
         <f>E3+K3+(10%*(E3+K3))</f>
-        <v>16.546992000000003</v>
+        <v>16.587648000000002</v>
       </c>
       <c r="N3" s="36">
         <f t="shared" si="4"/>
-        <v>3.8472799999999996</v>
+        <v>3.8103200000000008</v>
       </c>
       <c r="O3" s="35">
         <v>1</v>
       </c>
       <c r="P3" s="31">
         <f t="shared" si="5"/>
-        <v>3.8472799999999996</v>
+        <v>3.8103200000000008</v>
       </c>
       <c r="Q3" s="32">
         <f t="shared" si="6"/>
-        <v>3.8472799999999996</v>
+        <v>3.8103200000000008</v>
       </c>
       <c r="R3" s="37">
         <f t="shared" si="7"/>
-        <v>0.25575693757511936</v>
+        <v>0.25267910194380788</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3201,48 +3201,48 @@
         <v>18</v>
       </c>
       <c r="E4" s="29">
-        <v>10.23</v>
+        <v>11.15</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" si="8"/>
-        <v>0.81840000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
       </c>
       <c r="H4" s="27">
         <f t="shared" si="0"/>
-        <v>1.8782280000000002</v>
+        <v>2.0471400000000002</v>
       </c>
       <c r="I4" s="33">
         <f t="shared" si="1"/>
-        <v>12.926628000000001</v>
+        <v>14.08914</v>
       </c>
       <c r="J4" s="21">
         <v>15.55</v>
       </c>
       <c r="K4" s="27">
         <f t="shared" si="2"/>
-        <v>2.3733599999999999</v>
+        <v>2.5868000000000002</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" si="3"/>
-        <v>11.048400000000001</v>
+        <v>12.042</v>
       </c>
       <c r="M4" s="36">
         <f t="shared" ref="M4:M8" si="9">E4+K4+(10%*(E4+K4))</f>
-        <v>13.863696000000001</v>
+        <v>15.110480000000001</v>
       </c>
       <c r="N4" s="36">
         <f t="shared" si="4"/>
-        <v>2.9466400000000004</v>
+        <v>1.8132000000000001</v>
       </c>
       <c r="O4" s="35">
         <v>0</v>
       </c>
       <c r="P4" s="31">
         <f t="shared" si="5"/>
-        <v>2.9466400000000004</v>
+        <v>1.8132000000000001</v>
       </c>
       <c r="Q4" s="32">
         <f t="shared" si="6"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="R4" s="37">
         <f t="shared" si="7"/>
-        <v>0.23379797133462826</v>
+        <v>0.13199580688369927</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
         <v>79.038180000000011</v>
       </c>
       <c r="J6" s="21">
-        <v>84.95</v>
+        <v>84.89</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" si="2"/>
@@ -3363,14 +3363,14 @@
       </c>
       <c r="N6" s="36">
         <f t="shared" si="4"/>
-        <v>7.8884000000000043</v>
+        <v>7.828400000000002</v>
       </c>
       <c r="O6" s="35">
         <v>0</v>
       </c>
       <c r="P6" s="31">
         <f t="shared" si="5"/>
-        <v>7.8884000000000043</v>
+        <v>7.828400000000002</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" si="6"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="R6" s="37">
         <f t="shared" si="7"/>
-        <v>0.10236486135766718</v>
+        <v>0.10158626345676708</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,48 +3584,48 @@
         <v>32</v>
       </c>
       <c r="E10" s="29">
-        <v>12.68</v>
+        <v>12.58</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="8"/>
-        <v>1.0144</v>
+        <v>1.0064</v>
       </c>
       <c r="G10" s="19">
         <v>0</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="0"/>
-        <v>2.3280480000000003</v>
+        <v>2.309688</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="1"/>
-        <v>16.022448000000001</v>
+        <v>15.896087999999999</v>
       </c>
       <c r="J10" s="21">
         <v>17.18</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="2"/>
-        <v>2.9417599999999999</v>
+        <v>2.9185599999999998</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" si="3"/>
-        <v>13.6944</v>
+        <v>13.586399999999999</v>
       </c>
       <c r="M10" s="36">
         <f t="shared" ref="M10:M41" si="10">E10+K10+(10%*(E10+K10))</f>
-        <v>17.183935999999999</v>
+        <v>17.048416</v>
       </c>
       <c r="N10" s="36">
         <f t="shared" si="4"/>
-        <v>1.5582399999999996</v>
+        <v>1.6814400000000003</v>
       </c>
       <c r="O10" s="35">
         <v>0</v>
       </c>
       <c r="P10" s="31">
         <f t="shared" si="5"/>
-        <v>1.5582399999999996</v>
+        <v>1.6814400000000003</v>
       </c>
       <c r="Q10" s="32">
         <f t="shared" si="6"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="7"/>
-        <v>9.974804375435288E-2</v>
+        <v>0.1084900790783144</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3685,7 +3685,7 @@
         <v>4.044319999999999</v>
       </c>
       <c r="O11" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="5"/>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.044319999999999</v>
       </c>
       <c r="R11" s="37">
         <f t="shared" si="7"/>
@@ -3840,48 +3840,48 @@
         <v>73</v>
       </c>
       <c r="E14" s="29">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="8"/>
-        <v>1.9840000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="0"/>
-        <v>4.5532800000000009</v>
+        <v>4.4064000000000005</v>
       </c>
       <c r="I14" s="33">
         <f t="shared" si="1"/>
-        <v>31.337280000000003</v>
+        <v>30.326400000000003</v>
       </c>
       <c r="J14" s="21">
-        <v>34.950000000000003</v>
+        <v>64.95</v>
       </c>
       <c r="K14" s="27">
         <f t="shared" si="2"/>
-        <v>5.7536000000000005</v>
+        <v>5.5679999999999996</v>
       </c>
       <c r="L14" s="28">
         <f t="shared" si="3"/>
-        <v>26.784000000000002</v>
+        <v>25.92</v>
       </c>
       <c r="M14" s="36">
         <f t="shared" si="10"/>
-        <v>33.608960000000003</v>
+        <v>32.524799999999999</v>
       </c>
       <c r="N14" s="36">
         <f t="shared" si="4"/>
-        <v>4.3963999999999999</v>
+        <v>35.382000000000005</v>
       </c>
       <c r="O14" s="35">
         <v>0</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="5"/>
-        <v>4.3963999999999999</v>
+        <v>35.382000000000005</v>
       </c>
       <c r="Q14" s="32">
         <f t="shared" si="6"/>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="R14" s="37">
         <f t="shared" si="7"/>
-        <v>0.14389139086719729</v>
+        <v>1.1966314935064937</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3904,48 +3904,48 @@
         <v>74</v>
       </c>
       <c r="E15" s="29">
-        <v>25.95</v>
+        <v>24</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="8"/>
-        <v>2.0760000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="0"/>
-        <v>4.7644200000000003</v>
+        <v>4.4064000000000005</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
-        <v>32.790419999999997</v>
+        <v>30.326400000000003</v>
       </c>
       <c r="J15" s="21">
-        <v>35.950000000000003</v>
+        <v>64.95</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="2"/>
-        <v>6.0204000000000004</v>
+        <v>5.5679999999999996</v>
       </c>
       <c r="L15" s="28">
         <f t="shared" si="3"/>
-        <v>28.026</v>
+        <v>25.92</v>
       </c>
       <c r="M15" s="36">
         <f t="shared" si="10"/>
-        <v>35.167439999999999</v>
+        <v>32.524799999999999</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="4"/>
-        <v>3.9796000000000049</v>
+        <v>35.382000000000005</v>
       </c>
       <c r="O15" s="35">
         <v>0</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" si="5"/>
-        <v>3.9796000000000049</v>
+        <v>35.382000000000005</v>
       </c>
       <c r="Q15" s="32">
         <f t="shared" si="6"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="7"/>
-        <v>0.12447764181868244</v>
+        <v>1.1966314935064937</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
         <v>1.4456000000000007</v>
       </c>
       <c r="O17" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="31">
         <f t="shared" si="5"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="Q17" s="32">
         <f t="shared" ref="Q17:Q31" si="11">O17*P17</f>
-        <v>0</v>
+        <v>2.8912000000000013</v>
       </c>
       <c r="R17" s="37">
         <f t="shared" si="7"/>
@@ -4197,7 +4197,7 @@
         <v>3.5063199999999988</v>
       </c>
       <c r="O19" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="31">
         <f t="shared" si="5"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="Q19" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.5063199999999988</v>
       </c>
       <c r="R19" s="37">
         <f t="shared" si="7"/>
@@ -4224,48 +4224,48 @@
         <v>47</v>
       </c>
       <c r="E20" s="29">
-        <v>22.28</v>
+        <v>22.36</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="8"/>
-        <v>1.7824000000000002</v>
+        <v>1.7887999999999999</v>
       </c>
       <c r="G20" s="19">
         <v>0</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="0"/>
-        <v>4.0906080000000005</v>
+        <v>4.1052960000000001</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="1"/>
-        <v>28.153008</v>
+        <v>28.254095999999997</v>
       </c>
       <c r="J20" s="21">
         <v>30.19</v>
       </c>
       <c r="K20" s="27">
         <f t="shared" si="2"/>
-        <v>5.1689600000000002</v>
+        <v>5.1875200000000001</v>
       </c>
       <c r="L20" s="28">
         <f t="shared" si="3"/>
-        <v>24.0624</v>
+        <v>24.148799999999998</v>
       </c>
       <c r="M20" s="36">
         <f t="shared" si="10"/>
-        <v>30.193856</v>
+        <v>30.302271999999999</v>
       </c>
       <c r="N20" s="36">
         <f t="shared" si="4"/>
-        <v>2.7410400000000017</v>
+        <v>2.6424800000000026</v>
       </c>
       <c r="O20" s="35">
         <v>0</v>
       </c>
       <c r="P20" s="31">
         <f t="shared" si="5"/>
-        <v>2.7410400000000017</v>
+        <v>2.6424800000000026</v>
       </c>
       <c r="Q20" s="32">
         <f t="shared" si="11"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="R20" s="37">
         <f t="shared" si="7"/>
-        <v>9.9859521089323666E-2</v>
+        <v>9.5924424412796611E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4288,48 +4288,48 @@
         <v>56</v>
       </c>
       <c r="E21" s="29">
-        <v>9.57</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="8"/>
-        <v>0.76560000000000006</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="G21" s="19">
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="0"/>
-        <v>1.7570520000000001</v>
+        <v>1.7992800000000004</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>12.092651999999999</v>
+        <v>12.383280000000003</v>
       </c>
       <c r="J21" s="21">
         <v>14.99</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="2"/>
-        <v>2.22024</v>
+        <v>2.2736000000000001</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="3"/>
-        <v>10.335599999999999</v>
+        <v>10.584000000000001</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="10"/>
-        <v>12.969264000000001</v>
+        <v>13.28096</v>
       </c>
       <c r="N21" s="36">
         <f t="shared" si="4"/>
-        <v>3.1997599999999995</v>
+        <v>2.9163999999999994</v>
       </c>
       <c r="O21" s="35">
         <v>0</v>
       </c>
       <c r="P21" s="31">
         <f t="shared" si="5"/>
-        <v>3.1997599999999995</v>
+        <v>2.9163999999999994</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="11"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="R21" s="37">
         <f t="shared" si="7"/>
-        <v>0.27139057389841081</v>
+        <v>0.24155181553140731</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4389,7 +4389,7 @@
         <v>2.1135200000000012</v>
       </c>
       <c r="O22" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="31">
         <f t="shared" si="5"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="Q22" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.1135200000000012</v>
       </c>
       <c r="R22" s="37">
         <f t="shared" si="7"/>
@@ -4453,7 +4453,7 @@
         <v>1.2246399999999991</v>
       </c>
       <c r="O23" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="31">
         <f t="shared" si="5"/>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="Q23" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.2246399999999991</v>
       </c>
       <c r="R23" s="37">
         <f t="shared" si="7"/>
@@ -4480,48 +4480,48 @@
         <v>54</v>
       </c>
       <c r="E24" s="29">
-        <v>28.98</v>
+        <v>27.99</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" si="8"/>
-        <v>2.3184</v>
+        <v>2.2391999999999999</v>
       </c>
       <c r="G24" s="19">
         <v>0</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="0"/>
-        <v>5.3207280000000008</v>
+        <v>5.1389640000000005</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="1"/>
-        <v>36.619128000000003</v>
+        <v>35.368164</v>
       </c>
       <c r="J24" s="21">
         <v>40.950000000000003</v>
       </c>
       <c r="K24" s="27">
         <f t="shared" si="2"/>
-        <v>6.7233599999999996</v>
+        <v>6.4936799999999995</v>
       </c>
       <c r="L24" s="28">
         <f t="shared" si="3"/>
-        <v>31.298400000000001</v>
+        <v>30.229199999999999</v>
       </c>
       <c r="M24" s="36">
         <f t="shared" si="10"/>
-        <v>39.273696000000001</v>
+        <v>37.932048000000002</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="4"/>
-        <v>5.2466399999999993</v>
+        <v>6.4663200000000032</v>
       </c>
       <c r="O24" s="35">
         <v>0</v>
       </c>
       <c r="P24" s="31">
         <f t="shared" si="5"/>
-        <v>5.2466399999999993</v>
+        <v>6.4663200000000032</v>
       </c>
       <c r="Q24" s="32">
         <f t="shared" si="11"/>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="R24" s="37">
         <f t="shared" si="7"/>
-        <v>0.14695087521174474</v>
+        <v>0.18751826951183873</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4992,55 +4992,55 @@
         <v>72</v>
       </c>
       <c r="E32" s="29">
-        <v>19.8</v>
+        <v>19.16</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="8"/>
-        <v>1.5840000000000001</v>
+        <v>1.5327999999999999</v>
       </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="12"/>
-        <v>3.7849679999999997</v>
+        <v>3.6626255999999997</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="1"/>
-        <v>25.168968</v>
+        <v>24.355425599999997</v>
       </c>
       <c r="J32" s="21">
         <v>26.86</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" si="2"/>
-        <v>4.5936000000000003</v>
+        <v>4.4451199999999993</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="3"/>
-        <v>21.384</v>
+        <v>20.692799999999998</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="10"/>
-        <v>26.83296</v>
+        <v>25.965631999999999</v>
       </c>
       <c r="N32" s="36">
         <f t="shared" si="4"/>
-        <v>2.4664000000000001</v>
+        <v>3.25488</v>
       </c>
       <c r="O32" s="35">
         <v>0</v>
       </c>
       <c r="P32" s="31">
         <f t="shared" si="5"/>
-        <v>2.4664000000000001</v>
+        <v>3.25488</v>
       </c>
       <c r="Q32" s="32">
         <v>0</v>
       </c>
       <c r="R32" s="37">
         <f t="shared" si="7"/>
-        <v>0.10110848747212385</v>
+        <v>0.13788872922484613</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5433,55 +5433,55 @@
         <v>89</v>
       </c>
       <c r="E39" s="29">
-        <v>16.52</v>
+        <v>17.71</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="8"/>
-        <v>1.3215999999999999</v>
+        <v>1.4168000000000001</v>
       </c>
       <c r="G39" s="19">
         <v>0</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="12"/>
-        <v>3.1579631999999997</v>
+        <v>3.3854435999999999</v>
       </c>
       <c r="I39" s="33">
         <f t="shared" si="13"/>
-        <v>20.999563200000001</v>
+        <v>22.512243599999998</v>
       </c>
       <c r="J39" s="21">
         <v>22.46</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" si="14"/>
-        <v>3.8326399999999996</v>
+        <v>4.1087199999999999</v>
       </c>
       <c r="L39" s="28">
         <f t="shared" si="15"/>
-        <v>17.8416</v>
+        <v>19.126799999999999</v>
       </c>
       <c r="M39" s="36">
         <f t="shared" si="10"/>
-        <v>22.387904000000002</v>
+        <v>24.000591999999997</v>
       </c>
       <c r="N39" s="36">
         <f t="shared" si="16"/>
-        <v>2.1073599999999999</v>
+        <v>0.64128000000000185</v>
       </c>
       <c r="O39" s="35">
         <v>0</v>
       </c>
       <c r="P39" s="31">
         <f t="shared" si="18"/>
-        <v>2.1073599999999999</v>
+        <v>0.64128000000000185</v>
       </c>
       <c r="Q39" s="32">
         <v>0</v>
       </c>
       <c r="R39" s="37">
         <f t="shared" si="17"/>
-        <v>0.10354234143580389</v>
+        <v>2.9391275015216378E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5745,55 +5745,55 @@
         <v>100</v>
       </c>
       <c r="E44" s="29">
-        <v>75.73</v>
+        <v>75.7</v>
       </c>
       <c r="F44" s="30">
         <f t="shared" si="8"/>
-        <v>6.0584000000000007</v>
+        <v>6.056</v>
       </c>
       <c r="G44" s="19">
         <v>0</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="19"/>
-        <v>14.476546800000001</v>
+        <v>14.470811999999999</v>
       </c>
       <c r="I44" s="33">
         <f t="shared" si="13"/>
-        <v>96.264946800000018</v>
+        <v>96.226811999999995</v>
       </c>
       <c r="J44" s="21">
         <v>102.72</v>
       </c>
       <c r="K44" s="27">
         <f t="shared" si="14"/>
-        <v>17.569360000000003</v>
+        <v>17.5624</v>
       </c>
       <c r="L44" s="28">
         <f t="shared" si="15"/>
-        <v>81.78840000000001</v>
+        <v>81.756</v>
       </c>
       <c r="M44" s="36">
         <f t="shared" si="20"/>
-        <v>102.62929600000001</v>
+        <v>102.58864</v>
       </c>
       <c r="N44" s="36">
         <f t="shared" si="16"/>
-        <v>9.4206399999999917</v>
+        <v>9.4575999999999993</v>
       </c>
       <c r="O44" s="35">
         <v>0</v>
       </c>
       <c r="P44" s="31">
         <f t="shared" si="18"/>
-        <v>9.4206399999999917</v>
+        <v>9.4575999999999993</v>
       </c>
       <c r="Q44" s="32">
         <v>0</v>
       </c>
       <c r="R44" s="37">
         <f t="shared" si="17"/>
-        <v>0.10097218244583876</v>
+        <v>0.10140849903069189</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5806,55 +5806,55 @@
         <v>102</v>
       </c>
       <c r="E45" s="29">
-        <v>24.14</v>
+        <v>25.17</v>
       </c>
       <c r="F45" s="30">
         <f t="shared" si="8"/>
-        <v>1.9312</v>
+        <v>2.0136000000000003</v>
       </c>
       <c r="G45" s="19">
         <v>0</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="19"/>
-        <v>4.6146023999999999</v>
+        <v>4.8114971999999998</v>
       </c>
       <c r="I45" s="33">
         <f t="shared" si="13"/>
-        <v>30.6858024</v>
+        <v>31.995097200000004</v>
       </c>
       <c r="J45" s="21">
-        <v>32.950000000000003</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K45" s="27">
         <f t="shared" si="14"/>
-        <v>5.6004800000000001</v>
+        <v>5.8394400000000006</v>
       </c>
       <c r="L45" s="28">
         <f t="shared" si="15"/>
-        <v>26.071200000000001</v>
+        <v>27.183600000000002</v>
       </c>
       <c r="M45" s="36">
         <f t="shared" si="20"/>
-        <v>32.714528000000001</v>
+        <v>34.110384000000003</v>
       </c>
       <c r="N45" s="36">
         <f t="shared" si="16"/>
-        <v>3.2095200000000013</v>
+        <v>3.9405600000000014</v>
       </c>
       <c r="O45" s="35">
         <v>0</v>
       </c>
       <c r="P45" s="31">
         <f t="shared" ref="P45:P49" si="21">N45</f>
-        <v>3.2095200000000013</v>
+        <v>3.9405600000000014</v>
       </c>
       <c r="Q45" s="32">
         <v>0</v>
       </c>
       <c r="R45" s="37">
         <f t="shared" si="17"/>
-        <v>0.10791755882890933</v>
+        <v>0.12707614197483094</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7852,10 +7852,11 @@
     <hyperlink ref="C44" r:id="rId45"/>
     <hyperlink ref="C45" r:id="rId46"/>
     <hyperlink ref="C11" r:id="rId47"/>
+    <hyperlink ref="C3" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
-  <drawing r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
 

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,56 +3137,56 @@
         <v>17</v>
       </c>
       <c r="E3" s="29">
-        <v>12.24</v>
+        <v>12.21</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F50" si="8">E3*8%</f>
-        <v>0.97920000000000007</v>
+        <v>0.97680000000000011</v>
       </c>
       <c r="G3" s="19">
         <v>0</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" si="0"/>
-        <v>2.2472640000000004</v>
+        <v>2.2417560000000005</v>
       </c>
       <c r="I3" s="33">
         <f t="shared" si="1"/>
-        <v>15.466464000000002</v>
+        <v>15.428556000000002</v>
       </c>
       <c r="J3" s="21">
         <v>18.89</v>
       </c>
       <c r="K3" s="27">
         <f t="shared" si="2"/>
-        <v>2.83968</v>
+        <v>2.8327200000000001</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" si="3"/>
-        <v>13.219200000000001</v>
+        <v>13.186800000000002</v>
       </c>
       <c r="M3" s="36">
         <f>E3+K3+(10%*(E3+K3))</f>
-        <v>16.587648000000002</v>
+        <v>16.546992000000003</v>
       </c>
       <c r="N3" s="36">
         <f t="shared" si="4"/>
-        <v>3.8103200000000008</v>
+        <v>3.8472799999999996</v>
       </c>
       <c r="O3" s="35">
         <v>1</v>
       </c>
       <c r="P3" s="31">
         <f t="shared" si="5"/>
-        <v>3.8103200000000008</v>
+        <v>3.8472799999999996</v>
       </c>
       <c r="Q3" s="32">
         <f t="shared" si="6"/>
-        <v>3.8103200000000008</v>
+        <v>3.8472799999999996</v>
       </c>
       <c r="R3" s="37">
         <f t="shared" si="7"/>
-        <v>0.25267910194380788</v>
+        <v>0.25575693757511936</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3201,48 +3201,48 @@
         <v>18</v>
       </c>
       <c r="E4" s="29">
-        <v>11.15</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" si="8"/>
-        <v>0.89200000000000002</v>
+        <v>0.65599999999999992</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
       </c>
       <c r="H4" s="27">
         <f t="shared" si="0"/>
-        <v>2.0471400000000002</v>
+        <v>1.5055200000000002</v>
       </c>
       <c r="I4" s="33">
         <f t="shared" si="1"/>
-        <v>14.08914</v>
+        <v>10.361520000000001</v>
       </c>
       <c r="J4" s="21">
         <v>15.55</v>
       </c>
       <c r="K4" s="27">
         <f t="shared" si="2"/>
-        <v>2.5868000000000002</v>
+        <v>1.9023999999999999</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" si="3"/>
-        <v>12.042</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="M4" s="36">
         <f t="shared" ref="M4:M8" si="9">E4+K4+(10%*(E4+K4))</f>
-        <v>15.110480000000001</v>
+        <v>11.112639999999999</v>
       </c>
       <c r="N4" s="36">
         <f t="shared" si="4"/>
-        <v>1.8132000000000001</v>
+        <v>5.4476000000000013</v>
       </c>
       <c r="O4" s="35">
         <v>0</v>
       </c>
       <c r="P4" s="31">
         <f t="shared" si="5"/>
-        <v>1.8132000000000001</v>
+        <v>5.4476000000000013</v>
       </c>
       <c r="Q4" s="32">
         <f t="shared" si="6"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="R4" s="37">
         <f t="shared" si="7"/>
-        <v>0.13199580688369927</v>
+        <v>0.53923820082356688</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,48 +3584,48 @@
         <v>32</v>
       </c>
       <c r="E10" s="29">
-        <v>12.58</v>
+        <v>12.19</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="8"/>
-        <v>1.0064</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="G10" s="19">
         <v>0</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="0"/>
-        <v>2.309688</v>
+        <v>2.2380839999999997</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="1"/>
-        <v>15.896087999999999</v>
+        <v>15.403283999999999</v>
       </c>
       <c r="J10" s="21">
         <v>17.18</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="2"/>
-        <v>2.9185599999999998</v>
+        <v>2.8280799999999999</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" si="3"/>
-        <v>13.586399999999999</v>
+        <v>13.165199999999999</v>
       </c>
       <c r="M10" s="36">
         <f t="shared" ref="M10:M41" si="10">E10+K10+(10%*(E10+K10))</f>
-        <v>17.048416</v>
+        <v>16.519887999999998</v>
       </c>
       <c r="N10" s="36">
         <f t="shared" si="4"/>
-        <v>1.6814400000000003</v>
+        <v>2.1619200000000003</v>
       </c>
       <c r="O10" s="35">
         <v>0</v>
       </c>
       <c r="P10" s="31">
         <f t="shared" si="5"/>
-        <v>1.6814400000000003</v>
+        <v>2.1619200000000003</v>
       </c>
       <c r="Q10" s="32">
         <f t="shared" si="6"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="7"/>
-        <v>0.1084900790783144</v>
+        <v>0.14395448685850656</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4288,48 +4288,48 @@
         <v>56</v>
       </c>
       <c r="E21" s="29">
-        <v>9.8000000000000007</v>
+        <v>9.36</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="8"/>
-        <v>0.78400000000000003</v>
+        <v>0.74880000000000002</v>
       </c>
       <c r="G21" s="19">
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="0"/>
-        <v>1.7992800000000004</v>
+        <v>1.7184959999999998</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>12.383280000000003</v>
+        <v>11.827295999999999</v>
       </c>
       <c r="J21" s="21">
         <v>14.99</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="2"/>
-        <v>2.2736000000000001</v>
+        <v>2.1715200000000001</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="3"/>
-        <v>10.584000000000001</v>
+        <v>10.108799999999999</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="10"/>
-        <v>13.28096</v>
+        <v>12.684672000000001</v>
       </c>
       <c r="N21" s="36">
         <f t="shared" si="4"/>
-        <v>2.9163999999999994</v>
+        <v>3.4584799999999998</v>
       </c>
       <c r="O21" s="35">
         <v>0</v>
       </c>
       <c r="P21" s="31">
         <f t="shared" si="5"/>
-        <v>2.9163999999999994</v>
+        <v>3.4584799999999998</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="11"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="R21" s="37">
         <f t="shared" si="7"/>
-        <v>0.24155181553140731</v>
+        <v>0.29991536241536237</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4453,7 +4453,7 @@
         <v>1.2246399999999991</v>
       </c>
       <c r="O23" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="31">
         <f t="shared" si="5"/>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="Q23" s="32">
         <f t="shared" si="11"/>
-        <v>1.2246399999999991</v>
+        <v>2.4492799999999981</v>
       </c>
       <c r="R23" s="37">
         <f t="shared" si="7"/>
@@ -4992,55 +4992,55 @@
         <v>72</v>
       </c>
       <c r="E32" s="29">
-        <v>19.16</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="8"/>
-        <v>1.5327999999999999</v>
+        <v>1.5391999999999999</v>
       </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="12"/>
-        <v>3.6626255999999997</v>
+        <v>3.6779183999999998</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="1"/>
-        <v>24.355425599999997</v>
+        <v>24.457118399999999</v>
       </c>
       <c r="J32" s="21">
         <v>26.86</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" si="2"/>
-        <v>4.4451199999999993</v>
+        <v>4.4636799999999992</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="3"/>
-        <v>20.692799999999998</v>
+        <v>20.779199999999999</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="10"/>
-        <v>25.965631999999999</v>
+        <v>26.074047999999998</v>
       </c>
       <c r="N32" s="36">
         <f t="shared" si="4"/>
-        <v>3.25488</v>
+        <v>3.1563200000000009</v>
       </c>
       <c r="O32" s="35">
         <v>0</v>
       </c>
       <c r="P32" s="31">
         <f t="shared" si="5"/>
-        <v>3.25488</v>
+        <v>3.1563200000000009</v>
       </c>
       <c r="Q32" s="32">
         <v>0</v>
       </c>
       <c r="R32" s="37">
         <f t="shared" si="7"/>
-        <v>0.13788872922484613</v>
+        <v>0.13315738315738321</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5451,7 @@
         <v>22.512243599999998</v>
       </c>
       <c r="J39" s="21">
-        <v>22.46</v>
+        <v>24.95</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" si="14"/>
@@ -5467,21 +5467,21 @@
       </c>
       <c r="N39" s="36">
         <f t="shared" si="16"/>
-        <v>0.64128000000000185</v>
+        <v>3.1312800000000003</v>
       </c>
       <c r="O39" s="35">
         <v>0</v>
       </c>
       <c r="P39" s="31">
         <f t="shared" si="18"/>
-        <v>0.64128000000000185</v>
+        <v>3.1312800000000003</v>
       </c>
       <c r="Q39" s="32">
         <v>0</v>
       </c>
       <c r="R39" s="37">
         <f t="shared" si="17"/>
-        <v>2.9391275015216378E-2</v>
+        <v>0.14351346000131998</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5682,55 +5682,55 @@
         <v>98</v>
       </c>
       <c r="E43" s="29">
-        <v>27.99</v>
+        <v>27.77</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="8"/>
-        <v>2.2391999999999999</v>
+        <v>2.2216</v>
       </c>
       <c r="G43" s="19">
         <v>0</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="19"/>
-        <v>5.3505683999999993</v>
+        <v>5.3085131999999993</v>
       </c>
       <c r="I43" s="33">
         <f t="shared" si="13"/>
-        <v>35.579768399999999</v>
+        <v>35.300113199999998</v>
       </c>
       <c r="J43" s="21">
         <v>37.93</v>
       </c>
       <c r="K43" s="27">
         <f t="shared" si="14"/>
-        <v>6.4936799999999995</v>
+        <v>6.442639999999999</v>
       </c>
       <c r="L43" s="28">
         <f t="shared" si="15"/>
-        <v>30.229199999999999</v>
+        <v>29.991599999999998</v>
       </c>
       <c r="M43" s="36">
         <f t="shared" si="20"/>
-        <v>37.932048000000002</v>
+        <v>37.633904000000001</v>
       </c>
       <c r="N43" s="36">
         <f t="shared" si="16"/>
-        <v>3.4463200000000001</v>
+        <v>3.7173599999999993</v>
       </c>
       <c r="O43" s="35">
         <v>0</v>
       </c>
       <c r="P43" s="31">
         <f t="shared" si="18"/>
-        <v>3.4463200000000001</v>
+        <v>3.7173599999999993</v>
       </c>
       <c r="Q43" s="32">
         <v>0</v>
       </c>
       <c r="R43" s="37">
         <f t="shared" si="17"/>
-        <v>9.9940609586911838E-2</v>
+        <v>0.10865457912631118</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5745,55 +5745,55 @@
         <v>100</v>
       </c>
       <c r="E44" s="29">
-        <v>75.7</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="F44" s="30">
         <f t="shared" si="8"/>
-        <v>6.056</v>
+        <v>5.9992000000000001</v>
       </c>
       <c r="G44" s="19">
         <v>0</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="19"/>
-        <v>14.470811999999999</v>
+        <v>14.335088399999998</v>
       </c>
       <c r="I44" s="33">
         <f t="shared" si="13"/>
-        <v>96.226811999999995</v>
+        <v>95.3242884</v>
       </c>
       <c r="J44" s="21">
         <v>102.72</v>
       </c>
       <c r="K44" s="27">
         <f t="shared" si="14"/>
-        <v>17.5624</v>
+        <v>17.397680000000001</v>
       </c>
       <c r="L44" s="28">
         <f t="shared" si="15"/>
-        <v>81.756</v>
+        <v>80.989199999999997</v>
       </c>
       <c r="M44" s="36">
         <f t="shared" si="20"/>
-        <v>102.58864</v>
+        <v>101.62644799999998</v>
       </c>
       <c r="N44" s="36">
         <f t="shared" si="16"/>
-        <v>9.4575999999999993</v>
+        <v>10.33232000000001</v>
       </c>
       <c r="O44" s="35">
         <v>0</v>
       </c>
       <c r="P44" s="31">
         <f t="shared" si="18"/>
-        <v>9.4575999999999993</v>
+        <v>10.33232000000001</v>
       </c>
       <c r="Q44" s="32">
         <v>0</v>
       </c>
       <c r="R44" s="37">
         <f t="shared" si="17"/>
-        <v>0.10140849903069189</v>
+        <v>0.11183655656252015</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,48 +3069,48 @@
         <v>16</v>
       </c>
       <c r="E2" s="29">
-        <v>14.35</v>
+        <v>14.36</v>
       </c>
       <c r="F2" s="30">
         <f>E2*8%</f>
-        <v>1.1479999999999999</v>
+        <v>1.1488</v>
       </c>
       <c r="G2" s="19">
         <v>0</v>
       </c>
       <c r="H2" s="27">
         <f t="shared" ref="H2:H28" si="0">SUM(E2+F2)*0.17</f>
-        <v>2.6346600000000002</v>
+        <v>2.6364960000000002</v>
       </c>
       <c r="I2" s="33">
         <f t="shared" ref="I2:I33" si="1">SUM(E2:H2)</f>
-        <v>18.132660000000001</v>
+        <v>18.145295999999998</v>
       </c>
       <c r="J2" s="21">
         <v>22.02</v>
       </c>
       <c r="K2" s="27">
         <f t="shared" ref="K2:K33" si="2">(E2*0.152)+F2</f>
-        <v>3.3292000000000002</v>
+        <v>3.3315199999999998</v>
       </c>
       <c r="L2" s="28">
         <f t="shared" ref="L2:L33" si="3">E2+F2</f>
-        <v>15.497999999999999</v>
+        <v>15.508799999999999</v>
       </c>
       <c r="M2" s="36">
         <f>E2+K2+(10%*(E2+K2))</f>
-        <v>19.447120000000002</v>
+        <v>19.460672000000002</v>
       </c>
       <c r="N2" s="36">
         <f t="shared" ref="N2:N33" si="4">J2-(E2+K2)</f>
-        <v>4.340799999999998</v>
+        <v>4.328479999999999</v>
       </c>
       <c r="O2" s="35">
         <v>0</v>
       </c>
       <c r="P2" s="31">
         <f t="shared" ref="P2:P37" si="5">N2</f>
-        <v>4.340799999999998</v>
+        <v>4.328479999999999</v>
       </c>
       <c r="Q2" s="32">
         <f t="shared" ref="Q2:Q15" si="6">O2*P2</f>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="R2" s="37">
         <f t="shared" ref="R2:R33" si="7">N2/(E2+K2)</f>
-        <v>0.24553147201230813</v>
+        <v>0.244664110262996</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">IF(S2&lt;&gt;"",IF(T2="",NOW(),T2),"")</f>
@@ -3137,56 +3137,56 @@
         <v>17</v>
       </c>
       <c r="E3" s="29">
-        <v>12.21</v>
+        <v>14.99</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F50" si="8">E3*8%</f>
-        <v>0.97680000000000011</v>
+        <v>1.1992</v>
       </c>
       <c r="G3" s="19">
         <v>0</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" si="0"/>
-        <v>2.2417560000000005</v>
+        <v>2.7521640000000001</v>
       </c>
       <c r="I3" s="33">
         <f t="shared" si="1"/>
-        <v>15.428556000000002</v>
+        <v>18.941364</v>
       </c>
       <c r="J3" s="21">
-        <v>18.89</v>
+        <v>22.95</v>
       </c>
       <c r="K3" s="27">
         <f t="shared" si="2"/>
-        <v>2.8327200000000001</v>
+        <v>3.4776800000000003</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" si="3"/>
-        <v>13.186800000000002</v>
+        <v>16.1892</v>
       </c>
       <c r="M3" s="36">
         <f>E3+K3+(10%*(E3+K3))</f>
-        <v>16.546992000000003</v>
+        <v>20.314448000000002</v>
       </c>
       <c r="N3" s="36">
         <f t="shared" si="4"/>
-        <v>3.8472799999999996</v>
+        <v>4.4823199999999979</v>
       </c>
       <c r="O3" s="35">
         <v>1</v>
       </c>
       <c r="P3" s="31">
         <f t="shared" si="5"/>
-        <v>3.8472799999999996</v>
+        <v>4.4823199999999979</v>
       </c>
       <c r="Q3" s="32">
         <f t="shared" si="6"/>
-        <v>3.8472799999999996</v>
+        <v>4.4823199999999979</v>
       </c>
       <c r="R3" s="37">
         <f t="shared" si="7"/>
-        <v>0.25575693757511936</v>
+        <v>0.2427115912773016</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3201,48 +3201,48 @@
         <v>18</v>
       </c>
       <c r="E4" s="29">
-        <v>8.1999999999999993</v>
+        <v>10.49</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" si="8"/>
-        <v>0.65599999999999992</v>
+        <v>0.83920000000000006</v>
       </c>
       <c r="G4" s="19">
         <v>0</v>
       </c>
       <c r="H4" s="27">
         <f t="shared" si="0"/>
-        <v>1.5055200000000002</v>
+        <v>1.9259640000000002</v>
       </c>
       <c r="I4" s="33">
         <f t="shared" si="1"/>
-        <v>10.361520000000001</v>
+        <v>13.255164000000001</v>
       </c>
       <c r="J4" s="21">
         <v>15.55</v>
       </c>
       <c r="K4" s="27">
         <f t="shared" si="2"/>
-        <v>1.9023999999999999</v>
+        <v>2.4336799999999998</v>
       </c>
       <c r="L4" s="28">
         <f t="shared" si="3"/>
-        <v>8.8559999999999999</v>
+        <v>11.3292</v>
       </c>
       <c r="M4" s="36">
         <f t="shared" ref="M4:M8" si="9">E4+K4+(10%*(E4+K4))</f>
-        <v>11.112639999999999</v>
+        <v>14.216048000000001</v>
       </c>
       <c r="N4" s="36">
         <f t="shared" si="4"/>
-        <v>5.4476000000000013</v>
+        <v>2.6263199999999998</v>
       </c>
       <c r="O4" s="35">
         <v>0</v>
       </c>
       <c r="P4" s="31">
         <f t="shared" si="5"/>
-        <v>5.4476000000000013</v>
+        <v>2.6263199999999998</v>
       </c>
       <c r="Q4" s="32">
         <f t="shared" si="6"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="R4" s="37">
         <f t="shared" si="7"/>
-        <v>0.53923820082356688</v>
+        <v>0.2032176593663724</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3329,48 +3329,48 @@
         <v>23</v>
       </c>
       <c r="E6" s="29">
-        <v>62.55</v>
+        <v>61.34</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="8"/>
-        <v>5.0039999999999996</v>
+        <v>4.9072000000000005</v>
       </c>
       <c r="G6" s="19">
         <v>0</v>
       </c>
       <c r="H6" s="27">
         <f t="shared" si="0"/>
-        <v>11.484180000000002</v>
+        <v>11.262024000000002</v>
       </c>
       <c r="I6" s="33">
         <f t="shared" si="1"/>
-        <v>79.038180000000011</v>
+        <v>77.509224000000003</v>
       </c>
       <c r="J6" s="21">
         <v>84.89</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" si="2"/>
-        <v>14.5116</v>
+        <v>14.230879999999999</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" si="3"/>
-        <v>67.554000000000002</v>
+        <v>66.247200000000007</v>
       </c>
       <c r="M6" s="36">
         <f t="shared" si="9"/>
-        <v>84.767759999999996</v>
+        <v>83.12796800000001</v>
       </c>
       <c r="N6" s="36">
         <f t="shared" si="4"/>
-        <v>7.828400000000002</v>
+        <v>9.3191199999999981</v>
       </c>
       <c r="O6" s="35">
         <v>0</v>
       </c>
       <c r="P6" s="31">
         <f t="shared" si="5"/>
-        <v>7.828400000000002</v>
+        <v>9.3191199999999981</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" si="6"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="R6" s="37">
         <f t="shared" si="7"/>
-        <v>0.10158626345676708</v>
+        <v>0.12331628267396116</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3393,48 +3393,48 @@
         <v>25</v>
       </c>
       <c r="E7" s="29">
-        <v>33.799999999999997</v>
+        <v>36.68</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="8"/>
-        <v>2.7039999999999997</v>
+        <v>2.9344000000000001</v>
       </c>
       <c r="G7" s="19">
         <v>0</v>
       </c>
       <c r="H7" s="27">
         <f t="shared" si="0"/>
-        <v>6.2056800000000001</v>
+        <v>6.7344480000000013</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>42.709679999999999</v>
+        <v>46.348848000000004</v>
       </c>
       <c r="J7" s="21">
-        <v>46.15</v>
+        <v>49.94</v>
       </c>
       <c r="K7" s="27">
         <f t="shared" si="2"/>
-        <v>7.8415999999999988</v>
+        <v>8.50976</v>
       </c>
       <c r="L7" s="28">
         <f t="shared" si="3"/>
-        <v>36.503999999999998</v>
+        <v>39.614400000000003</v>
       </c>
       <c r="M7" s="36">
         <f t="shared" si="9"/>
-        <v>45.805759999999999</v>
+        <v>49.708736000000002</v>
       </c>
       <c r="N7" s="36">
         <f t="shared" si="4"/>
-        <v>4.5084000000000017</v>
+        <v>4.750239999999998</v>
       </c>
       <c r="O7" s="35">
         <v>0</v>
       </c>
       <c r="P7" s="31">
         <f t="shared" si="5"/>
-        <v>4.5084000000000017</v>
+        <v>4.750239999999998</v>
       </c>
       <c r="Q7" s="32">
         <f t="shared" si="6"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="R7" s="37">
         <f t="shared" si="7"/>
-        <v>0.10826673326673332</v>
+        <v>0.10511761956691069</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,48 +3584,47 @@
         <v>32</v>
       </c>
       <c r="E10" s="29">
-        <v>12.19</v>
+        <v>12.87</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="8"/>
-        <v>0.97519999999999996</v>
+        <v>1.0295999999999998</v>
       </c>
       <c r="G10" s="19">
         <v>0</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="0"/>
-        <v>2.2380839999999997</v>
+        <v>2.3629320000000003</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="1"/>
-        <v>15.403283999999999</v>
+        <v>16.262532</v>
       </c>
       <c r="J10" s="21">
-        <v>17.18</v>
+        <v>21.19</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="2"/>
-        <v>2.8280799999999999</v>
+        <v>2.9858399999999996</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" si="3"/>
-        <v>13.165199999999999</v>
+        <v>13.8996</v>
       </c>
       <c r="M10" s="36">
-        <f t="shared" ref="M10:M41" si="10">E10+K10+(10%*(E10+K10))</f>
-        <v>16.519887999999998</v>
+        <v>0</v>
       </c>
       <c r="N10" s="36">
         <f t="shared" si="4"/>
-        <v>2.1619200000000003</v>
+        <v>5.3341600000000025</v>
       </c>
       <c r="O10" s="35">
         <v>0</v>
       </c>
       <c r="P10" s="31">
         <f t="shared" si="5"/>
-        <v>2.1619200000000003</v>
+        <v>5.3341600000000025</v>
       </c>
       <c r="Q10" s="32">
         <f t="shared" si="6"/>
@@ -3633,7 +3632,7 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="7"/>
-        <v>0.14395448685850656</v>
+        <v>0.33641610914338205</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3677,7 +3676,7 @@
         <v>31.309199999999997</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M11:M41" si="10">E11+K11+(10%*(E11+K11))</f>
         <v>39.287247999999998</v>
       </c>
       <c r="N11" s="36">
@@ -3685,7 +3684,7 @@
         <v>4.044319999999999</v>
       </c>
       <c r="O11" s="35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="5"/>
@@ -3693,7 +3692,7 @@
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="6"/>
-        <v>4.044319999999999</v>
+        <v>24.265919999999994</v>
       </c>
       <c r="R11" s="37">
         <f t="shared" si="7"/>
@@ -3904,48 +3903,48 @@
         <v>74</v>
       </c>
       <c r="E15" s="29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="8"/>
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="0"/>
-        <v>4.4064000000000005</v>
+        <v>4.7736000000000001</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
-        <v>30.326400000000003</v>
+        <v>32.8536</v>
       </c>
       <c r="J15" s="21">
         <v>64.95</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="2"/>
-        <v>5.5679999999999996</v>
+        <v>6.032</v>
       </c>
       <c r="L15" s="28">
         <f t="shared" si="3"/>
-        <v>25.92</v>
+        <v>28.08</v>
       </c>
       <c r="M15" s="36">
         <f t="shared" si="10"/>
-        <v>32.524799999999999</v>
+        <v>35.235199999999999</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="4"/>
-        <v>35.382000000000005</v>
+        <v>32.918000000000006</v>
       </c>
       <c r="O15" s="35">
         <v>0</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" si="5"/>
-        <v>35.382000000000005</v>
+        <v>32.918000000000006</v>
       </c>
       <c r="Q15" s="32">
         <f t="shared" si="6"/>
@@ -3953,7 +3952,7 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="7"/>
-        <v>1.1966314935064937</v>
+        <v>1.0276598401598405</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4068,7 @@
         <v>1.4456000000000007</v>
       </c>
       <c r="O17" s="35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P17" s="31">
         <f t="shared" si="5"/>
@@ -4077,7 +4076,7 @@
       </c>
       <c r="Q17" s="32">
         <f t="shared" ref="Q17:Q31" si="11">O17*P17</f>
-        <v>2.8912000000000013</v>
+        <v>10.119200000000005</v>
       </c>
       <c r="R17" s="37">
         <f t="shared" si="7"/>
@@ -4160,56 +4159,56 @@
         <v>46</v>
       </c>
       <c r="E19" s="29">
-        <v>15.49</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="8"/>
-        <v>1.2392000000000001</v>
+        <v>1.3152000000000001</v>
       </c>
       <c r="G19" s="19">
         <v>0</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="0"/>
-        <v>2.8439640000000002</v>
+        <v>3.0183840000000006</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" si="1"/>
-        <v>19.573163999999998</v>
+        <v>20.773584000000003</v>
       </c>
       <c r="J19" s="21">
         <v>22.59</v>
       </c>
       <c r="K19" s="27">
         <f t="shared" si="2"/>
-        <v>3.59368</v>
+        <v>3.8140800000000006</v>
       </c>
       <c r="L19" s="28">
         <f t="shared" si="3"/>
-        <v>16.729199999999999</v>
+        <v>17.755200000000002</v>
       </c>
       <c r="M19" s="36">
         <f t="shared" si="10"/>
-        <v>20.992048</v>
+        <v>22.279488000000001</v>
       </c>
       <c r="N19" s="36">
         <f t="shared" si="4"/>
-        <v>3.5063199999999988</v>
+        <v>2.335919999999998</v>
       </c>
       <c r="O19" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="31">
         <f t="shared" si="5"/>
-        <v>3.5063199999999988</v>
+        <v>2.335919999999998</v>
       </c>
       <c r="Q19" s="32">
         <f t="shared" si="11"/>
-        <v>3.5063199999999988</v>
+        <v>4.671839999999996</v>
       </c>
       <c r="R19" s="37">
         <f t="shared" si="7"/>
-        <v>0.1837339548766275</v>
+        <v>0.11533083704616541</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4224,48 +4223,48 @@
         <v>47</v>
       </c>
       <c r="E20" s="29">
-        <v>22.36</v>
+        <v>21.91</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="8"/>
-        <v>1.7887999999999999</v>
+        <v>1.7528000000000001</v>
       </c>
       <c r="G20" s="19">
         <v>0</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="0"/>
-        <v>4.1052960000000001</v>
+        <v>4.0226760000000006</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="1"/>
-        <v>28.254095999999997</v>
+        <v>27.685476000000001</v>
       </c>
       <c r="J20" s="21">
-        <v>30.19</v>
+        <v>30.95</v>
       </c>
       <c r="K20" s="27">
         <f t="shared" si="2"/>
-        <v>5.1875200000000001</v>
+        <v>5.0831200000000001</v>
       </c>
       <c r="L20" s="28">
         <f t="shared" si="3"/>
-        <v>24.148799999999998</v>
+        <v>23.662800000000001</v>
       </c>
       <c r="M20" s="36">
         <f t="shared" si="10"/>
-        <v>30.302271999999999</v>
+        <v>29.692432</v>
       </c>
       <c r="N20" s="36">
         <f t="shared" si="4"/>
-        <v>2.6424800000000026</v>
+        <v>3.9568799999999982</v>
       </c>
       <c r="O20" s="35">
         <v>0</v>
       </c>
       <c r="P20" s="31">
         <f t="shared" si="5"/>
-        <v>2.6424800000000026</v>
+        <v>3.9568799999999982</v>
       </c>
       <c r="Q20" s="32">
         <f t="shared" si="11"/>
@@ -4273,7 +4272,7 @@
       </c>
       <c r="R20" s="37">
         <f t="shared" si="7"/>
-        <v>9.5924424412796611E-2</v>
+        <v>0.14658846402342515</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4288,48 +4287,48 @@
         <v>56</v>
       </c>
       <c r="E21" s="29">
-        <v>9.36</v>
+        <v>8.57</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="8"/>
-        <v>0.74880000000000002</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="G21" s="19">
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="0"/>
-        <v>1.7184959999999998</v>
+        <v>1.5734520000000003</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>11.827295999999999</v>
+        <v>10.829052000000001</v>
       </c>
       <c r="J21" s="21">
         <v>14.99</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="2"/>
-        <v>2.1715200000000001</v>
+        <v>1.98824</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="3"/>
-        <v>10.108799999999999</v>
+        <v>9.2556000000000012</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="10"/>
-        <v>12.684672000000001</v>
+        <v>11.614063999999999</v>
       </c>
       <c r="N21" s="36">
         <f t="shared" si="4"/>
-        <v>3.4584799999999998</v>
+        <v>4.4317600000000006</v>
       </c>
       <c r="O21" s="35">
         <v>0</v>
       </c>
       <c r="P21" s="31">
         <f t="shared" si="5"/>
-        <v>3.4584799999999998</v>
+        <v>4.4317600000000006</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="11"/>
@@ -4337,7 +4336,7 @@
       </c>
       <c r="R21" s="37">
         <f t="shared" si="7"/>
-        <v>0.29991536241536237</v>
+        <v>0.41974419979087429</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4864,48 +4863,48 @@
         <v>67</v>
       </c>
       <c r="E30" s="29">
-        <v>18.82</v>
+        <v>15.99</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" si="8"/>
-        <v>1.5056</v>
+        <v>1.2792000000000001</v>
       </c>
       <c r="G30" s="19">
         <v>0</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="12"/>
-        <v>3.5976311999999999</v>
+        <v>3.0566484000000003</v>
       </c>
       <c r="I30" s="33">
         <f t="shared" si="1"/>
-        <v>23.9232312</v>
+        <v>20.325848400000002</v>
       </c>
       <c r="J30" s="21">
         <v>28.89</v>
       </c>
       <c r="K30" s="27">
         <f t="shared" si="2"/>
-        <v>4.3662400000000003</v>
+        <v>3.7096799999999996</v>
       </c>
       <c r="L30" s="28">
         <f t="shared" si="3"/>
-        <v>20.325600000000001</v>
+        <v>17.269200000000001</v>
       </c>
       <c r="M30" s="36">
         <f t="shared" si="10"/>
-        <v>25.504864000000001</v>
+        <v>21.669648000000002</v>
       </c>
       <c r="N30" s="36">
         <f t="shared" si="4"/>
-        <v>5.7037599999999991</v>
+        <v>9.1903199999999998</v>
       </c>
       <c r="O30" s="35">
         <v>0</v>
       </c>
       <c r="P30" s="31">
         <f t="shared" si="5"/>
-        <v>5.7037599999999991</v>
+        <v>9.1903199999999998</v>
       </c>
       <c r="Q30" s="32">
         <f t="shared" si="11"/>
@@ -4913,7 +4912,7 @@
       </c>
       <c r="R30" s="37">
         <f t="shared" si="7"/>
-        <v>0.24599762617828499</v>
+        <v>0.46652128359445427</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4992,55 +4991,55 @@
         <v>72</v>
       </c>
       <c r="E32" s="29">
-        <v>19.239999999999998</v>
+        <v>19.8</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="8"/>
-        <v>1.5391999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="12"/>
-        <v>3.6779183999999998</v>
+        <v>3.7849679999999997</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="1"/>
-        <v>24.457118399999999</v>
+        <v>25.168968</v>
       </c>
       <c r="J32" s="21">
         <v>26.86</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" si="2"/>
-        <v>4.4636799999999992</v>
+        <v>4.5936000000000003</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="3"/>
-        <v>20.779199999999999</v>
+        <v>21.384</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="10"/>
-        <v>26.074047999999998</v>
+        <v>26.83296</v>
       </c>
       <c r="N32" s="36">
         <f t="shared" si="4"/>
-        <v>3.1563200000000009</v>
+        <v>2.4664000000000001</v>
       </c>
       <c r="O32" s="35">
         <v>0</v>
       </c>
       <c r="P32" s="31">
         <f t="shared" si="5"/>
-        <v>3.1563200000000009</v>
+        <v>2.4664000000000001</v>
       </c>
       <c r="Q32" s="32">
         <v>0</v>
       </c>
       <c r="R32" s="37">
         <f t="shared" si="7"/>
-        <v>0.13315738315738321</v>
+        <v>0.10110848747212385</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5055,55 +5054,55 @@
         <v>78</v>
       </c>
       <c r="E33" s="29">
-        <v>16.37</v>
+        <v>16.87</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="8"/>
-        <v>1.3096000000000001</v>
+        <v>1.3496000000000001</v>
       </c>
       <c r="G33" s="19">
         <v>0</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="12"/>
-        <v>3.1292892000000001</v>
+        <v>3.2248691999999997</v>
       </c>
       <c r="I33" s="33">
         <f t="shared" si="1"/>
-        <v>20.808889199999999</v>
+        <v>21.4444692</v>
       </c>
       <c r="J33" s="21">
         <v>22.92</v>
       </c>
       <c r="K33" s="27">
         <f t="shared" si="2"/>
-        <v>3.7978400000000003</v>
+        <v>3.9138400000000004</v>
       </c>
       <c r="L33" s="28">
         <f t="shared" si="3"/>
-        <v>17.679600000000001</v>
+        <v>18.2196</v>
       </c>
       <c r="M33" s="36">
         <f t="shared" si="10"/>
-        <v>22.184624000000003</v>
+        <v>22.862224000000001</v>
       </c>
       <c r="N33" s="36">
         <f t="shared" si="4"/>
-        <v>2.7521599999999999</v>
+        <v>2.1361600000000003</v>
       </c>
       <c r="O33" s="35">
         <v>0</v>
       </c>
       <c r="P33" s="31">
         <f t="shared" si="5"/>
-        <v>2.7521599999999999</v>
+        <v>2.1361600000000003</v>
       </c>
       <c r="Q33" s="32">
         <v>0</v>
       </c>
       <c r="R33" s="37">
         <f t="shared" si="7"/>
-        <v>0.13646280414759338</v>
+        <v>0.10277985203889176</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5244,55 +5243,55 @@
         <v>83</v>
       </c>
       <c r="E36" s="29">
-        <v>35.299999999999997</v>
+        <v>33.97</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" si="8"/>
-        <v>2.8239999999999998</v>
+        <v>2.7176</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="12"/>
-        <v>6.7479479999999992</v>
+        <v>6.4937051999999991</v>
       </c>
       <c r="I36" s="33">
         <f t="shared" si="13"/>
-        <v>44.871947999999996</v>
+        <v>43.181305199999997</v>
       </c>
       <c r="J36" s="21">
         <v>47.84</v>
       </c>
       <c r="K36" s="27">
         <f t="shared" si="14"/>
-        <v>8.1895999999999987</v>
+        <v>7.8810399999999996</v>
       </c>
       <c r="L36" s="28">
         <f t="shared" si="15"/>
-        <v>38.123999999999995</v>
+        <v>36.687599999999996</v>
       </c>
       <c r="M36" s="36">
         <f t="shared" si="10"/>
-        <v>47.838559999999994</v>
+        <v>46.036144</v>
       </c>
       <c r="N36" s="36">
         <f t="shared" si="16"/>
-        <v>4.3504000000000076</v>
+        <v>5.9889600000000058</v>
       </c>
       <c r="O36" s="35">
         <v>0</v>
       </c>
       <c r="P36" s="31">
         <f t="shared" si="5"/>
-        <v>4.3504000000000076</v>
+        <v>5.9889600000000058</v>
       </c>
       <c r="Q36" s="32">
         <v>0</v>
       </c>
       <c r="R36" s="37">
         <f t="shared" si="17"/>
-        <v>0.10003311136455631</v>
+        <v>0.14310182016982151</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5370,33 +5369,33 @@
         <v>87</v>
       </c>
       <c r="E38" s="29">
-        <v>24.99</v>
+        <v>23.21</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" si="8"/>
-        <v>1.9991999999999999</v>
+        <v>1.8568</v>
       </c>
       <c r="G38" s="19">
         <v>0</v>
       </c>
       <c r="H38" s="27">
         <f t="shared" si="12"/>
-        <v>4.7770883999999993</v>
+        <v>4.4368236000000003</v>
       </c>
       <c r="I38" s="33">
         <f t="shared" si="13"/>
-        <v>31.766288399999997</v>
+        <v>29.503623600000001</v>
       </c>
       <c r="J38" s="21">
         <v>33.950000000000003</v>
       </c>
       <c r="K38" s="27">
         <f t="shared" si="14"/>
-        <v>5.7976799999999997</v>
+        <v>5.3847199999999997</v>
       </c>
       <c r="L38" s="28">
         <f t="shared" si="15"/>
-        <v>26.989199999999997</v>
+        <v>25.066800000000001</v>
       </c>
       <c r="M38" s="36">
         <f>E37+K37+(10%*(E37+K37))</f>
@@ -5404,21 +5403,21 @@
       </c>
       <c r="N38" s="36">
         <f t="shared" si="16"/>
-        <v>3.1623200000000047</v>
+        <v>5.3552800000000005</v>
       </c>
       <c r="O38" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="31">
         <f t="shared" ref="P38:P44" si="18">N38</f>
-        <v>3.1623200000000047</v>
+        <v>5.3552800000000005</v>
       </c>
       <c r="Q38" s="32">
         <v>0</v>
       </c>
       <c r="R38" s="37">
         <f t="shared" si="17"/>
-        <v>0.10271381279784657</v>
+        <v>0.18728212760957269</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5433,55 +5432,55 @@
         <v>89</v>
       </c>
       <c r="E39" s="29">
-        <v>17.71</v>
+        <v>15.2</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="8"/>
-        <v>1.4168000000000001</v>
+        <v>1.216</v>
       </c>
       <c r="G39" s="19">
         <v>0</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="12"/>
-        <v>3.3854435999999999</v>
+        <v>2.9056319999999998</v>
       </c>
       <c r="I39" s="33">
         <f t="shared" si="13"/>
-        <v>22.512243599999998</v>
+        <v>19.321632000000001</v>
       </c>
       <c r="J39" s="21">
         <v>24.95</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" si="14"/>
-        <v>4.1087199999999999</v>
+        <v>3.5263999999999998</v>
       </c>
       <c r="L39" s="28">
         <f t="shared" si="15"/>
-        <v>19.126799999999999</v>
+        <v>16.416</v>
       </c>
       <c r="M39" s="36">
         <f t="shared" si="10"/>
-        <v>24.000591999999997</v>
+        <v>20.599039999999999</v>
       </c>
       <c r="N39" s="36">
         <f t="shared" si="16"/>
-        <v>3.1312800000000003</v>
+        <v>6.2236000000000011</v>
       </c>
       <c r="O39" s="35">
         <v>0</v>
       </c>
       <c r="P39" s="31">
         <f t="shared" si="18"/>
-        <v>3.1312800000000003</v>
+        <v>6.2236000000000011</v>
       </c>
       <c r="Q39" s="32">
         <v>0</v>
       </c>
       <c r="R39" s="37">
         <f t="shared" si="17"/>
-        <v>0.14351346000131998</v>
+        <v>0.33234364319890647</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5619,55 +5618,55 @@
         <v>96</v>
       </c>
       <c r="E42" s="29">
-        <v>100.99</v>
+        <v>99.99</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" si="8"/>
-        <v>8.0792000000000002</v>
+        <v>7.9992000000000001</v>
       </c>
       <c r="G42" s="19">
         <v>0</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="19"/>
-        <v>19.305248399999996</v>
+        <v>19.1140884</v>
       </c>
       <c r="I42" s="33">
         <f t="shared" si="13"/>
-        <v>128.37444840000001</v>
+        <v>127.1032884</v>
       </c>
       <c r="J42" s="21">
         <v>145.59</v>
       </c>
       <c r="K42" s="27">
         <f t="shared" si="14"/>
-        <v>23.429679999999998</v>
+        <v>23.197679999999998</v>
       </c>
       <c r="L42" s="28">
         <f t="shared" si="15"/>
-        <v>109.0692</v>
+        <v>107.9892</v>
       </c>
       <c r="M42" s="36">
         <f t="shared" ref="M42:M77" si="20">E42+K42+(10%*(E42+K42))</f>
-        <v>136.861648</v>
+        <v>135.50644800000001</v>
       </c>
       <c r="N42" s="36">
         <f t="shared" si="16"/>
-        <v>21.170320000000004</v>
+        <v>22.402320000000003</v>
       </c>
       <c r="O42" s="35">
         <v>0</v>
       </c>
       <c r="P42" s="31">
         <f t="shared" si="18"/>
-        <v>21.170320000000004</v>
+        <v>22.402320000000003</v>
       </c>
       <c r="Q42" s="32">
         <v>0</v>
       </c>
       <c r="R42" s="37">
         <f t="shared" si="17"/>
-        <v>0.17015250320528075</v>
+        <v>0.18185519850686369</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5745,55 +5744,55 @@
         <v>100</v>
       </c>
       <c r="E44" s="29">
-        <v>74.989999999999995</v>
+        <v>69.48</v>
       </c>
       <c r="F44" s="30">
         <f t="shared" si="8"/>
-        <v>5.9992000000000001</v>
+        <v>5.5584000000000007</v>
       </c>
       <c r="G44" s="19">
         <v>0</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="19"/>
-        <v>14.335088399999998</v>
+        <v>13.2817968</v>
       </c>
       <c r="I44" s="33">
         <f t="shared" si="13"/>
-        <v>95.3242884</v>
+        <v>88.320196800000005</v>
       </c>
       <c r="J44" s="21">
         <v>102.72</v>
       </c>
       <c r="K44" s="27">
         <f t="shared" si="14"/>
-        <v>17.397680000000001</v>
+        <v>16.11936</v>
       </c>
       <c r="L44" s="28">
         <f t="shared" si="15"/>
-        <v>80.989199999999997</v>
+        <v>75.03840000000001</v>
       </c>
       <c r="M44" s="36">
         <f t="shared" si="20"/>
-        <v>101.62644799999998</v>
+        <v>94.159296000000012</v>
       </c>
       <c r="N44" s="36">
         <f t="shared" si="16"/>
-        <v>10.33232000000001</v>
+        <v>17.120639999999995</v>
       </c>
       <c r="O44" s="35">
         <v>0</v>
       </c>
       <c r="P44" s="31">
         <f t="shared" si="18"/>
-        <v>10.33232000000001</v>
+        <v>17.120639999999995</v>
       </c>
       <c r="Q44" s="32">
         <v>0</v>
       </c>
       <c r="R44" s="37">
         <f t="shared" si="17"/>
-        <v>0.11183655656252015</v>
+        <v>0.20000897202969734</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5806,55 +5805,55 @@
         <v>102</v>
       </c>
       <c r="E45" s="29">
-        <v>25.17</v>
+        <v>19</v>
       </c>
       <c r="F45" s="30">
         <f t="shared" si="8"/>
-        <v>2.0136000000000003</v>
+        <v>1.52</v>
       </c>
       <c r="G45" s="19">
         <v>0</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="19"/>
-        <v>4.8114971999999998</v>
+        <v>3.6320399999999999</v>
       </c>
       <c r="I45" s="33">
         <f t="shared" si="13"/>
-        <v>31.995097200000004</v>
+        <v>24.15204</v>
       </c>
       <c r="J45" s="21">
         <v>34.950000000000003</v>
       </c>
       <c r="K45" s="27">
         <f t="shared" si="14"/>
-        <v>5.8394400000000006</v>
+        <v>4.4079999999999995</v>
       </c>
       <c r="L45" s="28">
         <f t="shared" si="15"/>
-        <v>27.183600000000002</v>
+        <v>20.52</v>
       </c>
       <c r="M45" s="36">
         <f t="shared" si="20"/>
-        <v>34.110384000000003</v>
+        <v>25.748800000000003</v>
       </c>
       <c r="N45" s="36">
         <f t="shared" si="16"/>
-        <v>3.9405600000000014</v>
+        <v>11.542000000000002</v>
       </c>
       <c r="O45" s="35">
         <v>0</v>
       </c>
       <c r="P45" s="31">
         <f t="shared" ref="P45:P49" si="21">N45</f>
-        <v>3.9405600000000014</v>
+        <v>11.542000000000002</v>
       </c>
       <c r="Q45" s="32">
         <v>0</v>
       </c>
       <c r="R45" s="37">
         <f t="shared" si="17"/>
-        <v>0.12707614197483094</v>
+        <v>0.49307928913192073</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5869,55 +5868,55 @@
         <v>109</v>
       </c>
       <c r="E46" s="29">
-        <v>43.99</v>
+        <v>49.99</v>
       </c>
       <c r="F46" s="30">
         <f t="shared" si="8"/>
-        <v>3.5192000000000001</v>
+        <v>3.9992000000000001</v>
       </c>
       <c r="G46" s="19">
         <v>0</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="19"/>
-        <v>8.4091284000000002</v>
+        <v>9.5560884000000001</v>
       </c>
       <c r="I46" s="33">
         <f t="shared" si="13"/>
-        <v>55.9183284</v>
+        <v>63.545288400000004</v>
       </c>
       <c r="J46" s="21">
-        <v>59.95</v>
+        <v>69.95</v>
       </c>
       <c r="K46" s="27">
         <f t="shared" si="14"/>
-        <v>10.205680000000001</v>
+        <v>11.59768</v>
       </c>
       <c r="L46" s="28">
         <f t="shared" si="15"/>
-        <v>47.5092</v>
+        <v>53.989200000000004</v>
       </c>
       <c r="M46" s="36">
         <f t="shared" si="20"/>
-        <v>59.615248000000001</v>
+        <v>67.746448000000001</v>
       </c>
       <c r="N46" s="36">
         <f t="shared" si="16"/>
-        <v>5.7543199999999999</v>
+        <v>8.3623199999999969</v>
       </c>
       <c r="O46" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="31">
         <f t="shared" si="21"/>
-        <v>5.7543199999999999</v>
+        <v>8.3623199999999969</v>
       </c>
       <c r="Q46" s="32">
         <v>0</v>
       </c>
       <c r="R46" s="37">
         <f t="shared" si="17"/>
-        <v>0.10617672847725132</v>
+        <v>0.13577910387272255</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/GlobalTrusted.xlsx
+++ b/GlobalTrusted.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16815" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>Picture</t>
   </si>
@@ -346,15 +346,85 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/251794125007?ssPageName=STRK:MESELX:IT&amp;_trksid=p3984.m1558.l2649</t>
+  </si>
+  <si>
+    <t>http://www.overstock.com/Office-Supplies/Cosco-Retro-Counter-Chair-Step-Stool/8026500/product.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN </t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В EbaY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Ebay </t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/SoundBot-Resistant-Bluetooth-Shower-Speaker/dp/B00IGUUYTI/ref=sr_1_10?s=bedbath&amp;ie=UTF8&amp;qid=1423291668&amp;sr=1-10&amp;keywords=Fitness</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Rubbermaid-Configurations-Folding-Laundry-FG4D0602NATUR/dp/B000JF8LSY/ref=sr_1_11?ie=UTF8&amp;qid=1420501523&amp;sr=8-11&amp;keywords=laundry+storage</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Fitness-Ball-Instruction-instructional-Stability/dp/B007QKV5Q0/ref=sr_1_194?ie=UTF8&amp;qid=1423292420&amp;sr=8-194&amp;keywords=fitness</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-Feature-Rich-Stitches-Auto-Size-Buttonholes/dp/B000JQM1DE/ref=sr_1_1?ie=UTF8&amp;qid=1423324740&amp;sr=8-1&amp;keywords=Brother+CS6000i</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Spasilk-100-Percent-Pillowcase-Standard-Lavender/dp/B00BFPH6O2/ref=sr_1_sc_1?ie=UTF8&amp;qid=1423333379&amp;sr=8-1-spell&amp;keywords=100+precent+silky</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-XL2600I-Affordable-25-Stitch-Free-Arm/dp/B000F7DPEQ/ref=sr_1_2?ie=UTF8&amp;qid=1423382367&amp;sr=8-2&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-Everyday-stitches-including-Buttonhole/dp/B000EOX28E/ref=sr_1_3?ie=UTF8&amp;qid=1423382367&amp;sr=8-3&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-XR9500PRW-Limited-Stitches-Quilting/dp/B005GXPOAM/ref=sr_1_4?ie=UTF8&amp;qid=1423382367&amp;sr=8-4&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Ameriwood-COSCO-Collection-Red-Retro-Counter-Chair-Step-Stool-/191505369025?pt=LH_DefaultDomain_0&amp;hash=item2c969c07c1</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-SE400-Combination-Computerized-Embroidery/dp/B003AVMZA4/ref=sr_1_5?ie=UTF8&amp;qid=1423382367&amp;sr=8-5&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-HC1850-Computerized-Quilting-Instructional/dp/B008G1DJ9Y/ref=sr_1_7?ie=UTF8&amp;qid=1423382367&amp;sr=8-7&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-PC420PRW-294-Stitch-Professional-Computerized/dp/B000XE3FGO/ref=sr_1_14?ie=UTF8&amp;qid=1423382367&amp;sr=8-14&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-Project-CS5055PRW-Electric-Machine/dp/B005GXPOCK/ref=sr_1_10?ie=UTF8&amp;qid=1423382367&amp;sr=8-10&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-Project-CE7070PRW-70-Stitch-Computerized/dp/B009SC1YA6/ref=sr_1_9?ie=UTF8&amp;qid=1423382367&amp;sr=8-9&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-XL2610-Free-Arm-Stitches-Functions/dp/B000A5CKHG/ref=sr_1_11?ie=UTF8&amp;qid=1423382367&amp;sr=8-11&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Brother-XR3774-Full-Featured-Quilting-Instructional/dp/B00MNS60AQ/ref=sr_1_15?ie=UTF8&amp;qid=1423382367&amp;sr=8-15&amp;keywords=brother+sewing+machine</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/7258-Stylist-Award-Winning-100-Stitch-Computerized/dp/B003KK807M/ref=sr_1_16?ie=UTF8&amp;qid=1423382367&amp;sr=8-16&amp;keywords=brother+sewing+machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -426,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +536,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +656,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -678,6 +760,90 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Валута" xfId="1" builtinId="4"/>
@@ -702,6 +868,1672 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$79:$F$79</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>32.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.39</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>400.26703999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49558528"/>
+        <c:axId val="39865728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49558528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39865728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39865728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49558528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$82:$F$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2756.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55146496"/>
+        <c:axId val="39867456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55146496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39867456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39867456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55146496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2678,6 +4510,858 @@
         <a:xfrm>
           <a:off x="447676" y="20240626"/>
           <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>428626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438151" y="20669251"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="47" name="Chart 46"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="48" name="Chart 47"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14488</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349237" y="21126449"/>
+          <a:ext cx="608226" cy="391121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139954</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="473329" y="21574125"/>
+          <a:ext cx="279146" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="21969044"/>
+          <a:ext cx="295275" cy="462330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>447673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390526" y="22431425"/>
+          <a:ext cx="447674" cy="428573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466792</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390526" y="22888574"/>
+          <a:ext cx="409641" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400051" y="23326726"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>497025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>409576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="445950" y="23793450"/>
+          <a:ext cx="384450" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546961</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400051" y="24220325"/>
+          <a:ext cx="480285" cy="420850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>419098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361951" y="24687529"/>
+          <a:ext cx="476249" cy="382269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>435330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371476" y="25133299"/>
+          <a:ext cx="533400" cy="400406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>446493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="25584149"/>
+          <a:ext cx="514350" cy="408394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>438151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419101" y="26012776"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428626" y="26469975"/>
+          <a:ext cx="409574" cy="409574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="26917650"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>409574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="27803474"/>
+          <a:ext cx="390525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="27351323"/>
+          <a:ext cx="428625" cy="414052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="28698824"/>
+          <a:ext cx="571500" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +5679,7 @@
     <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="14.7109375" style="34" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="34" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="34" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="8" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -3069,48 +5753,46 @@
         <v>16</v>
       </c>
       <c r="E2" s="29">
-        <v>14.36</v>
+        <v>14.35</v>
       </c>
       <c r="F2" s="30">
         <f>E2*8%</f>
-        <v>1.1488</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="G2" s="19">
         <v>0</v>
       </c>
       <c r="H2" s="27">
         <f t="shared" ref="H2:H28" si="0">SUM(E2+F2)*0.17</f>
-        <v>2.6364960000000002</v>
+        <v>2.6346600000000002</v>
       </c>
       <c r="I2" s="33">
         <f t="shared" ref="I2:I33" si="1">SUM(E2:H2)</f>
-        <v>18.145295999999998</v>
+        <v>18.132660000000001</v>
       </c>
       <c r="J2" s="21">
         <v>22.02</v>
       </c>
       <c r="K2" s="27">
         <f t="shared" ref="K2:K33" si="2">(E2*0.152)+F2</f>
-        <v>3.3315199999999998</v>
+        <v>3.3292000000000002</v>
       </c>
       <c r="L2" s="28">
         <f t="shared" ref="L2:L33" si="3">E2+F2</f>
-        <v>15.508799999999999</v>
+        <v>15.497999999999999</v>
       </c>
       <c r="M2" s="36">
         <f>E2+K2+(10%*(E2+K2))</f>
-        <v>19.460672000000002</v>
+        <v>19.447120000000002</v>
       </c>
       <c r="N2" s="36">
         <f t="shared" ref="N2:N33" si="4">J2-(E2+K2)</f>
-        <v>4.328479999999999</v>
-      </c>
-      <c r="O2" s="35">
-        <v>0</v>
-      </c>
+        <v>4.340799999999998</v>
+      </c>
+      <c r="O2" s="35"/>
       <c r="P2" s="31">
         <f t="shared" ref="P2:P37" si="5">N2</f>
-        <v>4.328479999999999</v>
+        <v>4.340799999999998</v>
       </c>
       <c r="Q2" s="32">
         <f t="shared" ref="Q2:Q15" si="6">O2*P2</f>
@@ -3118,7 +5800,7 @@
       </c>
       <c r="R2" s="37">
         <f t="shared" ref="R2:R33" si="7">N2/(E2+K2)</f>
-        <v>0.244664110262996</v>
+        <v>0.24553147201230813</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">IF(S2&lt;&gt;"",IF(T2="",NOW(),T2),"")</f>
@@ -3137,56 +5819,54 @@
         <v>17</v>
       </c>
       <c r="E3" s="29">
-        <v>14.99</v>
+        <v>14.14</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F50" si="8">E3*8%</f>
-        <v>1.1992</v>
+        <f t="shared" ref="F3:F48" si="8">E3*8%</f>
+        <v>1.1312</v>
       </c>
       <c r="G3" s="19">
         <v>0</v>
       </c>
       <c r="H3" s="27">
         <f t="shared" si="0"/>
-        <v>2.7521640000000001</v>
+        <v>2.5961040000000004</v>
       </c>
       <c r="I3" s="33">
         <f t="shared" si="1"/>
-        <v>18.941364</v>
+        <v>17.867304000000001</v>
       </c>
       <c r="J3" s="21">
-        <v>22.95</v>
+        <v>26.74</v>
       </c>
       <c r="K3" s="27">
         <f t="shared" si="2"/>
-        <v>3.4776800000000003</v>
+        <v>3.2804799999999998</v>
       </c>
       <c r="L3" s="28">
         <f t="shared" si="3"/>
-        <v>16.1892</v>
+        <v>15.2712</v>
       </c>
       <c r="M3" s="36">
         <f>E3+K3+(10%*(E3+K3))</f>
-        <v>20.314448000000002</v>
+        <v>19.162528000000002</v>
       </c>
       <c r="N3" s="36">
         <f t="shared" si="4"/>
-        <v>4.4823199999999979</v>
-      </c>
-      <c r="O3" s="35">
-        <v>1</v>
-      </c>
+        <v>9.3195199999999971</v>
+      </c>
+      <c r="O3" s="35"/>
       <c r="P3" s="31">
         <f t="shared" si="5"/>
-        <v>4.4823199999999979</v>
+        <v>9.3195199999999971</v>
       </c>
       <c r="Q3" s="32">
         <f t="shared" si="6"/>
-        <v>4.4823199999999979</v>
+        <v>0</v>
       </c>
       <c r="R3" s="37">
         <f t="shared" si="7"/>
-        <v>0.2427115912773016</v>
+        <v>0.53497492606403474</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3237,9 +5917,7 @@
         <f t="shared" si="4"/>
         <v>2.6263199999999998</v>
       </c>
-      <c r="O4" s="35">
-        <v>0</v>
-      </c>
+      <c r="O4" s="35"/>
       <c r="P4" s="31">
         <f t="shared" si="5"/>
         <v>2.6263199999999998</v>
@@ -3301,9 +5979,7 @@
         <f t="shared" si="4"/>
         <v>3.8323200000000028</v>
       </c>
-      <c r="O5" s="35">
-        <v>0</v>
-      </c>
+      <c r="O5" s="35"/>
       <c r="P5" s="31">
         <f t="shared" si="5"/>
         <v>3.8323200000000028</v>
@@ -3329,48 +6005,46 @@
         <v>23</v>
       </c>
       <c r="E6" s="29">
-        <v>61.34</v>
+        <v>53.01</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="8"/>
-        <v>4.9072000000000005</v>
+        <v>4.2408000000000001</v>
       </c>
       <c r="G6" s="19">
         <v>0</v>
       </c>
       <c r="H6" s="27">
         <f t="shared" si="0"/>
-        <v>11.262024000000002</v>
+        <v>9.7326360000000012</v>
       </c>
       <c r="I6" s="33">
         <f t="shared" si="1"/>
-        <v>77.509224000000003</v>
+        <v>66.983435999999998</v>
       </c>
       <c r="J6" s="21">
         <v>84.89</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" si="2"/>
-        <v>14.230879999999999</v>
+        <v>12.29832</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" si="3"/>
-        <v>66.247200000000007</v>
+        <v>57.250799999999998</v>
       </c>
       <c r="M6" s="36">
         <f t="shared" si="9"/>
-        <v>83.12796800000001</v>
+        <v>71.839151999999999</v>
       </c>
       <c r="N6" s="36">
         <f t="shared" si="4"/>
-        <v>9.3191199999999981</v>
-      </c>
-      <c r="O6" s="35">
-        <v>0</v>
-      </c>
+        <v>19.581680000000006</v>
+      </c>
+      <c r="O6" s="35"/>
       <c r="P6" s="31">
         <f t="shared" si="5"/>
-        <v>9.3191199999999981</v>
+        <v>19.581680000000006</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" si="6"/>
@@ -3378,7 +6052,7 @@
       </c>
       <c r="R6" s="37">
         <f t="shared" si="7"/>
-        <v>0.12331628267396116</v>
+        <v>0.29983438557292558</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3429,9 +6103,7 @@
         <f t="shared" si="4"/>
         <v>4.750239999999998</v>
       </c>
-      <c r="O7" s="35">
-        <v>0</v>
-      </c>
+      <c r="O7" s="35"/>
       <c r="P7" s="31">
         <f t="shared" si="5"/>
         <v>4.750239999999998</v>
@@ -3457,48 +6129,46 @@
         <v>27</v>
       </c>
       <c r="E8" s="29">
-        <v>102.89</v>
+        <v>88.78</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="8"/>
-        <v>8.2311999999999994</v>
+        <v>7.1024000000000003</v>
       </c>
       <c r="G8" s="19">
         <v>0</v>
       </c>
       <c r="H8" s="27">
         <f t="shared" si="0"/>
-        <v>18.890604000000003</v>
+        <v>16.300008000000002</v>
       </c>
       <c r="I8" s="33">
         <f t="shared" si="1"/>
-        <v>130.01180400000001</v>
+        <v>112.18240800000001</v>
       </c>
       <c r="J8" s="21">
         <v>139.94999999999999</v>
       </c>
       <c r="K8" s="27">
         <f t="shared" si="2"/>
-        <v>23.870480000000001</v>
+        <v>20.596959999999999</v>
       </c>
       <c r="L8" s="28">
         <f t="shared" si="3"/>
-        <v>111.1212</v>
+        <v>95.882400000000004</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="9"/>
-        <v>139.43652800000001</v>
+        <v>120.314656</v>
       </c>
       <c r="N8" s="36">
         <f t="shared" si="4"/>
-        <v>13.189519999999987</v>
-      </c>
-      <c r="O8" s="35">
-        <v>0</v>
-      </c>
+        <v>30.573039999999992</v>
+      </c>
+      <c r="O8" s="35"/>
       <c r="P8" s="31">
         <f t="shared" si="5"/>
-        <v>13.189519999999987</v>
+        <v>30.573039999999992</v>
       </c>
       <c r="Q8" s="32">
         <f t="shared" si="6"/>
@@ -3506,7 +6176,7 @@
       </c>
       <c r="R8" s="37">
         <f t="shared" si="7"/>
-        <v>0.10405072622003314</v>
+        <v>0.27951992814574472</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3556,9 +6226,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="35">
-        <v>0</v>
-      </c>
+      <c r="O9" s="35"/>
       <c r="P9" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3584,47 +6252,46 @@
         <v>32</v>
       </c>
       <c r="E10" s="29">
-        <v>12.87</v>
+        <v>12.15</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="8"/>
-        <v>1.0295999999999998</v>
+        <v>0.97200000000000009</v>
       </c>
       <c r="G10" s="19">
         <v>0</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="0"/>
-        <v>2.3629320000000003</v>
+        <v>2.2307399999999999</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="1"/>
-        <v>16.262532</v>
+        <v>15.352740000000001</v>
       </c>
       <c r="J10" s="21">
-        <v>21.19</v>
+        <v>17.18</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="2"/>
-        <v>2.9858399999999996</v>
+        <v>2.8188</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" si="3"/>
-        <v>13.8996</v>
+        <v>13.122</v>
       </c>
       <c r="M10" s="36">
-        <v>0</v>
+        <f t="shared" ref="M10:M41" si="10">E10+K10+(10%*(E10+K10))</f>
+        <v>16.465679999999999</v>
       </c>
       <c r="N10" s="36">
         <f t="shared" si="4"/>
-        <v>5.3341600000000025</v>
-      </c>
-      <c r="O10" s="35">
-        <v>0</v>
-      </c>
+        <v>2.2111999999999998</v>
+      </c>
+      <c r="O10" s="35"/>
       <c r="P10" s="31">
         <f t="shared" si="5"/>
-        <v>5.3341600000000025</v>
+        <v>2.2111999999999998</v>
       </c>
       <c r="Q10" s="32">
         <f t="shared" si="6"/>
@@ -3632,7 +6299,7 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="7"/>
-        <v>0.33641610914338205</v>
+        <v>0.14772059216503661</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3676,7 +6343,7 @@
         <v>31.309199999999997</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" ref="M11:M41" si="10">E11+K11+(10%*(E11+K11))</f>
+        <f t="shared" si="10"/>
         <v>39.287247999999998</v>
       </c>
       <c r="N11" s="36">
@@ -3684,7 +6351,7 @@
         <v>4.044319999999999</v>
       </c>
       <c r="O11" s="35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="5"/>
@@ -3692,7 +6359,7 @@
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="6"/>
-        <v>24.265919999999994</v>
+        <v>16.177279999999996</v>
       </c>
       <c r="R11" s="37">
         <f t="shared" si="7"/>
@@ -3747,9 +6414,7 @@
         <f t="shared" si="4"/>
         <v>7.5523199999999946</v>
       </c>
-      <c r="O12" s="35">
-        <v>0</v>
-      </c>
+      <c r="O12" s="35"/>
       <c r="P12" s="31">
         <f t="shared" si="5"/>
         <v>7.5523199999999946</v>
@@ -3811,9 +6476,7 @@
         <f t="shared" si="4"/>
         <v>5.4663200000000032</v>
       </c>
-      <c r="O13" s="35">
-        <v>0</v>
-      </c>
+      <c r="O13" s="35"/>
       <c r="P13" s="31">
         <f t="shared" si="5"/>
         <v>5.4663200000000032</v>
@@ -3875,9 +6538,7 @@
         <f t="shared" si="4"/>
         <v>35.382000000000005</v>
       </c>
-      <c r="O14" s="35">
-        <v>0</v>
-      </c>
+      <c r="O14" s="35"/>
       <c r="P14" s="31">
         <f t="shared" si="5"/>
         <v>35.382000000000005</v>
@@ -3903,48 +6564,46 @@
         <v>74</v>
       </c>
       <c r="E15" s="29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="8"/>
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="0"/>
-        <v>4.7736000000000001</v>
+        <v>4.4064000000000005</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
-        <v>32.8536</v>
+        <v>30.326400000000003</v>
       </c>
       <c r="J15" s="21">
         <v>64.95</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="2"/>
-        <v>6.032</v>
+        <v>5.5679999999999996</v>
       </c>
       <c r="L15" s="28">
         <f t="shared" si="3"/>
-        <v>28.08</v>
+        <v>25.92</v>
       </c>
       <c r="M15" s="36">
         <f t="shared" si="10"/>
-        <v>35.235199999999999</v>
+        <v>32.524799999999999</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="4"/>
-        <v>32.918000000000006</v>
-      </c>
-      <c r="O15" s="35">
-        <v>0</v>
-      </c>
+        <v>35.382000000000005</v>
+      </c>
+      <c r="O15" s="35"/>
       <c r="P15" s="31">
         <f t="shared" si="5"/>
-        <v>32.918000000000006</v>
+        <v>35.382000000000005</v>
       </c>
       <c r="Q15" s="32">
         <f t="shared" si="6"/>
@@ -3952,7 +6611,7 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="7"/>
-        <v>1.0276598401598405</v>
+        <v>1.1966314935064937</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3967,56 +6626,54 @@
         <v>75</v>
       </c>
       <c r="E16" s="29">
-        <v>13.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" si="8"/>
-        <v>1.1192</v>
+        <v>1.5191999999999999</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="0"/>
-        <v>2.5685640000000003</v>
+        <v>3.4865640000000004</v>
       </c>
       <c r="I16" s="33">
         <f t="shared" si="1"/>
-        <v>17.677764</v>
+        <v>23.995764000000001</v>
       </c>
       <c r="J16" s="21">
-        <v>23.1</v>
+        <v>49.95</v>
       </c>
       <c r="K16" s="27">
         <f t="shared" si="2"/>
-        <v>3.2456800000000001</v>
+        <v>4.4056799999999994</v>
       </c>
       <c r="L16" s="28">
         <f t="shared" si="3"/>
-        <v>15.1092</v>
+        <v>20.5092</v>
       </c>
       <c r="M16" s="36">
         <f t="shared" si="10"/>
-        <v>18.959248000000002</v>
+        <v>25.735247999999999</v>
       </c>
       <c r="N16" s="36">
         <f t="shared" si="4"/>
-        <v>5.8643199999999993</v>
-      </c>
-      <c r="O16" s="35">
-        <v>1</v>
-      </c>
+        <v>26.554320000000004</v>
+      </c>
+      <c r="O16" s="35"/>
       <c r="P16" s="31">
         <f>N16</f>
-        <v>5.8643199999999993</v>
+        <v>26.554320000000004</v>
       </c>
       <c r="Q16" s="32">
         <f>O16*P16</f>
-        <v>5.8643199999999993</v>
+        <v>0</v>
       </c>
       <c r="R16" s="37">
         <f t="shared" si="7"/>
-        <v>0.34024303073624007</v>
+        <v>1.1350095402228106</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4068,15 +6725,15 @@
         <v>1.4456000000000007</v>
       </c>
       <c r="O17" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P17" s="31">
         <f t="shared" si="5"/>
         <v>1.4456000000000007</v>
       </c>
       <c r="Q17" s="32">
-        <f t="shared" ref="Q17:Q31" si="11">O17*P17</f>
-        <v>10.119200000000005</v>
+        <f t="shared" ref="Q17:Q70" si="11">O17*P17</f>
+        <v>11.564800000000005</v>
       </c>
       <c r="R17" s="37">
         <f t="shared" si="7"/>
@@ -4131,9 +6788,7 @@
         <f t="shared" si="4"/>
         <v>1.9463200000000001</v>
       </c>
-      <c r="O18" s="35">
-        <v>0</v>
-      </c>
+      <c r="O18" s="35"/>
       <c r="P18" s="31">
         <f t="shared" si="5"/>
         <v>1.9463200000000001</v>
@@ -4159,56 +6814,56 @@
         <v>46</v>
       </c>
       <c r="E19" s="29">
-        <v>16.440000000000001</v>
+        <v>14.99</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="8"/>
-        <v>1.3152000000000001</v>
+        <v>1.1992</v>
       </c>
       <c r="G19" s="19">
         <v>0</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="0"/>
-        <v>3.0183840000000006</v>
+        <v>2.7521640000000001</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" si="1"/>
-        <v>20.773584000000003</v>
+        <v>18.941364</v>
       </c>
       <c r="J19" s="21">
         <v>22.59</v>
       </c>
       <c r="K19" s="27">
         <f t="shared" si="2"/>
-        <v>3.8140800000000006</v>
+        <v>3.4776800000000003</v>
       </c>
       <c r="L19" s="28">
         <f t="shared" si="3"/>
-        <v>17.755200000000002</v>
+        <v>16.1892</v>
       </c>
       <c r="M19" s="36">
         <f t="shared" si="10"/>
-        <v>22.279488000000001</v>
+        <v>20.314448000000002</v>
       </c>
       <c r="N19" s="36">
         <f t="shared" si="4"/>
-        <v>2.335919999999998</v>
+        <v>4.1223199999999984</v>
       </c>
       <c r="O19" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="31">
         <f t="shared" si="5"/>
-        <v>2.335919999999998</v>
+        <v>4.1223199999999984</v>
       </c>
       <c r="Q19" s="32">
         <f t="shared" si="11"/>
-        <v>4.671839999999996</v>
+        <v>4.1223199999999984</v>
       </c>
       <c r="R19" s="37">
         <f t="shared" si="7"/>
-        <v>0.11533083704616541</v>
+        <v>0.22321807612001063</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4223,48 +6878,46 @@
         <v>47</v>
       </c>
       <c r="E20" s="29">
-        <v>21.91</v>
+        <v>22.36</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="8"/>
-        <v>1.7528000000000001</v>
+        <v>1.7887999999999999</v>
       </c>
       <c r="G20" s="19">
         <v>0</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="0"/>
-        <v>4.0226760000000006</v>
+        <v>4.1052960000000001</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="1"/>
-        <v>27.685476000000001</v>
+        <v>28.254095999999997</v>
       </c>
       <c r="J20" s="21">
-        <v>30.95</v>
+        <v>30.19</v>
       </c>
       <c r="K20" s="27">
         <f t="shared" si="2"/>
-        <v>5.0831200000000001</v>
+        <v>5.1875200000000001</v>
       </c>
       <c r="L20" s="28">
         <f t="shared" si="3"/>
-        <v>23.662800000000001</v>
+        <v>24.148799999999998</v>
       </c>
       <c r="M20" s="36">
         <f t="shared" si="10"/>
-        <v>29.692432</v>
+        <v>30.302271999999999</v>
       </c>
       <c r="N20" s="36">
         <f t="shared" si="4"/>
-        <v>3.9568799999999982</v>
-      </c>
-      <c r="O20" s="35">
-        <v>0</v>
-      </c>
+        <v>2.6424800000000026</v>
+      </c>
+      <c r="O20" s="35"/>
       <c r="P20" s="31">
         <f t="shared" si="5"/>
-        <v>3.9568799999999982</v>
+        <v>2.6424800000000026</v>
       </c>
       <c r="Q20" s="32">
         <f t="shared" si="11"/>
@@ -4272,7 +6925,7 @@
       </c>
       <c r="R20" s="37">
         <f t="shared" si="7"/>
-        <v>0.14658846402342515</v>
+        <v>9.5924424412796611E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4287,48 +6940,46 @@
         <v>56</v>
       </c>
       <c r="E21" s="29">
-        <v>8.57</v>
+        <v>9.58</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="8"/>
-        <v>0.68559999999999999</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="G21" s="19">
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="0"/>
-        <v>1.5734520000000003</v>
+        <v>1.758888</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>10.829052000000001</v>
+        <v>12.105288</v>
       </c>
       <c r="J21" s="21">
         <v>14.99</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="2"/>
-        <v>1.98824</v>
+        <v>2.2225599999999996</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="3"/>
-        <v>9.2556000000000012</v>
+        <v>10.346399999999999</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="10"/>
-        <v>11.614063999999999</v>
+        <v>12.982816</v>
       </c>
       <c r="N21" s="36">
         <f t="shared" si="4"/>
-        <v>4.4317600000000006</v>
-      </c>
-      <c r="O21" s="35">
-        <v>0</v>
-      </c>
+        <v>3.1874400000000005</v>
+      </c>
+      <c r="O21" s="35"/>
       <c r="P21" s="31">
         <f t="shared" si="5"/>
-        <v>4.4317600000000006</v>
+        <v>3.1874400000000005</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="11"/>
@@ -4336,7 +6987,7 @@
       </c>
       <c r="R21" s="37">
         <f t="shared" si="7"/>
-        <v>0.41974419979087429</v>
+        <v>0.27006344386302639</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4369,7 +7020,7 @@
         <v>21.658104000000002</v>
       </c>
       <c r="J22" s="21">
-        <v>23.23</v>
+        <v>23.45</v>
       </c>
       <c r="K22" s="27">
         <f t="shared" si="2"/>
@@ -4385,22 +7036,20 @@
       </c>
       <c r="N22" s="36">
         <f t="shared" si="4"/>
-        <v>2.1135200000000012</v>
-      </c>
-      <c r="O22" s="35">
-        <v>1</v>
-      </c>
+        <v>2.33352</v>
+      </c>
+      <c r="O22" s="35"/>
       <c r="P22" s="31">
         <f t="shared" si="5"/>
-        <v>2.1135200000000012</v>
+        <v>2.33352</v>
       </c>
       <c r="Q22" s="32">
         <f t="shared" si="11"/>
-        <v>2.1135200000000012</v>
+        <v>0</v>
       </c>
       <c r="R22" s="37">
         <f t="shared" si="7"/>
-        <v>0.10008865113882623</v>
+        <v>0.11050705420600404</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4451,16 +7100,14 @@
         <f t="shared" si="4"/>
         <v>1.2246399999999991</v>
       </c>
-      <c r="O23" s="35">
-        <v>2</v>
-      </c>
+      <c r="O23" s="35"/>
       <c r="P23" s="31">
         <f t="shared" si="5"/>
         <v>1.2246399999999991</v>
       </c>
       <c r="Q23" s="32">
         <f t="shared" si="11"/>
-        <v>2.4492799999999981</v>
+        <v>0</v>
       </c>
       <c r="R23" s="37">
         <f t="shared" si="7"/>
@@ -4515,9 +7162,7 @@
         <f t="shared" si="4"/>
         <v>6.4663200000000032</v>
       </c>
-      <c r="O24" s="35">
-        <v>0</v>
-      </c>
+      <c r="O24" s="35"/>
       <c r="P24" s="31">
         <f t="shared" si="5"/>
         <v>6.4663200000000032</v>
@@ -4579,9 +7224,7 @@
         <f t="shared" si="4"/>
         <v>4.9246400000000037</v>
       </c>
-      <c r="O25" s="35">
-        <v>0</v>
-      </c>
+      <c r="O25" s="35"/>
       <c r="P25" s="31">
         <f t="shared" si="5"/>
         <v>4.9246400000000037</v>
@@ -4643,9 +7286,7 @@
         <f t="shared" si="4"/>
         <v>0.73192000000000057</v>
       </c>
-      <c r="O26" s="35">
-        <v>0</v>
-      </c>
+      <c r="O26" s="35"/>
       <c r="P26" s="31">
         <f t="shared" si="5"/>
         <v>0.73192000000000057</v>
@@ -4707,9 +7348,7 @@
         <f t="shared" si="4"/>
         <v>2.3952799999999996</v>
       </c>
-      <c r="O27" s="35">
-        <v>0</v>
-      </c>
+      <c r="O27" s="35"/>
       <c r="P27" s="31">
         <f t="shared" si="5"/>
         <v>2.3952799999999996</v>
@@ -4735,56 +7374,56 @@
         <v>63</v>
       </c>
       <c r="E28" s="29">
-        <v>14.51</v>
+        <v>16.07</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="8"/>
-        <v>1.1608000000000001</v>
+        <v>1.2856000000000001</v>
       </c>
       <c r="G28" s="19">
         <v>0</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="0"/>
-        <v>2.6640360000000003</v>
+        <v>2.9504519999999999</v>
       </c>
       <c r="I28" s="33">
         <f t="shared" si="1"/>
-        <v>18.334835999999999</v>
+        <v>20.306051999999998</v>
       </c>
       <c r="J28" s="21">
-        <v>19.95</v>
+        <v>22.15</v>
       </c>
       <c r="K28" s="27">
         <f t="shared" si="2"/>
-        <v>3.36632</v>
+        <v>3.72824</v>
       </c>
       <c r="L28" s="28">
         <f t="shared" si="3"/>
-        <v>15.6708</v>
+        <v>17.355599999999999</v>
       </c>
       <c r="M28" s="36">
         <f t="shared" si="10"/>
-        <v>19.663951999999998</v>
+        <v>21.778064000000001</v>
       </c>
       <c r="N28" s="36">
         <f t="shared" si="4"/>
-        <v>2.0736799999999995</v>
+        <v>2.3517599999999987</v>
       </c>
       <c r="O28" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="31">
         <f t="shared" si="5"/>
-        <v>2.0736799999999995</v>
+        <v>2.3517599999999987</v>
       </c>
       <c r="Q28" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.3517599999999987</v>
       </c>
       <c r="R28" s="37">
         <f t="shared" si="7"/>
-        <v>0.11600150366518386</v>
+        <v>0.1187863163594339</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4836,7 +7475,7 @@
         <v>2.4823199999999979</v>
       </c>
       <c r="O29" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="31">
         <f t="shared" si="5"/>
@@ -4844,7 +7483,7 @@
       </c>
       <c r="Q29" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.4823199999999979</v>
       </c>
       <c r="R29" s="37">
         <f t="shared" si="7"/>
@@ -4863,48 +7502,46 @@
         <v>67</v>
       </c>
       <c r="E30" s="29">
-        <v>15.99</v>
+        <v>19.95</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" si="8"/>
-        <v>1.2792000000000001</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="G30" s="19">
         <v>0</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="12"/>
-        <v>3.0566484000000003</v>
+        <v>3.8136419999999998</v>
       </c>
       <c r="I30" s="33">
         <f t="shared" si="1"/>
-        <v>20.325848400000002</v>
+        <v>25.359642000000001</v>
       </c>
       <c r="J30" s="21">
         <v>28.89</v>
       </c>
       <c r="K30" s="27">
         <f t="shared" si="2"/>
-        <v>3.7096799999999996</v>
+        <v>4.6284000000000001</v>
       </c>
       <c r="L30" s="28">
         <f t="shared" si="3"/>
-        <v>17.269200000000001</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="M30" s="36">
         <f t="shared" si="10"/>
-        <v>21.669648000000002</v>
+        <v>27.036239999999999</v>
       </c>
       <c r="N30" s="36">
         <f t="shared" si="4"/>
-        <v>9.1903199999999998</v>
-      </c>
-      <c r="O30" s="35">
-        <v>0</v>
-      </c>
+        <v>4.3116000000000021</v>
+      </c>
+      <c r="O30" s="35"/>
       <c r="P30" s="31">
         <f t="shared" si="5"/>
-        <v>9.1903199999999998</v>
+        <v>4.3116000000000021</v>
       </c>
       <c r="Q30" s="32">
         <f t="shared" si="11"/>
@@ -4912,7 +7549,7 @@
       </c>
       <c r="R30" s="37">
         <f t="shared" si="7"/>
-        <v>0.46652128359445427</v>
+        <v>0.17542232203886349</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4963,9 +7600,7 @@
         <f t="shared" si="4"/>
         <v>4.6383200000000002</v>
       </c>
-      <c r="O31" s="35">
-        <v>0</v>
-      </c>
+      <c r="O31" s="35"/>
       <c r="P31" s="31">
         <f t="shared" si="5"/>
         <v>4.6383200000000002</v>
@@ -4991,55 +7626,54 @@
         <v>72</v>
       </c>
       <c r="E32" s="29">
-        <v>19.8</v>
+        <v>24.26</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="8"/>
-        <v>1.5840000000000001</v>
+        <v>1.9408000000000001</v>
       </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="12"/>
-        <v>3.7849679999999997</v>
+        <v>4.6375415999999996</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="1"/>
-        <v>25.168968</v>
+        <v>30.8383416</v>
       </c>
       <c r="J32" s="21">
-        <v>26.86</v>
+        <v>31.99</v>
       </c>
       <c r="K32" s="27">
         <f t="shared" si="2"/>
-        <v>4.5936000000000003</v>
+        <v>5.6283200000000004</v>
       </c>
       <c r="L32" s="28">
         <f t="shared" si="3"/>
-        <v>21.384</v>
+        <v>26.200800000000001</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="10"/>
-        <v>26.83296</v>
+        <v>32.877152000000002</v>
       </c>
       <c r="N32" s="36">
         <f t="shared" si="4"/>
-        <v>2.4664000000000001</v>
-      </c>
-      <c r="O32" s="35">
-        <v>0</v>
-      </c>
+        <v>2.1016799999999982</v>
+      </c>
+      <c r="O32" s="35"/>
       <c r="P32" s="31">
         <f t="shared" si="5"/>
-        <v>2.4664000000000001</v>
+        <v>2.1016799999999982</v>
       </c>
       <c r="Q32" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R32" s="37">
         <f t="shared" si="7"/>
-        <v>0.10110848747212385</v>
+        <v>7.0317769617027598E-2</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5054,55 +7688,54 @@
         <v>78</v>
       </c>
       <c r="E33" s="29">
-        <v>16.87</v>
+        <v>16.37</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="8"/>
-        <v>1.3496000000000001</v>
+        <v>1.3096000000000001</v>
       </c>
       <c r="G33" s="19">
         <v>0</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="12"/>
-        <v>3.2248691999999997</v>
+        <v>3.1292892000000001</v>
       </c>
       <c r="I33" s="33">
         <f t="shared" si="1"/>
-        <v>21.4444692</v>
+        <v>20.808889199999999</v>
       </c>
       <c r="J33" s="21">
         <v>22.92</v>
       </c>
       <c r="K33" s="27">
         <f t="shared" si="2"/>
-        <v>3.9138400000000004</v>
+        <v>3.7978400000000003</v>
       </c>
       <c r="L33" s="28">
         <f t="shared" si="3"/>
-        <v>18.2196</v>
+        <v>17.679600000000001</v>
       </c>
       <c r="M33" s="36">
         <f t="shared" si="10"/>
-        <v>22.862224000000001</v>
+        <v>22.184624000000003</v>
       </c>
       <c r="N33" s="36">
         <f t="shared" si="4"/>
-        <v>2.1361600000000003</v>
-      </c>
-      <c r="O33" s="35">
-        <v>0</v>
-      </c>
+        <v>2.7521599999999999</v>
+      </c>
+      <c r="O33" s="35"/>
       <c r="P33" s="31">
         <f t="shared" si="5"/>
-        <v>2.1361600000000003</v>
+        <v>2.7521599999999999</v>
       </c>
       <c r="Q33" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R33" s="37">
         <f t="shared" si="7"/>
-        <v>0.10277985203889176</v>
+        <v>0.13646280414759338</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5131,18 +7764,18 @@
         <v>3.8136419999999998</v>
       </c>
       <c r="I34" s="33">
-        <f t="shared" ref="I34:I50" si="13">SUM(E34:H34)</f>
+        <f t="shared" ref="I34:I48" si="13">SUM(E34:H34)</f>
         <v>25.359642000000001</v>
       </c>
       <c r="J34" s="21">
         <v>27.46</v>
       </c>
       <c r="K34" s="27">
-        <f t="shared" ref="K34:K65" si="14">(E34*0.152)+F34</f>
+        <f t="shared" ref="K34:K63" si="14">(E34*0.152)+F34</f>
         <v>4.6284000000000001</v>
       </c>
       <c r="L34" s="28">
-        <f t="shared" ref="L34:L65" si="15">E34+F34</f>
+        <f t="shared" ref="L34:L63" si="15">E34+F34</f>
         <v>21.545999999999999</v>
       </c>
       <c r="M34" s="36">
@@ -5150,21 +7783,20 @@
         <v>27.036239999999999</v>
       </c>
       <c r="N34" s="36">
-        <f t="shared" ref="N34:N65" si="16">J34-(E34+K34)</f>
+        <f t="shared" ref="N34:N63" si="16">J34-(E34+K34)</f>
         <v>2.8816000000000024</v>
       </c>
-      <c r="O34" s="35">
-        <v>0</v>
-      </c>
+      <c r="O34" s="35"/>
       <c r="P34" s="31">
         <f t="shared" si="5"/>
         <v>2.8816000000000024</v>
       </c>
       <c r="Q34" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R34" s="37">
-        <f t="shared" ref="R34:R65" si="17">N34/(E34+K34)</f>
+        <f t="shared" ref="R34:R63" si="17">N34/(E34+K34)</f>
         <v>0.1172411548351399</v>
       </c>
     </row>
@@ -5198,7 +7830,7 @@
         <v>27.317228399999998</v>
       </c>
       <c r="J35" s="21">
-        <v>29.95</v>
+        <v>33.15</v>
       </c>
       <c r="K35" s="27">
         <f t="shared" si="14"/>
@@ -5214,21 +7846,20 @@
       </c>
       <c r="N35" s="36">
         <f t="shared" si="16"/>
-        <v>3.4743200000000023</v>
-      </c>
-      <c r="O35" s="35">
-        <v>0</v>
-      </c>
+        <v>6.6743200000000016</v>
+      </c>
+      <c r="O35" s="35"/>
       <c r="P35" s="31">
         <f t="shared" si="5"/>
-        <v>3.4743200000000023</v>
+        <v>6.6743200000000016</v>
       </c>
       <c r="Q35" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R35" s="37">
         <f t="shared" si="17"/>
-        <v>0.13122684667589285</v>
+        <v>0.25209248638750742</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5279,14 +7910,13 @@
         <f t="shared" si="16"/>
         <v>5.9889600000000058</v>
       </c>
-      <c r="O36" s="35">
-        <v>0</v>
-      </c>
+      <c r="O36" s="35"/>
       <c r="P36" s="31">
         <f t="shared" si="5"/>
         <v>5.9889600000000058</v>
       </c>
       <c r="Q36" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R36" s="37">
@@ -5342,14 +7972,13 @@
         <f t="shared" si="16"/>
         <v>6.1515999999999948</v>
       </c>
-      <c r="O37" s="35">
-        <v>0</v>
-      </c>
+      <c r="O37" s="35"/>
       <c r="P37" s="31">
         <f t="shared" si="5"/>
         <v>6.1515999999999948</v>
       </c>
       <c r="Q37" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R37" s="37">
@@ -5369,33 +7998,33 @@
         <v>87</v>
       </c>
       <c r="E38" s="29">
-        <v>23.21</v>
+        <v>30.24</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" si="8"/>
-        <v>1.8568</v>
+        <v>2.4192</v>
       </c>
       <c r="G38" s="19">
         <v>0</v>
       </c>
       <c r="H38" s="27">
         <f t="shared" si="12"/>
-        <v>4.4368236000000003</v>
+        <v>5.7806783999999993</v>
       </c>
       <c r="I38" s="33">
         <f t="shared" si="13"/>
-        <v>29.503623600000001</v>
+        <v>38.439878399999998</v>
       </c>
       <c r="J38" s="21">
-        <v>33.950000000000003</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="K38" s="27">
         <f t="shared" si="14"/>
-        <v>5.3847199999999997</v>
+        <v>7.0156799999999997</v>
       </c>
       <c r="L38" s="28">
         <f t="shared" si="15"/>
-        <v>25.066800000000001</v>
+        <v>32.659199999999998</v>
       </c>
       <c r="M38" s="36">
         <f>E37+K37+(10%*(E37+K37))</f>
@@ -5403,21 +8032,22 @@
       </c>
       <c r="N38" s="36">
         <f t="shared" si="16"/>
-        <v>5.3552800000000005</v>
+        <v>2.6943200000000047</v>
       </c>
       <c r="O38" s="35">
         <v>1</v>
       </c>
       <c r="P38" s="31">
         <f t="shared" ref="P38:P44" si="18">N38</f>
-        <v>5.3552800000000005</v>
+        <v>2.6943200000000047</v>
       </c>
       <c r="Q38" s="32">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2.6943200000000047</v>
       </c>
       <c r="R38" s="37">
         <f t="shared" si="17"/>
-        <v>0.18728212760957269</v>
+        <v>7.2319710712567986E-2</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5432,55 +8062,54 @@
         <v>89</v>
       </c>
       <c r="E39" s="29">
-        <v>15.2</v>
+        <v>15.19</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="8"/>
-        <v>1.216</v>
+        <v>1.2152000000000001</v>
       </c>
       <c r="G39" s="19">
         <v>0</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="12"/>
-        <v>2.9056319999999998</v>
+        <v>2.9037204000000001</v>
       </c>
       <c r="I39" s="33">
         <f t="shared" si="13"/>
-        <v>19.321632000000001</v>
+        <v>19.308920400000002</v>
       </c>
       <c r="J39" s="21">
         <v>24.95</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" si="14"/>
-        <v>3.5263999999999998</v>
+        <v>3.5240799999999997</v>
       </c>
       <c r="L39" s="28">
         <f t="shared" si="15"/>
-        <v>16.416</v>
+        <v>16.405200000000001</v>
       </c>
       <c r="M39" s="36">
         <f t="shared" si="10"/>
-        <v>20.599039999999999</v>
+        <v>20.585487999999998</v>
       </c>
       <c r="N39" s="36">
         <f t="shared" si="16"/>
-        <v>6.2236000000000011</v>
-      </c>
-      <c r="O39" s="35">
-        <v>0</v>
-      </c>
+        <v>6.2359200000000001</v>
+      </c>
+      <c r="O39" s="35"/>
       <c r="P39" s="31">
         <f t="shared" si="18"/>
-        <v>6.2236000000000011</v>
+        <v>6.2359200000000001</v>
       </c>
       <c r="Q39" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R39" s="37">
         <f t="shared" si="17"/>
-        <v>0.33234364319890647</v>
+        <v>0.33322076212135465</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5495,11 +8124,11 @@
         <v>92</v>
       </c>
       <c r="E40" s="29">
-        <v>27.99</v>
+        <v>24.99</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" si="8"/>
-        <v>2.2391999999999999</v>
+        <v>1.9991999999999999</v>
       </c>
       <c r="G40" s="19">
         <v>0</v>
@@ -5507,40 +8136,39 @@
       <c r="H40" s="27"/>
       <c r="I40" s="33">
         <f t="shared" si="13"/>
-        <v>30.229199999999999</v>
+        <v>26.989199999999997</v>
       </c>
       <c r="J40" s="21">
         <v>37.93</v>
       </c>
       <c r="K40" s="27">
         <f t="shared" si="14"/>
-        <v>6.4936799999999995</v>
+        <v>5.7976799999999997</v>
       </c>
       <c r="L40" s="28">
         <f t="shared" si="15"/>
-        <v>30.229199999999999</v>
+        <v>26.989199999999997</v>
       </c>
       <c r="M40" s="36">
         <f t="shared" si="10"/>
-        <v>37.932048000000002</v>
+        <v>33.866447999999998</v>
       </c>
       <c r="N40" s="36">
         <f t="shared" si="16"/>
-        <v>3.4463200000000001</v>
-      </c>
-      <c r="O40" s="35">
-        <v>0</v>
-      </c>
+        <v>7.1423200000000016</v>
+      </c>
+      <c r="O40" s="35"/>
       <c r="P40" s="31">
         <f t="shared" si="18"/>
-        <v>3.4463200000000001</v>
+        <v>7.1423200000000016</v>
       </c>
       <c r="Q40" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R40" s="37">
         <f t="shared" si="17"/>
-        <v>9.9940609586911838E-2</v>
+        <v>0.23198630101391213</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5555,55 +8183,54 @@
         <v>94</v>
       </c>
       <c r="E41" s="29">
-        <v>34.99</v>
+        <v>29.95</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" si="8"/>
-        <v>2.7992000000000004</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="G41" s="19">
         <v>0</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" ref="H41:H50" si="19">SUM(E41:G41)*17.7%</f>
-        <v>6.6886884000000002</v>
+        <f t="shared" ref="H41:H48" si="19">SUM(E41:G41)*17.7%</f>
+        <v>5.7252419999999988</v>
       </c>
       <c r="I41" s="33">
         <f t="shared" si="13"/>
-        <v>44.477888399999998</v>
+        <v>38.071241999999998</v>
       </c>
       <c r="J41" s="21">
         <v>47.95</v>
       </c>
       <c r="K41" s="27">
         <f t="shared" si="14"/>
-        <v>8.11768</v>
+        <v>6.9483999999999995</v>
       </c>
       <c r="L41" s="28">
         <f t="shared" si="15"/>
-        <v>37.789200000000001</v>
+        <v>32.345999999999997</v>
       </c>
       <c r="M41" s="36">
         <f t="shared" si="10"/>
-        <v>47.418448000000005</v>
+        <v>40.588239999999992</v>
       </c>
       <c r="N41" s="36">
         <f t="shared" si="16"/>
-        <v>4.8423200000000008</v>
-      </c>
-      <c r="O41" s="35">
-        <v>0</v>
-      </c>
+        <v>11.051600000000008</v>
+      </c>
+      <c r="O41" s="35"/>
       <c r="P41" s="31">
         <f t="shared" si="18"/>
-        <v>4.8423200000000008</v>
+        <v>11.051600000000008</v>
       </c>
       <c r="Q41" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R41" s="37">
         <f t="shared" si="17"/>
-        <v>0.1123307958117904</v>
+        <v>0.29951434208529393</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5618,55 +8245,54 @@
         <v>96</v>
       </c>
       <c r="E42" s="29">
-        <v>99.99</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" si="8"/>
-        <v>7.9992000000000001</v>
+        <v>6.4791999999999996</v>
       </c>
       <c r="G42" s="19">
         <v>0</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="19"/>
-        <v>19.1140884</v>
+        <v>15.4820484</v>
       </c>
       <c r="I42" s="33">
         <f t="shared" si="13"/>
-        <v>127.1032884</v>
+        <v>102.9512484</v>
       </c>
       <c r="J42" s="21">
         <v>145.59</v>
       </c>
       <c r="K42" s="27">
         <f t="shared" si="14"/>
-        <v>23.197679999999998</v>
+        <v>18.789679999999997</v>
       </c>
       <c r="L42" s="28">
         <f t="shared" si="15"/>
-        <v>107.9892</v>
+        <v>87.469200000000001</v>
       </c>
       <c r="M42" s="36">
-        <f t="shared" ref="M42:M77" si="20">E42+K42+(10%*(E42+K42))</f>
-        <v>135.50644800000001</v>
+        <f t="shared" ref="M42:M74" si="20">E42+K42+(10%*(E42+K42))</f>
+        <v>109.75764799999999</v>
       </c>
       <c r="N42" s="36">
         <f t="shared" si="16"/>
-        <v>22.402320000000003</v>
-      </c>
-      <c r="O42" s="35">
-        <v>0</v>
-      </c>
+        <v>45.810320000000019</v>
+      </c>
+      <c r="O42" s="35"/>
       <c r="P42" s="31">
         <f t="shared" si="18"/>
-        <v>22.402320000000003</v>
+        <v>45.810320000000019</v>
       </c>
       <c r="Q42" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R42" s="37">
         <f t="shared" si="17"/>
-        <v>0.18185519850686369</v>
+        <v>0.4591147215545292</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5681,55 +8307,54 @@
         <v>98</v>
       </c>
       <c r="E43" s="29">
-        <v>27.77</v>
+        <v>27.99</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="8"/>
-        <v>2.2216</v>
+        <v>2.2391999999999999</v>
       </c>
       <c r="G43" s="19">
         <v>0</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="19"/>
-        <v>5.3085131999999993</v>
+        <v>5.3505683999999993</v>
       </c>
       <c r="I43" s="33">
         <f t="shared" si="13"/>
-        <v>35.300113199999998</v>
+        <v>35.579768399999999</v>
       </c>
       <c r="J43" s="21">
-        <v>37.93</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="K43" s="27">
         <f t="shared" si="14"/>
-        <v>6.442639999999999</v>
+        <v>6.4936799999999995</v>
       </c>
       <c r="L43" s="28">
         <f t="shared" si="15"/>
-        <v>29.991599999999998</v>
+        <v>30.229199999999999</v>
       </c>
       <c r="M43" s="36">
         <f t="shared" si="20"/>
-        <v>37.633904000000001</v>
+        <v>37.932048000000002</v>
       </c>
       <c r="N43" s="36">
         <f t="shared" si="16"/>
-        <v>3.7173599999999993</v>
-      </c>
-      <c r="O43" s="35">
-        <v>0</v>
-      </c>
+        <v>5.4963199999999972</v>
+      </c>
+      <c r="O43" s="35"/>
       <c r="P43" s="31">
         <f t="shared" si="18"/>
-        <v>3.7173599999999993</v>
+        <v>5.4963199999999972</v>
       </c>
       <c r="Q43" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R43" s="37">
         <f t="shared" si="17"/>
-        <v>0.10865457912631118</v>
+        <v>0.15938902112535544</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5744,55 +8369,54 @@
         <v>100</v>
       </c>
       <c r="E44" s="29">
-        <v>69.48</v>
+        <v>70.78</v>
       </c>
       <c r="F44" s="30">
         <f t="shared" si="8"/>
-        <v>5.5584000000000007</v>
+        <v>5.6623999999999999</v>
       </c>
       <c r="G44" s="19">
         <v>0</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="19"/>
-        <v>13.2817968</v>
+        <v>13.5303048</v>
       </c>
       <c r="I44" s="33">
         <f t="shared" si="13"/>
-        <v>88.320196800000005</v>
+        <v>89.972704800000002</v>
       </c>
       <c r="J44" s="21">
-        <v>102.72</v>
+        <v>99.8</v>
       </c>
       <c r="K44" s="27">
         <f t="shared" si="14"/>
-        <v>16.11936</v>
+        <v>16.420960000000001</v>
       </c>
       <c r="L44" s="28">
         <f t="shared" si="15"/>
-        <v>75.03840000000001</v>
+        <v>76.442400000000006</v>
       </c>
       <c r="M44" s="36">
         <f t="shared" si="20"/>
-        <v>94.159296000000012</v>
+        <v>95.921056000000007</v>
       </c>
       <c r="N44" s="36">
         <f t="shared" si="16"/>
-        <v>17.120639999999995</v>
-      </c>
-      <c r="O44" s="35">
-        <v>0</v>
-      </c>
+        <v>12.599039999999988</v>
+      </c>
+      <c r="O44" s="35"/>
       <c r="P44" s="31">
         <f t="shared" si="18"/>
-        <v>17.120639999999995</v>
+        <v>12.599039999999988</v>
       </c>
       <c r="Q44" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R44" s="37">
         <f t="shared" si="17"/>
-        <v>0.20000897202969734</v>
+        <v>0.14448281303325086</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5805,55 +8429,54 @@
         <v>102</v>
       </c>
       <c r="E45" s="29">
-        <v>19</v>
+        <v>25.99</v>
       </c>
       <c r="F45" s="30">
         <f t="shared" si="8"/>
-        <v>1.52</v>
+        <v>2.0791999999999997</v>
       </c>
       <c r="G45" s="19">
         <v>0</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="19"/>
-        <v>3.6320399999999999</v>
+        <v>4.9682483999999993</v>
       </c>
       <c r="I45" s="33">
         <f t="shared" si="13"/>
-        <v>24.15204</v>
+        <v>33.037448399999995</v>
       </c>
       <c r="J45" s="21">
         <v>34.950000000000003</v>
       </c>
       <c r="K45" s="27">
         <f t="shared" si="14"/>
-        <v>4.4079999999999995</v>
+        <v>6.029679999999999</v>
       </c>
       <c r="L45" s="28">
         <f t="shared" si="15"/>
-        <v>20.52</v>
+        <v>28.069199999999999</v>
       </c>
       <c r="M45" s="36">
         <f t="shared" si="20"/>
-        <v>25.748800000000003</v>
+        <v>35.221647999999995</v>
       </c>
       <c r="N45" s="36">
         <f t="shared" si="16"/>
-        <v>11.542000000000002</v>
-      </c>
-      <c r="O45" s="35">
-        <v>0</v>
-      </c>
+        <v>2.9303200000000089</v>
+      </c>
+      <c r="O45" s="35"/>
       <c r="P45" s="31">
-        <f t="shared" ref="P45:P49" si="21">N45</f>
-        <v>11.542000000000002</v>
+        <f t="shared" ref="P45:P47" si="21">N45</f>
+        <v>2.9303200000000089</v>
       </c>
       <c r="Q45" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R45" s="37">
         <f t="shared" si="17"/>
-        <v>0.49307928913192073</v>
+        <v>9.1516217526221674E-2</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5868,112 +8491,118 @@
         <v>109</v>
       </c>
       <c r="E46" s="29">
-        <v>49.99</v>
+        <v>45</v>
       </c>
       <c r="F46" s="30">
         <f t="shared" si="8"/>
-        <v>3.9992000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="G46" s="19">
         <v>0</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="19"/>
-        <v>9.5560884000000001</v>
+        <v>8.6021999999999998</v>
       </c>
       <c r="I46" s="33">
         <f t="shared" si="13"/>
-        <v>63.545288400000004</v>
+        <v>57.202200000000005</v>
       </c>
       <c r="J46" s="21">
-        <v>69.95</v>
+        <v>59.95</v>
       </c>
       <c r="K46" s="27">
         <f t="shared" si="14"/>
-        <v>11.59768</v>
+        <v>10.44</v>
       </c>
       <c r="L46" s="28">
         <f t="shared" si="15"/>
-        <v>53.989200000000004</v>
+        <v>48.6</v>
       </c>
       <c r="M46" s="36">
         <f t="shared" si="20"/>
-        <v>67.746448000000001</v>
+        <v>60.983999999999995</v>
       </c>
       <c r="N46" s="36">
         <f t="shared" si="16"/>
-        <v>8.3623199999999969</v>
-      </c>
-      <c r="O46" s="35">
-        <v>1</v>
-      </c>
+        <v>4.5100000000000051</v>
+      </c>
+      <c r="O46" s="35"/>
       <c r="P46" s="31">
         <f t="shared" si="21"/>
-        <v>8.3623199999999969</v>
+        <v>4.5100000000000051</v>
       </c>
       <c r="Q46" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R46" s="37">
         <f t="shared" si="17"/>
-        <v>0.13577910387272255</v>
+        <v>8.1349206349206449E-2</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
-        <v>1</v>
+      <c r="A47" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="E47" s="29">
-        <v>0</v>
+        <v>55.17</v>
       </c>
       <c r="F47" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.4136000000000006</v>
       </c>
       <c r="G47" s="19">
         <v>0</v>
       </c>
       <c r="H47" s="27">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10.5462972</v>
       </c>
       <c r="I47" s="33">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="21"/>
+        <v>70.129897200000002</v>
+      </c>
+      <c r="J47" s="21">
+        <v>76.3</v>
+      </c>
       <c r="K47" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>12.799440000000001</v>
       </c>
       <c r="L47" s="28">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>59.583600000000004</v>
       </c>
       <c r="M47" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>74.766384000000002</v>
       </c>
       <c r="N47" s="36">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8.3305599999999913</v>
       </c>
       <c r="O47" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" s="31">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8.3305599999999913</v>
       </c>
       <c r="Q47" s="32">
-        <v>0</v>
-      </c>
-      <c r="R47" s="37" t="e">
+        <f t="shared" si="11"/>
+        <v>16.661119999999983</v>
+      </c>
+      <c r="R47" s="37">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.12256331669055961</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5981,56 +8610,61 @@
         <v>1</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="29">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="F48" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.0392000000000001</v>
       </c>
       <c r="G48" s="19">
         <v>0</v>
       </c>
       <c r="H48" s="27">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.4831683999999998</v>
       </c>
       <c r="I48" s="33">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="21"/>
+        <v>16.5123684</v>
+      </c>
+      <c r="J48" s="21">
+        <v>19.989999999999998</v>
+      </c>
       <c r="K48" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.0136799999999999</v>
       </c>
       <c r="L48" s="28">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>14.029199999999999</v>
       </c>
       <c r="M48" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>17.604047999999999</v>
       </c>
       <c r="N48" s="36">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.9863199999999992</v>
       </c>
       <c r="O48" s="35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48" s="31">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="P48" si="22">N48</f>
+        <v>3.9863199999999992</v>
       </c>
       <c r="Q48" s="32">
-        <v>0</v>
-      </c>
-      <c r="R48" s="37" t="e">
+        <f t="shared" si="11"/>
+        <v>11.958959999999998</v>
+      </c>
+      <c r="R48" s="37">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.24908770982673981</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6039,59 +8673,58 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D49" s="10"/>
       <c r="E49" s="29">
-        <v>77.89</v>
+        <v>12.99</v>
       </c>
       <c r="F49" s="30">
-        <f t="shared" si="8"/>
-        <v>6.2312000000000003</v>
+        <f t="shared" ref="F49:F54" si="23">E49*8%</f>
+        <v>1.0392000000000001</v>
       </c>
       <c r="G49" s="19">
         <v>0</v>
       </c>
       <c r="H49" s="27">
-        <f t="shared" si="19"/>
-        <v>14.8894524</v>
+        <f t="shared" ref="H49:H54" si="24">SUM(E49:G49)*17.7%</f>
+        <v>2.4831683999999998</v>
       </c>
       <c r="I49" s="33">
-        <f t="shared" si="13"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J49" s="21"/>
+        <f t="shared" ref="I49:I54" si="25">SUM(E49:H49)</f>
+        <v>16.5123684</v>
+      </c>
+      <c r="J49" s="21">
+        <v>18.95</v>
+      </c>
       <c r="K49" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>3.0136799999999999</v>
       </c>
       <c r="L49" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>14.029199999999999</v>
       </c>
       <c r="M49" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>17.604047999999999</v>
       </c>
       <c r="N49" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O49" s="35">
-        <v>0</v>
-      </c>
+        <v>2.9463200000000001</v>
+      </c>
+      <c r="O49" s="35"/>
       <c r="P49" s="31">
-        <f t="shared" si="21"/>
-        <v>-95.960480000000004</v>
+        <f t="shared" ref="P49:P54" si="26">N49</f>
+        <v>2.9463200000000001</v>
       </c>
       <c r="Q49" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R49" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.18410265638903053</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6100,59 +8733,58 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="29">
-        <v>77.89</v>
+        <v>15.65</v>
       </c>
       <c r="F50" s="30">
-        <f t="shared" si="8"/>
-        <v>6.2312000000000003</v>
+        <f t="shared" si="23"/>
+        <v>1.252</v>
       </c>
       <c r="G50" s="19">
         <v>0</v>
       </c>
       <c r="H50" s="27">
-        <f t="shared" si="19"/>
-        <v>14.8894524</v>
+        <f t="shared" si="24"/>
+        <v>2.991654</v>
       </c>
       <c r="I50" s="33">
-        <f t="shared" si="13"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J50" s="21"/>
+        <f t="shared" si="25"/>
+        <v>19.893654000000002</v>
+      </c>
+      <c r="J50" s="21">
+        <v>22.95</v>
+      </c>
       <c r="K50" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>3.6307999999999998</v>
       </c>
       <c r="L50" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>16.902000000000001</v>
       </c>
       <c r="M50" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>21.208880000000001</v>
       </c>
       <c r="N50" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O50" s="35">
-        <v>0</v>
-      </c>
+        <v>3.6692</v>
+      </c>
+      <c r="O50" s="35"/>
       <c r="P50" s="31">
-        <f t="shared" ref="P50" si="22">N50</f>
-        <v>-95.960480000000004</v>
+        <f t="shared" si="26"/>
+        <v>3.6692</v>
       </c>
       <c r="Q50" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R50" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.19030330691672545</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6161,120 +8793,120 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="29">
-        <v>77.89</v>
+        <v>13.45</v>
       </c>
       <c r="F51" s="30">
-        <f t="shared" ref="F51:F56" si="23">E51*8%</f>
-        <v>6.2312000000000003</v>
+        <f t="shared" si="23"/>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G51" s="19">
         <v>0</v>
       </c>
       <c r="H51" s="27">
-        <f t="shared" ref="H51:H56" si="24">SUM(E51:G51)*17.7%</f>
-        <v>14.8894524</v>
+        <f t="shared" si="24"/>
+        <v>2.5711019999999998</v>
       </c>
       <c r="I51" s="33">
-        <f t="shared" ref="I51:I56" si="25">SUM(E51:H51)</f>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J51" s="21"/>
+        <f t="shared" si="25"/>
+        <v>17.097102</v>
+      </c>
+      <c r="J51" s="21">
+        <v>18.95</v>
+      </c>
       <c r="K51" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>3.1204000000000001</v>
       </c>
       <c r="L51" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>14.526</v>
       </c>
       <c r="M51" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>18.227439999999998</v>
       </c>
       <c r="N51" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O51" s="35">
-        <v>0</v>
-      </c>
+        <v>2.3795999999999999</v>
+      </c>
+      <c r="O51" s="35"/>
       <c r="P51" s="31">
-        <f t="shared" ref="P51:P56" si="26">N51</f>
-        <v>-95.960480000000004</v>
+        <f t="shared" si="26"/>
+        <v>2.3795999999999999</v>
       </c>
       <c r="Q51" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R51" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.14360546516680345</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D52" s="10"/>
       <c r="E52" s="29">
-        <v>77.89</v>
+        <v>143.99</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="23"/>
-        <v>6.2312000000000003</v>
+        <v>11.519200000000001</v>
       </c>
       <c r="G52" s="19">
         <v>0</v>
       </c>
       <c r="H52" s="27">
         <f t="shared" si="24"/>
-        <v>14.8894524</v>
+        <v>27.525128400000003</v>
       </c>
       <c r="I52" s="33">
         <f t="shared" si="25"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J52" s="21"/>
+        <v>183.03432840000002</v>
+      </c>
+      <c r="J52" s="21">
+        <v>219.99</v>
+      </c>
       <c r="K52" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>33.405680000000004</v>
       </c>
       <c r="L52" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>155.50920000000002</v>
       </c>
       <c r="M52" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>195.13524800000002</v>
       </c>
       <c r="N52" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
+        <v>42.594319999999982</v>
       </c>
       <c r="O52" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P52" s="31">
         <f t="shared" si="26"/>
-        <v>-95.960480000000004</v>
+        <v>42.594319999999982</v>
       </c>
       <c r="Q52" s="32">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>298.16023999999987</v>
       </c>
       <c r="R52" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.24010911652414521</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6283,181 +8915,180 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D53" s="10"/>
       <c r="E53" s="29">
-        <v>77.89</v>
+        <v>9.99</v>
       </c>
       <c r="F53" s="30">
         <f t="shared" si="23"/>
-        <v>6.2312000000000003</v>
+        <v>0.79920000000000002</v>
       </c>
       <c r="G53" s="19">
         <v>0</v>
       </c>
       <c r="H53" s="27">
         <f t="shared" si="24"/>
-        <v>14.8894524</v>
+        <v>1.9096884000000001</v>
       </c>
       <c r="I53" s="33">
         <f t="shared" si="25"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J53" s="21"/>
+        <v>12.698888400000001</v>
+      </c>
+      <c r="J53" s="21">
+        <v>16.989999999999998</v>
+      </c>
       <c r="K53" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>2.3176800000000002</v>
       </c>
       <c r="L53" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>10.789200000000001</v>
       </c>
       <c r="M53" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>13.538448000000002</v>
       </c>
       <c r="N53" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
+        <v>4.6823199999999972</v>
       </c>
       <c r="O53" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P53" s="31">
         <f t="shared" si="26"/>
-        <v>-95.960480000000004</v>
+        <v>4.6823199999999972</v>
       </c>
       <c r="Q53" s="32">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>28.093919999999983</v>
       </c>
       <c r="R53" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.38043888043888019</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D54" s="10"/>
       <c r="E54" s="29">
-        <v>77.89</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="F54" s="30">
         <f t="shared" si="23"/>
-        <v>6.2312000000000003</v>
+        <v>6.3991999999999996</v>
       </c>
       <c r="G54" s="19">
         <v>0</v>
       </c>
       <c r="H54" s="27">
         <f t="shared" si="24"/>
-        <v>14.8894524</v>
+        <v>15.290888399999996</v>
       </c>
       <c r="I54" s="33">
         <f t="shared" si="25"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J54" s="21"/>
+        <v>101.68008839999999</v>
+      </c>
+      <c r="J54" s="21">
+        <v>119.95</v>
+      </c>
       <c r="K54" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>18.557679999999998</v>
       </c>
       <c r="L54" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>86.389199999999988</v>
       </c>
       <c r="M54" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>108.40244799999999</v>
       </c>
       <c r="N54" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O54" s="35">
-        <v>0</v>
-      </c>
+        <v>21.402320000000017</v>
+      </c>
+      <c r="O54" s="35"/>
       <c r="P54" s="31">
         <f t="shared" si="26"/>
-        <v>-95.960480000000004</v>
+        <v>21.402320000000017</v>
       </c>
       <c r="Q54" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R54" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.21717730950135022</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D55" s="10"/>
       <c r="E55" s="29">
-        <v>77.89</v>
+        <v>69.97</v>
       </c>
       <c r="F55" s="30">
-        <f t="shared" si="23"/>
-        <v>6.2312000000000003</v>
+        <f t="shared" ref="F55:F74" si="27">E55*8%</f>
+        <v>5.5975999999999999</v>
       </c>
       <c r="G55" s="19">
         <v>0</v>
       </c>
       <c r="H55" s="27">
-        <f t="shared" si="24"/>
-        <v>14.8894524</v>
+        <f t="shared" ref="H55:H74" si="28">SUM(E55:G55)*17.7%</f>
+        <v>13.375465199999999</v>
       </c>
       <c r="I55" s="33">
-        <f t="shared" si="25"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J55" s="21"/>
+        <f t="shared" ref="I55:I74" si="29">SUM(E55:H55)</f>
+        <v>88.943065199999992</v>
+      </c>
+      <c r="J55" s="21">
+        <v>96.99</v>
+      </c>
       <c r="K55" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>16.233039999999999</v>
       </c>
       <c r="L55" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>75.567599999999999</v>
       </c>
       <c r="M55" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>94.823344000000006</v>
       </c>
       <c r="N55" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O55" s="35">
-        <v>0</v>
-      </c>
+        <v>10.786959999999993</v>
+      </c>
+      <c r="O55" s="35"/>
       <c r="P55" s="31">
-        <f t="shared" si="26"/>
-        <v>-95.960480000000004</v>
+        <f t="shared" ref="P55:P74" si="30">N55</f>
+        <v>10.786959999999993</v>
       </c>
       <c r="Q55" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R55" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.12513433400956617</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6466,608 +9097,596 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D56" s="10"/>
       <c r="E56" s="29">
-        <v>77.89</v>
+        <v>165</v>
       </c>
       <c r="F56" s="30">
-        <f t="shared" si="23"/>
-        <v>6.2312000000000003</v>
+        <f t="shared" si="27"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="G56" s="19">
         <v>0</v>
       </c>
       <c r="H56" s="27">
-        <f t="shared" si="24"/>
-        <v>14.8894524</v>
+        <f t="shared" si="28"/>
+        <v>31.541399999999996</v>
       </c>
       <c r="I56" s="33">
-        <f t="shared" si="25"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J56" s="21"/>
+        <f t="shared" si="29"/>
+        <v>209.7414</v>
+      </c>
+      <c r="J56" s="21">
+        <v>234.99</v>
+      </c>
       <c r="K56" s="27">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
+        <v>38.28</v>
       </c>
       <c r="L56" s="28">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
+        <v>178.2</v>
       </c>
       <c r="M56" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>223.608</v>
       </c>
       <c r="N56" s="36">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O56" s="35">
-        <v>0</v>
-      </c>
+        <v>31.710000000000008</v>
+      </c>
+      <c r="O56" s="35"/>
       <c r="P56" s="31">
-        <f t="shared" si="26"/>
-        <v>-95.960480000000004</v>
+        <f t="shared" si="30"/>
+        <v>31.710000000000008</v>
       </c>
       <c r="Q56" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R56" s="37">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.15599173553719012</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23">
-        <v>1</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F57" s="30">
-        <f t="shared" ref="F57:F77" si="27">E57*8%</f>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G57" s="19">
-        <v>0</v>
-      </c>
-      <c r="H57" s="27">
-        <f t="shared" ref="H57:H77" si="28">SUM(E57:G57)*17.7%</f>
-        <v>14.8894524</v>
-      </c>
-      <c r="I57" s="33">
-        <f t="shared" ref="I57:I77" si="29">SUM(E57:H57)</f>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="27">
+      <c r="A57" s="56">
+        <v>70</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="58"/>
+      <c r="E57" s="59">
+        <v>286</v>
+      </c>
+      <c r="F57" s="60">
+        <f t="shared" si="27"/>
+        <v>22.88</v>
+      </c>
+      <c r="G57" s="61">
+        <v>0</v>
+      </c>
+      <c r="H57" s="62">
+        <f t="shared" si="28"/>
+        <v>54.671759999999999</v>
+      </c>
+      <c r="I57" s="63">
+        <f t="shared" si="29"/>
+        <v>363.55176</v>
+      </c>
+      <c r="J57" s="64">
+        <v>406.95</v>
+      </c>
+      <c r="K57" s="62">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L57" s="28">
+        <v>66.352000000000004</v>
+      </c>
+      <c r="L57" s="65">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M57" s="36">
+        <v>308.88</v>
+      </c>
+      <c r="M57" s="64">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N57" s="36">
+        <v>387.5872</v>
+      </c>
+      <c r="N57" s="64">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O57" s="35">
-        <v>0</v>
-      </c>
-      <c r="P57" s="31">
-        <f t="shared" ref="P57:P77" si="30">N57</f>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q57" s="32">
-        <v>0</v>
-      </c>
-      <c r="R57" s="37">
+        <v>54.598000000000013</v>
+      </c>
+      <c r="O57" s="66"/>
+      <c r="P57" s="67">
+        <f t="shared" si="30"/>
+        <v>54.598000000000013</v>
+      </c>
+      <c r="Q57" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="69">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.15495300154391067</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
-        <v>1</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F58" s="30">
+      <c r="A58" s="56">
+        <v>130</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="45">
+        <v>284.16000000000003</v>
+      </c>
+      <c r="F58" s="60">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G58" s="19">
-        <v>0</v>
-      </c>
-      <c r="H58" s="27">
+        <v>22.732800000000001</v>
+      </c>
+      <c r="G58" s="61">
+        <v>0</v>
+      </c>
+      <c r="H58" s="62">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I58" s="33">
+        <v>54.320025600000001</v>
+      </c>
+      <c r="I58" s="63">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="27">
+        <v>361.21282560000003</v>
+      </c>
+      <c r="J58" s="50">
+        <v>399.95</v>
+      </c>
+      <c r="K58" s="62">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L58" s="28">
+        <v>65.925120000000007</v>
+      </c>
+      <c r="L58" s="65">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M58" s="36">
+        <v>306.89280000000002</v>
+      </c>
+      <c r="M58" s="64">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N58" s="36">
+        <v>385.09363200000001</v>
+      </c>
+      <c r="N58" s="64">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O58" s="35">
-        <v>0</v>
-      </c>
-      <c r="P58" s="31">
+        <v>49.864879999999971</v>
+      </c>
+      <c r="O58" s="66"/>
+      <c r="P58" s="67">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q58" s="32">
-        <v>0</v>
-      </c>
-      <c r="R58" s="37">
+        <v>49.864879999999971</v>
+      </c>
+      <c r="Q58" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="69">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.14243644517082008</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
-        <v>1</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F59" s="30">
+      <c r="A59" s="42">
+        <v>294</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45">
+        <v>356.99</v>
+      </c>
+      <c r="F59" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G59" s="19">
-        <v>0</v>
-      </c>
-      <c r="H59" s="27">
+        <v>28.559200000000001</v>
+      </c>
+      <c r="G59" s="47">
+        <v>0</v>
+      </c>
+      <c r="H59" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I59" s="33">
+        <v>68.242208399999996</v>
+      </c>
+      <c r="I59" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="27">
+        <v>453.79140839999997</v>
+      </c>
+      <c r="J59" s="50">
+        <v>499.99</v>
+      </c>
+      <c r="K59" s="48">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L59" s="28">
+        <v>82.821680000000001</v>
+      </c>
+      <c r="L59" s="51">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M59" s="36">
+        <v>385.54919999999998</v>
+      </c>
+      <c r="M59" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N59" s="36">
+        <v>483.79284800000005</v>
+      </c>
+      <c r="N59" s="50">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O59" s="35">
-        <v>0</v>
-      </c>
-      <c r="P59" s="31">
+        <v>60.178319999999985</v>
+      </c>
+      <c r="O59" s="52"/>
+      <c r="P59" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q59" s="32">
-        <v>0</v>
-      </c>
-      <c r="R59" s="37">
+        <v>60.178319999999985</v>
+      </c>
+      <c r="Q59" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="55">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.13682747124860345</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23">
-        <v>1</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F60" s="30">
+      <c r="A60" s="42">
+        <v>50</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45">
+        <v>149.99</v>
+      </c>
+      <c r="F60" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G60" s="19">
-        <v>0</v>
-      </c>
-      <c r="H60" s="27">
+        <v>11.999200000000002</v>
+      </c>
+      <c r="G60" s="47">
+        <v>0</v>
+      </c>
+      <c r="H60" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I60" s="33">
+        <v>28.6720884</v>
+      </c>
+      <c r="I60" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="27">
+        <v>190.66128840000002</v>
+      </c>
+      <c r="J60" s="50">
+        <v>204.99</v>
+      </c>
+      <c r="K60" s="48">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L60" s="28">
+        <v>34.79768</v>
+      </c>
+      <c r="L60" s="51">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M60" s="36">
+        <v>161.98920000000001</v>
+      </c>
+      <c r="M60" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N60" s="36">
+        <v>203.26644800000003</v>
+      </c>
+      <c r="N60" s="50">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O60" s="35">
-        <v>0</v>
-      </c>
-      <c r="P60" s="31">
+        <v>20.202319999999986</v>
+      </c>
+      <c r="O60" s="52"/>
+      <c r="P60" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q60" s="32">
-        <v>0</v>
-      </c>
-      <c r="R60" s="37">
+        <v>20.202319999999986</v>
+      </c>
+      <c r="Q60" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="55">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.10932720190004</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
-        <v>1</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F61" s="30">
+      <c r="A61" s="42">
+        <v>70</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45">
+        <v>147.99</v>
+      </c>
+      <c r="F61" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G61" s="19">
-        <v>0</v>
-      </c>
-      <c r="H61" s="27">
+        <v>11.839200000000002</v>
+      </c>
+      <c r="G61" s="47">
+        <v>0</v>
+      </c>
+      <c r="H61" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I61" s="33">
+        <v>28.2897684</v>
+      </c>
+      <c r="I61" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="27">
+        <v>188.11896840000003</v>
+      </c>
+      <c r="J61" s="50">
+        <v>209.95</v>
+      </c>
+      <c r="K61" s="48">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L61" s="28">
+        <v>34.333680000000001</v>
+      </c>
+      <c r="L61" s="51">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M61" s="36">
+        <v>159.82920000000001</v>
+      </c>
+      <c r="M61" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N61" s="36">
+        <v>200.55604800000003</v>
+      </c>
+      <c r="N61" s="50">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O61" s="35">
-        <v>0</v>
-      </c>
-      <c r="P61" s="31">
+        <v>27.626319999999964</v>
+      </c>
+      <c r="O61" s="52"/>
+      <c r="P61" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q61" s="32">
-        <v>0</v>
-      </c>
-      <c r="R61" s="37">
+        <v>27.626319999999964</v>
+      </c>
+      <c r="Q61" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="55">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.15152348833678631</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
-        <v>1</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F62" s="30">
+      <c r="A62" s="42">
+        <v>25</v>
+      </c>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45">
+        <v>99.99</v>
+      </c>
+      <c r="F62" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G62" s="19">
-        <v>0</v>
-      </c>
-      <c r="H62" s="27">
+        <v>7.9992000000000001</v>
+      </c>
+      <c r="G62" s="47">
+        <v>0</v>
+      </c>
+      <c r="H62" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I62" s="33">
+        <v>19.1140884</v>
+      </c>
+      <c r="I62" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J62" s="21"/>
-      <c r="K62" s="27">
+        <v>127.1032884</v>
+      </c>
+      <c r="J62" s="50">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="K62" s="48">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L62" s="28">
+        <v>23.197679999999998</v>
+      </c>
+      <c r="L62" s="51">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M62" s="36">
+        <v>107.9892</v>
+      </c>
+      <c r="M62" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N62" s="36">
+        <v>135.50644800000001</v>
+      </c>
+      <c r="N62" s="50">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O62" s="35">
-        <v>0</v>
-      </c>
-      <c r="P62" s="31">
+        <v>26.762319999999988</v>
+      </c>
+      <c r="O62" s="52"/>
+      <c r="P62" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q62" s="32">
-        <v>0</v>
-      </c>
-      <c r="R62" s="37">
+        <v>26.762319999999988</v>
+      </c>
+      <c r="Q62" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="55">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.21724834821144443</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
-        <v>1</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F63" s="30">
+      <c r="A63" s="42">
+        <v>37</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="45">
+        <v>124.97</v>
+      </c>
+      <c r="F63" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G63" s="19">
-        <v>0</v>
-      </c>
-      <c r="H63" s="27">
+        <v>9.9976000000000003</v>
+      </c>
+      <c r="G63" s="47">
+        <v>0</v>
+      </c>
+      <c r="H63" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I63" s="33">
+        <v>23.889265200000001</v>
+      </c>
+      <c r="I63" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="27">
+        <v>158.85686520000002</v>
+      </c>
+      <c r="J63" s="50">
+        <v>176.95</v>
+      </c>
+      <c r="K63" s="48">
         <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L63" s="28">
+        <v>28.993040000000001</v>
+      </c>
+      <c r="L63" s="51">
         <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M63" s="36">
+        <v>134.9676</v>
+      </c>
+      <c r="M63" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N63" s="36">
+        <v>169.35934400000002</v>
+      </c>
+      <c r="N63" s="50">
         <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O63" s="35">
-        <v>0</v>
-      </c>
-      <c r="P63" s="31">
+        <v>22.986959999999982</v>
+      </c>
+      <c r="O63" s="52"/>
+      <c r="P63" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q63" s="32">
-        <v>0</v>
-      </c>
-      <c r="R63" s="37">
+        <v>22.986959999999982</v>
+      </c>
+      <c r="Q63" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="55">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0.14930180645952418</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
-        <v>1</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="A64" s="42">
         <v>100</v>
       </c>
-      <c r="E64" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F64" s="30">
+      <c r="B64" s="43"/>
+      <c r="C64" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45">
+        <v>189.97</v>
+      </c>
+      <c r="F64" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G64" s="19">
-        <v>0</v>
-      </c>
-      <c r="H64" s="27">
+        <v>15.1976</v>
+      </c>
+      <c r="G64" s="47">
+        <v>0</v>
+      </c>
+      <c r="H64" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I64" s="33">
+        <v>36.3146652</v>
+      </c>
+      <c r="I64" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="27">
-        <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L64" s="28">
-        <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M64" s="36">
+        <v>241.4822652</v>
+      </c>
+      <c r="J64" s="50">
+        <v>264.95</v>
+      </c>
+      <c r="K64" s="48">
+        <f t="shared" ref="K64:K74" si="31">(E64*0.152)+F64</f>
+        <v>44.073039999999999</v>
+      </c>
+      <c r="L64" s="51">
+        <f t="shared" ref="L64:L74" si="32">E64+F64</f>
+        <v>205.16759999999999</v>
+      </c>
+      <c r="M64" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N64" s="36">
-        <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O64" s="35">
-        <v>0</v>
-      </c>
-      <c r="P64" s="31">
+        <v>257.44734399999999</v>
+      </c>
+      <c r="N64" s="50">
+        <f t="shared" ref="N64:N74" si="33">J64-(E64+K64)</f>
+        <v>30.906959999999998</v>
+      </c>
+      <c r="O64" s="52"/>
+      <c r="P64" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q64" s="32">
-        <v>0</v>
-      </c>
-      <c r="R64" s="37">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>30.906959999999998</v>
+      </c>
+      <c r="Q64" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="55">
+        <f t="shared" ref="R64:R73" si="34">N64/(E64+K64)</f>
+        <v>0.13205673623107955</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23">
+      <c r="A65" s="42">
         <v>1</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F65" s="30">
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45">
+        <v>7.97</v>
+      </c>
+      <c r="F65" s="46">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G65" s="19">
-        <v>0</v>
-      </c>
-      <c r="H65" s="27">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="G65" s="47">
+        <v>0</v>
+      </c>
+      <c r="H65" s="48">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I65" s="33">
+        <v>1.5235451999999998</v>
+      </c>
+      <c r="I65" s="49">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="27">
-        <f t="shared" si="14"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L65" s="28">
-        <f t="shared" si="15"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M65" s="36">
+        <v>10.131145199999999</v>
+      </c>
+      <c r="J65" s="50">
+        <v>10.99</v>
+      </c>
+      <c r="K65" s="48">
+        <f t="shared" si="31"/>
+        <v>1.8490399999999998</v>
+      </c>
+      <c r="L65" s="51">
+        <f t="shared" si="32"/>
+        <v>8.6075999999999997</v>
+      </c>
+      <c r="M65" s="50">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N65" s="36">
-        <f t="shared" si="16"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O65" s="35">
-        <v>0</v>
-      </c>
-      <c r="P65" s="31">
+        <v>10.800943999999999</v>
+      </c>
+      <c r="N65" s="50">
+        <f t="shared" si="33"/>
+        <v>1.1709600000000009</v>
+      </c>
+      <c r="O65" s="52"/>
+      <c r="P65" s="53">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q65" s="32">
-        <v>0</v>
-      </c>
-      <c r="R65" s="37">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>1.1709600000000009</v>
+      </c>
+      <c r="Q65" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="55">
+        <f t="shared" si="34"/>
+        <v>0.11925402075966703</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7075,60 +9694,57 @@
         <v>1</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="29">
-        <v>77.89</v>
+        <v>36.92</v>
       </c>
       <c r="F66" s="30">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
+        <v>2.9536000000000002</v>
       </c>
       <c r="G66" s="19">
         <v>0</v>
       </c>
       <c r="H66" s="27">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
+        <v>7.0576271999999998</v>
       </c>
       <c r="I66" s="33">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J66" s="21"/>
+        <v>46.931227200000002</v>
+      </c>
+      <c r="J66" s="21">
+        <v>54.95</v>
+      </c>
       <c r="K66" s="27">
-        <f t="shared" ref="K66:K77" si="31">(E66*0.152)+F66</f>
-        <v>18.07048</v>
+        <f t="shared" si="31"/>
+        <v>8.5654400000000006</v>
       </c>
       <c r="L66" s="28">
-        <f t="shared" ref="L66:L77" si="32">E66+F66</f>
-        <v>84.121200000000002</v>
+        <f t="shared" si="32"/>
+        <v>39.873600000000003</v>
       </c>
       <c r="M66" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>50.033984000000004</v>
       </c>
       <c r="N66" s="36">
-        <f t="shared" ref="N66:N77" si="33">J66-(E66+K66)</f>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O66" s="35">
-        <v>0</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>9.4645599999999988</v>
+      </c>
+      <c r="O66" s="35"/>
       <c r="P66" s="31">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
+        <v>9.4645599999999988</v>
       </c>
       <c r="Q66" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R66" s="37">
-        <f t="shared" ref="R66:R77" si="34">N66/(E66+K66)</f>
-        <v>-1</v>
+        <f t="shared" si="34"/>
+        <v>0.20807889293804782</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7136,60 +9752,57 @@
         <v>1</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="29">
-        <v>77.89</v>
+        <v>89.99</v>
       </c>
       <c r="F67" s="30">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
+        <v>7.1991999999999994</v>
       </c>
       <c r="G67" s="19">
         <v>0</v>
       </c>
       <c r="H67" s="27">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
+        <v>17.2024884</v>
       </c>
       <c r="I67" s="33">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J67" s="21"/>
+        <v>114.39168839999999</v>
+      </c>
+      <c r="J67" s="21">
+        <v>129.94999999999999</v>
+      </c>
       <c r="K67" s="27">
         <f t="shared" si="31"/>
-        <v>18.07048</v>
+        <v>20.877679999999998</v>
       </c>
       <c r="L67" s="28">
         <f t="shared" si="32"/>
-        <v>84.121200000000002</v>
+        <v>97.1892</v>
       </c>
       <c r="M67" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>121.95444799999999</v>
       </c>
       <c r="N67" s="36">
         <f t="shared" si="33"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O67" s="35">
-        <v>0</v>
-      </c>
+        <v>19.082319999999996</v>
+      </c>
+      <c r="O67" s="35"/>
       <c r="P67" s="31">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
+        <v>19.082319999999996</v>
       </c>
       <c r="Q67" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R67" s="37">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>0.17211796981771421</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,60 +9810,57 @@
         <v>1</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="29">
-        <v>77.89</v>
+        <v>36.92</v>
       </c>
       <c r="F68" s="30">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
+        <v>2.9536000000000002</v>
       </c>
       <c r="G68" s="19">
         <v>0</v>
       </c>
       <c r="H68" s="27">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
+        <v>7.0576271999999998</v>
       </c>
       <c r="I68" s="33">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J68" s="21"/>
+        <v>46.931227200000002</v>
+      </c>
+      <c r="J68" s="21">
+        <v>49.95</v>
+      </c>
       <c r="K68" s="27">
         <f t="shared" si="31"/>
-        <v>18.07048</v>
+        <v>8.5654400000000006</v>
       </c>
       <c r="L68" s="28">
         <f t="shared" si="32"/>
-        <v>84.121200000000002</v>
+        <v>39.873600000000003</v>
       </c>
       <c r="M68" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>50.033984000000004</v>
       </c>
       <c r="N68" s="36">
         <f t="shared" si="33"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O68" s="35">
-        <v>0</v>
-      </c>
+        <v>4.4645599999999988</v>
+      </c>
+      <c r="O68" s="35"/>
       <c r="P68" s="31">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
+        <v>4.4645599999999988</v>
       </c>
       <c r="Q68" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="37">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>9.8153606956423819E-2</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7258,60 +9868,57 @@
         <v>1</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="29">
-        <v>77.89</v>
+        <v>9.99</v>
       </c>
       <c r="F69" s="30">
         <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
+        <v>0.79920000000000002</v>
       </c>
       <c r="G69" s="19">
         <v>0</v>
       </c>
       <c r="H69" s="27">
         <f t="shared" si="28"/>
-        <v>14.8894524</v>
+        <v>1.9096884000000001</v>
       </c>
       <c r="I69" s="33">
         <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J69" s="21"/>
+        <v>12.698888400000001</v>
+      </c>
+      <c r="J69" s="21">
+        <v>16.95</v>
+      </c>
       <c r="K69" s="27">
         <f t="shared" si="31"/>
-        <v>18.07048</v>
+        <v>2.3176800000000002</v>
       </c>
       <c r="L69" s="28">
         <f t="shared" si="32"/>
-        <v>84.121200000000002</v>
+        <v>10.789200000000001</v>
       </c>
       <c r="M69" s="36">
         <f t="shared" si="20"/>
-        <v>105.556528</v>
+        <v>13.538448000000002</v>
       </c>
       <c r="N69" s="36">
         <f t="shared" si="33"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O69" s="35">
-        <v>0</v>
-      </c>
+        <v>4.642319999999998</v>
+      </c>
+      <c r="O69" s="35"/>
       <c r="P69" s="31">
         <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
+        <v>4.642319999999998</v>
       </c>
       <c r="Q69" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="37">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>0.377188877188877</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7319,12 +9926,8 @@
         <v>1</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="29">
         <v>77.89</v>
       </c>
@@ -7360,14 +9963,13 @@
         <f t="shared" si="33"/>
         <v>-95.960480000000004</v>
       </c>
-      <c r="O70" s="35">
-        <v>0</v>
-      </c>
+      <c r="O70" s="35"/>
       <c r="P70" s="31">
         <f t="shared" si="30"/>
         <v>-95.960480000000004</v>
       </c>
       <c r="Q70" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="37">
@@ -7380,12 +9982,8 @@
         <v>1</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="29">
         <v>77.89</v>
       </c>
@@ -7421,9 +10019,7 @@
         <f t="shared" si="33"/>
         <v>-95.960480000000004</v>
       </c>
-      <c r="O71" s="35">
-        <v>0</v>
-      </c>
+      <c r="O71" s="35"/>
       <c r="P71" s="31">
         <f t="shared" si="30"/>
         <v>-95.960480000000004</v>
@@ -7441,12 +10037,8 @@
         <v>1</v>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="29">
         <v>77.89</v>
       </c>
@@ -7482,9 +10074,7 @@
         <f t="shared" si="33"/>
         <v>-95.960480000000004</v>
       </c>
-      <c r="O72" s="35">
-        <v>0</v>
-      </c>
+      <c r="O72" s="35"/>
       <c r="P72" s="31">
         <f t="shared" si="30"/>
         <v>-95.960480000000004</v>
@@ -7502,12 +10092,8 @@
         <v>1</v>
       </c>
       <c r="B73" s="9"/>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="29">
         <v>77.89</v>
       </c>
@@ -7543,9 +10129,7 @@
         <f t="shared" si="33"/>
         <v>-95.960480000000004</v>
       </c>
-      <c r="O73" s="35">
-        <v>0</v>
-      </c>
+      <c r="O73" s="35"/>
       <c r="P73" s="31">
         <f t="shared" si="30"/>
         <v>-95.960480000000004</v>
@@ -7563,12 +10147,8 @@
         <v>1</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="29">
         <v>77.89</v>
       </c>
@@ -7604,9 +10184,7 @@
         <f t="shared" si="33"/>
         <v>-95.960480000000004</v>
       </c>
-      <c r="O74" s="35">
-        <v>0</v>
-      </c>
+      <c r="O74" s="35"/>
       <c r="P74" s="31">
         <f t="shared" si="30"/>
         <v>-95.960480000000004</v>
@@ -7615,191 +10193,66 @@
         <v>0</v>
       </c>
       <c r="R74" s="37">
-        <f t="shared" si="34"/>
+        <f>N74/(E74+K74)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23">
-        <v>1</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F75" s="30">
-        <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G75" s="19">
-        <v>0</v>
-      </c>
-      <c r="H75" s="27">
-        <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I75" s="33">
-        <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J75" s="21"/>
-      <c r="K75" s="27">
-        <f t="shared" si="31"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L75" s="28">
-        <f t="shared" si="32"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M75" s="36">
-        <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N75" s="36">
-        <f t="shared" si="33"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O75" s="35">
-        <v>0</v>
-      </c>
-      <c r="P75" s="31">
-        <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q75" s="32">
-        <v>0</v>
-      </c>
-      <c r="R75" s="37">
-        <f t="shared" si="34"/>
-        <v>-1</v>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F76" s="70">
+        <f>F79/F82</f>
+        <v>0.14522634389875763</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23">
-        <v>1</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F76" s="30">
-        <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G76" s="19">
-        <v>0</v>
-      </c>
-      <c r="H76" s="27">
-        <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I76" s="33">
-        <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J76" s="21"/>
-      <c r="K76" s="27">
-        <f t="shared" si="31"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L76" s="28">
-        <f t="shared" si="32"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M76" s="36">
-        <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N76" s="36">
-        <f t="shared" si="33"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O76" s="35">
-        <v>0</v>
-      </c>
-      <c r="P76" s="31">
-        <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q76" s="32">
-        <v>0</v>
-      </c>
-      <c r="R76" s="37">
-        <f t="shared" si="34"/>
-        <v>-1</v>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D77" s="41">
+        <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23">
-        <v>1</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="29">
-        <v>77.89</v>
-      </c>
-      <c r="F77" s="30">
-        <f t="shared" si="27"/>
-        <v>6.2312000000000003</v>
-      </c>
-      <c r="G77" s="19">
-        <v>0</v>
-      </c>
-      <c r="H77" s="27">
-        <f t="shared" si="28"/>
-        <v>14.8894524</v>
-      </c>
-      <c r="I77" s="33">
-        <f t="shared" si="29"/>
-        <v>99.010652399999998</v>
-      </c>
-      <c r="J77" s="21"/>
-      <c r="K77" s="27">
-        <f t="shared" si="31"/>
-        <v>18.07048</v>
-      </c>
-      <c r="L77" s="28">
-        <f t="shared" si="32"/>
-        <v>84.121200000000002</v>
-      </c>
-      <c r="M77" s="36">
-        <f t="shared" si="20"/>
-        <v>105.556528</v>
-      </c>
-      <c r="N77" s="36">
-        <f t="shared" si="33"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="O77" s="35">
-        <v>0</v>
-      </c>
-      <c r="P77" s="31">
-        <f t="shared" si="30"/>
-        <v>-95.960480000000004</v>
-      </c>
-      <c r="Q77" s="32">
-        <v>0</v>
-      </c>
-      <c r="R77" s="37">
-        <f t="shared" si="34"/>
-        <v>-1</v>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="40">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="39"/>
+      <c r="D79">
+        <v>32.71</v>
+      </c>
+      <c r="E79" s="39">
+        <v>56.39</v>
+      </c>
+      <c r="F79">
+        <f xml:space="preserve"> SUM(Q1:Q74)+6</f>
+        <v>400.26703999999984</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>47.95</v>
+      </c>
+      <c r="E82" s="3">
+        <v>452.27</v>
+      </c>
+      <c r="F82">
+        <f>227.41+206.95+79.99+16.99+16.99+19.99+16.99+198.95+15.86+15.86+19.99+16.99+198.95+15.86+15.86+19.99+16.99+198.95+79.52+19.45+198.95+198.95+20.95+16.99+39.76+16.99+16.99+219.95+219.95+86.3+219.95+22.15+39.76+19.99</f>
+        <v>2756.16</v>
       </c>
     </row>
   </sheetData>
@@ -7852,10 +10305,18 @@
     <hyperlink ref="C45" r:id="rId46"/>
     <hyperlink ref="C11" r:id="rId47"/>
     <hyperlink ref="C3" r:id="rId48"/>
+    <hyperlink ref="C47" r:id="rId49"/>
+    <hyperlink ref="C46" r:id="rId50"/>
+    <hyperlink ref="C48" r:id="rId51"/>
+    <hyperlink ref="C49" r:id="rId52"/>
+    <hyperlink ref="C52" r:id="rId53"/>
+    <hyperlink ref="D47" r:id="rId54"/>
+    <hyperlink ref="C53" r:id="rId55"/>
+    <hyperlink ref="C58" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
-  <drawing r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>
 
